--- a/combustiveis.xlsx
+++ b/combustiveis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E95C675-D95A-4F81-BF53-EA328D2D3BE8}"/>
+  <xr:revisionPtr revIDLastSave="662" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0AAEA64-C8FD-4294-BCB2-8D780A3DD84E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
   </bookViews>
   <sheets>
     <sheet name="oc" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t>ARAUCÁRIA (PR) (KG) - EXA</t>
   </si>
@@ -127,225 +127,6 @@
   </si>
   <si>
     <t>PPI (L)</t>
-  </si>
-  <si>
-    <t>Araucária (PR) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Araucária (PR) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Barueri (SP) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Barueri (SP) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Belém (PA) - ETM - (L)</t>
-  </si>
-  <si>
-    <t>Belém (PA) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Belém (PA) - LTM - (L)</t>
-  </si>
-  <si>
-    <t>Betim (MG) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Betim (MG) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Biguaçu (SC) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Biguaçu (SC) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Brasília (DF) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Brasília (DF) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Candeias (BA) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Canoas (RS) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Canoas (RS) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Cubatão (SP) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Cubatão (SP) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Duque de Caxias (RJ) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Duque de Caxias (RJ) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Fortaleza (CE) - ETM - (L)</t>
-  </si>
-  <si>
-    <t>Fortaleza (CE) - LTM - (L)</t>
-  </si>
-  <si>
-    <t>Fortaleza (CE) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Guaramirim (SC) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Guaramirim (SC) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Guarulhos (SP) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Guarulhos (SP) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Ipojuca (PE) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Ipojuca (PE) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Ipojuca (PE) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Itabuna (BA) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Itabuna (BA) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Itacoatiara (AM) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Itacoatiara (AM) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Itacoatiara (AM) - LTM - (L)</t>
-  </si>
-  <si>
-    <t>Itajaí (SC) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Itajaí (SC) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Jequié (BA) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Jequié (BA) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Manaus (AM) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Manaus (AM) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Paranaguá (PR) - LTM - (L)</t>
-  </si>
-  <si>
-    <t>Paranaguá (PR) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Paulínia (SP) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Paulínia (SP) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Ribeirão Preto (SP) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Ribeirão Preto (SP) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Rio Grande (RS) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Rondonópolis (MT) - ETD - (L)</t>
-  </si>
-  <si>
-    <t>Rondonópolis (MT) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Santos (SP) - LTM - (L)</t>
-  </si>
-  <si>
-    <t>São Caetano do Sul (SP) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>São Caetano do Sul (SP) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>São Francisco do Conde (BA) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>São José dos Campos (SP) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>São José dos Campos (SP) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>São Luís (MA) - ETM - (L)</t>
-  </si>
-  <si>
-    <t>São Luís (MA) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>São Luís (MA) - LPC - (L)</t>
-  </si>
-  <si>
-    <t>São Luís (MA) - LTM - (L)</t>
-  </si>
-  <si>
-    <t>São Luís (MA) - ETD - (L)</t>
-  </si>
-  <si>
-    <t>Senador Canedo (GO) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Senador Canedo (GO) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Senador Canedo (GO) - LPA - (L)</t>
-  </si>
-  <si>
-    <t>Uberaba (MG) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Uberaba (MG) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Uberlândia (MG) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Uberlândia (MG) - LCT - (L)</t>
-  </si>
-  <si>
-    <t>Vila do Conde (PA) - ETM - (L)</t>
-  </si>
-  <si>
-    <t>Vila Velha (ES) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Vila Velha (ES) - LTM - (L)</t>
-  </si>
-  <si>
-    <t>Vitória (ES) - EXA - (L)</t>
-  </si>
-  <si>
-    <t>Vitória (ES) - LTM - (L)</t>
   </si>
   <si>
     <t>Média Todas Refinarias Modalidade EXA (exceto Manaus)</t>
@@ -435,17 +216,236 @@
     <t>% Variação Acumulada Diesel S500</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Variação Acum</t>
   </si>
   <si>
-    <t/>
+    <t>Araucária (PR)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Araucária (PR)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Barueri (SP)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Barueri (SP)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Belém (PA)  ETM  (L)</t>
+  </si>
+  <si>
+    <t>Belém (PA)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Belém (PA)  LTM  (L)</t>
+  </si>
+  <si>
+    <t>Betim (MG)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Betim (MG)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Biguaçu (SC)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Biguaçu (SC)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Brasília (DF)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Brasília (DF)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Candeias (BA)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Canoas (RS)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Canoas (RS)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Cubatão (SP)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Cubatão (SP)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Duque de Caxias (RJ)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Duque de Caxias (RJ)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Fortaleza (CE)  ETM  (L)</t>
+  </si>
+  <si>
+    <t>Fortaleza (CE)  LTM  (L)</t>
+  </si>
+  <si>
+    <t>Fortaleza (CE)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Guaramirim (SC)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Guaramirim (SC)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Guarulhos (SP)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Guarulhos (SP)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Ipojuca (PE)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Ipojuca (PE)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Ipojuca (PE)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Itabuna (BA)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Itabuna (BA)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Itacoatiara (AM)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Itacoatiara (AM)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Itacoatiara (AM)  LTM  (L)</t>
+  </si>
+  <si>
+    <t>Itajaí (SC)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Itajaí (SC)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Jequié (BA)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Jequié (BA)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Manaus (AM)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Manaus (AM)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Paranaguá (PR)  LTM  (L)</t>
+  </si>
+  <si>
+    <t>Paranaguá (PR)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Paulínia (SP)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Paulínia (SP)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Ribeirão Preto (SP)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Ribeirão Preto (SP)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Rio Grande (RS)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Rondonópolis (MT)  ETD  (L)</t>
+  </si>
+  <si>
+    <t>Rondonópolis (MT)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Santos (SP)  LTM  (L)</t>
+  </si>
+  <si>
+    <t>São Caetano do Sul (SP)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>São Caetano do Sul (SP)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>São Francisco do Conde (BA)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>São José dos Campos (SP)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>São José dos Campos (SP)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>São Luís (MA)  ETM  (L)</t>
+  </si>
+  <si>
+    <t>São Luís (MA)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>São Luís (MA)  LPC  (L)</t>
+  </si>
+  <si>
+    <t>São Luís (MA)  LTM  (L)</t>
+  </si>
+  <si>
+    <t>São Luís (MA)  ETD  (L)</t>
+  </si>
+  <si>
+    <t>Senador Canedo (GO)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Senador Canedo (GO)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Senador Canedo (GO)  LPA  (L)</t>
+  </si>
+  <si>
+    <t>Uberaba (MG)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Uberaba (MG)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Uberlândia (MG)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Uberlândia (MG)  LCT  (L)</t>
+  </si>
+  <si>
+    <t>Vila do Conde (PA)  ETM  (L)</t>
+  </si>
+  <si>
+    <t>Vila Velha (ES)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Vila Velha (ES)  LTM  (L)</t>
+  </si>
+  <si>
+    <t>Vitória (ES)  EXA  (L)</t>
+  </si>
+  <si>
+    <t>Vitória (ES)  LTM  (L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="26">
+  <numFmts count="25">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -471,9 +471,8 @@
     <numFmt numFmtId="184" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="185" formatCode="&quot;R$&quot;\ #,##0.0000"/>
     <numFmt numFmtId="186" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,14 +674,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="27">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,12 +824,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -938,7 +925,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="664">
+  <cellStyleXfs count="1518">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1724,9 +1711,863 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1734,22 +2575,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="182" fontId="2" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1779,29 +2604,8 @@
     <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="663" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="663" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="663" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="664">
+  <cellStyles count="1518">
     <cellStyle name="          _x000d__x000a_shell=progman.exe_x000d__x000a_m" xfId="11" xr:uid="{DC9B9B38-8B1E-4915-BF9F-AEDC6A4AA9C1}"/>
     <cellStyle name="¿­¾îº» ÇÏÀÌÆÛ¸µÅ©" xfId="12" xr:uid="{8232264B-0B2A-4DB3-875C-50081A24F63A}"/>
     <cellStyle name="½°Ç¥_PRECOEE" xfId="13" xr:uid="{3898DC74-D37D-4575-ABCF-2BCBAA72E702}"/>
@@ -1827,80 +2631,205 @@
     <cellStyle name="Moeda 2 2" xfId="33" xr:uid="{F485A15D-4FE9-4F3B-9438-0A3683232ECD}"/>
     <cellStyle name="Moeda 2 2 2" xfId="84" xr:uid="{500DCC1C-02E9-4AC1-A156-E6FFF7B663E1}"/>
     <cellStyle name="Moeda 2 3" xfId="85" xr:uid="{C1F91AA1-BA75-48C3-AEB9-1A9669E62E35}"/>
+    <cellStyle name="Moeda 2 3 10" xfId="671" xr:uid="{53F8D19F-D3B3-40EA-A05F-1BCF2D53F708}"/>
     <cellStyle name="Moeda 2 3 2" xfId="86" xr:uid="{3E361E13-4CE9-441D-8F81-A34ECEF48488}"/>
     <cellStyle name="Moeda 2 3 2 2" xfId="87" xr:uid="{3CFE6EBD-3F0D-4CAD-A9BE-56E3F5EC325E}"/>
     <cellStyle name="Moeda 2 3 2 2 2" xfId="88" xr:uid="{47D4A04B-FC5C-474E-B953-F599CE47CE1F}"/>
     <cellStyle name="Moeda 2 3 2 2 2 2" xfId="89" xr:uid="{D2E5548C-09A6-4E4D-9F3D-6EA5C369BEF2}"/>
     <cellStyle name="Moeda 2 3 2 2 2 2 2" xfId="504" xr:uid="{CD47D868-4D95-4907-8531-2BB7393B5C7D}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 2 2 2" xfId="1359" xr:uid="{B0679920-4DC4-45BE-A183-55FA8819A8DA}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 2 2 3" xfId="846" xr:uid="{6E7C0E31-7DB2-4182-8423-AF61D2833586}"/>
     <cellStyle name="Moeda 2 3 2 2 2 2 3" xfId="332" xr:uid="{3A4E1F3A-4336-46FF-8540-1D04B252CE26}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 2 3 2" xfId="1188" xr:uid="{3841BB5F-A6C3-449D-B388-23504B72C276}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 2 4" xfId="1017" xr:uid="{A66A0654-D035-4485-8476-D0689A79F252}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 2 5" xfId="675" xr:uid="{014C56FD-8244-42B3-A2F6-5195B2BD678B}"/>
     <cellStyle name="Moeda 2 3 2 2 2 3" xfId="503" xr:uid="{2B6853B1-4AB2-4169-B0CC-067B30085606}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 3 2" xfId="1358" xr:uid="{A9447992-D7A0-4D1D-B62E-2990FBDA00E3}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 3 3" xfId="845" xr:uid="{6DD48C7D-D721-4398-8016-097A8290AF4C}"/>
     <cellStyle name="Moeda 2 3 2 2 2 4" xfId="331" xr:uid="{D1BE6E63-85EB-4404-B760-A36E9AF5D7F0}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 4 2" xfId="1187" xr:uid="{633D1738-5EA7-4030-AF3B-06119BBADE6B}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 5" xfId="1016" xr:uid="{ABFB49F7-E412-4705-834E-9696D0FA540E}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 6" xfId="674" xr:uid="{CA331FCF-611F-4044-929C-A82F3B789136}"/>
     <cellStyle name="Moeda 2 3 2 2 3" xfId="90" xr:uid="{0BFBA9ED-18BC-4480-964F-32FE8EDA1D52}"/>
     <cellStyle name="Moeda 2 3 2 2 3 2" xfId="91" xr:uid="{C21AB444-928B-4E9B-A03D-89A62D2DC8F3}"/>
     <cellStyle name="Moeda 2 3 2 2 3 2 2" xfId="506" xr:uid="{C5D5C6E7-D3AA-4E7D-8DD6-A12664F35C8D}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 2 2 2" xfId="1361" xr:uid="{31ADF067-ACA2-4193-9D58-133CCEB32AEC}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 2 2 3" xfId="848" xr:uid="{A0B3CBCA-87ED-4705-BA6A-9CD0A66F959F}"/>
     <cellStyle name="Moeda 2 3 2 2 3 2 3" xfId="334" xr:uid="{4A1F60CD-96CE-418B-8997-D486CFB92F4B}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 2 3 2" xfId="1190" xr:uid="{9ECB46C6-9313-4ADA-A7AF-3E50E76A2065}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 2 4" xfId="1019" xr:uid="{A49B6C73-FD30-420C-9C35-A616FCA18EDC}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 2 5" xfId="677" xr:uid="{9646ECD3-7A59-4BFF-AAA6-823C994E6D9C}"/>
     <cellStyle name="Moeda 2 3 2 2 3 3" xfId="505" xr:uid="{3CC23394-BBF2-449B-9A15-0138D790CDAD}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 3 2" xfId="1360" xr:uid="{C148CCF1-996A-4150-8D12-8EE43752B1F2}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 3 3" xfId="847" xr:uid="{DAD4E26E-859C-4FEA-91CA-4DE05DE46CA4}"/>
     <cellStyle name="Moeda 2 3 2 2 3 4" xfId="333" xr:uid="{BA57E9FB-8846-481E-886D-68C861522F84}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 4 2" xfId="1189" xr:uid="{63953E09-E386-4792-AE1A-7B5B6314A5F0}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 5" xfId="1018" xr:uid="{5D49C747-2D99-41C0-AC14-826334EFCB54}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 6" xfId="676" xr:uid="{4176D723-8669-4D6B-8363-7C3891FCF1F7}"/>
     <cellStyle name="Moeda 2 3 2 2 4" xfId="92" xr:uid="{47CCE2F4-29B9-4A7E-BFB6-C8F0430052F9}"/>
     <cellStyle name="Moeda 2 3 2 2 4 2" xfId="507" xr:uid="{93B13ABF-57D9-4911-BEFB-8AD21210AC8C}"/>
+    <cellStyle name="Moeda 2 3 2 2 4 2 2" xfId="1362" xr:uid="{55FF9126-D2DF-47C4-9D05-F409F478820D}"/>
+    <cellStyle name="Moeda 2 3 2 2 4 2 3" xfId="849" xr:uid="{FD63A3DC-AFAA-4A25-83A5-9F986C2355F2}"/>
     <cellStyle name="Moeda 2 3 2 2 4 3" xfId="335" xr:uid="{1874D159-F51F-4661-BC52-6391681958F0}"/>
+    <cellStyle name="Moeda 2 3 2 2 4 3 2" xfId="1191" xr:uid="{371EBE3D-84D5-4EBE-A192-F303169657A5}"/>
+    <cellStyle name="Moeda 2 3 2 2 4 4" xfId="1020" xr:uid="{93EE2807-C9B4-40D5-B3E5-407D41FA63E4}"/>
+    <cellStyle name="Moeda 2 3 2 2 4 5" xfId="678" xr:uid="{07BFE268-B090-454F-A38A-4BA1E276A5C1}"/>
     <cellStyle name="Moeda 2 3 2 2 5" xfId="502" xr:uid="{5D427150-6F4E-4329-87F8-F02F9FAFA1F4}"/>
+    <cellStyle name="Moeda 2 3 2 2 5 2" xfId="1357" xr:uid="{42F7DBCB-3E65-404F-9BDE-88B7CF0E5186}"/>
+    <cellStyle name="Moeda 2 3 2 2 5 3" xfId="844" xr:uid="{C470B315-B28C-4FA9-BED3-3531E733D088}"/>
     <cellStyle name="Moeda 2 3 2 2 6" xfId="330" xr:uid="{C595FEAB-7311-4C66-BEC2-304BE3C8514E}"/>
+    <cellStyle name="Moeda 2 3 2 2 6 2" xfId="1186" xr:uid="{A45189BC-B4E9-4893-B5C6-FD091447449F}"/>
+    <cellStyle name="Moeda 2 3 2 2 7" xfId="1015" xr:uid="{BA913231-E72E-49A4-A36C-E2FE3636A1B4}"/>
+    <cellStyle name="Moeda 2 3 2 2 8" xfId="673" xr:uid="{814BF1CC-ABA0-40E0-AD81-866AF22608D0}"/>
     <cellStyle name="Moeda 2 3 2 3" xfId="93" xr:uid="{78E176B0-327F-453C-BC19-3773CC24645B}"/>
     <cellStyle name="Moeda 2 3 2 3 2" xfId="94" xr:uid="{56C44D06-6E24-45F5-AC05-55A7D6BC9304}"/>
     <cellStyle name="Moeda 2 3 2 3 2 2" xfId="509" xr:uid="{E97289FA-BF7F-4503-B60C-2770C13A1EEE}"/>
+    <cellStyle name="Moeda 2 3 2 3 2 2 2" xfId="1364" xr:uid="{82DE5B08-1E4B-4141-A3BA-ED55082C5584}"/>
+    <cellStyle name="Moeda 2 3 2 3 2 2 3" xfId="851" xr:uid="{B9EBEAFA-926A-4F4A-BC05-218D9F8D334E}"/>
     <cellStyle name="Moeda 2 3 2 3 2 3" xfId="337" xr:uid="{727A2639-AEA3-4E50-AF73-261D39BE795D}"/>
+    <cellStyle name="Moeda 2 3 2 3 2 3 2" xfId="1193" xr:uid="{113ACB51-C92F-4937-8C84-2A907EFE5CE7}"/>
+    <cellStyle name="Moeda 2 3 2 3 2 4" xfId="1022" xr:uid="{4D8E8F35-EA63-4004-9055-E42DFDA20B87}"/>
+    <cellStyle name="Moeda 2 3 2 3 2 5" xfId="680" xr:uid="{57FF97C6-E288-490C-9F1E-1D908C39B5DA}"/>
     <cellStyle name="Moeda 2 3 2 3 3" xfId="508" xr:uid="{15BE37D6-4DFE-49D8-ABA5-58C45556EC57}"/>
+    <cellStyle name="Moeda 2 3 2 3 3 2" xfId="1363" xr:uid="{65C18D92-CD28-430C-8449-D952F2EBDE7B}"/>
+    <cellStyle name="Moeda 2 3 2 3 3 3" xfId="850" xr:uid="{14045558-B8FA-4A57-897A-512F25069305}"/>
     <cellStyle name="Moeda 2 3 2 3 4" xfId="336" xr:uid="{D790ED8B-D4EC-4CD3-8389-87206B2409B9}"/>
+    <cellStyle name="Moeda 2 3 2 3 4 2" xfId="1192" xr:uid="{C3AF2D66-0C83-4D2C-8758-6E9AFD613F09}"/>
+    <cellStyle name="Moeda 2 3 2 3 5" xfId="1021" xr:uid="{F652455C-0163-4ACC-9136-93FF395424B5}"/>
+    <cellStyle name="Moeda 2 3 2 3 6" xfId="679" xr:uid="{FAD0C8A2-2A71-4C99-8D2A-472E56BC5CE1}"/>
     <cellStyle name="Moeda 2 3 2 4" xfId="95" xr:uid="{5C560090-40DF-4B83-B07E-DB07E322D972}"/>
     <cellStyle name="Moeda 2 3 2 4 2" xfId="96" xr:uid="{2858F247-9FBA-4F27-AF48-8B49FE1BA59B}"/>
     <cellStyle name="Moeda 2 3 2 4 2 2" xfId="511" xr:uid="{20276542-AA41-4EF1-AF37-0A309406A9DC}"/>
+    <cellStyle name="Moeda 2 3 2 4 2 2 2" xfId="1366" xr:uid="{EB48FF34-DB31-43F5-8AE0-9F85DF413712}"/>
+    <cellStyle name="Moeda 2 3 2 4 2 2 3" xfId="853" xr:uid="{1FC0C5B6-6E0D-452E-9A49-037951F05BD4}"/>
     <cellStyle name="Moeda 2 3 2 4 2 3" xfId="339" xr:uid="{34EF246C-512E-474C-B043-7E5D40C50827}"/>
+    <cellStyle name="Moeda 2 3 2 4 2 3 2" xfId="1195" xr:uid="{5A34D43F-6158-4E98-9753-0BB4D5447E77}"/>
+    <cellStyle name="Moeda 2 3 2 4 2 4" xfId="1024" xr:uid="{E2E3B40E-6686-4BD4-B53A-4BDA0E21C49A}"/>
+    <cellStyle name="Moeda 2 3 2 4 2 5" xfId="682" xr:uid="{BC3CB4AF-B92D-4C80-BC28-96986B629984}"/>
     <cellStyle name="Moeda 2 3 2 4 3" xfId="510" xr:uid="{9EDA3C89-1638-4642-ABCE-A3605EE371AB}"/>
+    <cellStyle name="Moeda 2 3 2 4 3 2" xfId="1365" xr:uid="{1FAF84D2-794C-4A64-8A0C-6EBF61235649}"/>
+    <cellStyle name="Moeda 2 3 2 4 3 3" xfId="852" xr:uid="{B8BDB385-6F98-482C-883C-25C0682049DE}"/>
     <cellStyle name="Moeda 2 3 2 4 4" xfId="338" xr:uid="{5FD37E9E-1233-472C-9996-BF19D5C053F4}"/>
+    <cellStyle name="Moeda 2 3 2 4 4 2" xfId="1194" xr:uid="{CF0D99B4-15D1-4F6F-9C4D-2CD38C9FD3C5}"/>
+    <cellStyle name="Moeda 2 3 2 4 5" xfId="1023" xr:uid="{8F36CF40-4134-4215-98EF-C6984660EE03}"/>
+    <cellStyle name="Moeda 2 3 2 4 6" xfId="681" xr:uid="{550F6977-4DF2-43D2-A723-7E418A686D69}"/>
     <cellStyle name="Moeda 2 3 2 5" xfId="97" xr:uid="{68560D37-EEF9-4203-8928-6DBEED30CB10}"/>
     <cellStyle name="Moeda 2 3 2 5 2" xfId="512" xr:uid="{2290C063-6985-4B2C-BF8F-9A9A81FA0F65}"/>
+    <cellStyle name="Moeda 2 3 2 5 2 2" xfId="1367" xr:uid="{6A7C2A5D-59E2-4CF2-A06B-E96CF71E04BB}"/>
+    <cellStyle name="Moeda 2 3 2 5 2 3" xfId="854" xr:uid="{2A993E60-133F-40C8-A8D3-2583B51B5942}"/>
     <cellStyle name="Moeda 2 3 2 5 3" xfId="340" xr:uid="{8E351030-2320-4D3B-ABD8-496733DBC729}"/>
+    <cellStyle name="Moeda 2 3 2 5 3 2" xfId="1196" xr:uid="{32756581-524B-4380-8A34-D914E74E0A9F}"/>
+    <cellStyle name="Moeda 2 3 2 5 4" xfId="1025" xr:uid="{5FC2B709-3DD5-4FEB-8A68-61C730E51B9E}"/>
+    <cellStyle name="Moeda 2 3 2 5 5" xfId="683" xr:uid="{715BA510-5439-424D-8389-E9D50B31C50A}"/>
     <cellStyle name="Moeda 2 3 2 6" xfId="501" xr:uid="{1AB62763-891D-468C-939D-1A8E2D1AAC79}"/>
+    <cellStyle name="Moeda 2 3 2 6 2" xfId="1356" xr:uid="{C63B2630-6011-492A-B8DC-CE0163C4DC31}"/>
+    <cellStyle name="Moeda 2 3 2 6 3" xfId="843" xr:uid="{ED745027-E02A-4F68-BB63-8C02B7FE14E3}"/>
     <cellStyle name="Moeda 2 3 2 7" xfId="329" xr:uid="{EBCAA4E1-AFD3-4C8F-95D3-B28A4F091F3F}"/>
+    <cellStyle name="Moeda 2 3 2 7 2" xfId="1185" xr:uid="{C74B9EA4-6BDD-4FFD-B309-7D9706B5E9A5}"/>
+    <cellStyle name="Moeda 2 3 2 8" xfId="1014" xr:uid="{8021C83F-BED1-4514-8B0B-3FD14097F279}"/>
+    <cellStyle name="Moeda 2 3 2 9" xfId="672" xr:uid="{C5207CD3-B36A-42D2-923E-E9CC3198F37D}"/>
     <cellStyle name="Moeda 2 3 3" xfId="98" xr:uid="{94895E91-653C-4125-9CC6-F22999A51053}"/>
     <cellStyle name="Moeda 2 3 3 2" xfId="99" xr:uid="{F1A47394-4C18-4E04-9497-9FA7F7EC4CF9}"/>
     <cellStyle name="Moeda 2 3 3 2 2" xfId="100" xr:uid="{6B7B43C8-699D-415E-9C1D-6621C585EBF5}"/>
     <cellStyle name="Moeda 2 3 3 2 2 2" xfId="515" xr:uid="{93E83231-458D-40B4-B9CA-D3FE727A4A4E}"/>
+    <cellStyle name="Moeda 2 3 3 2 2 2 2" xfId="1370" xr:uid="{8FBAD089-0893-482E-AC61-9E531028CA8B}"/>
+    <cellStyle name="Moeda 2 3 3 2 2 2 3" xfId="857" xr:uid="{281C8EE0-776B-488E-9BA2-88F3A58BB64B}"/>
     <cellStyle name="Moeda 2 3 3 2 2 3" xfId="343" xr:uid="{DB8327AB-E182-4082-9A2D-284E8155C2E5}"/>
+    <cellStyle name="Moeda 2 3 3 2 2 3 2" xfId="1199" xr:uid="{01B399CD-26FA-4829-889A-8DCE1626B7E5}"/>
+    <cellStyle name="Moeda 2 3 3 2 2 4" xfId="1028" xr:uid="{0FE55582-EF00-49DD-93D5-36A9DE6E62F3}"/>
+    <cellStyle name="Moeda 2 3 3 2 2 5" xfId="686" xr:uid="{D19807FE-E850-4519-86C9-00CD22E269E0}"/>
     <cellStyle name="Moeda 2 3 3 2 3" xfId="514" xr:uid="{37488616-AE12-404B-9AB2-FBEFFFDBD1EB}"/>
+    <cellStyle name="Moeda 2 3 3 2 3 2" xfId="1369" xr:uid="{E4F3EC00-1E89-45EA-9286-D09166D0CEC0}"/>
+    <cellStyle name="Moeda 2 3 3 2 3 3" xfId="856" xr:uid="{090EAFA0-C9AE-46C3-887A-386090E39F96}"/>
     <cellStyle name="Moeda 2 3 3 2 4" xfId="342" xr:uid="{548059A6-F060-49CC-8FD8-EAB761D5A8AC}"/>
+    <cellStyle name="Moeda 2 3 3 2 4 2" xfId="1198" xr:uid="{135783F9-D5FC-4B54-9BC4-DEF7DD3EE177}"/>
+    <cellStyle name="Moeda 2 3 3 2 5" xfId="1027" xr:uid="{F30DAACA-3F29-427E-9254-58FF5EC67B3F}"/>
+    <cellStyle name="Moeda 2 3 3 2 6" xfId="685" xr:uid="{E379F333-3767-4196-AB3B-9193925D03FC}"/>
     <cellStyle name="Moeda 2 3 3 3" xfId="101" xr:uid="{6AAC3F01-7E73-471A-B5EC-AC9AEEC24E5B}"/>
     <cellStyle name="Moeda 2 3 3 3 2" xfId="102" xr:uid="{5D2AEB31-93B3-4290-A1F5-16CDC9FA6FD5}"/>
     <cellStyle name="Moeda 2 3 3 3 2 2" xfId="517" xr:uid="{F13A4176-8C19-4C86-8F6E-81F07A814579}"/>
+    <cellStyle name="Moeda 2 3 3 3 2 2 2" xfId="1372" xr:uid="{194B9F55-42D9-4799-BBC5-58B8FC858014}"/>
+    <cellStyle name="Moeda 2 3 3 3 2 2 3" xfId="859" xr:uid="{2380044E-2F36-4095-9EFE-705D92B9D6DE}"/>
     <cellStyle name="Moeda 2 3 3 3 2 3" xfId="345" xr:uid="{19848D62-F789-49D2-8079-1F571A158D22}"/>
+    <cellStyle name="Moeda 2 3 3 3 2 3 2" xfId="1201" xr:uid="{64A38231-F5D4-4E78-A15C-9D7D3F8B97A8}"/>
+    <cellStyle name="Moeda 2 3 3 3 2 4" xfId="1030" xr:uid="{FA54AFC8-94C5-43EE-B077-7AD3F91AF59E}"/>
+    <cellStyle name="Moeda 2 3 3 3 2 5" xfId="688" xr:uid="{4CB337D1-EB4F-4E8E-AC40-F5CEF169869C}"/>
     <cellStyle name="Moeda 2 3 3 3 3" xfId="516" xr:uid="{4B9C00BA-BDF6-407B-B704-A822D989D9C3}"/>
+    <cellStyle name="Moeda 2 3 3 3 3 2" xfId="1371" xr:uid="{C545411C-C2B9-4C0B-BA7E-D3B3D30FADBD}"/>
+    <cellStyle name="Moeda 2 3 3 3 3 3" xfId="858" xr:uid="{B1A1166F-6C7A-4AB3-BB0A-44FCEFB95960}"/>
     <cellStyle name="Moeda 2 3 3 3 4" xfId="344" xr:uid="{F1EC91FA-F0C2-4460-A04B-E60B0F21449F}"/>
+    <cellStyle name="Moeda 2 3 3 3 4 2" xfId="1200" xr:uid="{AA6FC979-5FD0-46AD-BFF9-C5F3F3F1B622}"/>
+    <cellStyle name="Moeda 2 3 3 3 5" xfId="1029" xr:uid="{EE2E260A-C0C8-494E-B4E9-86AD70B87936}"/>
+    <cellStyle name="Moeda 2 3 3 3 6" xfId="687" xr:uid="{44F65C58-D213-4351-99D8-4CF39FBA3294}"/>
     <cellStyle name="Moeda 2 3 3 4" xfId="103" xr:uid="{B8F57F6A-FE34-4EC4-8820-4566D780E075}"/>
     <cellStyle name="Moeda 2 3 3 4 2" xfId="518" xr:uid="{52619629-CC5C-4401-8D5D-0F913293A6F8}"/>
+    <cellStyle name="Moeda 2 3 3 4 2 2" xfId="1373" xr:uid="{1BAFBECE-1929-4DAE-BBA4-BC6A7534032D}"/>
+    <cellStyle name="Moeda 2 3 3 4 2 3" xfId="860" xr:uid="{625693BC-4891-40B2-92B3-42BEC455CD4D}"/>
     <cellStyle name="Moeda 2 3 3 4 3" xfId="346" xr:uid="{E2B746FD-41AF-422F-B065-51EACF3DA3D7}"/>
+    <cellStyle name="Moeda 2 3 3 4 3 2" xfId="1202" xr:uid="{5AC3BB4D-47C1-46D8-82E4-078B3053CDD0}"/>
+    <cellStyle name="Moeda 2 3 3 4 4" xfId="1031" xr:uid="{4AB426D6-7049-46E4-9FB3-D7A5A544CFA3}"/>
+    <cellStyle name="Moeda 2 3 3 4 5" xfId="689" xr:uid="{D23B845E-FF01-4725-B308-BBDF8CE6816E}"/>
     <cellStyle name="Moeda 2 3 3 5" xfId="513" xr:uid="{270748FA-3274-42F1-8D8E-8C96F8873C80}"/>
+    <cellStyle name="Moeda 2 3 3 5 2" xfId="1368" xr:uid="{8CAC18F0-76D3-4385-8352-CFBD1ECADDAF}"/>
+    <cellStyle name="Moeda 2 3 3 5 3" xfId="855" xr:uid="{B8A79CB6-E5D2-4391-86B2-96E713873EDF}"/>
     <cellStyle name="Moeda 2 3 3 6" xfId="341" xr:uid="{001B364F-77B2-4063-8195-1855DB0462C2}"/>
+    <cellStyle name="Moeda 2 3 3 6 2" xfId="1197" xr:uid="{F93C38E1-D58C-40FA-8FCD-54D2A6D7CDF3}"/>
+    <cellStyle name="Moeda 2 3 3 7" xfId="1026" xr:uid="{191436C2-D3DF-4235-9C02-9268F170D347}"/>
+    <cellStyle name="Moeda 2 3 3 8" xfId="684" xr:uid="{4F23DB1B-4EE9-48A5-B69A-FD5DA9C5A0E5}"/>
     <cellStyle name="Moeda 2 3 4" xfId="104" xr:uid="{FDC37CD1-6B43-4BEA-9954-06959A444A88}"/>
     <cellStyle name="Moeda 2 3 4 2" xfId="105" xr:uid="{EA811C1B-4CCE-42AF-AA8D-58A46A1AB37E}"/>
     <cellStyle name="Moeda 2 3 4 2 2" xfId="520" xr:uid="{79A31789-DB9E-4C35-AAB6-AF1DAE410E5B}"/>
+    <cellStyle name="Moeda 2 3 4 2 2 2" xfId="1375" xr:uid="{C851C91E-4C5A-47F1-A965-A464393CA092}"/>
+    <cellStyle name="Moeda 2 3 4 2 2 3" xfId="862" xr:uid="{5FB54E6E-8B63-45E2-BB0C-707245D75C3D}"/>
     <cellStyle name="Moeda 2 3 4 2 3" xfId="348" xr:uid="{45A163F3-D845-4E98-94A3-3846B802E4DB}"/>
+    <cellStyle name="Moeda 2 3 4 2 3 2" xfId="1204" xr:uid="{9D7C60A7-2758-4DD1-B44A-26578937FB5E}"/>
+    <cellStyle name="Moeda 2 3 4 2 4" xfId="1033" xr:uid="{FFBA40EC-1E87-48B3-9140-1B4BDD2B6F8E}"/>
+    <cellStyle name="Moeda 2 3 4 2 5" xfId="691" xr:uid="{4257A636-48C2-45F6-8078-98B3D702A66E}"/>
     <cellStyle name="Moeda 2 3 4 3" xfId="519" xr:uid="{C303F161-C334-4764-8E71-95AA39A8A9AB}"/>
+    <cellStyle name="Moeda 2 3 4 3 2" xfId="1374" xr:uid="{B255A139-4208-4CAF-BF7D-0569546DC8ED}"/>
+    <cellStyle name="Moeda 2 3 4 3 3" xfId="861" xr:uid="{4275CF18-02A7-4BF1-BE97-D2D44440DA02}"/>
     <cellStyle name="Moeda 2 3 4 4" xfId="347" xr:uid="{A3B7AAD2-ABFE-4799-A343-798F9E1D9A92}"/>
+    <cellStyle name="Moeda 2 3 4 4 2" xfId="1203" xr:uid="{E65A5712-A105-4B0C-8000-FC67FF688D10}"/>
+    <cellStyle name="Moeda 2 3 4 5" xfId="1032" xr:uid="{A8FDA1D7-1798-4E5A-954B-85A5B9A0FC78}"/>
+    <cellStyle name="Moeda 2 3 4 6" xfId="690" xr:uid="{C7C4559B-75B9-45B0-AD9A-BB03A616888E}"/>
     <cellStyle name="Moeda 2 3 5" xfId="106" xr:uid="{5B8B048F-AFD6-4B8E-9A7F-61F1E29B40A1}"/>
     <cellStyle name="Moeda 2 3 5 2" xfId="107" xr:uid="{1DEFBB68-931B-4C56-9BCE-78BFEA9DC543}"/>
     <cellStyle name="Moeda 2 3 5 2 2" xfId="522" xr:uid="{041886A1-DC7B-4322-9C14-2AE2A7D7BDC3}"/>
+    <cellStyle name="Moeda 2 3 5 2 2 2" xfId="1377" xr:uid="{33A1801D-6067-4817-B0A2-ACD1D4860E17}"/>
+    <cellStyle name="Moeda 2 3 5 2 2 3" xfId="864" xr:uid="{9D922A8E-9CD0-4819-8538-BD17139CFDC0}"/>
     <cellStyle name="Moeda 2 3 5 2 3" xfId="350" xr:uid="{2E253505-45E7-4B1C-BB18-43251F4AA1A9}"/>
+    <cellStyle name="Moeda 2 3 5 2 3 2" xfId="1206" xr:uid="{7FA9E32A-3062-4A91-9681-931FC8153765}"/>
+    <cellStyle name="Moeda 2 3 5 2 4" xfId="1035" xr:uid="{8DE64B58-49C4-4271-BBF7-62C72CE47F0A}"/>
+    <cellStyle name="Moeda 2 3 5 2 5" xfId="693" xr:uid="{DA53C215-6A21-43A8-8299-3EEDAA82C60D}"/>
     <cellStyle name="Moeda 2 3 5 3" xfId="521" xr:uid="{3D0EC40B-986B-424C-A749-89EEBD59EBC8}"/>
+    <cellStyle name="Moeda 2 3 5 3 2" xfId="1376" xr:uid="{959D0BAD-E0D7-4414-BD96-52B8E68489A9}"/>
+    <cellStyle name="Moeda 2 3 5 3 3" xfId="863" xr:uid="{D1B1973E-0E4D-4992-B3ED-22B86A4BCDBF}"/>
     <cellStyle name="Moeda 2 3 5 4" xfId="349" xr:uid="{FEFDE945-6796-430C-92BA-5DA649714033}"/>
+    <cellStyle name="Moeda 2 3 5 4 2" xfId="1205" xr:uid="{75858008-1C20-4490-885D-88628F324F90}"/>
+    <cellStyle name="Moeda 2 3 5 5" xfId="1034" xr:uid="{81E1F769-986A-4C69-9EBF-0F934A859105}"/>
+    <cellStyle name="Moeda 2 3 5 6" xfId="692" xr:uid="{1AFBA18A-4F3B-4F1D-9E10-7097A8EF571E}"/>
     <cellStyle name="Moeda 2 3 6" xfId="108" xr:uid="{9B0D927C-B901-4EB4-B53E-FB8FE2122D29}"/>
     <cellStyle name="Moeda 2 3 6 2" xfId="523" xr:uid="{7EFD4E9E-68CC-4568-9EE0-10B8815E0DCB}"/>
+    <cellStyle name="Moeda 2 3 6 2 2" xfId="1378" xr:uid="{59305910-14DB-404D-960C-8AE328E0874C}"/>
+    <cellStyle name="Moeda 2 3 6 2 3" xfId="865" xr:uid="{5DF093F1-5B64-4509-8D32-FD07CB040300}"/>
     <cellStyle name="Moeda 2 3 6 3" xfId="351" xr:uid="{632D3061-0C4A-4FC7-A9CF-8E98F881954E}"/>
+    <cellStyle name="Moeda 2 3 6 3 2" xfId="1207" xr:uid="{60CAC6F9-4001-4E8D-9CF0-FAD9D79EB7D8}"/>
+    <cellStyle name="Moeda 2 3 6 4" xfId="1036" xr:uid="{D6240504-C175-475F-B493-F2D3B87C3BB3}"/>
+    <cellStyle name="Moeda 2 3 6 5" xfId="694" xr:uid="{E683E27A-83CE-436C-871B-D30672450F22}"/>
     <cellStyle name="Moeda 2 3 7" xfId="500" xr:uid="{A5E55F8B-24E5-4E3F-9F83-1C9B4B5176A2}"/>
+    <cellStyle name="Moeda 2 3 7 2" xfId="1355" xr:uid="{15829D1A-B113-4F10-AD24-8FFA2CCB9D13}"/>
+    <cellStyle name="Moeda 2 3 7 3" xfId="842" xr:uid="{1ACCB7A6-0185-4113-919B-FD91ED924378}"/>
     <cellStyle name="Moeda 2 3 8" xfId="328" xr:uid="{6C1FC66D-2EFF-4115-A7F9-6E08A94EC7A5}"/>
+    <cellStyle name="Moeda 2 3 8 2" xfId="1184" xr:uid="{C6663064-301A-49AF-9FB7-F7BECCBD664A}"/>
+    <cellStyle name="Moeda 2 3 9" xfId="1013" xr:uid="{17EF60D0-E422-4814-9A26-DC6FC4DE8FFB}"/>
     <cellStyle name="Moeda 2 4" xfId="83" xr:uid="{98023CF3-8FCD-462B-8255-B218F2D2048A}"/>
     <cellStyle name="Moeda 2 5" xfId="493" xr:uid="{C3AEE408-CD4B-4861-A4CA-D13E8440B0ED}"/>
+    <cellStyle name="Moeda 2 5 2" xfId="1349" xr:uid="{820408AE-F602-4A31-88DA-CD5F9FA830D3}"/>
+    <cellStyle name="Moeda 2 5 3" xfId="836" xr:uid="{967DE1DF-6803-4560-8359-1DDE5B3CABC8}"/>
     <cellStyle name="Moeda 2 6" xfId="322" xr:uid="{C4AE4071-03DD-40CC-A6E2-DD718C67136A}"/>
+    <cellStyle name="Moeda 2 6 2" xfId="1178" xr:uid="{C9670CDF-4628-43CC-A17B-1E458C91538D}"/>
+    <cellStyle name="Moeda 2 7" xfId="1007" xr:uid="{09DDBFD0-0A63-45DB-A3C4-65FEC52B5F29}"/>
+    <cellStyle name="Moeda 2 8" xfId="665" xr:uid="{505B2135-DFC5-4F3A-A7F3-1DF11FED9853}"/>
     <cellStyle name="Moeda 3" xfId="34" xr:uid="{6743A4BB-567E-4803-AF3E-BEC10F0CC58E}"/>
     <cellStyle name="Moeda 3 2" xfId="109" xr:uid="{DC098D0D-8D61-4FCC-81F8-4CB0F814C7D3}"/>
     <cellStyle name="Moeda 4" xfId="110" xr:uid="{CCBBF868-794F-45F9-AB26-B2B104398FC8}"/>
@@ -1946,7 +2875,6 @@
     <cellStyle name="Normal1" xfId="49" xr:uid="{6310EE4A-1E7E-4F7A-AC9B-01C235CB64CE}"/>
     <cellStyle name="Percent [2]" xfId="50" xr:uid="{7CD6604B-2717-4AFB-A948-16DA335AB9AB}"/>
     <cellStyle name="PillarText" xfId="51" xr:uid="{8477F236-0673-430D-BA50-24ECB4129D6E}"/>
-    <cellStyle name="Porcentagem" xfId="663" builtinId="5"/>
     <cellStyle name="Porcentagem 13 2" xfId="6" xr:uid="{B1102BFC-A3DA-48DB-9BE5-8933A8AD9566}"/>
     <cellStyle name="Porcentagem 2" xfId="2" xr:uid="{E720AA4F-6C98-432B-A018-9721AB33E022}"/>
     <cellStyle name="Porcentagem 2 2" xfId="78" xr:uid="{9CBC5F02-2681-4EDB-93E0-0A9C87E08F4A}"/>
@@ -2022,308 +2950,823 @@
     <cellStyle name="Separador de milhares 2 2 2 2 2" xfId="184" xr:uid="{8236DE00-2966-4AE2-8CBB-A7D9FC972711}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 2 2" xfId="185" xr:uid="{2C934E71-9B9B-4174-9778-B7D1E12690CC}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 2 2 2" xfId="529" xr:uid="{57E033AA-0971-481D-9307-72BE6E5322AF}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 2 2 2" xfId="1384" xr:uid="{B1087F68-F64F-4128-8A7D-7C88D61568A6}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 2 2 3" xfId="871" xr:uid="{0526EF78-1FCD-489B-A8D7-A4F270674EAA}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 2 2 3" xfId="357" xr:uid="{01C5BE15-415E-4EE2-AB9E-02B314F49E7F}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 2 3 2" xfId="1213" xr:uid="{87D7F365-38AE-49BE-8343-4A8A23E49F25}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 2 4" xfId="1042" xr:uid="{94E7E11F-34A7-4B60-829D-9C79414760B3}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 2 5" xfId="700" xr:uid="{EAE72FAE-D370-4F7C-954E-E630C5D169EB}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 2 3" xfId="528" xr:uid="{0FCDF220-3321-4AD5-BAEC-CF8A9C6DC699}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 3 2" xfId="1383" xr:uid="{E4A29707-26C8-4059-9843-71A9F58E0369}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 3 3" xfId="870" xr:uid="{5D045FC4-1DCB-4D22-AE24-C85DC927E3DE}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 2 4" xfId="356" xr:uid="{06D8CDA0-108E-4F63-A283-AECEDE241F2A}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 4 2" xfId="1212" xr:uid="{61FB7A9D-CA93-4B2A-B322-8D5AE8AB5B35}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 5" xfId="1041" xr:uid="{BA141293-FD10-4049-B475-B671983AAAB5}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 6" xfId="699" xr:uid="{35D42F7B-E999-4E83-B8EE-2E121D47EFB7}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 3" xfId="186" xr:uid="{009EE9CB-FF29-4B1F-8953-1897F68D54F7}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 3 2" xfId="187" xr:uid="{73F02B59-CF5D-4741-BC11-FB3B09C830D6}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 3 2 2" xfId="531" xr:uid="{BC985661-DC31-440F-BEE3-D8195D2D6728}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 2 2 2" xfId="1386" xr:uid="{81A6BEAF-E417-4862-84DA-13F407446F37}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 2 2 3" xfId="873" xr:uid="{5C831489-33F7-4403-93F5-235C59FFF4DC}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 3 2 3" xfId="359" xr:uid="{E122222C-7925-430F-A470-743C676815EB}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 2 3 2" xfId="1215" xr:uid="{94386433-BE6D-4698-9B64-073E331E201A}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 2 4" xfId="1044" xr:uid="{DBA8BD76-E5D3-4514-B5DD-F917C4F93974}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 2 5" xfId="702" xr:uid="{8B38D060-E63A-4E9F-9569-A575635C5D02}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 3 3" xfId="530" xr:uid="{D45F3034-3699-470C-9C9C-41669038E1A6}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 3 2" xfId="1385" xr:uid="{3361F676-1E26-42A9-8D42-4949E05A0261}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 3 3" xfId="872" xr:uid="{BBE0AF74-1E8E-4AB4-9EF4-5124F114FC52}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 3 4" xfId="358" xr:uid="{534E3DA9-5539-4B0F-A3B3-8240FD0C3DF5}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 4 2" xfId="1214" xr:uid="{4696756D-DA4C-47D7-9D6F-EDF26D9AFC67}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 5" xfId="1043" xr:uid="{C579B9A7-AED3-4141-9401-19CAFB3CD1E0}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 6" xfId="701" xr:uid="{C693ED36-ED33-40BB-AB98-133EE5C6C607}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 4" xfId="188" xr:uid="{AECD5AD2-D1D7-4840-85AA-C7B8D2741CBD}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 4 2" xfId="532" xr:uid="{594F607D-62D8-42DA-BC1E-16F4A6DE8E46}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 4 2 2" xfId="1387" xr:uid="{42E4BAE4-33C9-41E6-BE2E-66BE93895764}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 4 2 3" xfId="874" xr:uid="{B627470D-5B9B-4E42-AC61-AE7D0205E55A}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 4 3" xfId="360" xr:uid="{B970A540-F6F9-4598-94C6-7D9C477CB4C4}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 4 3 2" xfId="1216" xr:uid="{B2C558CA-B422-4C5B-961A-5AD6B4BB3EF0}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 4 4" xfId="1045" xr:uid="{F2512106-A074-4953-ACF6-3CCA59D66FBF}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 4 5" xfId="703" xr:uid="{49C0C213-97DC-4A71-B0EE-612DCF917B31}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 5" xfId="527" xr:uid="{65B10A18-B3A1-49B7-981E-90073456B9F9}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 5 2" xfId="1382" xr:uid="{63C2724F-5E90-4B43-A228-32C50F300D32}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 5 3" xfId="869" xr:uid="{F49AB7C0-3421-465D-B601-499B6F723555}"/>
     <cellStyle name="Separador de milhares 2 2 2 2 6" xfId="355" xr:uid="{A304F844-E2BB-4BF9-AF96-3A79FB658DED}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 6 2" xfId="1211" xr:uid="{93641F6A-058E-45A0-BE94-0D4F2640ED00}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 7" xfId="1040" xr:uid="{C4A3FC0F-ED56-43B8-A703-6A805BE290DD}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 8" xfId="698" xr:uid="{DBCEC777-68F0-402B-A4CB-A681FF35CA3E}"/>
     <cellStyle name="Separador de milhares 2 2 2 3" xfId="189" xr:uid="{C700E297-3782-47C3-8D5B-20E212E9C831}"/>
     <cellStyle name="Separador de milhares 2 2 2 3 2" xfId="190" xr:uid="{D150B5C7-0A5D-4342-805F-E7242AA04C87}"/>
     <cellStyle name="Separador de milhares 2 2 2 3 2 2" xfId="534" xr:uid="{B31F6EDB-0B8D-47BD-B12D-8A8FAC76D5B2}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 2 2 2" xfId="1389" xr:uid="{3A8D95CE-60B3-4A6A-B12F-F0D595A6D7F0}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 2 2 3" xfId="876" xr:uid="{1632A3F8-E706-4708-A4D0-535596A9A522}"/>
     <cellStyle name="Separador de milhares 2 2 2 3 2 3" xfId="362" xr:uid="{2BB0F6A5-1A98-42B8-BDE5-D0C6DC0C739D}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 2 3 2" xfId="1218" xr:uid="{5C4F0C57-1F77-4A01-A605-00BBDE32C4FF}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 2 4" xfId="1047" xr:uid="{FA9AF458-DD8B-42B2-A673-E1CB1C6C6C46}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 2 5" xfId="705" xr:uid="{ACE4C07C-7584-4E81-83B1-DDDE01108A9E}"/>
     <cellStyle name="Separador de milhares 2 2 2 3 3" xfId="533" xr:uid="{4D71AB68-6794-437E-BB84-8B6463124589}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 3 2" xfId="1388" xr:uid="{AF46BDB5-C496-43EB-8719-54969FCE4192}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 3 3" xfId="875" xr:uid="{64307993-AE94-472A-9B4E-EA082B0F6078}"/>
     <cellStyle name="Separador de milhares 2 2 2 3 4" xfId="361" xr:uid="{0FC440EA-9D71-48EC-AF0D-47D32BCE6EFC}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 4 2" xfId="1217" xr:uid="{35054637-215A-423F-A1EE-E661BAEDA3ED}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 5" xfId="1046" xr:uid="{C9C4A872-2ACD-4124-B9CB-8DA7FB1A7D3D}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 6" xfId="704" xr:uid="{906EAEE8-8D49-4615-B213-7961B3D3B6E0}"/>
     <cellStyle name="Separador de milhares 2 2 2 4" xfId="191" xr:uid="{355ED416-2885-4673-BB97-08F6273DFAFA}"/>
     <cellStyle name="Separador de milhares 2 2 2 4 2" xfId="192" xr:uid="{DD58FCF1-AD01-44EC-BB62-DD659BF99E6D}"/>
     <cellStyle name="Separador de milhares 2 2 2 4 2 2" xfId="536" xr:uid="{C84CC1BF-51B4-4F28-9C95-DF98BC8F64EF}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 2 2 2" xfId="1391" xr:uid="{517773DC-0D6B-4321-BCEC-51207428FA93}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 2 2 3" xfId="878" xr:uid="{0DC12949-EEDE-4CAA-805A-721EFBB3E07D}"/>
     <cellStyle name="Separador de milhares 2 2 2 4 2 3" xfId="364" xr:uid="{90ADA71F-BC9B-419C-A49C-7EE05F8B8D48}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 2 3 2" xfId="1220" xr:uid="{2CEC156F-FA94-456D-80C8-BD558950FA6A}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 2 4" xfId="1049" xr:uid="{C77C3CDE-D00C-4C90-8808-F1892D131BED}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 2 5" xfId="707" xr:uid="{78C9D5AC-2F14-4A39-B513-3F90346BFD85}"/>
     <cellStyle name="Separador de milhares 2 2 2 4 3" xfId="535" xr:uid="{E2960F15-BE19-4B23-A86E-2C4A23A91FD5}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 3 2" xfId="1390" xr:uid="{5BD10C2D-E83B-4EB4-992D-2C3E806AD58B}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 3 3" xfId="877" xr:uid="{831FBFE1-3235-451E-8703-E6BE5DA9D66F}"/>
     <cellStyle name="Separador de milhares 2 2 2 4 4" xfId="363" xr:uid="{AEEF5D8D-6B97-4521-A07B-942CB3A64029}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 4 2" xfId="1219" xr:uid="{8E5C8B27-0E13-448B-8FB9-D08422AC4FA6}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 5" xfId="1048" xr:uid="{B720D85D-2B8B-40E6-8C43-28D782BB42AD}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 6" xfId="706" xr:uid="{1B3EA2FB-3AAB-496E-8013-B0B4777CFF95}"/>
     <cellStyle name="Separador de milhares 2 2 2 5" xfId="193" xr:uid="{45D13472-5C0F-4CB7-B867-363DEF92D085}"/>
     <cellStyle name="Separador de milhares 2 2 2 5 2" xfId="537" xr:uid="{3D49C1D0-6185-47B5-AB85-D8D97ED85E2A}"/>
+    <cellStyle name="Separador de milhares 2 2 2 5 2 2" xfId="1392" xr:uid="{CC5169E5-DB48-4902-A44B-3A0288439225}"/>
+    <cellStyle name="Separador de milhares 2 2 2 5 2 3" xfId="879" xr:uid="{E123F84D-AED3-47BD-8A5E-8B7C0A71AE59}"/>
     <cellStyle name="Separador de milhares 2 2 2 5 3" xfId="365" xr:uid="{1C7D0539-F73B-4077-92C2-1D78357D50FA}"/>
+    <cellStyle name="Separador de milhares 2 2 2 5 3 2" xfId="1221" xr:uid="{ACBFD185-5B99-46A8-9663-1CF074C1DB77}"/>
+    <cellStyle name="Separador de milhares 2 2 2 5 4" xfId="1050" xr:uid="{AD00BE6E-7E41-4B42-A854-BAA47CD358A6}"/>
+    <cellStyle name="Separador de milhares 2 2 2 5 5" xfId="708" xr:uid="{90E6B89A-F636-4B38-8FF6-BC4DF8C2581B}"/>
     <cellStyle name="Separador de milhares 2 2 2 6" xfId="526" xr:uid="{AF04F73D-5BE2-47E4-80DA-014D582FBE90}"/>
+    <cellStyle name="Separador de milhares 2 2 2 6 2" xfId="1381" xr:uid="{C4DB1899-FB19-4F8A-9EF7-958BCC8A90C8}"/>
+    <cellStyle name="Separador de milhares 2 2 2 6 3" xfId="868" xr:uid="{27517F71-AEE1-4E75-973D-1F6642CEB0F0}"/>
     <cellStyle name="Separador de milhares 2 2 2 7" xfId="354" xr:uid="{4963D273-70A2-430D-A6A5-26119B655076}"/>
+    <cellStyle name="Separador de milhares 2 2 2 7 2" xfId="1210" xr:uid="{AC65B426-4C2D-403F-AF41-33002B6C826F}"/>
+    <cellStyle name="Separador de milhares 2 2 2 8" xfId="1039" xr:uid="{F10F6580-23CE-4270-B72B-6EE0DA38AF16}"/>
+    <cellStyle name="Separador de milhares 2 2 2 9" xfId="697" xr:uid="{92F0B760-2935-43E2-B440-5AF206ACA8F9}"/>
     <cellStyle name="Separador de milhares 2 2 3" xfId="194" xr:uid="{34EB1F00-8674-4F58-A9DB-22CA654E1086}"/>
     <cellStyle name="Separador de milhares 2 2 3 2" xfId="195" xr:uid="{1D28DA09-3C47-4281-89A4-F54D29E05A54}"/>
     <cellStyle name="Separador de milhares 2 2 3 2 2" xfId="539" xr:uid="{56EF821F-6AD3-4704-9E0A-D27A45F7B4A6}"/>
+    <cellStyle name="Separador de milhares 2 2 3 2 2 2" xfId="1394" xr:uid="{628781B0-064A-4738-A696-F411813F456C}"/>
+    <cellStyle name="Separador de milhares 2 2 3 2 2 3" xfId="881" xr:uid="{8A9A4521-67E0-4C47-982A-AD0D99AFDC3D}"/>
     <cellStyle name="Separador de milhares 2 2 3 2 3" xfId="367" xr:uid="{0825BA96-E1F5-4FDA-8D1F-7BE52C1DBD85}"/>
+    <cellStyle name="Separador de milhares 2 2 3 2 3 2" xfId="1223" xr:uid="{BAA1AA59-8B6F-4841-AAD5-EFCD4B10C3F8}"/>
+    <cellStyle name="Separador de milhares 2 2 3 2 4" xfId="1052" xr:uid="{21251F2F-3657-400C-9CCC-4E2F645927AE}"/>
+    <cellStyle name="Separador de milhares 2 2 3 2 5" xfId="710" xr:uid="{682E620A-57E5-448D-A122-BD063C93519F}"/>
     <cellStyle name="Separador de milhares 2 2 3 3" xfId="538" xr:uid="{D7CD0D54-6842-4D2A-A2B6-62AB7B40553F}"/>
+    <cellStyle name="Separador de milhares 2 2 3 3 2" xfId="1393" xr:uid="{C8004198-43A7-4B6D-9390-D61709CCFB19}"/>
+    <cellStyle name="Separador de milhares 2 2 3 3 3" xfId="880" xr:uid="{018B35E9-62E1-4810-A1EC-ACCDB2BB8A56}"/>
     <cellStyle name="Separador de milhares 2 2 3 4" xfId="366" xr:uid="{3F197411-4A0B-47B5-AB92-58E8975BF359}"/>
+    <cellStyle name="Separador de milhares 2 2 3 4 2" xfId="1222" xr:uid="{0057A84B-EA09-4A3C-BBCA-D24745945034}"/>
+    <cellStyle name="Separador de milhares 2 2 3 5" xfId="1051" xr:uid="{D2FA8BB0-DA41-412C-9FB3-815D15384261}"/>
+    <cellStyle name="Separador de milhares 2 2 3 6" xfId="709" xr:uid="{935F9F60-E24F-4353-A96C-3B1BA086A789}"/>
     <cellStyle name="Separador de milhares 2 2 4" xfId="196" xr:uid="{6F70E657-B544-460D-9BA5-08211E45B5A8}"/>
     <cellStyle name="Separador de milhares 2 2 4 2" xfId="197" xr:uid="{1F3F82C1-F6F4-43B9-BD5F-87F2A1AC4E2F}"/>
     <cellStyle name="Separador de milhares 2 2 4 2 2" xfId="541" xr:uid="{07F6F74E-18A8-4A06-B7BE-DFADD879D825}"/>
+    <cellStyle name="Separador de milhares 2 2 4 2 2 2" xfId="1396" xr:uid="{3DA4772C-313B-4F30-AE1D-5197AA9A1B61}"/>
+    <cellStyle name="Separador de milhares 2 2 4 2 2 3" xfId="883" xr:uid="{39BF6FA5-EDC3-4E6D-B026-CB365EC2BB3D}"/>
     <cellStyle name="Separador de milhares 2 2 4 2 3" xfId="369" xr:uid="{1B86AA1D-3530-451A-9F91-3D20DD1CBDE7}"/>
+    <cellStyle name="Separador de milhares 2 2 4 2 3 2" xfId="1225" xr:uid="{3718AA53-E6B6-4913-AABE-DC35EFA78578}"/>
+    <cellStyle name="Separador de milhares 2 2 4 2 4" xfId="1054" xr:uid="{BE4574E6-60D5-4768-846F-528E60131F98}"/>
+    <cellStyle name="Separador de milhares 2 2 4 2 5" xfId="712" xr:uid="{C70A0E77-CC1F-490A-B1DC-0E03885326A3}"/>
     <cellStyle name="Separador de milhares 2 2 4 3" xfId="540" xr:uid="{A9BCD9F6-3361-4981-AF7D-C13E650717BB}"/>
+    <cellStyle name="Separador de milhares 2 2 4 3 2" xfId="1395" xr:uid="{4C4BEDDA-8E3A-4830-B203-CAE72C3FA275}"/>
+    <cellStyle name="Separador de milhares 2 2 4 3 3" xfId="882" xr:uid="{9DBBE57B-E76C-422E-A94F-1873391860F4}"/>
     <cellStyle name="Separador de milhares 2 2 4 4" xfId="368" xr:uid="{46DE9AA9-D4A0-4DCE-8A10-206F001EFE60}"/>
+    <cellStyle name="Separador de milhares 2 2 4 4 2" xfId="1224" xr:uid="{E27E6DBE-E43A-4C33-9189-159AB38BF7A9}"/>
+    <cellStyle name="Separador de milhares 2 2 4 5" xfId="1053" xr:uid="{8FCA43C7-85CD-4BAF-9B2C-485CB8A210F2}"/>
+    <cellStyle name="Separador de milhares 2 2 4 6" xfId="711" xr:uid="{0550B9E8-E1F6-4F31-8FD2-4B004CEA8AAE}"/>
     <cellStyle name="Separador de milhares 2 2 5" xfId="198" xr:uid="{41E099D5-9474-4D49-A764-67BF311E54C0}"/>
     <cellStyle name="Separador de milhares 2 2 5 2" xfId="542" xr:uid="{5E72A202-DA93-4900-A50C-86C7EE0EFE63}"/>
+    <cellStyle name="Separador de milhares 2 2 5 2 2" xfId="1397" xr:uid="{6B49848B-B8CD-441C-B446-26E54456E97D}"/>
+    <cellStyle name="Separador de milhares 2 2 5 2 3" xfId="884" xr:uid="{28EE47A4-DBC1-49D7-9B8E-58BA86DDD749}"/>
     <cellStyle name="Separador de milhares 2 2 5 3" xfId="370" xr:uid="{5FDF11DE-4897-4759-80D8-C53329514D75}"/>
+    <cellStyle name="Separador de milhares 2 2 5 3 2" xfId="1226" xr:uid="{8F4F17EB-5973-4359-87F7-3D9AEA782808}"/>
+    <cellStyle name="Separador de milhares 2 2 5 4" xfId="1055" xr:uid="{DA9D0DDA-10F3-49E9-B022-A700B2253E42}"/>
+    <cellStyle name="Separador de milhares 2 2 5 5" xfId="713" xr:uid="{8D4D3570-A269-4F3A-ADD9-1A51EF327661}"/>
     <cellStyle name="Separador de milhares 2 2 6" xfId="525" xr:uid="{AEB312A7-BA63-4FC7-98E8-80B54A799D21}"/>
+    <cellStyle name="Separador de milhares 2 2 6 2" xfId="1380" xr:uid="{83B71E65-5D93-4A38-93C3-34AA72139891}"/>
+    <cellStyle name="Separador de milhares 2 2 6 3" xfId="867" xr:uid="{F1041DCF-4581-47E1-A53A-0643EBBA7873}"/>
     <cellStyle name="Separador de milhares 2 2 7" xfId="353" xr:uid="{AD704147-B919-4359-8EA0-9D85D6365B42}"/>
+    <cellStyle name="Separador de milhares 2 2 7 2" xfId="1209" xr:uid="{3135C0F5-A233-419F-BEFD-489AA98FD463}"/>
+    <cellStyle name="Separador de milhares 2 2 8" xfId="1038" xr:uid="{C3FF215F-7073-40A2-BBD4-8580872DDA74}"/>
+    <cellStyle name="Separador de milhares 2 2 9" xfId="696" xr:uid="{E8838A62-7C6E-47B9-815A-97AEAA383491}"/>
     <cellStyle name="Separador de milhares 2 3" xfId="199" xr:uid="{04A791C9-D0A6-4719-80FB-71BBC2D38A3B}"/>
+    <cellStyle name="Separador de milhares 2 3 10" xfId="714" xr:uid="{2C7ACD5C-725A-445C-935E-F98CF6782B8E}"/>
     <cellStyle name="Separador de milhares 2 3 2" xfId="200" xr:uid="{B2C9E4AB-8E01-4B1C-9B28-73EDBC3235FD}"/>
     <cellStyle name="Separador de milhares 2 3 2 2" xfId="201" xr:uid="{FB35A1FB-8D4A-43EF-BFBB-3BD177723C84}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 2" xfId="202" xr:uid="{96206407-9E4F-408E-B73F-62AB2C5AEF16}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 2 2" xfId="203" xr:uid="{72ACF000-D45B-4E01-98A9-C61E59BFCC30}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 2 2 2" xfId="547" xr:uid="{A2D6C0E1-736C-4891-9169-79BAF3707984}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 2 2 2" xfId="1402" xr:uid="{10018269-1F87-4444-B386-7B056D026CD5}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 2 2 3" xfId="889" xr:uid="{5BA63A67-E9FD-45CB-9851-EDC8A79FB245}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 2 2 3" xfId="375" xr:uid="{05D7FC63-0148-46EC-BFA0-6B09ACAACB66}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 2 3 2" xfId="1231" xr:uid="{9B37CAC4-F861-4965-BE78-D2492ADF0121}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 2 4" xfId="1060" xr:uid="{4CB7886C-AB60-4758-B919-FB2F62FFCCE8}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 2 5" xfId="718" xr:uid="{3960EB64-C09F-41EF-A7B4-342518C61384}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 2 3" xfId="546" xr:uid="{471838C8-E48A-4323-AA40-4EDCD98BDC8C}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 3 2" xfId="1401" xr:uid="{CBF4B678-3465-4A4F-8482-B55427F7169D}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 3 3" xfId="888" xr:uid="{0D719489-B020-4C9B-9FAD-A2AEAD5DD847}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 2 4" xfId="374" xr:uid="{BFA0DBB4-2A73-49FF-B07B-655A2E64D480}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 4 2" xfId="1230" xr:uid="{A268199A-3AEF-4328-8E0C-8C2693A159F3}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 5" xfId="1059" xr:uid="{70FD85F3-8D7D-48AF-97BA-545FD9D9A4E6}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 6" xfId="717" xr:uid="{3E3D9926-90F9-41A7-8D89-8E0DAA160DED}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 3" xfId="204" xr:uid="{5C3B4BCD-F8ED-4499-B53B-06E422BC967F}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 3 2" xfId="205" xr:uid="{3A638A4A-44D2-4EA8-9D78-B886DEF36554}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 3 2 2" xfId="549" xr:uid="{329BD08F-2D8D-424C-948B-23EDD13B89D8}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 2 2 2" xfId="1404" xr:uid="{278B71F6-3C71-41CE-9527-75D402EAED2E}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 2 2 3" xfId="891" xr:uid="{7F2726B8-E456-4298-971E-C6E2275010C5}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 3 2 3" xfId="377" xr:uid="{7F5D2A8A-1726-4E93-972C-9CD8F712C34F}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 2 3 2" xfId="1233" xr:uid="{47C59CBC-5F50-4127-9C30-513349C01CEA}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 2 4" xfId="1062" xr:uid="{577BD3B0-3134-4CB3-AD69-2A4CF450B701}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 2 5" xfId="720" xr:uid="{54A3154F-DC44-4232-8508-4EB7133BC168}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 3 3" xfId="548" xr:uid="{6265F5E3-80D6-4CB0-BC65-87061DF8FF78}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 3 2" xfId="1403" xr:uid="{A6E3C44F-71CF-4D45-B4EB-69E034F81CDF}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 3 3" xfId="890" xr:uid="{FA019F5F-3BCC-4B3F-8057-889EBFCD4769}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 3 4" xfId="376" xr:uid="{A25C86DA-0BDF-457D-AAEA-1A7864C8C4C4}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 4 2" xfId="1232" xr:uid="{C346D5ED-F6CA-44B6-9EF0-E882623ECC0B}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 5" xfId="1061" xr:uid="{11417133-1BEC-4415-A4E5-C95B7DA4716B}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 6" xfId="719" xr:uid="{F2E02DCB-6A04-4A10-A0A4-9B88F9443BB5}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 4" xfId="206" xr:uid="{11354869-9B8C-4F27-A2B4-6E26B6053D36}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 4 2" xfId="550" xr:uid="{50F08897-94D7-433A-8C8A-B501E46FA776}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 4 2 2" xfId="1405" xr:uid="{CE6DA25F-3D7D-4527-BFFB-ED24CEDB1943}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 4 2 3" xfId="892" xr:uid="{0A93749B-2F38-449A-A8DF-EA43751D904A}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 4 3" xfId="378" xr:uid="{38760E1D-22D0-412F-859B-C4FDB929C2B4}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 4 3 2" xfId="1234" xr:uid="{1D49DBFD-EEBD-4CB1-B6FB-706A60C85427}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 4 4" xfId="1063" xr:uid="{E22B5121-3AD2-4884-8373-4618DB0557DD}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 4 5" xfId="721" xr:uid="{3A8CE91F-5CE0-44C8-B71D-D17BDE00EDD5}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 5" xfId="545" xr:uid="{9A80D697-D5FF-4833-B37D-4DF55625A86A}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 5 2" xfId="1400" xr:uid="{9BA48BD2-450B-4377-96FB-D9B3CB6067D0}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 5 3" xfId="887" xr:uid="{071509FC-80B0-4E37-9BD9-41643C89E8B2}"/>
     <cellStyle name="Separador de milhares 2 3 2 2 6" xfId="373" xr:uid="{E1DF0FF7-4EBA-4806-A379-316EEE4D14F7}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 6 2" xfId="1229" xr:uid="{C05071C5-5521-4193-84BD-ADDE945A48BF}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 7" xfId="1058" xr:uid="{E210E593-AE5E-49E8-9270-07FD5301DFC1}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 8" xfId="716" xr:uid="{F60C1169-2DCC-4D7E-A6BF-B174C3C9157D}"/>
     <cellStyle name="Separador de milhares 2 3 2 3" xfId="207" xr:uid="{7E1B062B-1D52-48B7-915C-E85C2C3F87B3}"/>
     <cellStyle name="Separador de milhares 2 3 2 3 2" xfId="208" xr:uid="{D08ADD1A-13B6-4304-B945-27EB5F337803}"/>
     <cellStyle name="Separador de milhares 2 3 2 3 2 2" xfId="552" xr:uid="{FBDC0F3D-7B44-49A1-B5C5-0564E6CBB018}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 2 2 2" xfId="1407" xr:uid="{3E49931D-16DE-427F-8586-A8940EE44313}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 2 2 3" xfId="894" xr:uid="{B79AD30B-CDC6-42E6-B28C-EC9DD643C05B}"/>
     <cellStyle name="Separador de milhares 2 3 2 3 2 3" xfId="380" xr:uid="{679F1392-B375-4EBC-A0EB-CCBDE7418C15}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 2 3 2" xfId="1236" xr:uid="{1B7681C0-0FC7-4A67-9EA4-6C9276449CFA}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 2 4" xfId="1065" xr:uid="{78E6F414-7546-495E-95AA-5393B47D068A}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 2 5" xfId="723" xr:uid="{E3A5606E-FCFB-4BF8-A2F6-E06AB0D1FAB8}"/>
     <cellStyle name="Separador de milhares 2 3 2 3 3" xfId="551" xr:uid="{9AF029BD-B335-4A67-9FC9-D03A875AC1BF}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 3 2" xfId="1406" xr:uid="{E909DB70-7494-45BA-B531-493B3A992145}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 3 3" xfId="893" xr:uid="{C033F857-45FA-4AE7-9200-EFD09AD15332}"/>
     <cellStyle name="Separador de milhares 2 3 2 3 4" xfId="379" xr:uid="{14D42519-F1ED-4264-B204-96900C565628}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 4 2" xfId="1235" xr:uid="{46720460-A605-4209-8487-A9EE1E375A20}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 5" xfId="1064" xr:uid="{1573B698-D0E6-4657-A960-3EEFB4E85180}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 6" xfId="722" xr:uid="{4C53AF3D-7030-4AB8-90B8-D36CB6C0509C}"/>
     <cellStyle name="Separador de milhares 2 3 2 4" xfId="209" xr:uid="{242D6EA7-92BA-41A9-9B78-EFC2CF5955A9}"/>
     <cellStyle name="Separador de milhares 2 3 2 4 2" xfId="210" xr:uid="{0373CFAC-58B9-4144-8E5D-E4B9EE718C17}"/>
     <cellStyle name="Separador de milhares 2 3 2 4 2 2" xfId="554" xr:uid="{740472B4-C7B5-4F3A-8AFD-06D63E92F9BD}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 2 2 2" xfId="1409" xr:uid="{AFA77DAE-07E1-4B45-8E34-FF8E8C84D259}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 2 2 3" xfId="896" xr:uid="{5487DA40-2F5A-4679-A0AE-220F6732EBA5}"/>
     <cellStyle name="Separador de milhares 2 3 2 4 2 3" xfId="382" xr:uid="{43520FD1-2791-4450-A562-F38946894ADE}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 2 3 2" xfId="1238" xr:uid="{0FFA48F5-50D0-4A97-B56B-A2065E5BDD92}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 2 4" xfId="1067" xr:uid="{5A82DD9A-7322-4C34-A16A-AF3F78BB7200}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 2 5" xfId="725" xr:uid="{B010BCB5-5629-4D3D-9CC5-E6496F00DD0B}"/>
     <cellStyle name="Separador de milhares 2 3 2 4 3" xfId="553" xr:uid="{6FAE7ECC-BD4B-448B-95BC-A0D5878D3808}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 3 2" xfId="1408" xr:uid="{2276183A-35AF-4409-947D-7ACB6ED14B9E}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 3 3" xfId="895" xr:uid="{CB4F41A0-574D-490A-95E2-ECCB7ED988AE}"/>
     <cellStyle name="Separador de milhares 2 3 2 4 4" xfId="381" xr:uid="{808390E8-2D43-4603-AB39-A5BE55EE810B}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 4 2" xfId="1237" xr:uid="{5CB82C77-47FC-4BF0-8ECF-062AAC658787}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 5" xfId="1066" xr:uid="{F51729D3-3311-44D0-A40F-B3FAB88EA554}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 6" xfId="724" xr:uid="{5A518D0E-87FE-4693-85C2-F28C075267DA}"/>
     <cellStyle name="Separador de milhares 2 3 2 5" xfId="211" xr:uid="{0C8207C8-1B7E-4B43-AA97-780F9324A599}"/>
     <cellStyle name="Separador de milhares 2 3 2 5 2" xfId="555" xr:uid="{31BED27B-8152-4D6D-B9BF-72FFB4D76531}"/>
+    <cellStyle name="Separador de milhares 2 3 2 5 2 2" xfId="1410" xr:uid="{B09E65C2-C784-4CFD-A5DF-1E3F9D5696E2}"/>
+    <cellStyle name="Separador de milhares 2 3 2 5 2 3" xfId="897" xr:uid="{5307F0F5-AEFC-40F3-A07D-90B3CEE9F0BA}"/>
     <cellStyle name="Separador de milhares 2 3 2 5 3" xfId="383" xr:uid="{5900CDC0-7B71-4A72-8813-6E0D63BF60BF}"/>
+    <cellStyle name="Separador de milhares 2 3 2 5 3 2" xfId="1239" xr:uid="{07794AA9-D7E6-4DAD-8CDD-9FB97304986F}"/>
+    <cellStyle name="Separador de milhares 2 3 2 5 4" xfId="1068" xr:uid="{A56D7823-F9D2-492D-9A37-B88E0F33973C}"/>
+    <cellStyle name="Separador de milhares 2 3 2 5 5" xfId="726" xr:uid="{3EF5097A-FC67-429E-B58B-210A3BAC5BE4}"/>
     <cellStyle name="Separador de milhares 2 3 2 6" xfId="544" xr:uid="{893018FE-8029-4390-AC93-D88FBB0A5838}"/>
+    <cellStyle name="Separador de milhares 2 3 2 6 2" xfId="1399" xr:uid="{62805C00-38F7-4387-A01F-A5D14A296D7A}"/>
+    <cellStyle name="Separador de milhares 2 3 2 6 3" xfId="886" xr:uid="{2490C2F5-A095-457C-9F98-4A98A9F9EEAA}"/>
     <cellStyle name="Separador de milhares 2 3 2 7" xfId="372" xr:uid="{3132DF94-463C-42FE-9641-C970DC775EDD}"/>
+    <cellStyle name="Separador de milhares 2 3 2 7 2" xfId="1228" xr:uid="{7AC5606C-6240-434F-8C81-6874A88ED1C2}"/>
+    <cellStyle name="Separador de milhares 2 3 2 8" xfId="1057" xr:uid="{CBC05837-5F2F-493C-8794-951149A0D034}"/>
+    <cellStyle name="Separador de milhares 2 3 2 9" xfId="715" xr:uid="{142C5C68-9FDD-4157-81EE-03ED15AC14E8}"/>
     <cellStyle name="Separador de milhares 2 3 3" xfId="212" xr:uid="{6B3571F4-E5EA-4B24-9C56-8ED95D560B47}"/>
     <cellStyle name="Separador de milhares 2 3 3 2" xfId="213" xr:uid="{52B1015E-0702-4E11-971E-900473C5024F}"/>
     <cellStyle name="Separador de milhares 2 3 3 2 2" xfId="214" xr:uid="{997B5D32-E065-4006-B77C-3E6B4893A7E0}"/>
     <cellStyle name="Separador de milhares 2 3 3 2 2 2" xfId="558" xr:uid="{67C36295-41FD-4395-8618-3E88FB92036B}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 2 2 2" xfId="1413" xr:uid="{89D54077-10CF-4ECA-8A58-77E5B4873A26}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 2 2 3" xfId="900" xr:uid="{159AABD4-678D-4E91-B1AE-3989847FF1AB}"/>
     <cellStyle name="Separador de milhares 2 3 3 2 2 3" xfId="386" xr:uid="{974763DF-99B9-4DC2-8F5E-586E6D8CA947}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 2 3 2" xfId="1242" xr:uid="{97EC3C9B-5595-4644-91C3-767823B68516}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 2 4" xfId="1071" xr:uid="{A69A8B13-2EBE-41D3-841C-2C1E115A3A3D}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 2 5" xfId="729" xr:uid="{528B3DC1-59A8-4045-A73B-9AA3DBB74503}"/>
     <cellStyle name="Separador de milhares 2 3 3 2 3" xfId="557" xr:uid="{CC3CCD74-9AB4-4441-8428-A563044AFCD1}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 3 2" xfId="1412" xr:uid="{C184EA65-1C29-4B7D-A8CD-012BBB47B63A}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 3 3" xfId="899" xr:uid="{6F2D135C-D2DE-4215-A1E3-3A26D41B7DD3}"/>
     <cellStyle name="Separador de milhares 2 3 3 2 4" xfId="385" xr:uid="{D6507044-6686-40AB-B6A9-FEFF41BEE6F5}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 4 2" xfId="1241" xr:uid="{ECDB8264-05EA-4553-AC47-B7C569687E9D}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 5" xfId="1070" xr:uid="{E85CB5E4-8984-418E-B36C-D907F3A66CB8}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 6" xfId="728" xr:uid="{351F1A5D-A3D7-4311-9F5B-CFEBF4D4AC7B}"/>
     <cellStyle name="Separador de milhares 2 3 3 3" xfId="215" xr:uid="{CA6B0269-3122-46C4-9008-AA858C9231AA}"/>
     <cellStyle name="Separador de milhares 2 3 3 3 2" xfId="216" xr:uid="{7B877A38-9CDC-478E-8587-05206CB8F9EB}"/>
     <cellStyle name="Separador de milhares 2 3 3 3 2 2" xfId="560" xr:uid="{AF942EB5-08D1-40FB-9E9E-63476AC73858}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 2 2 2" xfId="1415" xr:uid="{02B26E5B-2964-4B8E-A696-D890F07A17D8}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 2 2 3" xfId="902" xr:uid="{A6BFDAE2-33FB-4A5E-8C1E-F60EE6D5DEC7}"/>
     <cellStyle name="Separador de milhares 2 3 3 3 2 3" xfId="388" xr:uid="{DB927CC4-BB23-4C4C-A1E8-D2F14B9C3EFD}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 2 3 2" xfId="1244" xr:uid="{F1540595-224D-4393-A259-E971E272B6F4}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 2 4" xfId="1073" xr:uid="{CD647673-FE08-4655-8359-D68C5409D3DB}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 2 5" xfId="731" xr:uid="{07CC431B-4EA5-407F-AB4F-75DB9CADFF2B}"/>
     <cellStyle name="Separador de milhares 2 3 3 3 3" xfId="559" xr:uid="{93DFBD15-9FC2-44B7-BD7A-23F8D51B1EF7}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 3 2" xfId="1414" xr:uid="{C5CE2DD1-85BA-43BD-AF7E-FE09F15B7E2A}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 3 3" xfId="901" xr:uid="{BF94142B-4509-4CAE-A691-FE46228FC97A}"/>
     <cellStyle name="Separador de milhares 2 3 3 3 4" xfId="387" xr:uid="{52E41543-223B-48DD-8ED3-6424C1361D5C}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 4 2" xfId="1243" xr:uid="{98AC684F-4223-4C25-AD24-ECD8196236EE}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 5" xfId="1072" xr:uid="{B65D46F1-E9BB-4692-B2E8-3AA7A6CA7ED9}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 6" xfId="730" xr:uid="{F6026CAA-72CF-4F7D-B4A4-4F0528573C61}"/>
     <cellStyle name="Separador de milhares 2 3 3 4" xfId="217" xr:uid="{53E75F53-B81D-410A-9A94-CA340A6F733C}"/>
     <cellStyle name="Separador de milhares 2 3 3 4 2" xfId="561" xr:uid="{86551D02-6A3D-4208-B383-C57D2C78E6A0}"/>
+    <cellStyle name="Separador de milhares 2 3 3 4 2 2" xfId="1416" xr:uid="{62C64A85-B016-4182-BE8B-81FBB8A84A3C}"/>
+    <cellStyle name="Separador de milhares 2 3 3 4 2 3" xfId="903" xr:uid="{5145C37A-9106-4FE2-9A2A-3F25B3563AA5}"/>
     <cellStyle name="Separador de milhares 2 3 3 4 3" xfId="389" xr:uid="{91F18FC5-E7E7-48FB-BF65-B9F2625E2F25}"/>
+    <cellStyle name="Separador de milhares 2 3 3 4 3 2" xfId="1245" xr:uid="{F4FB6905-8AB6-464D-97BA-B4E2AA96709F}"/>
+    <cellStyle name="Separador de milhares 2 3 3 4 4" xfId="1074" xr:uid="{AE47FB48-BF0C-49CF-90A9-6EF3E8BA49B3}"/>
+    <cellStyle name="Separador de milhares 2 3 3 4 5" xfId="732" xr:uid="{79E7730C-CC65-464F-B048-C244CEE3B7A3}"/>
     <cellStyle name="Separador de milhares 2 3 3 5" xfId="556" xr:uid="{CADEF73E-B673-4F52-8401-D067324F482A}"/>
+    <cellStyle name="Separador de milhares 2 3 3 5 2" xfId="1411" xr:uid="{B4B30744-A98C-42E4-BE68-D5AB19E0775E}"/>
+    <cellStyle name="Separador de milhares 2 3 3 5 3" xfId="898" xr:uid="{DDFB6133-CC11-44EA-96B0-880EF409D7E1}"/>
     <cellStyle name="Separador de milhares 2 3 3 6" xfId="384" xr:uid="{CB91E9C6-ACE1-4DE2-8F5B-978D3A49E461}"/>
+    <cellStyle name="Separador de milhares 2 3 3 6 2" xfId="1240" xr:uid="{8ABDB69A-04EE-4572-8C53-4C36153F5468}"/>
+    <cellStyle name="Separador de milhares 2 3 3 7" xfId="1069" xr:uid="{B8EC2A81-919B-4E19-A9F1-DE3CD6F055EF}"/>
+    <cellStyle name="Separador de milhares 2 3 3 8" xfId="727" xr:uid="{2C93EEA5-7893-48D5-8E5E-AB1177504A4B}"/>
     <cellStyle name="Separador de milhares 2 3 4" xfId="218" xr:uid="{4B8DBC73-CEAA-4467-A48D-BB6AE00D0BAB}"/>
     <cellStyle name="Separador de milhares 2 3 4 2" xfId="219" xr:uid="{259C84A8-9F5F-4737-8931-46093F3DE2DE}"/>
     <cellStyle name="Separador de milhares 2 3 4 2 2" xfId="563" xr:uid="{36CFBE06-7BD5-426F-A019-2C695E576BDE}"/>
+    <cellStyle name="Separador de milhares 2 3 4 2 2 2" xfId="1418" xr:uid="{49D7E83B-B426-4E96-A5F1-8A1F94BCAC37}"/>
+    <cellStyle name="Separador de milhares 2 3 4 2 2 3" xfId="905" xr:uid="{66E4F7F6-D747-4BC3-8987-1827F8C5DDA2}"/>
     <cellStyle name="Separador de milhares 2 3 4 2 3" xfId="391" xr:uid="{58125105-C54E-40AA-8D4C-000E4220E9EF}"/>
+    <cellStyle name="Separador de milhares 2 3 4 2 3 2" xfId="1247" xr:uid="{97EF0336-9334-41B8-8481-423D7FFE6F56}"/>
+    <cellStyle name="Separador de milhares 2 3 4 2 4" xfId="1076" xr:uid="{74ADC9D4-AD87-454C-BC91-72D343763A6C}"/>
+    <cellStyle name="Separador de milhares 2 3 4 2 5" xfId="734" xr:uid="{B70A61BC-BD5A-4B05-8CC5-CBF5C50A057C}"/>
     <cellStyle name="Separador de milhares 2 3 4 3" xfId="562" xr:uid="{BF0336C8-FF40-4AC2-AB12-D55C98A23A23}"/>
+    <cellStyle name="Separador de milhares 2 3 4 3 2" xfId="1417" xr:uid="{954CDFA1-D1EB-4165-B0BA-0D6882AA2968}"/>
+    <cellStyle name="Separador de milhares 2 3 4 3 3" xfId="904" xr:uid="{CC3CB46F-21C4-4983-A530-D8C23E495462}"/>
     <cellStyle name="Separador de milhares 2 3 4 4" xfId="390" xr:uid="{35C90A1F-4CBF-4B10-99F2-CCB1176D2EF4}"/>
+    <cellStyle name="Separador de milhares 2 3 4 4 2" xfId="1246" xr:uid="{88E310E8-5957-4CB8-86C5-4DB413B9177A}"/>
+    <cellStyle name="Separador de milhares 2 3 4 5" xfId="1075" xr:uid="{FDF8A9C2-EC34-4D53-98C2-A1207BB0FDC8}"/>
+    <cellStyle name="Separador de milhares 2 3 4 6" xfId="733" xr:uid="{F1006B4F-114B-4DF9-8D2E-F7EF0FC1A45F}"/>
     <cellStyle name="Separador de milhares 2 3 5" xfId="220" xr:uid="{8C60B000-DCDC-428F-9C24-7A2CFC75ABBF}"/>
     <cellStyle name="Separador de milhares 2 3 5 2" xfId="221" xr:uid="{6B571F38-C46D-4107-B797-EA668EFD3AC7}"/>
     <cellStyle name="Separador de milhares 2 3 5 2 2" xfId="565" xr:uid="{BB077486-A5AC-457D-8A7D-937958F73A70}"/>
+    <cellStyle name="Separador de milhares 2 3 5 2 2 2" xfId="1420" xr:uid="{E127381F-4A20-4FDF-AB72-3B3224F73344}"/>
+    <cellStyle name="Separador de milhares 2 3 5 2 2 3" xfId="907" xr:uid="{CBEFEBDA-82FA-4980-B40D-09E6E782C90E}"/>
     <cellStyle name="Separador de milhares 2 3 5 2 3" xfId="393" xr:uid="{E1CDCE41-E01A-4062-A929-1F7C1AE457DD}"/>
+    <cellStyle name="Separador de milhares 2 3 5 2 3 2" xfId="1249" xr:uid="{46341EFB-6E2A-4697-985A-92123D96B13C}"/>
+    <cellStyle name="Separador de milhares 2 3 5 2 4" xfId="1078" xr:uid="{554CA906-F06E-4732-9C5E-4FEC315148EF}"/>
+    <cellStyle name="Separador de milhares 2 3 5 2 5" xfId="736" xr:uid="{EF5C8CBF-2BFE-45B8-AA97-07CEE4E988E0}"/>
     <cellStyle name="Separador de milhares 2 3 5 3" xfId="564" xr:uid="{BEEC7362-F60D-42D6-AABB-968B3175CDC4}"/>
+    <cellStyle name="Separador de milhares 2 3 5 3 2" xfId="1419" xr:uid="{A137B09D-2325-4DBF-AB9C-1D3BB5CDC072}"/>
+    <cellStyle name="Separador de milhares 2 3 5 3 3" xfId="906" xr:uid="{EEBED3CA-B844-483F-99B5-9C39E4A895B4}"/>
     <cellStyle name="Separador de milhares 2 3 5 4" xfId="392" xr:uid="{0E76152E-4341-4430-9E6C-2E87CA2D4E49}"/>
+    <cellStyle name="Separador de milhares 2 3 5 4 2" xfId="1248" xr:uid="{CD06AFDA-05D8-42A2-9DEA-1E00D29B56EC}"/>
+    <cellStyle name="Separador de milhares 2 3 5 5" xfId="1077" xr:uid="{A8A95F05-A85F-4E74-95CC-27F6A48B6095}"/>
+    <cellStyle name="Separador de milhares 2 3 5 6" xfId="735" xr:uid="{FD48212E-22F1-411D-B0F1-48C86C7A1630}"/>
     <cellStyle name="Separador de milhares 2 3 6" xfId="222" xr:uid="{B6F24A2C-60D1-422F-ABF6-06F60C69A4BA}"/>
     <cellStyle name="Separador de milhares 2 3 6 2" xfId="566" xr:uid="{96E61D96-939E-468E-AE47-05EA71BC7BCD}"/>
+    <cellStyle name="Separador de milhares 2 3 6 2 2" xfId="1421" xr:uid="{BD80131C-1FF1-48D2-B7F6-EF0F186BC8C8}"/>
+    <cellStyle name="Separador de milhares 2 3 6 2 3" xfId="908" xr:uid="{F6989EC7-1272-4D06-A955-85CAF13A7D32}"/>
     <cellStyle name="Separador de milhares 2 3 6 3" xfId="394" xr:uid="{78FD0138-AE7D-4229-A596-852B566E756B}"/>
+    <cellStyle name="Separador de milhares 2 3 6 3 2" xfId="1250" xr:uid="{ED9857B8-A186-4B2E-933B-7580AB2EBE92}"/>
+    <cellStyle name="Separador de milhares 2 3 6 4" xfId="1079" xr:uid="{D163C8B0-166D-4E01-82DC-BD44BE68A492}"/>
+    <cellStyle name="Separador de milhares 2 3 6 5" xfId="737" xr:uid="{4D96B3C6-7EF7-4CE1-A912-9747F6BF5C37}"/>
     <cellStyle name="Separador de milhares 2 3 7" xfId="543" xr:uid="{D07C3F7F-0278-4C9C-9C1F-BB3FBBA6D02C}"/>
+    <cellStyle name="Separador de milhares 2 3 7 2" xfId="1398" xr:uid="{DC3228A4-E75F-4918-8B84-EFAF6387E2A2}"/>
+    <cellStyle name="Separador de milhares 2 3 7 3" xfId="885" xr:uid="{2AC34E97-3563-424E-B0C1-E8BFC8B460EA}"/>
     <cellStyle name="Separador de milhares 2 3 8" xfId="371" xr:uid="{BBA61C41-10F0-427C-BF13-6D69A0EFE9AB}"/>
+    <cellStyle name="Separador de milhares 2 3 8 2" xfId="1227" xr:uid="{228FAE51-7690-41B4-9F2A-416EDF73DC46}"/>
+    <cellStyle name="Separador de milhares 2 3 9" xfId="1056" xr:uid="{4CDAE700-E3D8-4F02-A2CD-A55E954DCAF6}"/>
     <cellStyle name="Separador de milhares 2 4" xfId="223" xr:uid="{47A7091A-B285-41C6-BC83-516887B6CC78}"/>
     <cellStyle name="Separador de milhares 2 4 2" xfId="224" xr:uid="{1352017A-7CE9-4C04-9814-4A0B182E87A0}"/>
     <cellStyle name="Separador de milhares 2 4 2 2" xfId="225" xr:uid="{4C493360-7344-47C6-B32D-DF871CF121F1}"/>
     <cellStyle name="Separador de milhares 2 4 2 2 2" xfId="226" xr:uid="{435D7A9D-2E5C-4789-A566-CDA6CFE75B77}"/>
     <cellStyle name="Separador de milhares 2 4 2 2 2 2" xfId="570" xr:uid="{306D313A-2555-496E-B806-88EF9F52F0BB}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 2 2 2" xfId="1425" xr:uid="{6951B51B-B8AE-4E82-9986-4AD2D56C8EA1}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 2 2 3" xfId="912" xr:uid="{C9BC3763-B8EE-4027-9A10-32D3E4940861}"/>
     <cellStyle name="Separador de milhares 2 4 2 2 2 3" xfId="398" xr:uid="{7F4235CB-EEDC-4446-BA50-C8789C38271A}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 2 3 2" xfId="1254" xr:uid="{983A8F81-51E6-4999-A804-4C0E9C270558}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 2 4" xfId="1083" xr:uid="{D8336E6E-A6CC-4B73-AB1A-E411FA2CBFC2}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 2 5" xfId="741" xr:uid="{81DD49DD-E4ED-4AC7-A7A0-88329B415D20}"/>
     <cellStyle name="Separador de milhares 2 4 2 2 3" xfId="569" xr:uid="{AFDC08FA-55C1-4CB0-88E9-FEEF4A812F08}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 3 2" xfId="1424" xr:uid="{7755BA79-2EB7-474A-B3C9-6F9F7251D3B6}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 3 3" xfId="911" xr:uid="{BC833EAA-461D-4B17-B032-504DDBC58F42}"/>
     <cellStyle name="Separador de milhares 2 4 2 2 4" xfId="397" xr:uid="{C0A65744-866D-4807-AD5F-90F194CF6D33}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 4 2" xfId="1253" xr:uid="{EBA63FCA-1497-4BCB-9349-1D6F3B445E78}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 5" xfId="1082" xr:uid="{83234569-ED99-4E77-A8B7-1908B32E965A}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 6" xfId="740" xr:uid="{F8AA2056-692C-4B8C-9FCE-131631D5FD30}"/>
     <cellStyle name="Separador de milhares 2 4 2 3" xfId="227" xr:uid="{17D47B46-5FC4-47FA-9151-3867BCA86617}"/>
     <cellStyle name="Separador de milhares 2 4 2 3 2" xfId="228" xr:uid="{1E35A11F-2975-444C-AB30-CD64314A94A3}"/>
     <cellStyle name="Separador de milhares 2 4 2 3 2 2" xfId="572" xr:uid="{2F767500-370A-4584-BD76-2FBC7412691F}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 2 2 2" xfId="1427" xr:uid="{F9931B72-0226-4F35-9C4A-72B785A9F60A}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 2 2 3" xfId="914" xr:uid="{0A0CEAB1-0CF8-481C-BF19-EDABEA42A005}"/>
     <cellStyle name="Separador de milhares 2 4 2 3 2 3" xfId="400" xr:uid="{B86B7AFF-BEFB-414E-BF11-3051C20429E0}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 2 3 2" xfId="1256" xr:uid="{941B5FE2-C9E0-4CDE-A76C-4BB0389AABFB}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 2 4" xfId="1085" xr:uid="{76608EC2-6A31-4077-B690-656B87FD9344}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 2 5" xfId="743" xr:uid="{B671A5BA-AE51-4912-848D-9E89E0D5B7C0}"/>
     <cellStyle name="Separador de milhares 2 4 2 3 3" xfId="571" xr:uid="{337D51BA-C41F-4835-8D22-D3209FA36E66}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 3 2" xfId="1426" xr:uid="{51C8726B-3EFE-4057-85EA-6E8A5F460CC1}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 3 3" xfId="913" xr:uid="{6E16E2ED-03BE-48FE-AD90-796D9D36511A}"/>
     <cellStyle name="Separador de milhares 2 4 2 3 4" xfId="399" xr:uid="{0D905FC9-AD3B-4971-B154-2EA9FB5C73A9}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 4 2" xfId="1255" xr:uid="{21E3755E-1CD8-40EC-A06C-28C32C7BA13C}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 5" xfId="1084" xr:uid="{9D21E633-195B-41E0-9D1E-F815F612388E}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 6" xfId="742" xr:uid="{13D6754E-B114-4D5A-82A6-705F6629E814}"/>
     <cellStyle name="Separador de milhares 2 4 2 4" xfId="229" xr:uid="{50CD5FE9-D0A9-4B35-B897-D8502F71C5DE}"/>
     <cellStyle name="Separador de milhares 2 4 2 4 2" xfId="573" xr:uid="{F6B13A77-C77A-462E-BC10-A2587EDD635C}"/>
+    <cellStyle name="Separador de milhares 2 4 2 4 2 2" xfId="1428" xr:uid="{F071A8E4-E7CC-44EB-AAEB-DE57052D46A1}"/>
+    <cellStyle name="Separador de milhares 2 4 2 4 2 3" xfId="915" xr:uid="{2F5CE617-B503-464F-92AE-337F352DDC4E}"/>
     <cellStyle name="Separador de milhares 2 4 2 4 3" xfId="401" xr:uid="{727D597D-234A-4C77-9133-EE99EFEE79D6}"/>
+    <cellStyle name="Separador de milhares 2 4 2 4 3 2" xfId="1257" xr:uid="{D478B2C5-AFA2-4619-B133-A62D1851BC02}"/>
+    <cellStyle name="Separador de milhares 2 4 2 4 4" xfId="1086" xr:uid="{D65006EB-4779-4E80-A517-037C3AA494AC}"/>
+    <cellStyle name="Separador de milhares 2 4 2 4 5" xfId="744" xr:uid="{45FD60C3-1A76-4C58-B0F6-930BB524A9E5}"/>
     <cellStyle name="Separador de milhares 2 4 2 5" xfId="568" xr:uid="{428E02E8-B925-4F47-A846-BC62F624C8B1}"/>
+    <cellStyle name="Separador de milhares 2 4 2 5 2" xfId="1423" xr:uid="{6D5CA881-9F84-4EBC-A402-2095494C39EC}"/>
+    <cellStyle name="Separador de milhares 2 4 2 5 3" xfId="910" xr:uid="{3F9906C5-B386-430F-9B86-B43359F0FB54}"/>
     <cellStyle name="Separador de milhares 2 4 2 6" xfId="396" xr:uid="{229F161B-06B6-4291-A609-BCEA51BB2759}"/>
+    <cellStyle name="Separador de milhares 2 4 2 6 2" xfId="1252" xr:uid="{5FA6562B-4E39-49AA-952A-6C5DB9E54661}"/>
+    <cellStyle name="Separador de milhares 2 4 2 7" xfId="1081" xr:uid="{3F6EBA18-D6A4-422C-85AB-43A8202C41D4}"/>
+    <cellStyle name="Separador de milhares 2 4 2 8" xfId="739" xr:uid="{493B77E4-6DF7-4E98-96E0-AA8DF4091E38}"/>
     <cellStyle name="Separador de milhares 2 4 3" xfId="230" xr:uid="{922CDDAE-7F9A-4EF8-BD78-D56B892018DF}"/>
     <cellStyle name="Separador de milhares 2 4 3 2" xfId="231" xr:uid="{582A672B-B5EB-4768-B3A8-EEAD21CD9952}"/>
     <cellStyle name="Separador de milhares 2 4 3 2 2" xfId="575" xr:uid="{DDE8DBF7-B0D6-4774-9807-DA736BC78DE4}"/>
+    <cellStyle name="Separador de milhares 2 4 3 2 2 2" xfId="1430" xr:uid="{594A1100-A7B1-4453-BE5A-D49BB41E9C18}"/>
+    <cellStyle name="Separador de milhares 2 4 3 2 2 3" xfId="917" xr:uid="{31015822-713B-428C-ACFB-FAE5CFA7E2B8}"/>
     <cellStyle name="Separador de milhares 2 4 3 2 3" xfId="403" xr:uid="{7C2E6D76-11B1-46AC-88BF-437BB9BE0C10}"/>
+    <cellStyle name="Separador de milhares 2 4 3 2 3 2" xfId="1259" xr:uid="{62C18E5F-295D-4ACB-83C2-38F0B09623D2}"/>
+    <cellStyle name="Separador de milhares 2 4 3 2 4" xfId="1088" xr:uid="{E2883B77-ECB0-462A-B01B-DDE75B5C0E59}"/>
+    <cellStyle name="Separador de milhares 2 4 3 2 5" xfId="746" xr:uid="{22DC2FE5-51D6-4BFA-978A-4D018639D4FE}"/>
     <cellStyle name="Separador de milhares 2 4 3 3" xfId="574" xr:uid="{22CF68E5-C01F-4777-B5E6-3AB73FA57904}"/>
+    <cellStyle name="Separador de milhares 2 4 3 3 2" xfId="1429" xr:uid="{D7BBB754-D94A-42BD-9071-0B66984A632B}"/>
+    <cellStyle name="Separador de milhares 2 4 3 3 3" xfId="916" xr:uid="{C03EF9CF-EB9E-42EF-AAE2-7D6CE1EC2CDD}"/>
     <cellStyle name="Separador de milhares 2 4 3 4" xfId="402" xr:uid="{76137678-E04C-4994-AA61-9B2DE734D9A0}"/>
+    <cellStyle name="Separador de milhares 2 4 3 4 2" xfId="1258" xr:uid="{5C029667-A579-413C-B817-C23450DB9892}"/>
+    <cellStyle name="Separador de milhares 2 4 3 5" xfId="1087" xr:uid="{CC7ABB21-15AB-442B-9691-35F856AF67BC}"/>
+    <cellStyle name="Separador de milhares 2 4 3 6" xfId="745" xr:uid="{D563C029-2D6A-401C-AF66-24D05ADA5853}"/>
     <cellStyle name="Separador de milhares 2 4 4" xfId="232" xr:uid="{34C036C3-B9EC-45B6-A825-FFB2E3D8B43B}"/>
     <cellStyle name="Separador de milhares 2 4 4 2" xfId="233" xr:uid="{497CD9A8-48C9-4F81-9EC6-86ECDB037638}"/>
     <cellStyle name="Separador de milhares 2 4 4 2 2" xfId="577" xr:uid="{4B767FEE-BFCE-4857-893B-4DA1DEFA747B}"/>
+    <cellStyle name="Separador de milhares 2 4 4 2 2 2" xfId="1432" xr:uid="{2920FF3E-1B83-4F2B-8B9D-2F80C248D53C}"/>
+    <cellStyle name="Separador de milhares 2 4 4 2 2 3" xfId="919" xr:uid="{1B84167F-618D-488E-B667-8A07DA714BBD}"/>
     <cellStyle name="Separador de milhares 2 4 4 2 3" xfId="405" xr:uid="{FA93B17B-36BF-4193-AA97-D022BB47D708}"/>
+    <cellStyle name="Separador de milhares 2 4 4 2 3 2" xfId="1261" xr:uid="{641144F3-0326-4840-B852-92EB5114495F}"/>
+    <cellStyle name="Separador de milhares 2 4 4 2 4" xfId="1090" xr:uid="{9022BA69-193C-409E-B050-39E564037558}"/>
+    <cellStyle name="Separador de milhares 2 4 4 2 5" xfId="748" xr:uid="{8F1D9B9A-281A-40AD-AD46-D7743756FED2}"/>
     <cellStyle name="Separador de milhares 2 4 4 3" xfId="576" xr:uid="{47C879E7-088A-4F7F-A5D7-4CECB49CBED0}"/>
+    <cellStyle name="Separador de milhares 2 4 4 3 2" xfId="1431" xr:uid="{94D9DB9C-B441-40CC-A2EB-F8D6F6ECA3D2}"/>
+    <cellStyle name="Separador de milhares 2 4 4 3 3" xfId="918" xr:uid="{A37829EA-60BB-4EAB-A4DD-E50469BEC67E}"/>
     <cellStyle name="Separador de milhares 2 4 4 4" xfId="404" xr:uid="{AA075CD7-91A3-4212-B0E3-30AD5846EB28}"/>
+    <cellStyle name="Separador de milhares 2 4 4 4 2" xfId="1260" xr:uid="{94FD5177-2496-4C0D-87E4-9D2C3FD94A1F}"/>
+    <cellStyle name="Separador de milhares 2 4 4 5" xfId="1089" xr:uid="{7BEDECFD-1166-4CD2-AD3B-56304034FAF2}"/>
+    <cellStyle name="Separador de milhares 2 4 4 6" xfId="747" xr:uid="{A6D7DBDE-2248-4C92-80DA-47F13D3B0FE7}"/>
     <cellStyle name="Separador de milhares 2 4 5" xfId="234" xr:uid="{4F87D436-F48B-4668-BC8A-08A864E1D8B6}"/>
     <cellStyle name="Separador de milhares 2 4 5 2" xfId="578" xr:uid="{3D4023A4-B374-4366-A3C1-035B0539AEFF}"/>
+    <cellStyle name="Separador de milhares 2 4 5 2 2" xfId="1433" xr:uid="{DED7D015-184A-49BC-9BCD-9A1030570F98}"/>
+    <cellStyle name="Separador de milhares 2 4 5 2 3" xfId="920" xr:uid="{94A3BBA4-4CF8-4F5B-BB0D-75E99FC467D6}"/>
     <cellStyle name="Separador de milhares 2 4 5 3" xfId="406" xr:uid="{6096EA8A-618D-43F7-8F05-627A3E78F757}"/>
+    <cellStyle name="Separador de milhares 2 4 5 3 2" xfId="1262" xr:uid="{E10CD11D-DBD5-47BB-B6FE-002314008CFC}"/>
+    <cellStyle name="Separador de milhares 2 4 5 4" xfId="1091" xr:uid="{5264C4BB-EE66-40EE-A2AE-FCEC434B461D}"/>
+    <cellStyle name="Separador de milhares 2 4 5 5" xfId="749" xr:uid="{42DA2B2B-64B6-4535-B4F6-7882DE5F9C80}"/>
     <cellStyle name="Separador de milhares 2 4 6" xfId="567" xr:uid="{0B56EF7B-1C20-41B8-8DAB-47E207F99614}"/>
+    <cellStyle name="Separador de milhares 2 4 6 2" xfId="1422" xr:uid="{1B958EE8-DBD4-416E-9D15-DF709D60E5EB}"/>
+    <cellStyle name="Separador de milhares 2 4 6 3" xfId="909" xr:uid="{0D9FC384-F3EF-4078-A931-3178B9DC9C5C}"/>
     <cellStyle name="Separador de milhares 2 4 7" xfId="395" xr:uid="{A2D25274-AC12-456D-B3DC-1050BC03A402}"/>
+    <cellStyle name="Separador de milhares 2 4 7 2" xfId="1251" xr:uid="{186ABC52-E164-425F-9E0D-076CF5B66A22}"/>
+    <cellStyle name="Separador de milhares 2 4 8" xfId="1080" xr:uid="{F24DF468-62F8-44A5-8D5A-D03D2462DBE8}"/>
+    <cellStyle name="Separador de milhares 2 4 9" xfId="738" xr:uid="{0B9D8552-0A71-4140-A11A-347B32C57621}"/>
     <cellStyle name="Separador de milhares 2 5" xfId="235" xr:uid="{3E73F9AA-80E4-4E03-824B-2FFF8CA61991}"/>
     <cellStyle name="Separador de milhares 2 5 2" xfId="236" xr:uid="{268A9985-EE65-47CA-8080-A10D4E81E729}"/>
     <cellStyle name="Separador de milhares 2 5 2 2" xfId="237" xr:uid="{247F7727-B4D1-431E-9344-4546794474C5}"/>
     <cellStyle name="Separador de milhares 2 5 2 2 2" xfId="581" xr:uid="{EC3B4AD2-CEA7-489E-8FA8-32C7329915FD}"/>
+    <cellStyle name="Separador de milhares 2 5 2 2 2 2" xfId="1436" xr:uid="{AD67FB02-1194-4FAC-85DE-11F8B40A4DB7}"/>
+    <cellStyle name="Separador de milhares 2 5 2 2 2 3" xfId="923" xr:uid="{FC945676-7293-462D-850A-B6FEFBD70560}"/>
     <cellStyle name="Separador de milhares 2 5 2 2 3" xfId="409" xr:uid="{DD445860-DEDF-45AA-8D26-C5700FF555FB}"/>
+    <cellStyle name="Separador de milhares 2 5 2 2 3 2" xfId="1265" xr:uid="{1FBCD409-D580-4E53-978B-38C5C6DC334B}"/>
+    <cellStyle name="Separador de milhares 2 5 2 2 4" xfId="1094" xr:uid="{67B61908-5FE0-47CA-97F3-6002C80BCF26}"/>
+    <cellStyle name="Separador de milhares 2 5 2 2 5" xfId="752" xr:uid="{721F8633-74CB-40C6-9DDE-494355A92606}"/>
     <cellStyle name="Separador de milhares 2 5 2 3" xfId="580" xr:uid="{17E3D449-E6EB-422A-ACE6-9396D14B09FD}"/>
+    <cellStyle name="Separador de milhares 2 5 2 3 2" xfId="1435" xr:uid="{2D37F956-F223-4250-991F-990C975A6047}"/>
+    <cellStyle name="Separador de milhares 2 5 2 3 3" xfId="922" xr:uid="{8E0EE8C1-0760-44BC-8038-EC6393E5029F}"/>
     <cellStyle name="Separador de milhares 2 5 2 4" xfId="408" xr:uid="{4810122E-3324-4CF4-A97C-CEFA2E4BFD8A}"/>
+    <cellStyle name="Separador de milhares 2 5 2 4 2" xfId="1264" xr:uid="{F896D6C5-4CC6-43B8-8443-9CAA3215E431}"/>
+    <cellStyle name="Separador de milhares 2 5 2 5" xfId="1093" xr:uid="{2545DEE0-E624-4CE1-8FAB-FFA9CE857742}"/>
+    <cellStyle name="Separador de milhares 2 5 2 6" xfId="751" xr:uid="{E06346C5-53BF-48FF-8FEA-A3550A6868F9}"/>
     <cellStyle name="Separador de milhares 2 5 3" xfId="238" xr:uid="{68D87753-39BA-49BC-BE5C-EF8A0AA4CE42}"/>
     <cellStyle name="Separador de milhares 2 5 3 2" xfId="239" xr:uid="{72397894-7FDB-4706-A697-68E74869B0A5}"/>
     <cellStyle name="Separador de milhares 2 5 3 2 2" xfId="583" xr:uid="{1A0F1D09-56BF-4ED9-99DE-85EA77D382C0}"/>
+    <cellStyle name="Separador de milhares 2 5 3 2 2 2" xfId="1438" xr:uid="{D9D9544A-2ADD-4516-9238-09CAC476A409}"/>
+    <cellStyle name="Separador de milhares 2 5 3 2 2 3" xfId="925" xr:uid="{43EDD5FC-F9B4-4BB0-AA89-542CEAE0E2E6}"/>
     <cellStyle name="Separador de milhares 2 5 3 2 3" xfId="411" xr:uid="{A322A77A-59F3-4E7D-A1AD-A74CD6617102}"/>
+    <cellStyle name="Separador de milhares 2 5 3 2 3 2" xfId="1267" xr:uid="{9B28FA57-D8FC-4DF0-BA0D-D94FC76AF190}"/>
+    <cellStyle name="Separador de milhares 2 5 3 2 4" xfId="1096" xr:uid="{56054658-464B-4CF5-81BE-4AC110ABF05D}"/>
+    <cellStyle name="Separador de milhares 2 5 3 2 5" xfId="754" xr:uid="{B94BD083-20B4-4DB8-AECD-0ACACA596D73}"/>
     <cellStyle name="Separador de milhares 2 5 3 3" xfId="582" xr:uid="{79D326F9-DFC2-4800-83F6-A3EF6F5832AA}"/>
+    <cellStyle name="Separador de milhares 2 5 3 3 2" xfId="1437" xr:uid="{3692ABD4-37C6-4233-ABEB-40F3649EF062}"/>
+    <cellStyle name="Separador de milhares 2 5 3 3 3" xfId="924" xr:uid="{85CDA28A-7B0C-491D-8079-538565E4C965}"/>
     <cellStyle name="Separador de milhares 2 5 3 4" xfId="410" xr:uid="{75CA4AED-CE4F-4462-9337-FF14D32580F5}"/>
+    <cellStyle name="Separador de milhares 2 5 3 4 2" xfId="1266" xr:uid="{07C93E17-3CA2-4B1A-847F-E5F8973980D5}"/>
+    <cellStyle name="Separador de milhares 2 5 3 5" xfId="1095" xr:uid="{52689544-D637-4A2E-BF34-2E46EB3E0CCD}"/>
+    <cellStyle name="Separador de milhares 2 5 3 6" xfId="753" xr:uid="{8EB0BA7F-6366-49AA-8CAA-A7FBDA6FF989}"/>
     <cellStyle name="Separador de milhares 2 5 4" xfId="240" xr:uid="{0D3FC0DC-D54E-4BB9-B3A3-70B76E1FF060}"/>
     <cellStyle name="Separador de milhares 2 5 4 2" xfId="584" xr:uid="{65F2D132-CBF8-49F6-8B88-3F78EB8BF80C}"/>
+    <cellStyle name="Separador de milhares 2 5 4 2 2" xfId="1439" xr:uid="{B884D199-D941-4512-9632-EAC7395897FB}"/>
+    <cellStyle name="Separador de milhares 2 5 4 2 3" xfId="926" xr:uid="{A0AF208D-69A0-475C-801E-4182A0431D57}"/>
     <cellStyle name="Separador de milhares 2 5 4 3" xfId="412" xr:uid="{33CCDFD2-FC9A-42E0-AF5A-8D2E220F2EBC}"/>
+    <cellStyle name="Separador de milhares 2 5 4 3 2" xfId="1268" xr:uid="{07E32BA3-C4D5-4FBB-83DF-3D22103FB1AC}"/>
+    <cellStyle name="Separador de milhares 2 5 4 4" xfId="1097" xr:uid="{C60D291A-08EB-4272-94BC-CAF688D88729}"/>
+    <cellStyle name="Separador de milhares 2 5 4 5" xfId="755" xr:uid="{E96B74A0-CB0D-42D7-BDAE-ECF62843CBC8}"/>
     <cellStyle name="Separador de milhares 2 5 5" xfId="579" xr:uid="{07276B57-283D-4529-9EFC-02DF6CFCCD3C}"/>
+    <cellStyle name="Separador de milhares 2 5 5 2" xfId="1434" xr:uid="{704664C8-67A9-4A1B-B344-76DFFE5E77E1}"/>
+    <cellStyle name="Separador de milhares 2 5 5 3" xfId="921" xr:uid="{3F16A983-B7EA-4E21-A23D-9AD16CF4B5BB}"/>
     <cellStyle name="Separador de milhares 2 5 6" xfId="407" xr:uid="{8D5464D0-A012-44AD-9687-38534E551C3A}"/>
+    <cellStyle name="Separador de milhares 2 5 6 2" xfId="1263" xr:uid="{E1177A81-10DB-411B-88AB-E6D3309058E4}"/>
+    <cellStyle name="Separador de milhares 2 5 7" xfId="1092" xr:uid="{0900EED0-5B1C-4DFD-AEFD-CEE468AB7CAE}"/>
+    <cellStyle name="Separador de milhares 2 5 8" xfId="750" xr:uid="{DC7C86E2-F5B4-4E6A-ADF5-E626C06315DC}"/>
     <cellStyle name="Separador de milhares 2 6" xfId="524" xr:uid="{1F864653-C60F-47B4-A432-8241D9FD71E7}"/>
+    <cellStyle name="Separador de milhares 2 6 2" xfId="1379" xr:uid="{ECB5B3B8-7ADC-49FA-AE30-7515B408D81B}"/>
+    <cellStyle name="Separador de milhares 2 6 3" xfId="866" xr:uid="{63AB22FB-BC55-44A8-8BF0-998EF131ED5A}"/>
     <cellStyle name="Separador de milhares 2 7" xfId="352" xr:uid="{35465161-309F-4F9D-8839-206215CB6E4A}"/>
+    <cellStyle name="Separador de milhares 2 7 2" xfId="1208" xr:uid="{398558C5-386E-49E8-BCD5-1D946AA7F9DF}"/>
+    <cellStyle name="Separador de milhares 2 8" xfId="1037" xr:uid="{25682453-314B-4466-8550-B5B507A00B63}"/>
+    <cellStyle name="Separador de milhares 2 9" xfId="695" xr:uid="{C51EE822-EE18-4F00-BABA-3D01CFA708BD}"/>
     <cellStyle name="Separador de milhares 3" xfId="241" xr:uid="{F80B8D8A-A541-47B4-9244-8D6A06AD51F9}"/>
     <cellStyle name="Separador de milhares 3 2" xfId="242" xr:uid="{58F646B6-ED4F-495C-93F7-576EDA19D94A}"/>
     <cellStyle name="Separador de milhares 3 2 2" xfId="243" xr:uid="{D3A60EFD-13EE-49A8-8B7D-7374366B9516}"/>
     <cellStyle name="Separador de milhares 3 2 2 2" xfId="244" xr:uid="{08507312-9A56-47B2-839D-E013220F17CD}"/>
     <cellStyle name="Separador de milhares 3 2 2 2 2" xfId="245" xr:uid="{5D1EB8EA-3DEB-40DF-9C1A-9F1E9E94FCE3}"/>
     <cellStyle name="Separador de milhares 3 2 2 2 2 2" xfId="589" xr:uid="{A50D0024-FB2A-4C86-BD6F-FCA3FFC83072}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 2 2 2" xfId="1444" xr:uid="{EC47EF36-94F0-49F8-B199-C75CA6F835E8}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 2 2 3" xfId="931" xr:uid="{F4FB1F93-BB01-43E7-AF9C-20B9FEB03240}"/>
     <cellStyle name="Separador de milhares 3 2 2 2 2 3" xfId="417" xr:uid="{3D3AC85C-9EE3-479E-96A2-2D4473F45D95}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 2 3 2" xfId="1273" xr:uid="{9C4F0C94-D98C-408E-BA70-BFE919909816}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 2 4" xfId="1102" xr:uid="{F2B8376E-9833-4F85-A80F-ACFC88690B56}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 2 5" xfId="760" xr:uid="{88F9E3DC-D627-4750-839C-1B792B30B7DF}"/>
     <cellStyle name="Separador de milhares 3 2 2 2 3" xfId="588" xr:uid="{0B0EF881-16CE-47ED-B22A-2BEAB8B419DD}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 3 2" xfId="1443" xr:uid="{B74E13D8-306D-4400-9D64-7EDDC21E1EAF}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 3 3" xfId="930" xr:uid="{3DACD469-9576-4B51-B6D7-4DE81A0FEAAD}"/>
     <cellStyle name="Separador de milhares 3 2 2 2 4" xfId="416" xr:uid="{06AD5C89-DF98-443F-A807-D533F91647F5}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 4 2" xfId="1272" xr:uid="{1E47997D-9A68-42E9-858A-28A6768580DB}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 5" xfId="1101" xr:uid="{A3C503A3-16C3-4C05-BE57-1F5709F8D4A8}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 6" xfId="759" xr:uid="{4C7C1F0E-1A32-4737-B3C5-EE9022B00FE8}"/>
     <cellStyle name="Separador de milhares 3 2 2 3" xfId="246" xr:uid="{6B55ED0A-A86F-4220-9775-46FF2956DA47}"/>
     <cellStyle name="Separador de milhares 3 2 2 3 2" xfId="247" xr:uid="{1714B0BB-4887-4E11-BACA-9A0FEB288A40}"/>
     <cellStyle name="Separador de milhares 3 2 2 3 2 2" xfId="591" xr:uid="{AE8C713B-8592-40E7-B286-A3CBF2D1F86F}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 2 2 2" xfId="1446" xr:uid="{015C7506-E2A6-4032-A7E6-C2C917740B13}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 2 2 3" xfId="933" xr:uid="{48934E5B-530E-4C0B-9AC6-63A099549F3C}"/>
     <cellStyle name="Separador de milhares 3 2 2 3 2 3" xfId="419" xr:uid="{29A76F3F-2A74-408C-847A-88843AC61565}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 2 3 2" xfId="1275" xr:uid="{F5687BAB-7463-4E11-A60B-9A94C1B0B7FA}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 2 4" xfId="1104" xr:uid="{7E7222E2-6151-49CA-91E3-82FB6425D57F}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 2 5" xfId="762" xr:uid="{A3427DFA-B0C5-4C30-A83B-61FE2F2723A5}"/>
     <cellStyle name="Separador de milhares 3 2 2 3 3" xfId="590" xr:uid="{BC9F246A-9E90-4D6E-99DC-770EA92208D8}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 3 2" xfId="1445" xr:uid="{DADC2F96-5ADC-42BD-AF84-07BF9AA4763A}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 3 3" xfId="932" xr:uid="{20F7C444-626F-4102-8D30-D74C3A09C50E}"/>
     <cellStyle name="Separador de milhares 3 2 2 3 4" xfId="418" xr:uid="{80CDB1F8-6DE9-4AC6-B474-9AA919484C79}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 4 2" xfId="1274" xr:uid="{2662DD32-C203-4E2D-8ED5-6CB7C0ABAF42}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 5" xfId="1103" xr:uid="{EEDAC632-A029-41B1-8414-F87B1FF88357}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 6" xfId="761" xr:uid="{CF15FC29-F094-4395-9741-15CBEE508EAB}"/>
     <cellStyle name="Separador de milhares 3 2 2 4" xfId="248" xr:uid="{0393A232-3FD2-498E-84B8-F0AE5CFEEE3F}"/>
     <cellStyle name="Separador de milhares 3 2 2 4 2" xfId="592" xr:uid="{F5B69319-360E-42CD-B3B5-88B02AC2AA4B}"/>
+    <cellStyle name="Separador de milhares 3 2 2 4 2 2" xfId="1447" xr:uid="{60D55D73-00DC-4236-A3AA-EF4CFE3AC900}"/>
+    <cellStyle name="Separador de milhares 3 2 2 4 2 3" xfId="934" xr:uid="{0DC81AF8-9BC0-4480-844B-C274124AEEE9}"/>
     <cellStyle name="Separador de milhares 3 2 2 4 3" xfId="420" xr:uid="{6B40CC45-1BAD-4D61-9E0E-578C8F43AC0B}"/>
+    <cellStyle name="Separador de milhares 3 2 2 4 3 2" xfId="1276" xr:uid="{986570F0-42AF-4F79-88AB-FDA218BC659D}"/>
+    <cellStyle name="Separador de milhares 3 2 2 4 4" xfId="1105" xr:uid="{0A6C6848-DB99-43D4-8F31-EC6E6649859F}"/>
+    <cellStyle name="Separador de milhares 3 2 2 4 5" xfId="763" xr:uid="{9610A4A0-9065-4594-9E88-64F003157503}"/>
     <cellStyle name="Separador de milhares 3 2 2 5" xfId="587" xr:uid="{1D17697B-D7AC-4341-BE25-EBEFA828AD37}"/>
+    <cellStyle name="Separador de milhares 3 2 2 5 2" xfId="1442" xr:uid="{1B570FB6-225E-4916-83F5-AE7DF9631FF0}"/>
+    <cellStyle name="Separador de milhares 3 2 2 5 3" xfId="929" xr:uid="{49951E73-BF76-495B-88DA-6B51E1F8D350}"/>
     <cellStyle name="Separador de milhares 3 2 2 6" xfId="415" xr:uid="{E1AF924A-B892-4FE8-8226-6FB7BA6A836C}"/>
+    <cellStyle name="Separador de milhares 3 2 2 6 2" xfId="1271" xr:uid="{15905E0D-F95A-49A4-B2AE-AD2AEEDF3794}"/>
+    <cellStyle name="Separador de milhares 3 2 2 7" xfId="1100" xr:uid="{FC6D1905-050D-4374-8136-FC1EF83E6C9C}"/>
+    <cellStyle name="Separador de milhares 3 2 2 8" xfId="758" xr:uid="{2B259AE8-35A6-46BF-8841-EFDB3E6BFDD5}"/>
     <cellStyle name="Separador de milhares 3 2 3" xfId="249" xr:uid="{28C79BE3-AB1A-4E2E-8C63-0252AACD1F2C}"/>
     <cellStyle name="Separador de milhares 3 2 3 2" xfId="250" xr:uid="{5172061D-253C-4B38-BF56-7872FB7EEAB1}"/>
     <cellStyle name="Separador de milhares 3 2 3 2 2" xfId="594" xr:uid="{BF7A29C5-407F-4696-8D08-798CA18F516D}"/>
+    <cellStyle name="Separador de milhares 3 2 3 2 2 2" xfId="1449" xr:uid="{2CB01DE9-78B0-4831-BC5C-3862B45A22C5}"/>
+    <cellStyle name="Separador de milhares 3 2 3 2 2 3" xfId="936" xr:uid="{9BB45B4F-24DE-4BE5-94C8-31E1C48CCC26}"/>
     <cellStyle name="Separador de milhares 3 2 3 2 3" xfId="422" xr:uid="{58173059-F4C6-4DAD-9577-B9D715B5B830}"/>
+    <cellStyle name="Separador de milhares 3 2 3 2 3 2" xfId="1278" xr:uid="{E9746D33-D54E-47A8-948C-71E5C24C705E}"/>
+    <cellStyle name="Separador de milhares 3 2 3 2 4" xfId="1107" xr:uid="{B5BB7963-8954-4232-95FB-63D653620A25}"/>
+    <cellStyle name="Separador de milhares 3 2 3 2 5" xfId="765" xr:uid="{41B3447C-6BB2-4959-8015-2E7ABC790913}"/>
     <cellStyle name="Separador de milhares 3 2 3 3" xfId="593" xr:uid="{0A0581B8-747E-48C4-8C92-D87D0C5483A0}"/>
+    <cellStyle name="Separador de milhares 3 2 3 3 2" xfId="1448" xr:uid="{6AFBEE1B-9D37-4D2A-868D-CB83D11E1BAF}"/>
+    <cellStyle name="Separador de milhares 3 2 3 3 3" xfId="935" xr:uid="{FB5C453B-08CE-48A3-9F83-D69A46DFC905}"/>
     <cellStyle name="Separador de milhares 3 2 3 4" xfId="421" xr:uid="{FB505C61-DB3C-4A60-A642-2DEA254A9F67}"/>
+    <cellStyle name="Separador de milhares 3 2 3 4 2" xfId="1277" xr:uid="{82BF85ED-DAA8-4F43-8DA3-7987BDA87FE5}"/>
+    <cellStyle name="Separador de milhares 3 2 3 5" xfId="1106" xr:uid="{5EB1CD2F-E61D-48CD-8C83-D61313E55E84}"/>
+    <cellStyle name="Separador de milhares 3 2 3 6" xfId="764" xr:uid="{0F9338BE-51CF-4D52-BAB4-E5E29C6E993B}"/>
     <cellStyle name="Separador de milhares 3 2 4" xfId="251" xr:uid="{5A1EA4AA-9A0A-4525-A74F-77A6879011C8}"/>
     <cellStyle name="Separador de milhares 3 2 4 2" xfId="252" xr:uid="{C668D646-BC9E-4323-BC2B-45EC0713F7BF}"/>
     <cellStyle name="Separador de milhares 3 2 4 2 2" xfId="596" xr:uid="{E3F41DA8-793D-4125-BC61-AF30ACA606BA}"/>
+    <cellStyle name="Separador de milhares 3 2 4 2 2 2" xfId="1451" xr:uid="{12911472-7E93-4440-879C-17CAEC8C28D0}"/>
+    <cellStyle name="Separador de milhares 3 2 4 2 2 3" xfId="938" xr:uid="{5A1394DE-6F02-49FC-BA55-2B0FAF22A528}"/>
     <cellStyle name="Separador de milhares 3 2 4 2 3" xfId="424" xr:uid="{1FF6EC95-4E7C-4334-A06D-A814F3E91416}"/>
+    <cellStyle name="Separador de milhares 3 2 4 2 3 2" xfId="1280" xr:uid="{6C881BB2-9D5F-4C7E-87B5-38F750E0A596}"/>
+    <cellStyle name="Separador de milhares 3 2 4 2 4" xfId="1109" xr:uid="{B38C6C39-336A-47AC-9112-30B4ADC9A248}"/>
+    <cellStyle name="Separador de milhares 3 2 4 2 5" xfId="767" xr:uid="{BF486499-6024-4404-ACF0-9D98C25D89D5}"/>
     <cellStyle name="Separador de milhares 3 2 4 3" xfId="595" xr:uid="{DF69B9A5-51A6-4553-9FC6-05ADF862842D}"/>
+    <cellStyle name="Separador de milhares 3 2 4 3 2" xfId="1450" xr:uid="{99BB547C-A5C0-4FB3-B076-0C2AACC33531}"/>
+    <cellStyle name="Separador de milhares 3 2 4 3 3" xfId="937" xr:uid="{02D33D5B-8EB2-45FF-820F-A171B9260D7A}"/>
     <cellStyle name="Separador de milhares 3 2 4 4" xfId="423" xr:uid="{83D6CB52-0FCE-412E-8A43-6725322AF44F}"/>
+    <cellStyle name="Separador de milhares 3 2 4 4 2" xfId="1279" xr:uid="{8FED8728-8143-4BE1-B552-5DD5B7A578AC}"/>
+    <cellStyle name="Separador de milhares 3 2 4 5" xfId="1108" xr:uid="{F8B67031-009A-4B48-8EA4-5C93A5F19B4D}"/>
+    <cellStyle name="Separador de milhares 3 2 4 6" xfId="766" xr:uid="{84A3E219-390C-490C-8783-A857762BB4D1}"/>
     <cellStyle name="Separador de milhares 3 2 5" xfId="253" xr:uid="{DABC8DCB-3421-4C32-864D-5E776A9E8A3D}"/>
     <cellStyle name="Separador de milhares 3 2 5 2" xfId="597" xr:uid="{A67933F6-AEC4-43BD-9D42-3F20D6414EDB}"/>
+    <cellStyle name="Separador de milhares 3 2 5 2 2" xfId="1452" xr:uid="{13692B78-95F1-4C60-9745-61023BCC09CE}"/>
+    <cellStyle name="Separador de milhares 3 2 5 2 3" xfId="939" xr:uid="{931FF325-6138-46A8-9BB5-012B31217CA0}"/>
     <cellStyle name="Separador de milhares 3 2 5 3" xfId="425" xr:uid="{EAB3768E-BB6B-4669-83BE-9424EAC9B0B1}"/>
+    <cellStyle name="Separador de milhares 3 2 5 3 2" xfId="1281" xr:uid="{86ECBAEE-5ACC-4868-9243-BDA188442087}"/>
+    <cellStyle name="Separador de milhares 3 2 5 4" xfId="1110" xr:uid="{257FF09B-934E-4FF6-9DB2-5D1351A1972A}"/>
+    <cellStyle name="Separador de milhares 3 2 5 5" xfId="768" xr:uid="{94B49C5C-3101-417E-BD78-17FFA7381ECC}"/>
     <cellStyle name="Separador de milhares 3 2 6" xfId="586" xr:uid="{799EF24C-5E19-47B9-AA31-99D26A8ABAFC}"/>
+    <cellStyle name="Separador de milhares 3 2 6 2" xfId="1441" xr:uid="{5127F9F4-D6FE-4805-BFF0-FCFD3A221F57}"/>
+    <cellStyle name="Separador de milhares 3 2 6 3" xfId="928" xr:uid="{6BF79EED-28A0-4779-83D7-4D8912208627}"/>
     <cellStyle name="Separador de milhares 3 2 7" xfId="414" xr:uid="{2C490FB3-3EBC-4329-AC91-E658B2476F2D}"/>
+    <cellStyle name="Separador de milhares 3 2 7 2" xfId="1270" xr:uid="{946B9C81-47AB-4C1B-9091-46A4282AEF60}"/>
+    <cellStyle name="Separador de milhares 3 2 8" xfId="1099" xr:uid="{A3D2395C-8C2C-4443-B1B0-37A011874AB3}"/>
+    <cellStyle name="Separador de milhares 3 2 9" xfId="757" xr:uid="{45A4E465-70D4-4103-A639-07E6B6D00D31}"/>
     <cellStyle name="Separador de milhares 3 3" xfId="254" xr:uid="{F8B49488-D762-4E83-A952-D1F6A3AE16C7}"/>
     <cellStyle name="Separador de milhares 3 3 2" xfId="255" xr:uid="{64CD732A-97E9-4712-977E-AB9C9072EE47}"/>
     <cellStyle name="Separador de milhares 3 3 2 2" xfId="599" xr:uid="{F609BBC5-34B7-4A3B-A017-3EBD3B09EF9A}"/>
+    <cellStyle name="Separador de milhares 3 3 2 2 2" xfId="1454" xr:uid="{CD7468BF-70BE-4031-8934-94C631EC4A13}"/>
+    <cellStyle name="Separador de milhares 3 3 2 2 3" xfId="941" xr:uid="{1B7CCD83-3046-4655-A310-35561B292D8A}"/>
     <cellStyle name="Separador de milhares 3 3 2 3" xfId="427" xr:uid="{5D60DBE4-56E9-45AA-B180-F43242ED16AC}"/>
+    <cellStyle name="Separador de milhares 3 3 2 3 2" xfId="1283" xr:uid="{5A1540DA-04BD-484C-9990-F9D78284B604}"/>
+    <cellStyle name="Separador de milhares 3 3 2 4" xfId="1112" xr:uid="{B6D99D42-7394-4085-A85A-A8BDA9D75ECB}"/>
+    <cellStyle name="Separador de milhares 3 3 2 5" xfId="770" xr:uid="{2C97DE0E-BF34-430E-B04A-FD52C226E3CB}"/>
     <cellStyle name="Separador de milhares 3 3 3" xfId="598" xr:uid="{7171C990-22B6-4B17-95C8-B6713E0C5BCE}"/>
+    <cellStyle name="Separador de milhares 3 3 3 2" xfId="1453" xr:uid="{4DFCE919-D179-43C9-88E9-026DB063DC84}"/>
+    <cellStyle name="Separador de milhares 3 3 3 3" xfId="940" xr:uid="{A6D7C091-22C3-4905-A671-0E6251C2367A}"/>
     <cellStyle name="Separador de milhares 3 3 4" xfId="426" xr:uid="{2FBC1728-BDE7-4943-BEDB-BF803412D6A0}"/>
+    <cellStyle name="Separador de milhares 3 3 4 2" xfId="1282" xr:uid="{B2CB717E-72D3-40BF-8A22-EA760460E2AA}"/>
+    <cellStyle name="Separador de milhares 3 3 5" xfId="1111" xr:uid="{B1E8E85A-7762-4CEE-A185-77AE60F4824F}"/>
+    <cellStyle name="Separador de milhares 3 3 6" xfId="769" xr:uid="{A0286E0F-3C14-4784-8ACD-2F754388A9A1}"/>
     <cellStyle name="Separador de milhares 3 4" xfId="256" xr:uid="{E6CEB573-64A8-4A6D-90AD-2E0EE4BA2557}"/>
     <cellStyle name="Separador de milhares 3 4 2" xfId="257" xr:uid="{DF05D584-7ED3-491E-83D6-818EA6934B3D}"/>
     <cellStyle name="Separador de milhares 3 4 2 2" xfId="601" xr:uid="{47B0A907-F9FD-444A-933B-1C546B625ADF}"/>
+    <cellStyle name="Separador de milhares 3 4 2 2 2" xfId="1456" xr:uid="{6C2F9E34-ADB9-4104-90F5-27881A64CFC4}"/>
+    <cellStyle name="Separador de milhares 3 4 2 2 3" xfId="943" xr:uid="{8FA351E1-9E6F-42B7-B40F-F8BFBFF833B7}"/>
     <cellStyle name="Separador de milhares 3 4 2 3" xfId="429" xr:uid="{9B0F9E27-51D0-48AB-BE7D-95E990ECA82C}"/>
+    <cellStyle name="Separador de milhares 3 4 2 3 2" xfId="1285" xr:uid="{15353182-B1AA-40BB-B95B-8D7FEDFCDC76}"/>
+    <cellStyle name="Separador de milhares 3 4 2 4" xfId="1114" xr:uid="{4B4ABF1F-E94D-4560-92B6-A346D5DD8F37}"/>
+    <cellStyle name="Separador de milhares 3 4 2 5" xfId="772" xr:uid="{EEC5CC70-4CC5-47B5-9E86-60DD35FD40AF}"/>
     <cellStyle name="Separador de milhares 3 4 3" xfId="600" xr:uid="{4F90CE45-A3F6-4069-817E-CC398F3C0B08}"/>
+    <cellStyle name="Separador de milhares 3 4 3 2" xfId="1455" xr:uid="{B5F9DAD0-F3EB-4013-80C4-C4101F44DB17}"/>
+    <cellStyle name="Separador de milhares 3 4 3 3" xfId="942" xr:uid="{FFD8FADC-30F6-43E4-804F-D3237203CBE0}"/>
     <cellStyle name="Separador de milhares 3 4 4" xfId="428" xr:uid="{45FB72C7-B4BE-4317-86DB-778018E15B5F}"/>
+    <cellStyle name="Separador de milhares 3 4 4 2" xfId="1284" xr:uid="{F4789D51-C00B-4E25-8647-77FB581FF987}"/>
+    <cellStyle name="Separador de milhares 3 4 5" xfId="1113" xr:uid="{CC59DE46-7611-48B9-BE0A-D4730AEC4030}"/>
+    <cellStyle name="Separador de milhares 3 4 6" xfId="771" xr:uid="{44AC0AEC-05EB-40BC-A8F9-12CF82F8F5C5}"/>
     <cellStyle name="Separador de milhares 3 5" xfId="258" xr:uid="{0790D9E3-4403-4B59-9F93-BDE631B92A59}"/>
     <cellStyle name="Separador de milhares 3 5 2" xfId="602" xr:uid="{7305D6B6-5F0B-42A9-B27D-58522DA83C58}"/>
+    <cellStyle name="Separador de milhares 3 5 2 2" xfId="1457" xr:uid="{33D31B0A-D4BF-4C68-8175-34AA279A19A1}"/>
+    <cellStyle name="Separador de milhares 3 5 2 3" xfId="944" xr:uid="{B96979B0-BBDD-415E-B436-107FD91D0B99}"/>
     <cellStyle name="Separador de milhares 3 5 3" xfId="430" xr:uid="{CA1E0AD6-B4FB-49CB-9A20-E8F8A3A6281D}"/>
+    <cellStyle name="Separador de milhares 3 5 3 2" xfId="1286" xr:uid="{EF6E6F28-2461-4BAD-B9BB-72CEBB591CA3}"/>
+    <cellStyle name="Separador de milhares 3 5 4" xfId="1115" xr:uid="{4A439DE8-FFEF-4032-ADE0-0AF5E4C76668}"/>
+    <cellStyle name="Separador de milhares 3 5 5" xfId="773" xr:uid="{199F3120-F33E-4D36-B09C-7D072EACE68E}"/>
     <cellStyle name="Separador de milhares 3 6" xfId="585" xr:uid="{2C45D009-535C-4008-9874-5779183EEA6D}"/>
+    <cellStyle name="Separador de milhares 3 6 2" xfId="1440" xr:uid="{34996711-E623-468D-B482-87B3ECCE75FB}"/>
+    <cellStyle name="Separador de milhares 3 6 3" xfId="927" xr:uid="{7F029769-6AFA-48B3-9F51-775416B0CD0B}"/>
     <cellStyle name="Separador de milhares 3 7" xfId="413" xr:uid="{969FB2B0-FBC4-4684-80C8-49B0401E850D}"/>
+    <cellStyle name="Separador de milhares 3 7 2" xfId="1269" xr:uid="{6FDD66A1-4B8B-46AC-B07E-5345DA238D25}"/>
+    <cellStyle name="Separador de milhares 3 8" xfId="1098" xr:uid="{6D2F0C9F-0367-452A-A2CD-19AB03B97291}"/>
+    <cellStyle name="Separador de milhares 3 9" xfId="756" xr:uid="{97B9352A-7AAE-41F8-9A2E-0184171035B9}"/>
     <cellStyle name="Separador de milhares 4" xfId="259" xr:uid="{FDE4DB83-9E11-4457-AF2A-A10BD3760D9E}"/>
+    <cellStyle name="Separador de milhares 4 10" xfId="774" xr:uid="{D97038F1-08CB-49AD-9341-59F7416EC0F0}"/>
     <cellStyle name="Separador de milhares 4 2" xfId="260" xr:uid="{1164794A-95E8-48A7-8B56-0410076ED4D8}"/>
     <cellStyle name="Separador de milhares 4 2 2" xfId="261" xr:uid="{4FD21ECE-3040-4398-9BAC-217076979EA7}"/>
     <cellStyle name="Separador de milhares 4 2 2 2" xfId="262" xr:uid="{38BFE017-E240-4A71-A34D-DAEA4D58B87C}"/>
     <cellStyle name="Separador de milhares 4 2 2 2 2" xfId="263" xr:uid="{E4A5EEE7-8D01-4E1E-8305-15C4D04F410A}"/>
     <cellStyle name="Separador de milhares 4 2 2 2 2 2" xfId="607" xr:uid="{87A34991-5A6A-4D8F-8956-0F8DE19F51BA}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 2 2 2" xfId="1462" xr:uid="{95255840-90B9-4F76-8A7C-C7823BAEA398}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 2 2 3" xfId="949" xr:uid="{83C2D36C-4D1F-4E70-B42C-7B3B13245A53}"/>
     <cellStyle name="Separador de milhares 4 2 2 2 2 3" xfId="435" xr:uid="{3715C07E-756D-4EE9-8A53-DB39C134D045}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 2 3 2" xfId="1291" xr:uid="{F48DACDD-0468-45B2-AFF0-D57C61AB3720}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 2 4" xfId="1120" xr:uid="{FF9104AD-596D-4CD5-9BB4-86A829EF9EB8}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 2 5" xfId="778" xr:uid="{6DAE5FD4-0F43-4CFB-A1B3-734BF88516B3}"/>
     <cellStyle name="Separador de milhares 4 2 2 2 3" xfId="606" xr:uid="{FD81C742-880C-46C8-9E5B-C7C2A9F179DC}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 3 2" xfId="1461" xr:uid="{138C5A6C-2AF1-4F8E-8453-00FAF4A0CBB3}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 3 3" xfId="948" xr:uid="{7CDD309D-3A90-41BE-9A7E-294124622C35}"/>
     <cellStyle name="Separador de milhares 4 2 2 2 4" xfId="434" xr:uid="{BEFEC873-2FA3-4CD6-BCC6-68A4DC43217F}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 4 2" xfId="1290" xr:uid="{AF1EB875-9FDB-45D0-AF0E-26776519BA7E}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 5" xfId="1119" xr:uid="{1F288811-E293-4822-80F0-A48E84D4DF3D}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 6" xfId="777" xr:uid="{22AE5093-DC13-49A1-810B-65DEB308D753}"/>
     <cellStyle name="Separador de milhares 4 2 2 3" xfId="264" xr:uid="{B72DEBCA-74A7-4CDD-BE68-D876E4BC57D4}"/>
     <cellStyle name="Separador de milhares 4 2 2 3 2" xfId="265" xr:uid="{0414C86A-8056-4F1E-B4DA-8F1B61AF07E7}"/>
     <cellStyle name="Separador de milhares 4 2 2 3 2 2" xfId="609" xr:uid="{AEB7A03B-BC1D-4272-BD4E-BF53134C93E1}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 2 2 2" xfId="1464" xr:uid="{56305583-5650-4C1A-ADA8-15A006736D06}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 2 2 3" xfId="951" xr:uid="{42670C54-F156-4CC1-84A8-956229DAC213}"/>
     <cellStyle name="Separador de milhares 4 2 2 3 2 3" xfId="437" xr:uid="{A54D6509-A33F-434B-A5D5-34A7A4F706D9}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 2 3 2" xfId="1293" xr:uid="{7B033C12-7B4E-4853-845C-40F8F55BE285}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 2 4" xfId="1122" xr:uid="{CD60FD3E-91EC-4EC6-ABD6-9D3BD4C40037}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 2 5" xfId="780" xr:uid="{3409F3C0-91C9-4FA4-9101-E847F761F6AE}"/>
     <cellStyle name="Separador de milhares 4 2 2 3 3" xfId="608" xr:uid="{34E66144-D9D6-4601-A1E7-0B123460F0C5}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 3 2" xfId="1463" xr:uid="{569CC3B9-767C-43F2-A34E-04CF184AE630}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 3 3" xfId="950" xr:uid="{17666A8C-F189-41AE-83BE-CD51A5EEB369}"/>
     <cellStyle name="Separador de milhares 4 2 2 3 4" xfId="436" xr:uid="{7213ACE9-328B-4FE3-BA3B-A0CCAEF1F0E0}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 4 2" xfId="1292" xr:uid="{3F6A9F81-BFDE-4ACF-AF99-04FC9FF4F44D}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 5" xfId="1121" xr:uid="{20304C7F-D972-4B0F-BA2E-A801BFD96C50}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 6" xfId="779" xr:uid="{C2D52208-C2B3-444E-BD13-26ABF74E2000}"/>
     <cellStyle name="Separador de milhares 4 2 2 4" xfId="266" xr:uid="{0DF3324E-42E3-461D-98FA-36A360C19F32}"/>
     <cellStyle name="Separador de milhares 4 2 2 4 2" xfId="610" xr:uid="{90691941-DA28-46DD-97DA-6A0C4E44E4B5}"/>
+    <cellStyle name="Separador de milhares 4 2 2 4 2 2" xfId="1465" xr:uid="{33F0CAE7-A00E-4DCD-BBF8-82ABB1C0860B}"/>
+    <cellStyle name="Separador de milhares 4 2 2 4 2 3" xfId="952" xr:uid="{8FEDC7AA-D632-484C-ACBB-7FF0A1910A23}"/>
     <cellStyle name="Separador de milhares 4 2 2 4 3" xfId="438" xr:uid="{BF450AA1-65A7-4964-BAA7-931B2719A143}"/>
+    <cellStyle name="Separador de milhares 4 2 2 4 3 2" xfId="1294" xr:uid="{16E45F19-485C-4E0E-91C0-3C28BF627417}"/>
+    <cellStyle name="Separador de milhares 4 2 2 4 4" xfId="1123" xr:uid="{3E59AD7C-8E6A-4F26-AD3E-6F563490CF23}"/>
+    <cellStyle name="Separador de milhares 4 2 2 4 5" xfId="781" xr:uid="{B7AAE368-AADF-4A4D-9D71-A4A2593A8CB4}"/>
     <cellStyle name="Separador de milhares 4 2 2 5" xfId="605" xr:uid="{845BA1DA-046D-4065-87BD-BF9240618654}"/>
+    <cellStyle name="Separador de milhares 4 2 2 5 2" xfId="1460" xr:uid="{56F53948-7831-4B92-91C6-9359313B39FA}"/>
+    <cellStyle name="Separador de milhares 4 2 2 5 3" xfId="947" xr:uid="{1C92D926-0600-4B25-B69E-00EE816A5B99}"/>
     <cellStyle name="Separador de milhares 4 2 2 6" xfId="433" xr:uid="{F4DB5874-C225-461B-92CC-FE32421D62D2}"/>
+    <cellStyle name="Separador de milhares 4 2 2 6 2" xfId="1289" xr:uid="{1FE65079-072B-432D-A788-ABD2016517D8}"/>
+    <cellStyle name="Separador de milhares 4 2 2 7" xfId="1118" xr:uid="{A4399519-0A29-4C25-9A88-15F4624F88BB}"/>
+    <cellStyle name="Separador de milhares 4 2 2 8" xfId="776" xr:uid="{A0572D79-7D78-4132-8CEA-218B4F2B2CC9}"/>
     <cellStyle name="Separador de milhares 4 2 3" xfId="267" xr:uid="{6385A2F9-DFCB-40F7-81CC-CE3CD9D331D9}"/>
     <cellStyle name="Separador de milhares 4 2 3 2" xfId="268" xr:uid="{CD74AACE-8785-44C9-85DC-F09753012D01}"/>
     <cellStyle name="Separador de milhares 4 2 3 2 2" xfId="612" xr:uid="{1E894835-4169-42AF-B61D-69CB285FB32C}"/>
+    <cellStyle name="Separador de milhares 4 2 3 2 2 2" xfId="1467" xr:uid="{8F275A2E-6E3F-4AA9-BE97-255755D3743D}"/>
+    <cellStyle name="Separador de milhares 4 2 3 2 2 3" xfId="954" xr:uid="{8A66700F-F457-4237-B922-8EEE90F79635}"/>
     <cellStyle name="Separador de milhares 4 2 3 2 3" xfId="440" xr:uid="{5671E451-158F-45CB-9B24-C11E935910C8}"/>
+    <cellStyle name="Separador de milhares 4 2 3 2 3 2" xfId="1296" xr:uid="{43247270-AF22-4722-A70B-D6181ACD8FDA}"/>
+    <cellStyle name="Separador de milhares 4 2 3 2 4" xfId="1125" xr:uid="{2808C23A-B93A-44BD-B303-1514151C6D3E}"/>
+    <cellStyle name="Separador de milhares 4 2 3 2 5" xfId="783" xr:uid="{CF3B26A2-A135-41EC-BF62-394B67C29418}"/>
     <cellStyle name="Separador de milhares 4 2 3 3" xfId="611" xr:uid="{72FFA4FE-8D06-43AC-9913-05142B11D2D6}"/>
+    <cellStyle name="Separador de milhares 4 2 3 3 2" xfId="1466" xr:uid="{04B0E7EA-34CC-46FD-B64F-BF0D885B675D}"/>
+    <cellStyle name="Separador de milhares 4 2 3 3 3" xfId="953" xr:uid="{EF9C696B-BCEC-4F69-ADA5-141AE435E36D}"/>
     <cellStyle name="Separador de milhares 4 2 3 4" xfId="439" xr:uid="{2FF52DBC-08C2-47A4-8E7A-6069373A8167}"/>
+    <cellStyle name="Separador de milhares 4 2 3 4 2" xfId="1295" xr:uid="{7DA25351-332B-432A-B49E-1EAD25CAEB88}"/>
+    <cellStyle name="Separador de milhares 4 2 3 5" xfId="1124" xr:uid="{B9021C3F-696F-4284-B56F-296981A541F9}"/>
+    <cellStyle name="Separador de milhares 4 2 3 6" xfId="782" xr:uid="{1DF9EB47-5C83-4B7E-8F21-2F06017103E4}"/>
     <cellStyle name="Separador de milhares 4 2 4" xfId="269" xr:uid="{091D95F1-09CF-4AF3-B5C8-1D50DD124B18}"/>
     <cellStyle name="Separador de milhares 4 2 4 2" xfId="270" xr:uid="{7200066E-EFEC-4B46-B4EA-F2D3B182E900}"/>
     <cellStyle name="Separador de milhares 4 2 4 2 2" xfId="614" xr:uid="{4DD9B454-819C-498F-B273-64210FA16CEC}"/>
+    <cellStyle name="Separador de milhares 4 2 4 2 2 2" xfId="1469" xr:uid="{3AFE067C-C64C-43F7-8411-EF79E8911498}"/>
+    <cellStyle name="Separador de milhares 4 2 4 2 2 3" xfId="956" xr:uid="{6A911CEE-55C9-41AF-9A74-4B57E5A16FBD}"/>
     <cellStyle name="Separador de milhares 4 2 4 2 3" xfId="442" xr:uid="{B6591052-CADC-4D3E-8962-A35B4451D671}"/>
+    <cellStyle name="Separador de milhares 4 2 4 2 3 2" xfId="1298" xr:uid="{02A6ED63-9836-4484-A5CB-7DBDB475A725}"/>
+    <cellStyle name="Separador de milhares 4 2 4 2 4" xfId="1127" xr:uid="{8A70DE2E-C4B0-4201-9215-E38201C019D3}"/>
+    <cellStyle name="Separador de milhares 4 2 4 2 5" xfId="785" xr:uid="{62E3F539-925B-4F3D-9704-9FE9629F3C3A}"/>
     <cellStyle name="Separador de milhares 4 2 4 3" xfId="613" xr:uid="{23B62FB4-B37C-4C9F-8C1B-AF82A2F842E3}"/>
+    <cellStyle name="Separador de milhares 4 2 4 3 2" xfId="1468" xr:uid="{DCF55B4F-B102-4692-A2D2-F7DA756EDC6D}"/>
+    <cellStyle name="Separador de milhares 4 2 4 3 3" xfId="955" xr:uid="{770E9143-B924-4601-8A96-E10123C50296}"/>
     <cellStyle name="Separador de milhares 4 2 4 4" xfId="441" xr:uid="{F9B46C5E-21B5-4004-AC24-370910F27540}"/>
+    <cellStyle name="Separador de milhares 4 2 4 4 2" xfId="1297" xr:uid="{ADA644D2-96B5-4242-B673-9989D0693B03}"/>
+    <cellStyle name="Separador de milhares 4 2 4 5" xfId="1126" xr:uid="{0541632C-0678-4ABE-BF6A-06DAA37B2204}"/>
+    <cellStyle name="Separador de milhares 4 2 4 6" xfId="784" xr:uid="{9A24DD82-901A-476A-BA4B-392287B2967E}"/>
     <cellStyle name="Separador de milhares 4 2 5" xfId="271" xr:uid="{082363B3-AF4C-4B01-A234-33F30185C5E6}"/>
     <cellStyle name="Separador de milhares 4 2 5 2" xfId="615" xr:uid="{05684282-DFC6-41A2-B803-51AB81F1929B}"/>
+    <cellStyle name="Separador de milhares 4 2 5 2 2" xfId="1470" xr:uid="{2AA597C0-0FAE-4B61-8584-91663F433EB3}"/>
+    <cellStyle name="Separador de milhares 4 2 5 2 3" xfId="957" xr:uid="{E39A5C2A-3A66-4B0E-A1D0-7E618C81E51F}"/>
     <cellStyle name="Separador de milhares 4 2 5 3" xfId="443" xr:uid="{AAF5A577-4ED2-428E-AEBA-CAE58FA55B00}"/>
+    <cellStyle name="Separador de milhares 4 2 5 3 2" xfId="1299" xr:uid="{FF9A777E-1325-4886-A673-6B52723F2D6A}"/>
+    <cellStyle name="Separador de milhares 4 2 5 4" xfId="1128" xr:uid="{E5D6B3CC-B3BC-4091-922C-82C4C4976310}"/>
+    <cellStyle name="Separador de milhares 4 2 5 5" xfId="786" xr:uid="{9F4CCD4A-B1E5-4697-A795-1AE7DD86827C}"/>
     <cellStyle name="Separador de milhares 4 2 6" xfId="604" xr:uid="{D1FED237-1928-4B96-A816-D318B3F9671A}"/>
+    <cellStyle name="Separador de milhares 4 2 6 2" xfId="1459" xr:uid="{D059A548-08AA-400D-9E8E-A888C428C6A7}"/>
+    <cellStyle name="Separador de milhares 4 2 6 3" xfId="946" xr:uid="{920FF82E-B1DD-461C-863C-BD07BE08E2FB}"/>
     <cellStyle name="Separador de milhares 4 2 7" xfId="432" xr:uid="{08F95E0D-8D0B-4400-98DD-AF24EE2874B6}"/>
+    <cellStyle name="Separador de milhares 4 2 7 2" xfId="1288" xr:uid="{609B45EA-9D4D-452B-9505-88686B4AB6E6}"/>
+    <cellStyle name="Separador de milhares 4 2 8" xfId="1117" xr:uid="{C6220BAF-1ED2-4DA1-BB8D-A42FADF4CDDC}"/>
+    <cellStyle name="Separador de milhares 4 2 9" xfId="775" xr:uid="{78245C9C-4D63-41B8-A967-08EF8C97DA33}"/>
     <cellStyle name="Separador de milhares 4 3" xfId="272" xr:uid="{81F0E576-02E6-4716-90AA-2DEA7484DE12}"/>
     <cellStyle name="Separador de milhares 4 3 2" xfId="273" xr:uid="{0928A428-F626-481F-9F25-F4004B66414B}"/>
     <cellStyle name="Separador de milhares 4 3 2 2" xfId="274" xr:uid="{E0B9BAF3-1887-4413-A0ED-EC4277964D5E}"/>
     <cellStyle name="Separador de milhares 4 3 2 2 2" xfId="618" xr:uid="{6C522976-67D5-4531-82D7-5FF0091A4750}"/>
+    <cellStyle name="Separador de milhares 4 3 2 2 2 2" xfId="1473" xr:uid="{CF086AAF-F2AF-44AF-9B90-8E8A3DBF9558}"/>
+    <cellStyle name="Separador de milhares 4 3 2 2 2 3" xfId="960" xr:uid="{7E07A4B2-3AA2-4109-B1FB-6359A1C7734B}"/>
     <cellStyle name="Separador de milhares 4 3 2 2 3" xfId="446" xr:uid="{408F6DDB-1BA6-4AE0-BE2E-008B9DD63AD8}"/>
+    <cellStyle name="Separador de milhares 4 3 2 2 3 2" xfId="1302" xr:uid="{BC13D551-F4D9-4CB3-92D1-3840AB7B8C26}"/>
+    <cellStyle name="Separador de milhares 4 3 2 2 4" xfId="1131" xr:uid="{A083114F-F352-4099-9C28-8DC123C78727}"/>
+    <cellStyle name="Separador de milhares 4 3 2 2 5" xfId="789" xr:uid="{1802C12A-C556-4F72-84DF-5DEC07DD6C06}"/>
     <cellStyle name="Separador de milhares 4 3 2 3" xfId="617" xr:uid="{B9B81560-64BF-4BD5-95E9-AD4F3C6B548D}"/>
+    <cellStyle name="Separador de milhares 4 3 2 3 2" xfId="1472" xr:uid="{804DD99E-2C64-422C-8467-B3489BAD4CD7}"/>
+    <cellStyle name="Separador de milhares 4 3 2 3 3" xfId="959" xr:uid="{69B1BF6A-059E-4D31-9D40-6AB80C5FB2FC}"/>
     <cellStyle name="Separador de milhares 4 3 2 4" xfId="445" xr:uid="{3A6032CC-D5C3-4FF4-83C1-FDE20ACDB23B}"/>
+    <cellStyle name="Separador de milhares 4 3 2 4 2" xfId="1301" xr:uid="{6DAA25F8-2A7E-431B-8E15-D59C54861586}"/>
+    <cellStyle name="Separador de milhares 4 3 2 5" xfId="1130" xr:uid="{010CA2A5-370C-4D0E-958B-237B09585839}"/>
+    <cellStyle name="Separador de milhares 4 3 2 6" xfId="788" xr:uid="{528617C0-C358-4688-9C22-31084DFDA4A2}"/>
     <cellStyle name="Separador de milhares 4 3 3" xfId="275" xr:uid="{FF10F3B3-E7F3-4BFD-9BDC-21B7CBE579FC}"/>
     <cellStyle name="Separador de milhares 4 3 3 2" xfId="276" xr:uid="{CA64A849-C5DC-48A1-AD65-275BE9C93117}"/>
     <cellStyle name="Separador de milhares 4 3 3 2 2" xfId="620" xr:uid="{6250DF39-D580-4A2D-B80B-31279516B39E}"/>
+    <cellStyle name="Separador de milhares 4 3 3 2 2 2" xfId="1475" xr:uid="{C0ECAE25-9120-401D-95E1-8DCBA1C8CA15}"/>
+    <cellStyle name="Separador de milhares 4 3 3 2 2 3" xfId="962" xr:uid="{BCE805AD-DD73-4BB9-9580-BDE740C592CE}"/>
     <cellStyle name="Separador de milhares 4 3 3 2 3" xfId="448" xr:uid="{DFF01FF4-C11F-40F9-8F13-242CDADEDA08}"/>
+    <cellStyle name="Separador de milhares 4 3 3 2 3 2" xfId="1304" xr:uid="{C432010F-655E-46E0-B6BC-0F14DEBB55AA}"/>
+    <cellStyle name="Separador de milhares 4 3 3 2 4" xfId="1133" xr:uid="{B760A612-A92A-48A1-B459-9E61E6DBB652}"/>
+    <cellStyle name="Separador de milhares 4 3 3 2 5" xfId="791" xr:uid="{5387FA19-0F33-4CB9-ADB3-9BE15C2926CF}"/>
     <cellStyle name="Separador de milhares 4 3 3 3" xfId="619" xr:uid="{97B3D7EB-6D8A-40CE-AB04-F7B804968890}"/>
+    <cellStyle name="Separador de milhares 4 3 3 3 2" xfId="1474" xr:uid="{54102816-02DB-4283-8C1B-F9E8F9A52D28}"/>
+    <cellStyle name="Separador de milhares 4 3 3 3 3" xfId="961" xr:uid="{E0048089-F1B0-402B-8A42-59C5E13FD45F}"/>
     <cellStyle name="Separador de milhares 4 3 3 4" xfId="447" xr:uid="{C4C08664-0305-4122-ABA4-3FA4832E84D2}"/>
+    <cellStyle name="Separador de milhares 4 3 3 4 2" xfId="1303" xr:uid="{06070660-575A-42C2-93C8-C8B459F49D50}"/>
+    <cellStyle name="Separador de milhares 4 3 3 5" xfId="1132" xr:uid="{A088C05E-AA4A-4615-8A41-B6BFD38F0AEF}"/>
+    <cellStyle name="Separador de milhares 4 3 3 6" xfId="790" xr:uid="{325A3F16-DD6D-4417-A491-3A6F6EA58435}"/>
     <cellStyle name="Separador de milhares 4 3 4" xfId="277" xr:uid="{65B527CF-E729-4252-AA33-444736A0D1CD}"/>
     <cellStyle name="Separador de milhares 4 3 4 2" xfId="621" xr:uid="{801868CD-3BE9-4F3E-B894-0B1D23F55234}"/>
+    <cellStyle name="Separador de milhares 4 3 4 2 2" xfId="1476" xr:uid="{0D401F46-336A-4C60-BA66-9446CC39D8E1}"/>
+    <cellStyle name="Separador de milhares 4 3 4 2 3" xfId="963" xr:uid="{D4D00FA6-4F22-439B-968F-04083DA5915A}"/>
     <cellStyle name="Separador de milhares 4 3 4 3" xfId="449" xr:uid="{6A55259A-72A2-47BF-8A7D-E44FA1260453}"/>
+    <cellStyle name="Separador de milhares 4 3 4 3 2" xfId="1305" xr:uid="{0A585449-3A35-4D86-9200-119C6DCABD74}"/>
+    <cellStyle name="Separador de milhares 4 3 4 4" xfId="1134" xr:uid="{E58CCA32-675A-41FB-AF2A-50207272B5CD}"/>
+    <cellStyle name="Separador de milhares 4 3 4 5" xfId="792" xr:uid="{9707FA57-FC70-453A-9659-4C274DF4CE38}"/>
     <cellStyle name="Separador de milhares 4 3 5" xfId="616" xr:uid="{F0BADC14-74C1-4ADE-BAB6-AE5AD9C047ED}"/>
+    <cellStyle name="Separador de milhares 4 3 5 2" xfId="1471" xr:uid="{BDF5ED06-0140-41FB-9135-6CBC3C73C20E}"/>
+    <cellStyle name="Separador de milhares 4 3 5 3" xfId="958" xr:uid="{6D8E2732-E122-4CBC-B24D-35D3862738E3}"/>
     <cellStyle name="Separador de milhares 4 3 6" xfId="444" xr:uid="{3A1F801B-7557-416F-B18A-4B0B3746EB32}"/>
+    <cellStyle name="Separador de milhares 4 3 6 2" xfId="1300" xr:uid="{98B2CBAD-2016-4B69-957D-04BBB5391732}"/>
+    <cellStyle name="Separador de milhares 4 3 7" xfId="1129" xr:uid="{EEC45D7F-98E3-4F2C-A5B3-AEC4565F5C20}"/>
+    <cellStyle name="Separador de milhares 4 3 8" xfId="787" xr:uid="{4F811679-0574-40FF-80B0-20BC58D0CE46}"/>
     <cellStyle name="Separador de milhares 4 4" xfId="278" xr:uid="{B454ADE7-9437-4F0E-9018-A469E63A372E}"/>
     <cellStyle name="Separador de milhares 4 4 2" xfId="279" xr:uid="{EAB637BA-38E1-4590-9DED-C7E791F6C54B}"/>
     <cellStyle name="Separador de milhares 4 4 2 2" xfId="623" xr:uid="{4E7A624B-983E-4F8E-9470-652BBACE38DF}"/>
+    <cellStyle name="Separador de milhares 4 4 2 2 2" xfId="1478" xr:uid="{021B7742-0354-4CC7-B1FA-3AFDDB9D8407}"/>
+    <cellStyle name="Separador de milhares 4 4 2 2 3" xfId="965" xr:uid="{B6327AC1-96A3-4FD5-92BD-2D79756AB905}"/>
     <cellStyle name="Separador de milhares 4 4 2 3" xfId="451" xr:uid="{17D8CCEF-A0E8-44C3-811C-4B1515C42DBA}"/>
+    <cellStyle name="Separador de milhares 4 4 2 3 2" xfId="1307" xr:uid="{8D3DB006-536D-4805-9BC1-35629CBF6026}"/>
+    <cellStyle name="Separador de milhares 4 4 2 4" xfId="1136" xr:uid="{C85ABF4C-609F-43BC-A664-28885FFED2DB}"/>
+    <cellStyle name="Separador de milhares 4 4 2 5" xfId="794" xr:uid="{5D8D43AA-38DD-46BF-8F00-62CFED4B8038}"/>
     <cellStyle name="Separador de milhares 4 4 3" xfId="622" xr:uid="{C2E8269B-8089-4FFE-8A45-A9E391EF3056}"/>
+    <cellStyle name="Separador de milhares 4 4 3 2" xfId="1477" xr:uid="{31EFFB99-996B-4B9E-B746-59ED3D7B0DF0}"/>
+    <cellStyle name="Separador de milhares 4 4 3 3" xfId="964" xr:uid="{CFC00AD7-4543-468F-9738-C969AD6591E7}"/>
     <cellStyle name="Separador de milhares 4 4 4" xfId="450" xr:uid="{56AEF282-51B2-47A1-9A9D-F1D5CD822191}"/>
+    <cellStyle name="Separador de milhares 4 4 4 2" xfId="1306" xr:uid="{F44F6E6A-BB4E-421F-BC24-8315BC0E9CD0}"/>
+    <cellStyle name="Separador de milhares 4 4 5" xfId="1135" xr:uid="{9F4B368D-3D15-42B1-A835-3C4AE6A803CE}"/>
+    <cellStyle name="Separador de milhares 4 4 6" xfId="793" xr:uid="{CCAE712A-66C0-4241-B28C-68594FAB3669}"/>
     <cellStyle name="Separador de milhares 4 5" xfId="280" xr:uid="{29658F82-F8AF-4EAE-BC27-6F89C769B3BC}"/>
     <cellStyle name="Separador de milhares 4 5 2" xfId="281" xr:uid="{1B481929-029C-44EB-A222-1B13857D368A}"/>
     <cellStyle name="Separador de milhares 4 5 2 2" xfId="625" xr:uid="{AC2D8306-549D-441E-928B-DF90501B8387}"/>
+    <cellStyle name="Separador de milhares 4 5 2 2 2" xfId="1480" xr:uid="{25DB2E3E-351E-417A-8A9D-11BBCA72F865}"/>
+    <cellStyle name="Separador de milhares 4 5 2 2 3" xfId="967" xr:uid="{596F64E8-8BF6-4E2B-A93D-DB0D31B38047}"/>
     <cellStyle name="Separador de milhares 4 5 2 3" xfId="453" xr:uid="{F80A9395-F11F-4720-A266-81222CBA9B32}"/>
+    <cellStyle name="Separador de milhares 4 5 2 3 2" xfId="1309" xr:uid="{E39D2581-BCEA-4999-BC49-3CC327DCD5FA}"/>
+    <cellStyle name="Separador de milhares 4 5 2 4" xfId="1138" xr:uid="{D0D2F4FE-F72C-48E7-A1BE-0401BC4BED4F}"/>
+    <cellStyle name="Separador de milhares 4 5 2 5" xfId="796" xr:uid="{AA50A034-BDA8-4E1D-A302-91FA89A5EA7D}"/>
     <cellStyle name="Separador de milhares 4 5 3" xfId="624" xr:uid="{AFF03554-3E12-4F48-882A-F6275AE450F4}"/>
+    <cellStyle name="Separador de milhares 4 5 3 2" xfId="1479" xr:uid="{1FA60C6B-6D4E-42C8-91F1-37F84DD3CE32}"/>
+    <cellStyle name="Separador de milhares 4 5 3 3" xfId="966" xr:uid="{DF29B07C-BEB6-4003-9C20-3EBE7A430BAC}"/>
     <cellStyle name="Separador de milhares 4 5 4" xfId="452" xr:uid="{999E0B51-07A1-466C-9EC8-651FFAF5EF84}"/>
+    <cellStyle name="Separador de milhares 4 5 4 2" xfId="1308" xr:uid="{52044C60-27BD-4D1F-A109-CD7C9FAB3203}"/>
+    <cellStyle name="Separador de milhares 4 5 5" xfId="1137" xr:uid="{F4038423-9B5A-4E49-A219-78CAA4CE1109}"/>
+    <cellStyle name="Separador de milhares 4 5 6" xfId="795" xr:uid="{317917CF-B9F8-4FD1-80A4-D27EAD711C9F}"/>
     <cellStyle name="Separador de milhares 4 6" xfId="282" xr:uid="{FEC6C403-D7D4-4D8B-8F28-F02F18E448DD}"/>
     <cellStyle name="Separador de milhares 4 6 2" xfId="626" xr:uid="{F9DCBF84-1E54-4B72-88C3-2D716524B878}"/>
+    <cellStyle name="Separador de milhares 4 6 2 2" xfId="1481" xr:uid="{0914E1BE-1482-4B25-8436-BD79BC83DC90}"/>
+    <cellStyle name="Separador de milhares 4 6 2 3" xfId="968" xr:uid="{1EB3A044-169C-4982-BCF2-D13A8C7218EA}"/>
     <cellStyle name="Separador de milhares 4 6 3" xfId="454" xr:uid="{86E2ABF6-FC7D-442B-93E6-5DF44DF00F1A}"/>
+    <cellStyle name="Separador de milhares 4 6 3 2" xfId="1310" xr:uid="{1F1BB968-B189-4AAE-9579-29AC9A4350EC}"/>
+    <cellStyle name="Separador de milhares 4 6 4" xfId="1139" xr:uid="{E2E4A561-2BC1-4887-94DC-2373E4D454D5}"/>
+    <cellStyle name="Separador de milhares 4 6 5" xfId="797" xr:uid="{A9E190DF-B4EE-4840-A937-32E91E1BB2B6}"/>
     <cellStyle name="Separador de milhares 4 7" xfId="603" xr:uid="{0CCC5BA6-D644-4343-B72E-CB0D05476228}"/>
+    <cellStyle name="Separador de milhares 4 7 2" xfId="1458" xr:uid="{0EF7BF1D-8454-4ADC-8AB1-1A3BACA74E2F}"/>
+    <cellStyle name="Separador de milhares 4 7 3" xfId="945" xr:uid="{0662F969-9E54-409C-9CD8-AFF0DD7D8ED2}"/>
     <cellStyle name="Separador de milhares 4 8" xfId="431" xr:uid="{74024CC6-C8F7-4FD5-A35F-0A49A9D0153D}"/>
+    <cellStyle name="Separador de milhares 4 8 2" xfId="1287" xr:uid="{437C93A4-5114-4180-B9AF-303D08C48EAD}"/>
+    <cellStyle name="Separador de milhares 4 9" xfId="1116" xr:uid="{46D2D77A-2AD2-48DF-A114-9819138C55FE}"/>
     <cellStyle name="Separador de milhares 6" xfId="60" xr:uid="{AEAA5E37-B0B2-41CC-A6B5-5F41A0B95FF2}"/>
     <cellStyle name="Separador de milhares?M02 (2)_S04_3  Geração GANUN" xfId="61" xr:uid="{B2310E36-2A4F-4970-9C0B-62260853716E}"/>
     <cellStyle name="Separador de milhares㯟M02 (2)_S04_3  Geração GANUN" xfId="62" xr:uid="{A73D82D4-E8CD-41F3-8C00-EA59560B1AC0}"/>
@@ -2334,132 +3777,347 @@
     <cellStyle name="Vírgula 14" xfId="4" xr:uid="{DA27FEBB-6EAB-4F37-9BC2-F3FDA7C9C262}"/>
     <cellStyle name="Vírgula 14 2" xfId="7" xr:uid="{CC8566D2-7635-4E1C-A6A3-4C1A874239E5}"/>
     <cellStyle name="Vírgula 14 2 2" xfId="492" xr:uid="{33557645-4C5E-4BA2-921E-3559B46CF1F8}"/>
+    <cellStyle name="Vírgula 14 2 2 2" xfId="1348" xr:uid="{9EC2DC45-7E9F-4DB1-A0C3-841B9FD638EF}"/>
+    <cellStyle name="Vírgula 14 2 2 3" xfId="835" xr:uid="{D6E4325C-6437-4E3D-B663-97FCED03EA3F}"/>
     <cellStyle name="Vírgula 14 2 3" xfId="321" xr:uid="{36C48EA2-4BBC-4698-8A6E-3FA664E19306}"/>
+    <cellStyle name="Vírgula 14 2 3 2" xfId="1177" xr:uid="{6F530781-4DC0-429C-8628-D6B824B95ABB}"/>
+    <cellStyle name="Vírgula 14 2 4" xfId="1006" xr:uid="{A152DBDC-F7A1-416B-92D1-DD476D516938}"/>
+    <cellStyle name="Vírgula 14 2 5" xfId="664" xr:uid="{69053FD1-CB8E-43E4-AAB1-6C441E93E1B8}"/>
     <cellStyle name="Vírgula 14 3" xfId="491" xr:uid="{006757D7-1FA1-476A-BB97-B138047CD8E8}"/>
+    <cellStyle name="Vírgula 14 3 2" xfId="1347" xr:uid="{92046A6E-F94F-4BD9-ADF0-AA53415C15E6}"/>
+    <cellStyle name="Vírgula 14 3 3" xfId="834" xr:uid="{F3CEB845-0FD3-4ACD-9CFA-85A8B7477248}"/>
     <cellStyle name="Vírgula 14 4" xfId="320" xr:uid="{08BA0EF5-14B0-49B6-9CFF-4AC5701604BC}"/>
+    <cellStyle name="Vírgula 14 4 2" xfId="1176" xr:uid="{F3C0FF4A-B5AF-4D9E-916A-3ED555BB3BB8}"/>
+    <cellStyle name="Vírgula 14 5" xfId="1005" xr:uid="{363E0161-8F87-457B-B66A-647CF4EAD187}"/>
+    <cellStyle name="Vírgula 14 6" xfId="663" xr:uid="{F201EFFE-88A0-4379-8973-7AA0D9AD9B4A}"/>
     <cellStyle name="Vírgula 2" xfId="67" xr:uid="{23D245E7-0B78-4AEF-93EC-FE1311727707}"/>
+    <cellStyle name="Vírgula 2 10" xfId="1008" xr:uid="{D494E2BD-0458-4CE1-A5BF-6F6781855E41}"/>
+    <cellStyle name="Vírgula 2 11" xfId="666" xr:uid="{E276CE2F-CCAB-42EB-A409-F79D3C27DE5D}"/>
     <cellStyle name="Vírgula 2 2" xfId="68" xr:uid="{8F861DA6-502E-4771-B870-99620B488B59}"/>
     <cellStyle name="Vírgula 2 2 2" xfId="285" xr:uid="{C1091F70-237E-4BE9-B29F-9DB31507C086}"/>
     <cellStyle name="Vírgula 2 2 2 2" xfId="286" xr:uid="{D7763CF4-7B2D-47F0-91B5-1F3CB0894598}"/>
     <cellStyle name="Vírgula 2 2 2 2 2" xfId="630" xr:uid="{16060171-ABF8-4101-B499-DBFF1C31B197}"/>
+    <cellStyle name="Vírgula 2 2 2 2 2 2" xfId="1485" xr:uid="{26819A0B-26BA-42D8-BDC8-86AAB8253D89}"/>
+    <cellStyle name="Vírgula 2 2 2 2 2 3" xfId="972" xr:uid="{02D13B84-B8AB-445B-B8E5-53DD3E63D81E}"/>
     <cellStyle name="Vírgula 2 2 2 2 3" xfId="458" xr:uid="{588823EA-0A83-48C4-A8C0-19F6A3D9E3E3}"/>
+    <cellStyle name="Vírgula 2 2 2 2 3 2" xfId="1314" xr:uid="{1D0AAFE9-7ACA-40BA-8FF3-C43EF161F6D6}"/>
+    <cellStyle name="Vírgula 2 2 2 2 4" xfId="1143" xr:uid="{43B2BDF1-4A2A-4817-A5B2-DDD20960A178}"/>
+    <cellStyle name="Vírgula 2 2 2 2 5" xfId="801" xr:uid="{6836C56F-4924-425D-82C5-1CBFA3E3EAB2}"/>
     <cellStyle name="Vírgula 2 2 2 3" xfId="629" xr:uid="{3D48CAD6-D81D-44BE-9D0B-C1F2D05FD5F6}"/>
+    <cellStyle name="Vírgula 2 2 2 3 2" xfId="1484" xr:uid="{52D845FC-9EA0-4AE8-9359-B121AD9F7933}"/>
+    <cellStyle name="Vírgula 2 2 2 3 3" xfId="971" xr:uid="{B6EDD62D-E4DF-41DF-841F-F2DEAB2255F6}"/>
     <cellStyle name="Vírgula 2 2 2 4" xfId="457" xr:uid="{BA579ECD-6420-4234-A97F-DEAA5BDF2927}"/>
+    <cellStyle name="Vírgula 2 2 2 4 2" xfId="1313" xr:uid="{3570F327-7E51-4928-9D4C-1523D3F40A4A}"/>
+    <cellStyle name="Vírgula 2 2 2 5" xfId="1142" xr:uid="{00781908-FF81-418F-9C5B-76CC89032B86}"/>
+    <cellStyle name="Vírgula 2 2 2 6" xfId="800" xr:uid="{604101DB-0FE2-437E-9A7C-8D367FA4B6E3}"/>
     <cellStyle name="Vírgula 2 2 3" xfId="287" xr:uid="{CB1AE11E-695A-4C6A-BA7F-6952D6C27E2E}"/>
     <cellStyle name="Vírgula 2 2 3 2" xfId="288" xr:uid="{43F86CAB-27EB-4966-97C3-F91099BFABD3}"/>
     <cellStyle name="Vírgula 2 2 3 2 2" xfId="632" xr:uid="{7FB9FF81-018B-41AD-8048-9E92099531C9}"/>
+    <cellStyle name="Vírgula 2 2 3 2 2 2" xfId="1487" xr:uid="{6329C265-6C3A-4E0B-AF74-F4E6B58829D7}"/>
+    <cellStyle name="Vírgula 2 2 3 2 2 3" xfId="974" xr:uid="{F678498F-E856-4547-9DA2-DECA8F4EF067}"/>
     <cellStyle name="Vírgula 2 2 3 2 3" xfId="460" xr:uid="{753FD20E-C93B-465F-ABE8-07CD3107D7AC}"/>
+    <cellStyle name="Vírgula 2 2 3 2 3 2" xfId="1316" xr:uid="{AAF6156A-F18D-42C3-B58B-1A30DBC7953A}"/>
+    <cellStyle name="Vírgula 2 2 3 2 4" xfId="1145" xr:uid="{E63BCAEB-5B6E-49F2-8CF3-9BE866E39C5E}"/>
+    <cellStyle name="Vírgula 2 2 3 2 5" xfId="803" xr:uid="{B9A36810-4771-459D-B319-B98AF665CB3E}"/>
     <cellStyle name="Vírgula 2 2 3 3" xfId="631" xr:uid="{02447D9E-85D5-44F5-ADAD-8DE132035D1C}"/>
+    <cellStyle name="Vírgula 2 2 3 3 2" xfId="1486" xr:uid="{462D51E9-F33F-4B9D-A414-62093208D029}"/>
+    <cellStyle name="Vírgula 2 2 3 3 3" xfId="973" xr:uid="{E96B04CB-EB1B-4839-BA7C-9A799159718C}"/>
     <cellStyle name="Vírgula 2 2 3 4" xfId="459" xr:uid="{8569933D-B7C6-4EB1-8859-D9D08C527866}"/>
+    <cellStyle name="Vírgula 2 2 3 4 2" xfId="1315" xr:uid="{9D1498BF-8C0D-40A9-8CEB-93D18D39A90D}"/>
+    <cellStyle name="Vírgula 2 2 3 5" xfId="1144" xr:uid="{1EF4CB68-33E7-40EE-852A-DAC906F2AB40}"/>
+    <cellStyle name="Vírgula 2 2 3 6" xfId="802" xr:uid="{9185A14A-2C6E-4915-A0FD-6523569C654D}"/>
     <cellStyle name="Vírgula 2 2 4" xfId="289" xr:uid="{CF8CB7C9-A735-40BB-8B95-3BA6E5551154}"/>
     <cellStyle name="Vírgula 2 2 4 2" xfId="633" xr:uid="{1A369BDB-6D52-44D0-88AC-4373467ABB90}"/>
+    <cellStyle name="Vírgula 2 2 4 2 2" xfId="1488" xr:uid="{5BD00C22-DAE9-4F3D-B075-DAA2519744D3}"/>
+    <cellStyle name="Vírgula 2 2 4 2 3" xfId="975" xr:uid="{D413CF2D-EF8A-437B-B93F-55BC25DDCB63}"/>
     <cellStyle name="Vírgula 2 2 4 3" xfId="461" xr:uid="{AF3F8045-C707-4782-BFD6-5DCF681053B7}"/>
+    <cellStyle name="Vírgula 2 2 4 3 2" xfId="1317" xr:uid="{680DA035-38C4-4BCF-9625-F00B2611EBB6}"/>
+    <cellStyle name="Vírgula 2 2 4 4" xfId="1146" xr:uid="{1109D396-5A1B-4829-BCEB-DEE2D745D449}"/>
+    <cellStyle name="Vírgula 2 2 4 5" xfId="804" xr:uid="{77224321-53EB-4CDF-9B44-2E1DF9D1393B}"/>
     <cellStyle name="Vírgula 2 2 5" xfId="284" xr:uid="{7A33DA5B-576A-43FF-9F0D-2C810C295124}"/>
     <cellStyle name="Vírgula 2 2 5 2" xfId="628" xr:uid="{40CBBEDE-E98C-47DA-B4BE-5E7DC9F7235D}"/>
+    <cellStyle name="Vírgula 2 2 5 2 2" xfId="1483" xr:uid="{E9C22FC0-71C9-45D1-A85B-C1D768E24D6D}"/>
+    <cellStyle name="Vírgula 2 2 5 2 3" xfId="970" xr:uid="{6BE889C7-5626-4AF2-B855-C95E9B70601B}"/>
     <cellStyle name="Vírgula 2 2 5 3" xfId="456" xr:uid="{CDDE3425-1A63-4C1E-A2C8-EDE8F851BBF0}"/>
+    <cellStyle name="Vírgula 2 2 5 3 2" xfId="1312" xr:uid="{A320E445-B50E-4E87-A460-6C37476D8862}"/>
+    <cellStyle name="Vírgula 2 2 5 4" xfId="1141" xr:uid="{05A13DED-E563-47E4-83C0-F71B83FC378A}"/>
+    <cellStyle name="Vírgula 2 2 5 5" xfId="799" xr:uid="{49040373-F0E5-42EE-A873-EE3E5D11ACAE}"/>
     <cellStyle name="Vírgula 2 2 6" xfId="495" xr:uid="{4EE51A21-E1E2-43B2-B3EE-C021A4589A78}"/>
+    <cellStyle name="Vírgula 2 2 6 2" xfId="1351" xr:uid="{AEF427C8-FD1E-4022-AB17-CC183A5A3207}"/>
+    <cellStyle name="Vírgula 2 2 6 3" xfId="838" xr:uid="{0268CB68-63BF-4630-84F4-144DEC69ACFC}"/>
     <cellStyle name="Vírgula 2 2 7" xfId="324" xr:uid="{EAB23879-63BB-4692-B6B5-DED494EE455A}"/>
+    <cellStyle name="Vírgula 2 2 7 2" xfId="1180" xr:uid="{31A156DA-DEC0-4B08-9FAB-F07CEE19FFB0}"/>
+    <cellStyle name="Vírgula 2 2 8" xfId="1009" xr:uid="{FF892189-862E-475C-A93B-E473C60FD310}"/>
+    <cellStyle name="Vírgula 2 2 9" xfId="667" xr:uid="{17D7F4B4-C34C-4BAE-AD7F-17081EF6F35A}"/>
     <cellStyle name="Vírgula 2 3" xfId="79" xr:uid="{87728C7C-243B-42C6-971F-6DB56341CB9C}"/>
     <cellStyle name="Vírgula 2 3 2" xfId="291" xr:uid="{8E335244-CF2E-43AD-A951-151D089A5AF9}"/>
     <cellStyle name="Vírgula 2 3 2 2" xfId="635" xr:uid="{674B916A-65C2-4252-8B53-F2F4AF974DCC}"/>
+    <cellStyle name="Vírgula 2 3 2 2 2" xfId="1490" xr:uid="{3DA687F7-98CD-491D-8CA1-37CC19FD8AD9}"/>
+    <cellStyle name="Vírgula 2 3 2 2 3" xfId="977" xr:uid="{CDA0908F-9C4C-4241-9804-7B8D5F378F95}"/>
     <cellStyle name="Vírgula 2 3 2 3" xfId="463" xr:uid="{CF2A5DD2-C4ED-448D-B748-1A73EA104757}"/>
+    <cellStyle name="Vírgula 2 3 2 3 2" xfId="1319" xr:uid="{A1E0DAAE-5AA9-4406-9264-FC1A5F77AC08}"/>
+    <cellStyle name="Vírgula 2 3 2 4" xfId="1148" xr:uid="{4BD06DB0-5107-412C-97C7-923CE1798047}"/>
+    <cellStyle name="Vírgula 2 3 2 5" xfId="806" xr:uid="{1EBE9D2C-826B-4787-9C2D-A776E885F23F}"/>
     <cellStyle name="Vírgula 2 3 3" xfId="290" xr:uid="{A82E86B0-D684-46EC-AD2D-609732B6E092}"/>
     <cellStyle name="Vírgula 2 3 3 2" xfId="634" xr:uid="{C7D17888-EE2A-4525-8405-55B13247FEEB}"/>
+    <cellStyle name="Vírgula 2 3 3 2 2" xfId="1489" xr:uid="{F945BE0B-3539-440B-983B-59D4BD92AE6B}"/>
+    <cellStyle name="Vírgula 2 3 3 2 3" xfId="976" xr:uid="{14FCA834-D45F-4C04-8FB5-6BB6AEDA7897}"/>
     <cellStyle name="Vírgula 2 3 3 3" xfId="462" xr:uid="{9F0002C3-7696-47C5-A218-F12D97AE0F22}"/>
+    <cellStyle name="Vírgula 2 3 3 3 2" xfId="1318" xr:uid="{91A6ED2B-EF61-481A-A81A-36427B945DA2}"/>
+    <cellStyle name="Vírgula 2 3 3 4" xfId="1147" xr:uid="{B23D6DD8-A283-4193-917F-4F98D92512EE}"/>
+    <cellStyle name="Vírgula 2 3 3 5" xfId="805" xr:uid="{67E676B8-4C9E-4AEB-A823-85A5E2FF4728}"/>
     <cellStyle name="Vírgula 2 3 4" xfId="498" xr:uid="{EEC8CC03-2D1F-415B-A615-1FC8CFD7C4D7}"/>
+    <cellStyle name="Vírgula 2 3 4 2" xfId="1354" xr:uid="{DE73F2B1-31B3-40EB-9435-C3F0B63E1594}"/>
+    <cellStyle name="Vírgula 2 3 4 3" xfId="841" xr:uid="{EB0BF484-B8CC-44A4-86DB-9B713CA99185}"/>
     <cellStyle name="Vírgula 2 3 5" xfId="327" xr:uid="{E8E73BDA-3A4B-4784-8D29-539BDEBFC457}"/>
+    <cellStyle name="Vírgula 2 3 5 2" xfId="1183" xr:uid="{532B1180-9811-44E3-8B68-0CF7DB46680C}"/>
+    <cellStyle name="Vírgula 2 3 6" xfId="1012" xr:uid="{676BB2FD-F3A8-497B-8E99-5A48CBC509A0}"/>
+    <cellStyle name="Vírgula 2 3 7" xfId="670" xr:uid="{7C362B4B-4D80-47B1-A0D0-F18C8E8F52CB}"/>
     <cellStyle name="Vírgula 2 4" xfId="292" xr:uid="{2B2E7579-DECE-4F4E-8BA3-5F0ECE644EB7}"/>
     <cellStyle name="Vírgula 2 4 2" xfId="293" xr:uid="{B9218103-088C-44E2-88E9-00A24DA633C3}"/>
     <cellStyle name="Vírgula 2 4 2 2" xfId="637" xr:uid="{3C2EAF7C-357F-460F-8893-8C5B1A5DBB3D}"/>
+    <cellStyle name="Vírgula 2 4 2 2 2" xfId="1492" xr:uid="{631E0D88-D6AC-40E4-A89E-13E3A9C1050E}"/>
+    <cellStyle name="Vírgula 2 4 2 2 3" xfId="979" xr:uid="{211D3B73-2660-44D3-BDFD-515622A67738}"/>
     <cellStyle name="Vírgula 2 4 2 3" xfId="465" xr:uid="{31070A38-8347-45C3-BCD1-8F5F8E63889A}"/>
+    <cellStyle name="Vírgula 2 4 2 3 2" xfId="1321" xr:uid="{787528A5-9B65-4F4F-8F34-AC7A47AC3E69}"/>
+    <cellStyle name="Vírgula 2 4 2 4" xfId="1150" xr:uid="{17797D51-486F-4968-B55C-2AE40DE05E97}"/>
+    <cellStyle name="Vírgula 2 4 2 5" xfId="808" xr:uid="{74BFF667-836E-4A2B-9BC2-EB69C09F41E8}"/>
     <cellStyle name="Vírgula 2 4 3" xfId="636" xr:uid="{244443AF-EE19-4FCB-8B2A-B2BBBB8A460A}"/>
+    <cellStyle name="Vírgula 2 4 3 2" xfId="1491" xr:uid="{EBA80568-7481-4A7D-90FD-3CADEEBA3ECD}"/>
+    <cellStyle name="Vírgula 2 4 3 3" xfId="978" xr:uid="{400017E2-A793-442D-B356-14F2A46AF752}"/>
     <cellStyle name="Vírgula 2 4 4" xfId="464" xr:uid="{70FEC089-106F-4932-B49C-A5C82670DC9F}"/>
+    <cellStyle name="Vírgula 2 4 4 2" xfId="1320" xr:uid="{5E5B8962-FC04-4ED2-8183-0E5161BDDB07}"/>
+    <cellStyle name="Vírgula 2 4 5" xfId="1149" xr:uid="{188438C0-3039-4817-B748-890C608CF948}"/>
+    <cellStyle name="Vírgula 2 4 6" xfId="807" xr:uid="{491B1AF0-20CE-4675-A912-98E07BF3FF5E}"/>
     <cellStyle name="Vírgula 2 5" xfId="294" xr:uid="{852A9B1D-B512-4C0E-91CD-326AEB0BC861}"/>
     <cellStyle name="Vírgula 2 5 2" xfId="638" xr:uid="{28A316F5-D37C-4D6F-AC7A-59F57D95B9D7}"/>
+    <cellStyle name="Vírgula 2 5 2 2" xfId="1493" xr:uid="{1C33A8BD-5C90-4772-A2AA-AAB89B2ECE6B}"/>
+    <cellStyle name="Vírgula 2 5 2 3" xfId="980" xr:uid="{83D4B296-A3CC-4AC4-90A9-E9DFE7D5235E}"/>
     <cellStyle name="Vírgula 2 5 3" xfId="466" xr:uid="{AD40BBC6-EB3B-4F73-9431-E99EB0F20D96}"/>
+    <cellStyle name="Vírgula 2 5 3 2" xfId="1322" xr:uid="{9F265131-A9EA-4D5C-86F7-21B71A8894BD}"/>
+    <cellStyle name="Vírgula 2 5 4" xfId="1151" xr:uid="{7BCD1C40-4A4A-48F5-B8ED-A836B095B052}"/>
+    <cellStyle name="Vírgula 2 5 5" xfId="809" xr:uid="{59DABDDF-7A08-40B9-BFA6-CEE3641D299F}"/>
     <cellStyle name="Vírgula 2 6" xfId="295" xr:uid="{718BAEE3-B928-4BFF-8088-2AD937CDC25A}"/>
     <cellStyle name="Vírgula 2 6 2" xfId="639" xr:uid="{41EA265F-63C3-4E49-B030-79C806111B07}"/>
+    <cellStyle name="Vírgula 2 6 2 2" xfId="1494" xr:uid="{4FADCCBF-F674-403E-B48E-2DD0267968E0}"/>
+    <cellStyle name="Vírgula 2 6 2 3" xfId="981" xr:uid="{D28897CD-445F-4DA3-A2DA-1DBF3803C8AB}"/>
     <cellStyle name="Vírgula 2 6 3" xfId="467" xr:uid="{FBF080AB-0CD8-41A4-AD96-BFAEEA3AD85B}"/>
+    <cellStyle name="Vírgula 2 6 3 2" xfId="1323" xr:uid="{567B02C8-7CD9-439B-8972-7499089232AD}"/>
+    <cellStyle name="Vírgula 2 6 4" xfId="1152" xr:uid="{EED83FAC-565C-4243-9D0C-DAF3711EF661}"/>
+    <cellStyle name="Vírgula 2 6 5" xfId="810" xr:uid="{F2389A33-C4A9-46ED-BFF5-C7BB5FA35695}"/>
     <cellStyle name="Vírgula 2 7" xfId="283" xr:uid="{890EF34C-80B0-47BF-907E-9147FF069874}"/>
     <cellStyle name="Vírgula 2 7 2" xfId="627" xr:uid="{CB0E9C45-D72A-420D-A566-898385A3AF85}"/>
+    <cellStyle name="Vírgula 2 7 2 2" xfId="1482" xr:uid="{52540F58-A2C0-480B-A751-AA0F1C84EE7D}"/>
+    <cellStyle name="Vírgula 2 7 2 3" xfId="969" xr:uid="{6071BCC3-1E61-4A21-8AA1-D4FF7C6FB6DA}"/>
     <cellStyle name="Vírgula 2 7 3" xfId="455" xr:uid="{2F732337-88BB-4246-A1B8-0539D3962E75}"/>
+    <cellStyle name="Vírgula 2 7 3 2" xfId="1311" xr:uid="{A83823D1-B9BF-4F3C-AEEA-767882BFCA09}"/>
+    <cellStyle name="Vírgula 2 7 4" xfId="1140" xr:uid="{2F57D60A-6661-4AC8-8BB9-54C3C6B6CEF2}"/>
+    <cellStyle name="Vírgula 2 7 5" xfId="798" xr:uid="{0F059C9D-691E-4E49-8836-7F8D87427BFE}"/>
     <cellStyle name="Vírgula 2 8" xfId="494" xr:uid="{27714023-454B-4A2E-8CD2-ED838D0843D5}"/>
+    <cellStyle name="Vírgula 2 8 2" xfId="1350" xr:uid="{5EE8B946-8DA0-40DD-AEC6-85F1231065D5}"/>
+    <cellStyle name="Vírgula 2 8 3" xfId="837" xr:uid="{1A95E0F9-BF16-4EC4-88D6-5E64F7194215}"/>
     <cellStyle name="Vírgula 2 9" xfId="323" xr:uid="{9FC7D083-537D-4862-9507-FD6586BE7FF1}"/>
+    <cellStyle name="Vírgula 2 9 2" xfId="1179" xr:uid="{42564851-3CF5-4E18-984B-6F48F8AB3A5A}"/>
     <cellStyle name="Vírgula 3" xfId="69" xr:uid="{94CB4E60-5D56-4537-A0AF-DC9FB92B8EED}"/>
+    <cellStyle name="Vírgula 3 10" xfId="668" xr:uid="{74F3F703-523C-4D25-AA25-991A2F42BDA6}"/>
     <cellStyle name="Vírgula 3 2" xfId="297" xr:uid="{8FC634AC-67E9-46C1-BEC7-9F97AADB2B80}"/>
     <cellStyle name="Vírgula 3 2 2" xfId="298" xr:uid="{A2F24D14-A900-40BE-9E01-B27EA226ED4D}"/>
     <cellStyle name="Vírgula 3 2 2 2" xfId="299" xr:uid="{E0162700-9020-4A5B-AC73-C6A6781A32C0}"/>
     <cellStyle name="Vírgula 3 2 2 2 2" xfId="643" xr:uid="{776B6458-29B8-4C7F-B76F-88695608CC67}"/>
+    <cellStyle name="Vírgula 3 2 2 2 2 2" xfId="1498" xr:uid="{E0EA35EB-58BB-47C2-B0CB-D31BF8CDA1D3}"/>
+    <cellStyle name="Vírgula 3 2 2 2 2 3" xfId="985" xr:uid="{5E5B65CA-966E-464B-B2B0-CE72B859080B}"/>
     <cellStyle name="Vírgula 3 2 2 2 3" xfId="471" xr:uid="{B6D53E78-F183-481F-B17E-05FE9201AB87}"/>
+    <cellStyle name="Vírgula 3 2 2 2 3 2" xfId="1327" xr:uid="{BB8BBA9D-2FBB-4302-9D05-AF044528475D}"/>
+    <cellStyle name="Vírgula 3 2 2 2 4" xfId="1156" xr:uid="{DADA9EA3-40E0-487D-9564-C183FF372DE6}"/>
+    <cellStyle name="Vírgula 3 2 2 2 5" xfId="814" xr:uid="{6903849B-E685-41F8-9D99-C1B950D3C793}"/>
     <cellStyle name="Vírgula 3 2 2 3" xfId="642" xr:uid="{5A5F824F-9F8A-4A60-A4F4-31F7FB8AB6C8}"/>
+    <cellStyle name="Vírgula 3 2 2 3 2" xfId="1497" xr:uid="{26EBD73F-7446-4F91-BC4A-AFAC9C9B3850}"/>
+    <cellStyle name="Vírgula 3 2 2 3 3" xfId="984" xr:uid="{705008D4-593B-44BC-AA9A-EEB0C2489FB2}"/>
     <cellStyle name="Vírgula 3 2 2 4" xfId="470" xr:uid="{B116C055-99C9-44E2-8CED-3352B3903514}"/>
+    <cellStyle name="Vírgula 3 2 2 4 2" xfId="1326" xr:uid="{05D85661-4B3D-4E0D-9445-AB79DE34B929}"/>
+    <cellStyle name="Vírgula 3 2 2 5" xfId="1155" xr:uid="{5202410D-CAC3-44EB-A4A4-0B5A0DB51F80}"/>
+    <cellStyle name="Vírgula 3 2 2 6" xfId="813" xr:uid="{3E1AA5B1-D590-498D-A166-D4C829D53269}"/>
     <cellStyle name="Vírgula 3 2 3" xfId="300" xr:uid="{5ED44724-2182-455E-91E2-C849E7E4B577}"/>
     <cellStyle name="Vírgula 3 2 3 2" xfId="301" xr:uid="{050D52A5-4BF0-4790-B1F3-029B12EFCA74}"/>
     <cellStyle name="Vírgula 3 2 3 2 2" xfId="645" xr:uid="{CE3227AD-89BF-4EB8-8DE4-14BD8188EA97}"/>
+    <cellStyle name="Vírgula 3 2 3 2 2 2" xfId="1500" xr:uid="{9137A444-C09C-4AB0-867D-CC21BE38A1EA}"/>
+    <cellStyle name="Vírgula 3 2 3 2 2 3" xfId="987" xr:uid="{CF0FD1E7-9CBD-487E-8A8F-DB31285C9439}"/>
     <cellStyle name="Vírgula 3 2 3 2 3" xfId="473" xr:uid="{6B8391DD-F060-4ACC-A149-936F9B5FE86B}"/>
+    <cellStyle name="Vírgula 3 2 3 2 3 2" xfId="1329" xr:uid="{43DC78CA-78FB-4C72-87B1-F16F84D764BD}"/>
+    <cellStyle name="Vírgula 3 2 3 2 4" xfId="1158" xr:uid="{FD25818D-17D0-4D3D-9BE1-394760055644}"/>
+    <cellStyle name="Vírgula 3 2 3 2 5" xfId="816" xr:uid="{B0B0AA2D-565C-4815-B2B3-D0C6A1521463}"/>
     <cellStyle name="Vírgula 3 2 3 3" xfId="644" xr:uid="{EB89AB9C-7BEB-499F-A0B3-C351A8AC5F1A}"/>
+    <cellStyle name="Vírgula 3 2 3 3 2" xfId="1499" xr:uid="{0D5B0DFB-7BA4-4342-9AC3-C94A45BB041E}"/>
+    <cellStyle name="Vírgula 3 2 3 3 3" xfId="986" xr:uid="{45070F7F-EB54-4D9A-B858-F713C33A79BE}"/>
     <cellStyle name="Vírgula 3 2 3 4" xfId="472" xr:uid="{32C2050B-1DAE-47C5-95EA-61EE5B756CEE}"/>
+    <cellStyle name="Vírgula 3 2 3 4 2" xfId="1328" xr:uid="{DCC2FF26-6275-46DC-B5BB-00FB18A4DFC3}"/>
+    <cellStyle name="Vírgula 3 2 3 5" xfId="1157" xr:uid="{F58466D5-C59A-4722-9707-5C0960EA1F2C}"/>
+    <cellStyle name="Vírgula 3 2 3 6" xfId="815" xr:uid="{0F2387CA-D927-4DA3-8831-7D23F9F45B7B}"/>
     <cellStyle name="Vírgula 3 2 4" xfId="302" xr:uid="{3BE1B559-E29E-4114-9E48-18D69B2C59CF}"/>
     <cellStyle name="Vírgula 3 2 4 2" xfId="646" xr:uid="{444944BA-9324-4DB9-AED5-A25E8B585AE9}"/>
+    <cellStyle name="Vírgula 3 2 4 2 2" xfId="1501" xr:uid="{55EDD4E6-5BF6-4545-81FB-DDA117D14E23}"/>
+    <cellStyle name="Vírgula 3 2 4 2 3" xfId="988" xr:uid="{C8D5F136-C974-4F8B-BD4B-8EC389BD357C}"/>
     <cellStyle name="Vírgula 3 2 4 3" xfId="474" xr:uid="{C45FE8DB-4391-4AD4-A685-76D1211B310E}"/>
+    <cellStyle name="Vírgula 3 2 4 3 2" xfId="1330" xr:uid="{D1058DFD-9920-4746-B125-FCC44974C507}"/>
+    <cellStyle name="Vírgula 3 2 4 4" xfId="1159" xr:uid="{8AC81E35-A887-4AD6-B143-8F09324BB093}"/>
+    <cellStyle name="Vírgula 3 2 4 5" xfId="817" xr:uid="{5D9BDD24-1DFB-4A5E-9840-EA814DCF61DC}"/>
     <cellStyle name="Vírgula 3 2 5" xfId="641" xr:uid="{6166B19C-79AE-4296-BA24-B50F5095CDBB}"/>
+    <cellStyle name="Vírgula 3 2 5 2" xfId="1496" xr:uid="{26EB8217-24E7-4DC1-8303-CF33AB012998}"/>
+    <cellStyle name="Vírgula 3 2 5 3" xfId="983" xr:uid="{6F61F5EE-0E45-4C00-97F6-714649882245}"/>
     <cellStyle name="Vírgula 3 2 6" xfId="469" xr:uid="{6F49EC96-F87C-4B33-BED6-5B6C329C1409}"/>
+    <cellStyle name="Vírgula 3 2 6 2" xfId="1325" xr:uid="{E992CAFE-06CD-4EDC-96CF-F95B5AD4E28F}"/>
+    <cellStyle name="Vírgula 3 2 7" xfId="1154" xr:uid="{BEB59E3C-06C9-4D10-9D52-0ACB07092B02}"/>
+    <cellStyle name="Vírgula 3 2 8" xfId="812" xr:uid="{575D2F05-23AD-4FF3-90F4-25F3FF6117E7}"/>
     <cellStyle name="Vírgula 3 3" xfId="303" xr:uid="{E4CBD43A-C99F-4369-B5A8-FAF551EC0DA7}"/>
     <cellStyle name="Vírgula 3 3 2" xfId="304" xr:uid="{D317045E-1C02-401D-A8E0-E77B00560E8F}"/>
     <cellStyle name="Vírgula 3 3 2 2" xfId="648" xr:uid="{AE63425F-3A61-4B72-97E7-945B604CE11F}"/>
+    <cellStyle name="Vírgula 3 3 2 2 2" xfId="1503" xr:uid="{69B03373-BFE1-41A9-BDF7-6BF895A00BA9}"/>
+    <cellStyle name="Vírgula 3 3 2 2 3" xfId="990" xr:uid="{A4D6D167-7B14-4FDD-B286-2D2B07DD7F25}"/>
     <cellStyle name="Vírgula 3 3 2 3" xfId="476" xr:uid="{C3B18E7B-9348-4997-A4DF-FA3A5B4FA64B}"/>
+    <cellStyle name="Vírgula 3 3 2 3 2" xfId="1332" xr:uid="{D881035A-6198-4D25-A19A-4EEBE7F5EC1D}"/>
+    <cellStyle name="Vírgula 3 3 2 4" xfId="1161" xr:uid="{C3AFA9FC-AC53-4EBD-A168-2327FB360E8B}"/>
+    <cellStyle name="Vírgula 3 3 2 5" xfId="819" xr:uid="{8772281F-0EDC-4C6B-BD13-8936DEB5FAAD}"/>
     <cellStyle name="Vírgula 3 3 3" xfId="647" xr:uid="{59E59A84-94B4-4C17-B1A4-5CFAF1562154}"/>
+    <cellStyle name="Vírgula 3 3 3 2" xfId="1502" xr:uid="{EA59FB6E-FCA7-4751-9D7D-B727BFB02A23}"/>
+    <cellStyle name="Vírgula 3 3 3 3" xfId="989" xr:uid="{90DB7F08-5BC1-4DD8-9004-F8DA1972BF9C}"/>
     <cellStyle name="Vírgula 3 3 4" xfId="475" xr:uid="{919EFC97-2CB2-4EB3-B100-74E855945F4C}"/>
+    <cellStyle name="Vírgula 3 3 4 2" xfId="1331" xr:uid="{CE1F55AF-31D9-439F-8E10-506F0F2BBB29}"/>
+    <cellStyle name="Vírgula 3 3 5" xfId="1160" xr:uid="{FD87DAB2-469E-4CF8-A547-23E4723189C9}"/>
+    <cellStyle name="Vírgula 3 3 6" xfId="818" xr:uid="{A8269385-79C9-4CBD-ADE9-2BA06699BDFF}"/>
     <cellStyle name="Vírgula 3 4" xfId="305" xr:uid="{5663DFC8-E046-455A-93D8-C01D6E8C70FD}"/>
     <cellStyle name="Vírgula 3 4 2" xfId="306" xr:uid="{C0ED88CE-DAAC-44C0-992F-4B3632A786A3}"/>
     <cellStyle name="Vírgula 3 4 2 2" xfId="650" xr:uid="{AED1B8B6-5F89-49D4-9D66-5D0E1DD6852D}"/>
+    <cellStyle name="Vírgula 3 4 2 2 2" xfId="1505" xr:uid="{4D5B8A43-D4B1-4B2E-B74B-9CCB89572C22}"/>
+    <cellStyle name="Vírgula 3 4 2 2 3" xfId="992" xr:uid="{25D63C34-3C48-45F2-80AF-6084AFB1C609}"/>
     <cellStyle name="Vírgula 3 4 2 3" xfId="478" xr:uid="{1593F280-50FA-48B6-958B-039654641B48}"/>
+    <cellStyle name="Vírgula 3 4 2 3 2" xfId="1334" xr:uid="{292905D4-9AD8-4316-A637-C8026D86EA3D}"/>
+    <cellStyle name="Vírgula 3 4 2 4" xfId="1163" xr:uid="{CCA61C91-17F5-45FB-A322-051E09761800}"/>
+    <cellStyle name="Vírgula 3 4 2 5" xfId="821" xr:uid="{576C0531-48E6-4A64-A020-219323408348}"/>
     <cellStyle name="Vírgula 3 4 3" xfId="649" xr:uid="{B3F1988D-C900-4381-8F11-98ECB4C3B3A4}"/>
+    <cellStyle name="Vírgula 3 4 3 2" xfId="1504" xr:uid="{0FE7CE98-1862-45A4-93D8-36AC8105EB24}"/>
+    <cellStyle name="Vírgula 3 4 3 3" xfId="991" xr:uid="{9C7891DB-CB82-42BC-BC7D-74D5AE0AAB02}"/>
     <cellStyle name="Vírgula 3 4 4" xfId="477" xr:uid="{EFC617FB-5B64-496A-A803-BD1EA9E6A1D3}"/>
+    <cellStyle name="Vírgula 3 4 4 2" xfId="1333" xr:uid="{C166FBC2-D3EC-4E90-8152-9907B6E3D28B}"/>
+    <cellStyle name="Vírgula 3 4 5" xfId="1162" xr:uid="{1D42E960-B0A4-4113-BADD-6056233E1BA6}"/>
+    <cellStyle name="Vírgula 3 4 6" xfId="820" xr:uid="{62363449-9FD1-4D75-AE64-4DA8161ACEF4}"/>
     <cellStyle name="Vírgula 3 5" xfId="307" xr:uid="{B23D0CA7-0483-4D0C-BB05-F744CF2E20E7}"/>
     <cellStyle name="Vírgula 3 5 2" xfId="651" xr:uid="{9BFEE3C1-622C-40A4-91B3-08375574C1CA}"/>
+    <cellStyle name="Vírgula 3 5 2 2" xfId="1506" xr:uid="{8379E592-4760-4EF6-A4F6-5B968AE90485}"/>
+    <cellStyle name="Vírgula 3 5 2 3" xfId="993" xr:uid="{034DD2CF-52FA-4938-9021-7448BF1C4C4C}"/>
     <cellStyle name="Vírgula 3 5 3" xfId="479" xr:uid="{057D9E29-7450-4A95-999B-A767A7871F0F}"/>
+    <cellStyle name="Vírgula 3 5 3 2" xfId="1335" xr:uid="{7AA23EDD-B4AB-41C8-8481-FA798CC83E5B}"/>
+    <cellStyle name="Vírgula 3 5 4" xfId="1164" xr:uid="{B9627179-2BE4-48BA-BE92-C21081AA4952}"/>
+    <cellStyle name="Vírgula 3 5 5" xfId="822" xr:uid="{EEE4E5B8-01AC-43AC-914C-377016923938}"/>
     <cellStyle name="Vírgula 3 6" xfId="296" xr:uid="{9F2B1D8A-10D9-4E82-9824-5A9574B60F54}"/>
     <cellStyle name="Vírgula 3 6 2" xfId="640" xr:uid="{2ED2A58A-0943-45DD-AD1E-4021E6D2396C}"/>
+    <cellStyle name="Vírgula 3 6 2 2" xfId="1495" xr:uid="{332D0C56-23E5-4073-93BF-80B9877D3B8F}"/>
+    <cellStyle name="Vírgula 3 6 2 3" xfId="982" xr:uid="{E65FB522-1EE4-49E0-9EC3-C261AFA186E2}"/>
     <cellStyle name="Vírgula 3 6 3" xfId="468" xr:uid="{A54BE4C5-89C8-43F0-AB02-5AAF6DC85A17}"/>
+    <cellStyle name="Vírgula 3 6 3 2" xfId="1324" xr:uid="{F33CB6D9-80D7-4C93-B400-BC52EA8724E8}"/>
+    <cellStyle name="Vírgula 3 6 4" xfId="1153" xr:uid="{CE1A384E-ECD7-42AE-B588-D90B7AA6922C}"/>
+    <cellStyle name="Vírgula 3 6 5" xfId="811" xr:uid="{4D1C9DE7-5FDD-4E28-997B-BBD97B3916FC}"/>
     <cellStyle name="Vírgula 3 7" xfId="496" xr:uid="{347BEF97-1570-47E8-B2D3-2E9F15B526FE}"/>
+    <cellStyle name="Vírgula 3 7 2" xfId="1352" xr:uid="{16D99344-F823-46E4-B5D2-3ACCC35EAEB8}"/>
+    <cellStyle name="Vírgula 3 7 3" xfId="839" xr:uid="{E8781783-987F-45FB-B821-3E99FE8EC4B5}"/>
     <cellStyle name="Vírgula 3 8" xfId="325" xr:uid="{05F3E423-E6D2-4470-94B6-84EDE8169D53}"/>
+    <cellStyle name="Vírgula 3 8 2" xfId="1181" xr:uid="{D7CEA8BE-0C5A-4329-AEDC-6B69B8223150}"/>
+    <cellStyle name="Vírgula 3 9" xfId="1010" xr:uid="{188B6B94-0269-4657-98D8-976CB4452F6B}"/>
     <cellStyle name="Vírgula 4" xfId="70" xr:uid="{276FF8AD-C58A-4ABF-B8CD-071B7FBF8BC4}"/>
     <cellStyle name="Vírgula 4 2" xfId="309" xr:uid="{A452D5D0-2026-4CE6-8D90-8499B9924FEA}"/>
     <cellStyle name="Vírgula 4 2 2" xfId="310" xr:uid="{4CB631F8-8D48-4EAE-B732-09D2987D16F3}"/>
     <cellStyle name="Vírgula 4 2 2 2" xfId="654" xr:uid="{4DF51476-5A6C-48F9-A39C-BDE08BA14A3E}"/>
+    <cellStyle name="Vírgula 4 2 2 2 2" xfId="1509" xr:uid="{826668FA-BD8B-4D7D-A3B5-414C08CAD46F}"/>
+    <cellStyle name="Vírgula 4 2 2 2 3" xfId="996" xr:uid="{6ED20DD6-F9E5-47F9-8A11-CDDC975174EC}"/>
     <cellStyle name="Vírgula 4 2 2 3" xfId="482" xr:uid="{4D7E0494-9CD7-4B79-9161-BD46A34F056A}"/>
+    <cellStyle name="Vírgula 4 2 2 3 2" xfId="1338" xr:uid="{C18B5E37-A1D3-4CD1-8742-09465C7E1F19}"/>
+    <cellStyle name="Vírgula 4 2 2 4" xfId="1167" xr:uid="{C52590DB-9B42-41A9-9AAB-7AB7491B0945}"/>
+    <cellStyle name="Vírgula 4 2 2 5" xfId="825" xr:uid="{CE79B63D-8883-4BB8-BED9-468B5B66707D}"/>
     <cellStyle name="Vírgula 4 2 3" xfId="653" xr:uid="{AE1BAC41-4C7F-428A-B175-90E37311CDCE}"/>
+    <cellStyle name="Vírgula 4 2 3 2" xfId="1508" xr:uid="{A00FA2DC-DE47-4E7C-983B-D40796AF95BA}"/>
+    <cellStyle name="Vírgula 4 2 3 3" xfId="995" xr:uid="{EB5B5A66-0038-479E-8FDF-B1888BBFF3C1}"/>
     <cellStyle name="Vírgula 4 2 4" xfId="481" xr:uid="{A3AF402F-A516-4158-B384-5A7158AC64D4}"/>
+    <cellStyle name="Vírgula 4 2 4 2" xfId="1337" xr:uid="{AC1E49BD-5838-4ACC-8116-E5FE5A490D18}"/>
+    <cellStyle name="Vírgula 4 2 5" xfId="1166" xr:uid="{B8CA628E-6581-4CEA-B627-B87FDD086730}"/>
+    <cellStyle name="Vírgula 4 2 6" xfId="824" xr:uid="{CA231D94-43B7-428B-84A9-BF41B10141CD}"/>
     <cellStyle name="Vírgula 4 3" xfId="311" xr:uid="{DF5B31A1-9441-48AE-9EC1-6B40C6DBD4E8}"/>
     <cellStyle name="Vírgula 4 3 2" xfId="312" xr:uid="{CDC4674C-0E1D-4F73-9AE3-E095AF40764E}"/>
     <cellStyle name="Vírgula 4 3 2 2" xfId="656" xr:uid="{841233EB-D3EE-4F19-BAC5-5929400AC0A8}"/>
+    <cellStyle name="Vírgula 4 3 2 2 2" xfId="1511" xr:uid="{7F12880E-1F1C-4875-BD05-592122AEB20E}"/>
+    <cellStyle name="Vírgula 4 3 2 2 3" xfId="998" xr:uid="{863C57F0-6DF2-47E1-830C-60C435519D82}"/>
     <cellStyle name="Vírgula 4 3 2 3" xfId="484" xr:uid="{39820B8B-ECEE-4F4D-9736-1E29AE1B8B3B}"/>
+    <cellStyle name="Vírgula 4 3 2 3 2" xfId="1340" xr:uid="{CD42900E-BBDA-4C99-A4C1-D496F444424F}"/>
+    <cellStyle name="Vírgula 4 3 2 4" xfId="1169" xr:uid="{0A11C307-956A-47D7-868D-173B0839315D}"/>
+    <cellStyle name="Vírgula 4 3 2 5" xfId="827" xr:uid="{B5CCF2EB-FF86-416F-B681-C982599327EA}"/>
     <cellStyle name="Vírgula 4 3 3" xfId="655" xr:uid="{621CD30B-A94C-4962-9D63-63BFC9EF2C21}"/>
+    <cellStyle name="Vírgula 4 3 3 2" xfId="1510" xr:uid="{0A055FA6-D939-410A-A6A1-502E9AE4F14E}"/>
+    <cellStyle name="Vírgula 4 3 3 3" xfId="997" xr:uid="{F4E7629C-B4AC-4D52-954B-9F059478BDA8}"/>
     <cellStyle name="Vírgula 4 3 4" xfId="483" xr:uid="{E409E6E1-0635-44E0-9DBE-637D192046F2}"/>
+    <cellStyle name="Vírgula 4 3 4 2" xfId="1339" xr:uid="{0EAA5BDB-A8A9-43EE-B9B4-D9EDDB2B5BF9}"/>
+    <cellStyle name="Vírgula 4 3 5" xfId="1168" xr:uid="{21515A78-0445-49E7-8EC8-F3AA19917C38}"/>
+    <cellStyle name="Vírgula 4 3 6" xfId="826" xr:uid="{DD1B6FA7-6CB7-421F-81BF-8B4D7DA74976}"/>
     <cellStyle name="Vírgula 4 4" xfId="313" xr:uid="{F95AA1AF-CA10-4D5F-96B3-2432489D5141}"/>
     <cellStyle name="Vírgula 4 4 2" xfId="657" xr:uid="{74644312-6E99-4F6C-8D60-F8652032C13D}"/>
+    <cellStyle name="Vírgula 4 4 2 2" xfId="1512" xr:uid="{F8957701-CF4F-4585-B607-A1D2681DC997}"/>
+    <cellStyle name="Vírgula 4 4 2 3" xfId="999" xr:uid="{9A29B81D-58EB-4E25-9F77-FF9B73E509DC}"/>
     <cellStyle name="Vírgula 4 4 3" xfId="485" xr:uid="{7454BCBF-B31A-4356-B464-6595BBD24FAC}"/>
+    <cellStyle name="Vírgula 4 4 3 2" xfId="1341" xr:uid="{770AEB61-9CB3-4400-AB4A-946070382E84}"/>
+    <cellStyle name="Vírgula 4 4 4" xfId="1170" xr:uid="{8D5550A8-4860-4679-BB10-C1FD1601F367}"/>
+    <cellStyle name="Vírgula 4 4 5" xfId="828" xr:uid="{B46AD29F-69CA-47F0-9389-FFE3DAD80F3C}"/>
     <cellStyle name="Vírgula 4 5" xfId="308" xr:uid="{055D7BE8-75F0-4875-9719-15392959B55A}"/>
     <cellStyle name="Vírgula 4 5 2" xfId="652" xr:uid="{757B9CF3-FB9A-4899-86CC-4E58422F3498}"/>
+    <cellStyle name="Vírgula 4 5 2 2" xfId="1507" xr:uid="{09A20D87-AA87-4CFD-BB5A-DD32A16E0A03}"/>
+    <cellStyle name="Vírgula 4 5 2 3" xfId="994" xr:uid="{38646650-8CD2-424E-BA75-E1B868872808}"/>
     <cellStyle name="Vírgula 4 5 3" xfId="480" xr:uid="{E9E465F4-2BCA-4457-97E2-7DCA7B2A975A}"/>
+    <cellStyle name="Vírgula 4 5 3 2" xfId="1336" xr:uid="{3A1CA9F1-D5DD-4A7F-B8BA-F3B91E5F508F}"/>
+    <cellStyle name="Vírgula 4 5 4" xfId="1165" xr:uid="{DBFD9B5F-0513-47E3-8C8B-C74011991196}"/>
+    <cellStyle name="Vírgula 4 5 5" xfId="823" xr:uid="{C67F9264-CD7A-4AEC-B2DF-D82D1E3FDC48}"/>
     <cellStyle name="Vírgula 4 6" xfId="497" xr:uid="{43C0EF7B-2E82-47E6-A742-6526E8000BAA}"/>
+    <cellStyle name="Vírgula 4 6 2" xfId="1353" xr:uid="{CBE37BAC-8A85-4C12-8C30-1249F0F32A42}"/>
+    <cellStyle name="Vírgula 4 6 3" xfId="840" xr:uid="{AEB4F845-CF75-4282-B6D8-F3AFCF10C9C8}"/>
     <cellStyle name="Vírgula 4 7" xfId="326" xr:uid="{027B7E88-A63A-407A-8F9F-63AD84435A9C}"/>
+    <cellStyle name="Vírgula 4 7 2" xfId="1182" xr:uid="{B7A8411C-1DE9-4E5A-9735-B8444058BAFB}"/>
+    <cellStyle name="Vírgula 4 8" xfId="1011" xr:uid="{F823C560-0BEA-44BE-9BB5-7555B60D8FE1}"/>
+    <cellStyle name="Vírgula 4 9" xfId="669" xr:uid="{9EE748E4-627D-4978-B7D5-B1187F126706}"/>
     <cellStyle name="Vírgula 5" xfId="314" xr:uid="{735FAF6D-BC3C-4B4F-B930-16DCA50FEF05}"/>
     <cellStyle name="Vírgula 5 2" xfId="315" xr:uid="{0ED19C1D-5102-4A9C-9232-BC1C4BEA0736}"/>
     <cellStyle name="Vírgula 5 2 2" xfId="659" xr:uid="{126D882C-24CF-4BEA-BAAA-7E18E855912E}"/>
+    <cellStyle name="Vírgula 5 2 2 2" xfId="1514" xr:uid="{17F32B27-BCBA-49F9-973C-82554167759A}"/>
+    <cellStyle name="Vírgula 5 2 2 3" xfId="1001" xr:uid="{1B8D9835-612D-4ADE-A47C-2EDDAEC719CF}"/>
     <cellStyle name="Vírgula 5 2 3" xfId="487" xr:uid="{9570C2ED-22CE-4683-A7EB-132AD2039402}"/>
+    <cellStyle name="Vírgula 5 2 3 2" xfId="1343" xr:uid="{F62D9F4B-4563-4562-B8E4-07EC975406DD}"/>
+    <cellStyle name="Vírgula 5 2 4" xfId="1172" xr:uid="{147D3286-7ACB-4245-BDCC-027B1E4C14C9}"/>
+    <cellStyle name="Vírgula 5 2 5" xfId="830" xr:uid="{8FFFDCE9-EE47-4643-8C02-0BDAF680AC1A}"/>
     <cellStyle name="Vírgula 5 3" xfId="658" xr:uid="{26D0C72D-CA18-48B8-829E-5042A7684BA4}"/>
+    <cellStyle name="Vírgula 5 3 2" xfId="1513" xr:uid="{65E4B60E-2978-42E9-A1BE-418D7D00F152}"/>
+    <cellStyle name="Vírgula 5 3 3" xfId="1000" xr:uid="{80EC7287-5BAB-4F9F-AE8F-ACDFFA1787F5}"/>
     <cellStyle name="Vírgula 5 4" xfId="486" xr:uid="{9BAF758D-F447-43B1-8F09-8C2054B40977}"/>
+    <cellStyle name="Vírgula 5 4 2" xfId="1342" xr:uid="{E7C32791-2B53-49D2-BABE-D72EE1D00C53}"/>
+    <cellStyle name="Vírgula 5 5" xfId="1171" xr:uid="{4C4414E4-01B0-43D9-B93A-1EE845BBC526}"/>
+    <cellStyle name="Vírgula 5 6" xfId="829" xr:uid="{12C65FD0-A8FB-47A6-993F-4CBD4CAC8105}"/>
     <cellStyle name="Vírgula 6" xfId="316" xr:uid="{DB93DA80-80BA-4D9A-A85B-99705B247938}"/>
     <cellStyle name="Vírgula 6 2" xfId="660" xr:uid="{5BE8817F-4928-4EC2-860F-FFB7EE4FCDDD}"/>
+    <cellStyle name="Vírgula 6 2 2" xfId="1515" xr:uid="{D4EB4A21-60A8-4004-B89B-838D549E09B6}"/>
+    <cellStyle name="Vírgula 6 2 3" xfId="1002" xr:uid="{77A12727-AA75-4333-99FE-D7F2DD2DCE28}"/>
     <cellStyle name="Vírgula 6 3" xfId="488" xr:uid="{71259E49-FEF5-4D5F-9F18-940B344D2A6A}"/>
+    <cellStyle name="Vírgula 6 3 2" xfId="1344" xr:uid="{019DA07D-6F2F-4044-9624-C9E05D65DE40}"/>
+    <cellStyle name="Vírgula 6 4" xfId="1173" xr:uid="{30447563-868C-429C-B4B8-27BA748D4312}"/>
+    <cellStyle name="Vírgula 6 5" xfId="831" xr:uid="{D06172D1-0F3B-42CC-8827-6A010B090FB4}"/>
     <cellStyle name="Vírgula 7" xfId="317" xr:uid="{E64571BD-8473-4143-AC12-9D9B7EE92A14}"/>
     <cellStyle name="Vírgula 7 2" xfId="661" xr:uid="{9B36A346-4B60-4351-BBD2-733BB05A464A}"/>
+    <cellStyle name="Vírgula 7 2 2" xfId="1516" xr:uid="{7AC8D4D8-2921-4D47-B6AB-E01D254F450E}"/>
+    <cellStyle name="Vírgula 7 2 3" xfId="1003" xr:uid="{51C52E4A-EC2B-4505-8527-B67295FD1860}"/>
     <cellStyle name="Vírgula 7 3" xfId="489" xr:uid="{478DA184-3888-45CF-A55F-F202EF2741A3}"/>
+    <cellStyle name="Vírgula 7 3 2" xfId="1345" xr:uid="{620628EE-F522-4DFE-8B92-A117AA262D19}"/>
+    <cellStyle name="Vírgula 7 4" xfId="1174" xr:uid="{210C8DBA-5070-466B-AB27-8EAB5CACA13A}"/>
+    <cellStyle name="Vírgula 7 5" xfId="832" xr:uid="{8716AEA8-7663-42C9-BADD-B35F941F492B}"/>
     <cellStyle name="Vírgula 8" xfId="319" xr:uid="{55B95EFB-F366-42A4-816D-436FCCE3798D}"/>
     <cellStyle name="Vírgula 8 2" xfId="662" xr:uid="{295DFA22-1C5D-4482-951E-9D53F17672CC}"/>
+    <cellStyle name="Vírgula 8 2 2" xfId="1517" xr:uid="{84AF881C-6CD2-413E-AD94-3EF1D2382F86}"/>
+    <cellStyle name="Vírgula 8 2 3" xfId="1004" xr:uid="{A427D24C-9211-40B9-915D-441935FFABE7}"/>
     <cellStyle name="Vírgula 8 3" xfId="490" xr:uid="{1FD72443-2C26-4356-BCB5-0FF2D0DF53FA}"/>
+    <cellStyle name="Vírgula 8 3 2" xfId="1346" xr:uid="{6182AAC4-849B-4073-9694-93D37BC62D19}"/>
+    <cellStyle name="Vírgula 8 4" xfId="1175" xr:uid="{3091E466-0D18-4DF3-8A1F-011E2E02F0C8}"/>
+    <cellStyle name="Vírgula 8 5" xfId="833" xr:uid="{22329FB6-51B9-48A3-BA00-C0CCDFE1153A}"/>
     <cellStyle name="Währung [0]_Tabelle1" xfId="71" xr:uid="{8B2BE17C-5F02-40CE-942D-334B8CE96A2D}"/>
     <cellStyle name="Währung_Tabelle1" xfId="72" xr:uid="{1199CBFB-A2E9-4971-8DC1-278A1ACBF67B}"/>
     <cellStyle name="쉼표_DTCF7" xfId="73" xr:uid="{620FEB01-92BA-4615-8CF8-21B9786E6E64}"/>
@@ -2802,10 +4460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACCF86A-9CC4-4469-B7F2-23C54316809C}">
-  <dimension ref="A1:T804"/>
+  <dimension ref="A1:S612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2814,7 +4472,7 @@
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.109375" customWidth="1"/>
@@ -2823,7 +4481,7 @@
     <col min="20" max="20" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2882,162 +4540,101 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
-        <v>45023</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3.3063000000000002</v>
-      </c>
-      <c r="C2" s="5">
-        <v>3.3073000000000001</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2.9933836734693879</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3.4655999999999998</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6">
-        <v>3.2795000000000001</v>
-      </c>
-      <c r="I2" s="6">
-        <v>3.3281000000000001</v>
-      </c>
-      <c r="J2" s="8">
-        <v>3.0471999999999997</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6">
-        <v>3.3395999999999999</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7">
-        <v>3.3224</v>
-      </c>
-      <c r="O2" s="7">
-        <v>3.0478000000000001</v>
-      </c>
-      <c r="P2" s="7">
-        <v>3.2514000000000003</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>3.2238000000000002</v>
-      </c>
-      <c r="R2" s="10">
-        <v>3.131887131618154</v>
-      </c>
-      <c r="S2" s="7">
-        <v>3.2604712430426717</v>
-      </c>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4">
-        <v>45024</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.3063000000000002</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3.3073000000000001</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.9933836734693879</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3.4655999999999998</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6">
-        <v>3.2795000000000001</v>
-      </c>
-      <c r="I3" s="6">
-        <v>3.3281000000000001</v>
-      </c>
-      <c r="J3" s="8">
-        <v>3.0471999999999997</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6">
-        <v>3.3395999999999999</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
-        <v>3.3224</v>
-      </c>
-      <c r="O3" s="7">
-        <v>3.0478000000000001</v>
-      </c>
-      <c r="P3" s="7">
-        <v>3.2514000000000003</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>3.2238000000000002</v>
-      </c>
-      <c r="R3" s="10">
-        <v>3.131887131618154</v>
-      </c>
-      <c r="S3" s="7">
-        <v>3.2604712430426717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="4">
-        <v>45025</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3.3063000000000002</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3.3073000000000001</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2.9933836734693879</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3.4655999999999998</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6">
-        <v>3.2795000000000001</v>
-      </c>
-      <c r="I4" s="6">
-        <v>3.3281000000000001</v>
-      </c>
-      <c r="J4" s="8">
-        <v>3.0471999999999997</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6">
-        <v>3.3395999999999999</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>3.3224</v>
-      </c>
-      <c r="O4" s="7">
-        <v>3.0478000000000001</v>
-      </c>
-      <c r="P4" s="7">
-        <v>3.2514000000000003</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>3.2238000000000002</v>
-      </c>
-      <c r="R4" s="10">
-        <v>3.131887131618154</v>
-      </c>
-      <c r="S4" s="7">
-        <v>3.2604712430426717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1"/>
+        <v>45079</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.9360000000000004</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.9370000000000003</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.6261836734693875</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3.0952999999999999</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>2.9092000000000002</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.9577999999999998</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2.7323200000000001</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
+        <v>2.9693000000000001</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
+        <v>2.9520999999999997</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2.6768000000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2.8811</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2.8534999999999999</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2.7702071084459288</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2.8903894248608535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3057,8 +4654,8 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:19">
+      <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3078,8 +4675,8 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3099,8 +4696,8 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:19">
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3120,8 +4717,8 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3141,8 +4738,8 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:19">
+      <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3162,8 +4759,8 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:19">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3183,8 +4780,8 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:19">
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3204,8 +4801,8 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:19">
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3225,8 +4822,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:19">
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3246,8 +4843,8 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:19">
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3267,8 +4864,8 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:19">
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3289,7 +4886,7 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3310,7 +4907,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="1"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3331,7 +4928,7 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="1"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3352,7 +4949,7 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="1"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3373,7 +4970,7 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="1"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3394,7 +4991,7 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="1"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3415,7 +5012,7 @@
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="1"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3436,7 +5033,7 @@
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="1"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3457,7 +5054,7 @@
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="1"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3478,7 +5075,7 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="1"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3499,7 +5096,7 @@
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="1"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3520,7 +5117,7 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="1"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3541,7 +5138,7 @@
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="1"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3562,7 +5159,7 @@
       <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="1"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3583,7 +5180,7 @@
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="1"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3604,7 +5201,7 @@
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="1"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3625,7 +5222,7 @@
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="1"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3646,7 +5243,7 @@
       <c r="S33" s="3"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="1"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3667,7 +5264,7 @@
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="1"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3688,7 +5285,7 @@
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="1"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3709,7 +5306,7 @@
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="1"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3730,7 +5327,7 @@
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="1"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3751,7 +5348,7 @@
       <c r="S38" s="3"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="1"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3772,7 +5369,7 @@
       <c r="S39" s="3"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="1"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3793,7 +5390,7 @@
       <c r="S40" s="3"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="1"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3814,7 +5411,7 @@
       <c r="S41" s="3"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="1"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3835,7 +5432,7 @@
       <c r="S42" s="3"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="1"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3856,7 +5453,7 @@
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="1"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3877,7 +5474,7 @@
       <c r="S44" s="3"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="1"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3898,7 +5495,7 @@
       <c r="S45" s="3"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="1"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3919,7 +5516,7 @@
       <c r="S46" s="3"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="1"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3940,7 +5537,7 @@
       <c r="S47" s="3"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="1"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3961,7 +5558,7 @@
       <c r="S48" s="3"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="1"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3982,7 +5579,7 @@
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="1"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4003,7 +5600,7 @@
       <c r="S50" s="3"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="1"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4024,7 +5621,7 @@
       <c r="S51" s="3"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="1"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4045,7 +5642,7 @@
       <c r="S52" s="3"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="1"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4066,7 +5663,7 @@
       <c r="S53" s="3"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="1"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4087,7 +5684,7 @@
       <c r="S54" s="3"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="1"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4108,7 +5705,7 @@
       <c r="S55" s="3"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="1"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4129,7 +5726,7 @@
       <c r="S56" s="3"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="1"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4150,7 +5747,7 @@
       <c r="S57" s="3"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="1"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4171,7 +5768,7 @@
       <c r="S58" s="3"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="1"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4192,7 +5789,7 @@
       <c r="S59" s="3"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4213,7 +5810,7 @@
       <c r="S60" s="3"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="1"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4234,7 +5831,7 @@
       <c r="S61" s="3"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="1"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4255,7 +5852,7 @@
       <c r="S62" s="3"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="1"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4276,7 +5873,7 @@
       <c r="S63" s="3"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="1"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4297,7 +5894,7 @@
       <c r="S64" s="3"/>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="1"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4318,7 +5915,7 @@
       <c r="S65" s="3"/>
     </row>
     <row r="66" spans="1:19">
-      <c r="A66" s="1"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4339,7 +5936,7 @@
       <c r="S66" s="3"/>
     </row>
     <row r="67" spans="1:19">
-      <c r="A67" s="1"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4360,7 +5957,7 @@
       <c r="S67" s="3"/>
     </row>
     <row r="68" spans="1:19">
-      <c r="A68" s="1"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4381,7 +5978,7 @@
       <c r="S68" s="3"/>
     </row>
     <row r="69" spans="1:19">
-      <c r="A69" s="1"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4402,7 +5999,7 @@
       <c r="S69" s="3"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="1"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4423,7 +6020,7 @@
       <c r="S70" s="3"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="1"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4444,7 +6041,7 @@
       <c r="S71" s="3"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="1"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4465,7 +6062,7 @@
       <c r="S72" s="3"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="1"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4486,7 +6083,7 @@
       <c r="S73" s="3"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="1"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4507,7 +6104,7 @@
       <c r="S74" s="3"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="1"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4528,7 +6125,7 @@
       <c r="S75" s="3"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="1"/>
+      <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4549,7 +6146,7 @@
       <c r="S76" s="3"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="1"/>
+      <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -4570,7 +6167,7 @@
       <c r="S77" s="3"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="1"/>
+      <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4591,7 +6188,7 @@
       <c r="S78" s="3"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="1"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4612,7 +6209,7 @@
       <c r="S79" s="3"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="1"/>
+      <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4633,7 +6230,7 @@
       <c r="S80" s="3"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="1"/>
+      <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -4654,7 +6251,7 @@
       <c r="S81" s="3"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="1"/>
+      <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -4675,7 +6272,7 @@
       <c r="S82" s="3"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="1"/>
+      <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -4696,7 +6293,7 @@
       <c r="S83" s="3"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="1"/>
+      <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4717,7 +6314,7 @@
       <c r="S84" s="3"/>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="1"/>
+      <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4738,7 +6335,7 @@
       <c r="S85" s="3"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="1"/>
+      <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4759,7 +6356,7 @@
       <c r="S86" s="3"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="1"/>
+      <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4780,7 +6377,7 @@
       <c r="S87" s="3"/>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="1"/>
+      <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4801,7 +6398,7 @@
       <c r="S88" s="3"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="1"/>
+      <c r="A89" s="4"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4822,7 +6419,7 @@
       <c r="S89" s="3"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="1"/>
+      <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4843,7 +6440,7 @@
       <c r="S90" s="3"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="1"/>
+      <c r="A91" s="4"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4864,7 +6461,7 @@
       <c r="S91" s="3"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="1"/>
+      <c r="A92" s="4"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4885,7 +6482,7 @@
       <c r="S92" s="3"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="1"/>
+      <c r="A93" s="4"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4906,7 +6503,7 @@
       <c r="S93" s="3"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="1"/>
+      <c r="A94" s="4"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4927,7 +6524,7 @@
       <c r="S94" s="3"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="1"/>
+      <c r="A95" s="4"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4948,7 +6545,7 @@
       <c r="S95" s="3"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="1"/>
+      <c r="A96" s="4"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4969,7 +6566,7 @@
       <c r="S96" s="3"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="1"/>
+      <c r="A97" s="4"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4990,7 +6587,7 @@
       <c r="S97" s="3"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="1"/>
+      <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -5011,7 +6608,7 @@
       <c r="S98" s="3"/>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="1"/>
+      <c r="A99" s="4"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -15804,4038 +17401,6 @@
       <c r="R612" s="3"/>
       <c r="S612" s="3"/>
     </row>
-    <row r="613" spans="1:19">
-      <c r="A613" s="1"/>
-      <c r="B613" s="3"/>
-      <c r="C613" s="3"/>
-      <c r="D613" s="3"/>
-      <c r="E613" s="3"/>
-      <c r="F613" s="3"/>
-      <c r="G613" s="3"/>
-      <c r="H613" s="3"/>
-      <c r="I613" s="3"/>
-      <c r="J613" s="3"/>
-      <c r="K613" s="3"/>
-      <c r="L613" s="3"/>
-      <c r="M613" s="3"/>
-      <c r="N613" s="3"/>
-      <c r="O613" s="3"/>
-      <c r="P613" s="3"/>
-      <c r="Q613" s="3"/>
-      <c r="R613" s="3"/>
-      <c r="S613" s="3"/>
-    </row>
-    <row r="614" spans="1:19">
-      <c r="A614" s="1"/>
-      <c r="B614" s="3"/>
-      <c r="C614" s="3"/>
-      <c r="D614" s="3"/>
-      <c r="E614" s="3"/>
-      <c r="F614" s="3"/>
-      <c r="G614" s="3"/>
-      <c r="H614" s="3"/>
-      <c r="I614" s="3"/>
-      <c r="J614" s="3"/>
-      <c r="K614" s="3"/>
-      <c r="L614" s="3"/>
-      <c r="M614" s="3"/>
-      <c r="N614" s="3"/>
-      <c r="O614" s="3"/>
-      <c r="P614" s="3"/>
-      <c r="Q614" s="3"/>
-      <c r="R614" s="3"/>
-      <c r="S614" s="3"/>
-    </row>
-    <row r="615" spans="1:19">
-      <c r="A615" s="1"/>
-      <c r="B615" s="3"/>
-      <c r="C615" s="3"/>
-      <c r="D615" s="3"/>
-      <c r="E615" s="3"/>
-      <c r="F615" s="3"/>
-      <c r="G615" s="3"/>
-      <c r="H615" s="3"/>
-      <c r="I615" s="3"/>
-      <c r="J615" s="3"/>
-      <c r="K615" s="3"/>
-      <c r="L615" s="3"/>
-      <c r="M615" s="3"/>
-      <c r="N615" s="3"/>
-      <c r="O615" s="3"/>
-      <c r="P615" s="3"/>
-      <c r="Q615" s="3"/>
-      <c r="R615" s="3"/>
-      <c r="S615" s="3"/>
-    </row>
-    <row r="616" spans="1:19">
-      <c r="A616" s="1"/>
-      <c r="B616" s="3"/>
-      <c r="C616" s="3"/>
-      <c r="D616" s="3"/>
-      <c r="E616" s="3"/>
-      <c r="F616" s="3"/>
-      <c r="G616" s="3"/>
-      <c r="H616" s="3"/>
-      <c r="I616" s="3"/>
-      <c r="J616" s="3"/>
-      <c r="K616" s="3"/>
-      <c r="L616" s="3"/>
-      <c r="M616" s="3"/>
-      <c r="N616" s="3"/>
-      <c r="O616" s="3"/>
-      <c r="P616" s="3"/>
-      <c r="Q616" s="3"/>
-      <c r="R616" s="3"/>
-      <c r="S616" s="3"/>
-    </row>
-    <row r="617" spans="1:19">
-      <c r="A617" s="1"/>
-      <c r="B617" s="3"/>
-      <c r="C617" s="3"/>
-      <c r="D617" s="3"/>
-      <c r="E617" s="3"/>
-      <c r="F617" s="3"/>
-      <c r="G617" s="3"/>
-      <c r="H617" s="3"/>
-      <c r="I617" s="3"/>
-      <c r="J617" s="3"/>
-      <c r="K617" s="3"/>
-      <c r="L617" s="3"/>
-      <c r="M617" s="3"/>
-      <c r="N617" s="3"/>
-      <c r="O617" s="3"/>
-      <c r="P617" s="3"/>
-      <c r="Q617" s="3"/>
-      <c r="R617" s="3"/>
-      <c r="S617" s="3"/>
-    </row>
-    <row r="618" spans="1:19">
-      <c r="A618" s="1"/>
-      <c r="B618" s="3"/>
-      <c r="C618" s="3"/>
-      <c r="D618" s="3"/>
-      <c r="E618" s="3"/>
-      <c r="F618" s="3"/>
-      <c r="G618" s="3"/>
-      <c r="H618" s="3"/>
-      <c r="I618" s="3"/>
-      <c r="J618" s="3"/>
-      <c r="K618" s="3"/>
-      <c r="L618" s="3"/>
-      <c r="M618" s="3"/>
-      <c r="N618" s="3"/>
-      <c r="O618" s="3"/>
-      <c r="P618" s="3"/>
-      <c r="Q618" s="3"/>
-      <c r="R618" s="3"/>
-      <c r="S618" s="3"/>
-    </row>
-    <row r="619" spans="1:19">
-      <c r="A619" s="1"/>
-      <c r="B619" s="3"/>
-      <c r="C619" s="3"/>
-      <c r="D619" s="3"/>
-      <c r="E619" s="3"/>
-      <c r="F619" s="3"/>
-      <c r="G619" s="3"/>
-      <c r="H619" s="3"/>
-      <c r="I619" s="3"/>
-      <c r="J619" s="3"/>
-      <c r="K619" s="3"/>
-      <c r="L619" s="3"/>
-      <c r="M619" s="3"/>
-      <c r="N619" s="3"/>
-      <c r="O619" s="3"/>
-      <c r="P619" s="3"/>
-      <c r="Q619" s="3"/>
-      <c r="R619" s="3"/>
-      <c r="S619" s="3"/>
-    </row>
-    <row r="620" spans="1:19">
-      <c r="A620" s="1"/>
-      <c r="B620" s="3"/>
-      <c r="C620" s="3"/>
-      <c r="D620" s="3"/>
-      <c r="E620" s="3"/>
-      <c r="F620" s="3"/>
-      <c r="G620" s="3"/>
-      <c r="H620" s="3"/>
-      <c r="I620" s="3"/>
-      <c r="J620" s="3"/>
-      <c r="K620" s="3"/>
-      <c r="L620" s="3"/>
-      <c r="M620" s="3"/>
-      <c r="N620" s="3"/>
-      <c r="O620" s="3"/>
-      <c r="P620" s="3"/>
-      <c r="Q620" s="3"/>
-      <c r="R620" s="3"/>
-      <c r="S620" s="3"/>
-    </row>
-    <row r="621" spans="1:19">
-      <c r="A621" s="1"/>
-      <c r="B621" s="3"/>
-      <c r="C621" s="3"/>
-      <c r="D621" s="3"/>
-      <c r="E621" s="3"/>
-      <c r="F621" s="3"/>
-      <c r="G621" s="3"/>
-      <c r="H621" s="3"/>
-      <c r="I621" s="3"/>
-      <c r="J621" s="3"/>
-      <c r="K621" s="3"/>
-      <c r="L621" s="3"/>
-      <c r="M621" s="3"/>
-      <c r="N621" s="3"/>
-      <c r="O621" s="3"/>
-      <c r="P621" s="3"/>
-      <c r="Q621" s="3"/>
-      <c r="R621" s="3"/>
-      <c r="S621" s="3"/>
-    </row>
-    <row r="622" spans="1:19">
-      <c r="A622" s="1"/>
-      <c r="B622" s="3"/>
-      <c r="C622" s="3"/>
-      <c r="D622" s="3"/>
-      <c r="E622" s="3"/>
-      <c r="F622" s="3"/>
-      <c r="G622" s="3"/>
-      <c r="H622" s="3"/>
-      <c r="I622" s="3"/>
-      <c r="J622" s="3"/>
-      <c r="K622" s="3"/>
-      <c r="L622" s="3"/>
-      <c r="M622" s="3"/>
-      <c r="N622" s="3"/>
-      <c r="O622" s="3"/>
-      <c r="P622" s="3"/>
-      <c r="Q622" s="3"/>
-      <c r="R622" s="3"/>
-      <c r="S622" s="3"/>
-    </row>
-    <row r="623" spans="1:19">
-      <c r="A623" s="1"/>
-      <c r="B623" s="3"/>
-      <c r="C623" s="3"/>
-      <c r="D623" s="3"/>
-      <c r="E623" s="3"/>
-      <c r="F623" s="3"/>
-      <c r="G623" s="3"/>
-      <c r="H623" s="3"/>
-      <c r="I623" s="3"/>
-      <c r="J623" s="3"/>
-      <c r="K623" s="3"/>
-      <c r="L623" s="3"/>
-      <c r="M623" s="3"/>
-      <c r="N623" s="3"/>
-      <c r="O623" s="3"/>
-      <c r="P623" s="3"/>
-      <c r="Q623" s="3"/>
-      <c r="R623" s="3"/>
-      <c r="S623" s="3"/>
-    </row>
-    <row r="624" spans="1:19">
-      <c r="A624" s="1"/>
-      <c r="B624" s="3"/>
-      <c r="C624" s="3"/>
-      <c r="D624" s="3"/>
-      <c r="E624" s="3"/>
-      <c r="F624" s="3"/>
-      <c r="G624" s="3"/>
-      <c r="H624" s="3"/>
-      <c r="I624" s="3"/>
-      <c r="J624" s="3"/>
-      <c r="K624" s="3"/>
-      <c r="L624" s="3"/>
-      <c r="M624" s="3"/>
-      <c r="N624" s="3"/>
-      <c r="O624" s="3"/>
-      <c r="P624" s="3"/>
-      <c r="Q624" s="3"/>
-      <c r="R624" s="3"/>
-      <c r="S624" s="3"/>
-    </row>
-    <row r="625" spans="1:19">
-      <c r="A625" s="1"/>
-      <c r="B625" s="3"/>
-      <c r="C625" s="3"/>
-      <c r="D625" s="3"/>
-      <c r="E625" s="3"/>
-      <c r="F625" s="3"/>
-      <c r="G625" s="3"/>
-      <c r="H625" s="3"/>
-      <c r="I625" s="3"/>
-      <c r="J625" s="3"/>
-      <c r="K625" s="3"/>
-      <c r="L625" s="3"/>
-      <c r="M625" s="3"/>
-      <c r="N625" s="3"/>
-      <c r="O625" s="3"/>
-      <c r="P625" s="3"/>
-      <c r="Q625" s="3"/>
-      <c r="R625" s="3"/>
-      <c r="S625" s="3"/>
-    </row>
-    <row r="626" spans="1:19">
-      <c r="A626" s="1"/>
-      <c r="B626" s="3"/>
-      <c r="C626" s="3"/>
-      <c r="D626" s="3"/>
-      <c r="E626" s="3"/>
-      <c r="F626" s="3"/>
-      <c r="G626" s="3"/>
-      <c r="H626" s="3"/>
-      <c r="I626" s="3"/>
-      <c r="J626" s="3"/>
-      <c r="K626" s="3"/>
-      <c r="L626" s="3"/>
-      <c r="M626" s="3"/>
-      <c r="N626" s="3"/>
-      <c r="O626" s="3"/>
-      <c r="P626" s="3"/>
-      <c r="Q626" s="3"/>
-      <c r="R626" s="3"/>
-      <c r="S626" s="3"/>
-    </row>
-    <row r="627" spans="1:19">
-      <c r="A627" s="1"/>
-      <c r="B627" s="3"/>
-      <c r="C627" s="3"/>
-      <c r="D627" s="3"/>
-      <c r="E627" s="3"/>
-      <c r="F627" s="3"/>
-      <c r="G627" s="3"/>
-      <c r="H627" s="3"/>
-      <c r="I627" s="3"/>
-      <c r="J627" s="3"/>
-      <c r="K627" s="3"/>
-      <c r="L627" s="3"/>
-      <c r="M627" s="3"/>
-      <c r="N627" s="3"/>
-      <c r="O627" s="3"/>
-      <c r="P627" s="3"/>
-      <c r="Q627" s="3"/>
-      <c r="R627" s="3"/>
-      <c r="S627" s="3"/>
-    </row>
-    <row r="628" spans="1:19">
-      <c r="A628" s="1"/>
-      <c r="B628" s="3"/>
-      <c r="C628" s="3"/>
-      <c r="D628" s="3"/>
-      <c r="E628" s="3"/>
-      <c r="F628" s="3"/>
-      <c r="G628" s="3"/>
-      <c r="H628" s="3"/>
-      <c r="I628" s="3"/>
-      <c r="J628" s="3"/>
-      <c r="K628" s="3"/>
-      <c r="L628" s="3"/>
-      <c r="M628" s="3"/>
-      <c r="N628" s="3"/>
-      <c r="O628" s="3"/>
-      <c r="P628" s="3"/>
-      <c r="Q628" s="3"/>
-      <c r="R628" s="3"/>
-      <c r="S628" s="3"/>
-    </row>
-    <row r="629" spans="1:19">
-      <c r="A629" s="1"/>
-      <c r="B629" s="3"/>
-      <c r="C629" s="3"/>
-      <c r="D629" s="3"/>
-      <c r="E629" s="3"/>
-      <c r="F629" s="3"/>
-      <c r="G629" s="3"/>
-      <c r="H629" s="3"/>
-      <c r="I629" s="3"/>
-      <c r="J629" s="3"/>
-      <c r="K629" s="3"/>
-      <c r="L629" s="3"/>
-      <c r="M629" s="3"/>
-      <c r="N629" s="3"/>
-      <c r="O629" s="3"/>
-      <c r="P629" s="3"/>
-      <c r="Q629" s="3"/>
-      <c r="R629" s="3"/>
-      <c r="S629" s="3"/>
-    </row>
-    <row r="630" spans="1:19">
-      <c r="A630" s="1"/>
-      <c r="B630" s="3"/>
-      <c r="C630" s="3"/>
-      <c r="D630" s="3"/>
-      <c r="E630" s="3"/>
-      <c r="F630" s="3"/>
-      <c r="G630" s="3"/>
-      <c r="H630" s="3"/>
-      <c r="I630" s="3"/>
-      <c r="J630" s="3"/>
-      <c r="K630" s="3"/>
-      <c r="L630" s="3"/>
-      <c r="M630" s="3"/>
-      <c r="N630" s="3"/>
-      <c r="O630" s="3"/>
-      <c r="P630" s="3"/>
-      <c r="Q630" s="3"/>
-      <c r="R630" s="3"/>
-      <c r="S630" s="3"/>
-    </row>
-    <row r="631" spans="1:19">
-      <c r="A631" s="1"/>
-      <c r="B631" s="3"/>
-      <c r="C631" s="3"/>
-      <c r="D631" s="3"/>
-      <c r="E631" s="3"/>
-      <c r="F631" s="3"/>
-      <c r="G631" s="3"/>
-      <c r="H631" s="3"/>
-      <c r="I631" s="3"/>
-      <c r="J631" s="3"/>
-      <c r="K631" s="3"/>
-      <c r="L631" s="3"/>
-      <c r="M631" s="3"/>
-      <c r="N631" s="3"/>
-      <c r="O631" s="3"/>
-      <c r="P631" s="3"/>
-      <c r="Q631" s="3"/>
-      <c r="R631" s="3"/>
-      <c r="S631" s="3"/>
-    </row>
-    <row r="632" spans="1:19">
-      <c r="A632" s="1"/>
-      <c r="B632" s="3"/>
-      <c r="C632" s="3"/>
-      <c r="D632" s="3"/>
-      <c r="E632" s="3"/>
-      <c r="F632" s="3"/>
-      <c r="G632" s="3"/>
-      <c r="H632" s="3"/>
-      <c r="I632" s="3"/>
-      <c r="J632" s="3"/>
-      <c r="K632" s="3"/>
-      <c r="L632" s="3"/>
-      <c r="M632" s="3"/>
-      <c r="N632" s="3"/>
-      <c r="O632" s="3"/>
-      <c r="P632" s="3"/>
-      <c r="Q632" s="3"/>
-      <c r="R632" s="3"/>
-      <c r="S632" s="3"/>
-    </row>
-    <row r="633" spans="1:19">
-      <c r="A633" s="1"/>
-      <c r="B633" s="3"/>
-      <c r="C633" s="3"/>
-      <c r="D633" s="3"/>
-      <c r="E633" s="3"/>
-      <c r="F633" s="3"/>
-      <c r="G633" s="3"/>
-      <c r="H633" s="3"/>
-      <c r="I633" s="3"/>
-      <c r="J633" s="3"/>
-      <c r="K633" s="3"/>
-      <c r="L633" s="3"/>
-      <c r="M633" s="3"/>
-      <c r="N633" s="3"/>
-      <c r="O633" s="3"/>
-      <c r="P633" s="3"/>
-      <c r="Q633" s="3"/>
-      <c r="R633" s="3"/>
-      <c r="S633" s="3"/>
-    </row>
-    <row r="634" spans="1:19">
-      <c r="A634" s="1"/>
-      <c r="B634" s="3"/>
-      <c r="C634" s="3"/>
-      <c r="D634" s="3"/>
-      <c r="E634" s="3"/>
-      <c r="F634" s="3"/>
-      <c r="G634" s="3"/>
-      <c r="H634" s="3"/>
-      <c r="I634" s="3"/>
-      <c r="J634" s="3"/>
-      <c r="K634" s="3"/>
-      <c r="L634" s="3"/>
-      <c r="M634" s="3"/>
-      <c r="N634" s="3"/>
-      <c r="O634" s="3"/>
-      <c r="P634" s="3"/>
-      <c r="Q634" s="3"/>
-      <c r="R634" s="3"/>
-      <c r="S634" s="3"/>
-    </row>
-    <row r="635" spans="1:19">
-      <c r="A635" s="1"/>
-      <c r="B635" s="3"/>
-      <c r="C635" s="3"/>
-      <c r="D635" s="3"/>
-      <c r="E635" s="3"/>
-      <c r="F635" s="3"/>
-      <c r="G635" s="3"/>
-      <c r="H635" s="3"/>
-      <c r="I635" s="3"/>
-      <c r="J635" s="3"/>
-      <c r="K635" s="3"/>
-      <c r="L635" s="3"/>
-      <c r="M635" s="3"/>
-      <c r="N635" s="3"/>
-      <c r="O635" s="3"/>
-      <c r="P635" s="3"/>
-      <c r="Q635" s="3"/>
-      <c r="R635" s="3"/>
-      <c r="S635" s="3"/>
-    </row>
-    <row r="636" spans="1:19">
-      <c r="A636" s="1"/>
-      <c r="B636" s="3"/>
-      <c r="C636" s="3"/>
-      <c r="D636" s="3"/>
-      <c r="E636" s="3"/>
-      <c r="F636" s="3"/>
-      <c r="G636" s="3"/>
-      <c r="H636" s="3"/>
-      <c r="I636" s="3"/>
-      <c r="J636" s="3"/>
-      <c r="K636" s="3"/>
-      <c r="L636" s="3"/>
-      <c r="M636" s="3"/>
-      <c r="N636" s="3"/>
-      <c r="O636" s="3"/>
-      <c r="P636" s="3"/>
-      <c r="Q636" s="3"/>
-      <c r="R636" s="3"/>
-      <c r="S636" s="3"/>
-    </row>
-    <row r="637" spans="1:19">
-      <c r="A637" s="1"/>
-      <c r="B637" s="3"/>
-      <c r="C637" s="3"/>
-      <c r="D637" s="3"/>
-      <c r="E637" s="3"/>
-      <c r="F637" s="3"/>
-      <c r="G637" s="3"/>
-      <c r="H637" s="3"/>
-      <c r="I637" s="3"/>
-      <c r="J637" s="3"/>
-      <c r="K637" s="3"/>
-      <c r="L637" s="3"/>
-      <c r="M637" s="3"/>
-      <c r="N637" s="3"/>
-      <c r="O637" s="3"/>
-      <c r="P637" s="3"/>
-      <c r="Q637" s="3"/>
-      <c r="R637" s="3"/>
-      <c r="S637" s="3"/>
-    </row>
-    <row r="638" spans="1:19">
-      <c r="A638" s="1"/>
-      <c r="B638" s="3"/>
-      <c r="C638" s="3"/>
-      <c r="D638" s="3"/>
-      <c r="E638" s="3"/>
-      <c r="F638" s="3"/>
-      <c r="G638" s="3"/>
-      <c r="H638" s="3"/>
-      <c r="I638" s="3"/>
-      <c r="J638" s="3"/>
-      <c r="K638" s="3"/>
-      <c r="L638" s="3"/>
-      <c r="M638" s="3"/>
-      <c r="N638" s="3"/>
-      <c r="O638" s="3"/>
-      <c r="P638" s="3"/>
-      <c r="Q638" s="3"/>
-      <c r="R638" s="3"/>
-      <c r="S638" s="3"/>
-    </row>
-    <row r="639" spans="1:19">
-      <c r="A639" s="1"/>
-      <c r="B639" s="3"/>
-      <c r="C639" s="3"/>
-      <c r="D639" s="3"/>
-      <c r="E639" s="3"/>
-      <c r="F639" s="3"/>
-      <c r="G639" s="3"/>
-      <c r="H639" s="3"/>
-      <c r="I639" s="3"/>
-      <c r="J639" s="3"/>
-      <c r="K639" s="3"/>
-      <c r="L639" s="3"/>
-      <c r="M639" s="3"/>
-      <c r="N639" s="3"/>
-      <c r="O639" s="3"/>
-      <c r="P639" s="3"/>
-      <c r="Q639" s="3"/>
-      <c r="R639" s="3"/>
-      <c r="S639" s="3"/>
-    </row>
-    <row r="640" spans="1:19">
-      <c r="A640" s="1"/>
-      <c r="B640" s="3"/>
-      <c r="C640" s="3"/>
-      <c r="D640" s="3"/>
-      <c r="E640" s="3"/>
-      <c r="F640" s="3"/>
-      <c r="G640" s="3"/>
-      <c r="H640" s="3"/>
-      <c r="I640" s="3"/>
-      <c r="J640" s="3"/>
-      <c r="K640" s="3"/>
-      <c r="L640" s="3"/>
-      <c r="M640" s="3"/>
-      <c r="N640" s="3"/>
-      <c r="O640" s="3"/>
-      <c r="P640" s="3"/>
-      <c r="Q640" s="3"/>
-      <c r="R640" s="3"/>
-      <c r="S640" s="3"/>
-    </row>
-    <row r="641" spans="1:19">
-      <c r="A641" s="1"/>
-      <c r="B641" s="3"/>
-      <c r="C641" s="3"/>
-      <c r="D641" s="3"/>
-      <c r="E641" s="3"/>
-      <c r="F641" s="3"/>
-      <c r="G641" s="3"/>
-      <c r="H641" s="3"/>
-      <c r="I641" s="3"/>
-      <c r="J641" s="3"/>
-      <c r="K641" s="3"/>
-      <c r="L641" s="3"/>
-      <c r="M641" s="3"/>
-      <c r="N641" s="3"/>
-      <c r="O641" s="3"/>
-      <c r="P641" s="3"/>
-      <c r="Q641" s="3"/>
-      <c r="R641" s="3"/>
-      <c r="S641" s="3"/>
-    </row>
-    <row r="642" spans="1:19">
-      <c r="A642" s="1"/>
-      <c r="B642" s="3"/>
-      <c r="C642" s="3"/>
-      <c r="D642" s="3"/>
-      <c r="E642" s="3"/>
-      <c r="F642" s="3"/>
-      <c r="G642" s="3"/>
-      <c r="H642" s="3"/>
-      <c r="I642" s="3"/>
-      <c r="J642" s="3"/>
-      <c r="K642" s="3"/>
-      <c r="L642" s="3"/>
-      <c r="M642" s="3"/>
-      <c r="N642" s="3"/>
-      <c r="O642" s="3"/>
-      <c r="P642" s="3"/>
-      <c r="Q642" s="3"/>
-      <c r="R642" s="3"/>
-      <c r="S642" s="3"/>
-    </row>
-    <row r="643" spans="1:19">
-      <c r="A643" s="1"/>
-      <c r="B643" s="3"/>
-      <c r="C643" s="3"/>
-      <c r="D643" s="3"/>
-      <c r="E643" s="3"/>
-      <c r="F643" s="3"/>
-      <c r="G643" s="3"/>
-      <c r="H643" s="3"/>
-      <c r="I643" s="3"/>
-      <c r="J643" s="3"/>
-      <c r="K643" s="3"/>
-      <c r="L643" s="3"/>
-      <c r="M643" s="3"/>
-      <c r="N643" s="3"/>
-      <c r="O643" s="3"/>
-      <c r="P643" s="3"/>
-      <c r="Q643" s="3"/>
-      <c r="R643" s="3"/>
-      <c r="S643" s="3"/>
-    </row>
-    <row r="644" spans="1:19">
-      <c r="A644" s="1"/>
-      <c r="B644" s="3"/>
-      <c r="C644" s="3"/>
-      <c r="D644" s="3"/>
-      <c r="E644" s="3"/>
-      <c r="F644" s="3"/>
-      <c r="G644" s="3"/>
-      <c r="H644" s="3"/>
-      <c r="I644" s="3"/>
-      <c r="J644" s="3"/>
-      <c r="K644" s="3"/>
-      <c r="L644" s="3"/>
-      <c r="M644" s="3"/>
-      <c r="N644" s="3"/>
-      <c r="O644" s="3"/>
-      <c r="P644" s="3"/>
-      <c r="Q644" s="3"/>
-      <c r="R644" s="3"/>
-      <c r="S644" s="3"/>
-    </row>
-    <row r="645" spans="1:19">
-      <c r="A645" s="1"/>
-      <c r="B645" s="3"/>
-      <c r="C645" s="3"/>
-      <c r="D645" s="3"/>
-      <c r="E645" s="3"/>
-      <c r="F645" s="3"/>
-      <c r="G645" s="3"/>
-      <c r="H645" s="3"/>
-      <c r="I645" s="3"/>
-      <c r="J645" s="3"/>
-      <c r="K645" s="3"/>
-      <c r="L645" s="3"/>
-      <c r="M645" s="3"/>
-      <c r="N645" s="3"/>
-      <c r="O645" s="3"/>
-      <c r="P645" s="3"/>
-      <c r="Q645" s="3"/>
-      <c r="R645" s="3"/>
-      <c r="S645" s="3"/>
-    </row>
-    <row r="646" spans="1:19">
-      <c r="A646" s="1"/>
-      <c r="B646" s="3"/>
-      <c r="C646" s="3"/>
-      <c r="D646" s="3"/>
-      <c r="E646" s="3"/>
-      <c r="F646" s="3"/>
-      <c r="G646" s="3"/>
-      <c r="H646" s="3"/>
-      <c r="I646" s="3"/>
-      <c r="J646" s="3"/>
-      <c r="K646" s="3"/>
-      <c r="L646" s="3"/>
-      <c r="M646" s="3"/>
-      <c r="N646" s="3"/>
-      <c r="O646" s="3"/>
-      <c r="P646" s="3"/>
-      <c r="Q646" s="3"/>
-      <c r="R646" s="3"/>
-      <c r="S646" s="3"/>
-    </row>
-    <row r="647" spans="1:19">
-      <c r="A647" s="1"/>
-      <c r="B647" s="3"/>
-      <c r="C647" s="3"/>
-      <c r="D647" s="3"/>
-      <c r="E647" s="3"/>
-      <c r="F647" s="3"/>
-      <c r="G647" s="3"/>
-      <c r="H647" s="3"/>
-      <c r="I647" s="3"/>
-      <c r="J647" s="3"/>
-      <c r="K647" s="3"/>
-      <c r="L647" s="3"/>
-      <c r="M647" s="3"/>
-      <c r="N647" s="3"/>
-      <c r="O647" s="3"/>
-      <c r="P647" s="3"/>
-      <c r="Q647" s="3"/>
-      <c r="R647" s="3"/>
-      <c r="S647" s="3"/>
-    </row>
-    <row r="648" spans="1:19">
-      <c r="A648" s="1"/>
-      <c r="B648" s="3"/>
-      <c r="C648" s="3"/>
-      <c r="D648" s="3"/>
-      <c r="E648" s="3"/>
-      <c r="F648" s="3"/>
-      <c r="G648" s="3"/>
-      <c r="H648" s="3"/>
-      <c r="I648" s="3"/>
-      <c r="J648" s="3"/>
-      <c r="K648" s="3"/>
-      <c r="L648" s="3"/>
-      <c r="M648" s="3"/>
-      <c r="N648" s="3"/>
-      <c r="O648" s="3"/>
-      <c r="P648" s="3"/>
-      <c r="Q648" s="3"/>
-      <c r="R648" s="3"/>
-      <c r="S648" s="3"/>
-    </row>
-    <row r="649" spans="1:19">
-      <c r="A649" s="1"/>
-      <c r="B649" s="3"/>
-      <c r="C649" s="3"/>
-      <c r="D649" s="3"/>
-      <c r="E649" s="3"/>
-      <c r="F649" s="3"/>
-      <c r="G649" s="3"/>
-      <c r="H649" s="3"/>
-      <c r="I649" s="3"/>
-      <c r="J649" s="3"/>
-      <c r="K649" s="3"/>
-      <c r="L649" s="3"/>
-      <c r="M649" s="3"/>
-      <c r="N649" s="3"/>
-      <c r="O649" s="3"/>
-      <c r="P649" s="3"/>
-      <c r="Q649" s="3"/>
-      <c r="R649" s="3"/>
-      <c r="S649" s="3"/>
-    </row>
-    <row r="650" spans="1:19">
-      <c r="A650" s="1"/>
-      <c r="B650" s="3"/>
-      <c r="C650" s="3"/>
-      <c r="D650" s="3"/>
-      <c r="E650" s="3"/>
-      <c r="F650" s="3"/>
-      <c r="G650" s="3"/>
-      <c r="H650" s="3"/>
-      <c r="I650" s="3"/>
-      <c r="J650" s="3"/>
-      <c r="K650" s="3"/>
-      <c r="L650" s="3"/>
-      <c r="M650" s="3"/>
-      <c r="N650" s="3"/>
-      <c r="O650" s="3"/>
-      <c r="P650" s="3"/>
-      <c r="Q650" s="3"/>
-      <c r="R650" s="3"/>
-      <c r="S650" s="3"/>
-    </row>
-    <row r="651" spans="1:19">
-      <c r="A651" s="1"/>
-      <c r="B651" s="3"/>
-      <c r="C651" s="3"/>
-      <c r="D651" s="3"/>
-      <c r="E651" s="3"/>
-      <c r="F651" s="3"/>
-      <c r="G651" s="3"/>
-      <c r="H651" s="3"/>
-      <c r="I651" s="3"/>
-      <c r="J651" s="3"/>
-      <c r="K651" s="3"/>
-      <c r="L651" s="3"/>
-      <c r="M651" s="3"/>
-      <c r="N651" s="3"/>
-      <c r="O651" s="3"/>
-      <c r="P651" s="3"/>
-      <c r="Q651" s="3"/>
-      <c r="R651" s="3"/>
-      <c r="S651" s="3"/>
-    </row>
-    <row r="652" spans="1:19">
-      <c r="A652" s="1"/>
-      <c r="B652" s="3"/>
-      <c r="C652" s="3"/>
-      <c r="D652" s="3"/>
-      <c r="E652" s="3"/>
-      <c r="F652" s="3"/>
-      <c r="G652" s="3"/>
-      <c r="H652" s="3"/>
-      <c r="I652" s="3"/>
-      <c r="J652" s="3"/>
-      <c r="K652" s="3"/>
-      <c r="L652" s="3"/>
-      <c r="M652" s="3"/>
-      <c r="N652" s="3"/>
-      <c r="O652" s="3"/>
-      <c r="P652" s="3"/>
-      <c r="Q652" s="3"/>
-      <c r="R652" s="3"/>
-      <c r="S652" s="3"/>
-    </row>
-    <row r="653" spans="1:19">
-      <c r="A653" s="1"/>
-      <c r="B653" s="3"/>
-      <c r="C653" s="3"/>
-      <c r="D653" s="3"/>
-      <c r="E653" s="3"/>
-      <c r="F653" s="3"/>
-      <c r="G653" s="3"/>
-      <c r="H653" s="3"/>
-      <c r="I653" s="3"/>
-      <c r="J653" s="3"/>
-      <c r="K653" s="3"/>
-      <c r="L653" s="3"/>
-      <c r="M653" s="3"/>
-      <c r="N653" s="3"/>
-      <c r="O653" s="3"/>
-      <c r="P653" s="3"/>
-      <c r="Q653" s="3"/>
-      <c r="R653" s="3"/>
-      <c r="S653" s="3"/>
-    </row>
-    <row r="654" spans="1:19">
-      <c r="A654" s="1"/>
-      <c r="B654" s="3"/>
-      <c r="C654" s="3"/>
-      <c r="D654" s="3"/>
-      <c r="E654" s="3"/>
-      <c r="F654" s="3"/>
-      <c r="G654" s="3"/>
-      <c r="H654" s="3"/>
-      <c r="I654" s="3"/>
-      <c r="J654" s="3"/>
-      <c r="K654" s="3"/>
-      <c r="L654" s="3"/>
-      <c r="M654" s="3"/>
-      <c r="N654" s="3"/>
-      <c r="O654" s="3"/>
-      <c r="P654" s="3"/>
-      <c r="Q654" s="3"/>
-      <c r="R654" s="3"/>
-      <c r="S654" s="3"/>
-    </row>
-    <row r="655" spans="1:19">
-      <c r="A655" s="1"/>
-      <c r="B655" s="3"/>
-      <c r="C655" s="3"/>
-      <c r="D655" s="3"/>
-      <c r="E655" s="3"/>
-      <c r="F655" s="3"/>
-      <c r="G655" s="3"/>
-      <c r="H655" s="3"/>
-      <c r="I655" s="3"/>
-      <c r="J655" s="3"/>
-      <c r="K655" s="3"/>
-      <c r="L655" s="3"/>
-      <c r="M655" s="3"/>
-      <c r="N655" s="3"/>
-      <c r="O655" s="3"/>
-      <c r="P655" s="3"/>
-      <c r="Q655" s="3"/>
-      <c r="R655" s="3"/>
-      <c r="S655" s="3"/>
-    </row>
-    <row r="656" spans="1:19">
-      <c r="A656" s="1"/>
-      <c r="B656" s="3"/>
-      <c r="C656" s="3"/>
-      <c r="D656" s="3"/>
-      <c r="E656" s="3"/>
-      <c r="F656" s="3"/>
-      <c r="G656" s="3"/>
-      <c r="H656" s="3"/>
-      <c r="I656" s="3"/>
-      <c r="J656" s="3"/>
-      <c r="K656" s="3"/>
-      <c r="L656" s="3"/>
-      <c r="M656" s="3"/>
-      <c r="N656" s="3"/>
-      <c r="O656" s="3"/>
-      <c r="P656" s="3"/>
-      <c r="Q656" s="3"/>
-      <c r="R656" s="3"/>
-      <c r="S656" s="3"/>
-    </row>
-    <row r="657" spans="1:19">
-      <c r="A657" s="1"/>
-      <c r="B657" s="3"/>
-      <c r="C657" s="3"/>
-      <c r="D657" s="3"/>
-      <c r="E657" s="3"/>
-      <c r="F657" s="3"/>
-      <c r="G657" s="3"/>
-      <c r="H657" s="3"/>
-      <c r="I657" s="3"/>
-      <c r="J657" s="3"/>
-      <c r="K657" s="3"/>
-      <c r="L657" s="3"/>
-      <c r="M657" s="3"/>
-      <c r="N657" s="3"/>
-      <c r="O657" s="3"/>
-      <c r="P657" s="3"/>
-      <c r="Q657" s="3"/>
-      <c r="R657" s="3"/>
-      <c r="S657" s="3"/>
-    </row>
-    <row r="658" spans="1:19">
-      <c r="A658" s="1"/>
-      <c r="B658" s="3"/>
-      <c r="C658" s="3"/>
-      <c r="D658" s="3"/>
-      <c r="E658" s="3"/>
-      <c r="F658" s="3"/>
-      <c r="G658" s="3"/>
-      <c r="H658" s="3"/>
-      <c r="I658" s="3"/>
-      <c r="J658" s="3"/>
-      <c r="K658" s="3"/>
-      <c r="L658" s="3"/>
-      <c r="M658" s="3"/>
-      <c r="N658" s="3"/>
-      <c r="O658" s="3"/>
-      <c r="P658" s="3"/>
-      <c r="Q658" s="3"/>
-      <c r="R658" s="3"/>
-      <c r="S658" s="3"/>
-    </row>
-    <row r="659" spans="1:19">
-      <c r="A659" s="1"/>
-      <c r="B659" s="3"/>
-      <c r="C659" s="3"/>
-      <c r="D659" s="3"/>
-      <c r="E659" s="3"/>
-      <c r="F659" s="3"/>
-      <c r="G659" s="3"/>
-      <c r="H659" s="3"/>
-      <c r="I659" s="3"/>
-      <c r="J659" s="3"/>
-      <c r="K659" s="3"/>
-      <c r="L659" s="3"/>
-      <c r="M659" s="3"/>
-      <c r="N659" s="3"/>
-      <c r="O659" s="3"/>
-      <c r="P659" s="3"/>
-      <c r="Q659" s="3"/>
-      <c r="R659" s="3"/>
-      <c r="S659" s="3"/>
-    </row>
-    <row r="660" spans="1:19">
-      <c r="A660" s="1"/>
-      <c r="B660" s="3"/>
-      <c r="C660" s="3"/>
-      <c r="D660" s="3"/>
-      <c r="E660" s="3"/>
-      <c r="F660" s="3"/>
-      <c r="G660" s="3"/>
-      <c r="H660" s="3"/>
-      <c r="I660" s="3"/>
-      <c r="J660" s="3"/>
-      <c r="K660" s="3"/>
-      <c r="L660" s="3"/>
-      <c r="M660" s="3"/>
-      <c r="N660" s="3"/>
-      <c r="O660" s="3"/>
-      <c r="P660" s="3"/>
-      <c r="Q660" s="3"/>
-      <c r="R660" s="3"/>
-      <c r="S660" s="3"/>
-    </row>
-    <row r="661" spans="1:19">
-      <c r="A661" s="1"/>
-      <c r="B661" s="3"/>
-      <c r="C661" s="3"/>
-      <c r="D661" s="3"/>
-      <c r="E661" s="3"/>
-      <c r="F661" s="3"/>
-      <c r="G661" s="3"/>
-      <c r="H661" s="3"/>
-      <c r="I661" s="3"/>
-      <c r="J661" s="3"/>
-      <c r="K661" s="3"/>
-      <c r="L661" s="3"/>
-      <c r="M661" s="3"/>
-      <c r="N661" s="3"/>
-      <c r="O661" s="3"/>
-      <c r="P661" s="3"/>
-      <c r="Q661" s="3"/>
-      <c r="R661" s="3"/>
-      <c r="S661" s="3"/>
-    </row>
-    <row r="662" spans="1:19">
-      <c r="A662" s="1"/>
-      <c r="B662" s="3"/>
-      <c r="C662" s="3"/>
-      <c r="D662" s="3"/>
-      <c r="E662" s="3"/>
-      <c r="F662" s="3"/>
-      <c r="G662" s="3"/>
-      <c r="H662" s="3"/>
-      <c r="I662" s="3"/>
-      <c r="J662" s="3"/>
-      <c r="K662" s="3"/>
-      <c r="L662" s="3"/>
-      <c r="M662" s="3"/>
-      <c r="N662" s="3"/>
-      <c r="O662" s="3"/>
-      <c r="P662" s="3"/>
-      <c r="Q662" s="3"/>
-      <c r="R662" s="3"/>
-      <c r="S662" s="3"/>
-    </row>
-    <row r="663" spans="1:19">
-      <c r="A663" s="1"/>
-      <c r="B663" s="3"/>
-      <c r="C663" s="3"/>
-      <c r="D663" s="3"/>
-      <c r="E663" s="3"/>
-      <c r="F663" s="3"/>
-      <c r="G663" s="3"/>
-      <c r="H663" s="3"/>
-      <c r="I663" s="3"/>
-      <c r="J663" s="3"/>
-      <c r="K663" s="3"/>
-      <c r="L663" s="3"/>
-      <c r="M663" s="3"/>
-      <c r="N663" s="3"/>
-      <c r="O663" s="3"/>
-      <c r="P663" s="3"/>
-      <c r="Q663" s="3"/>
-      <c r="R663" s="3"/>
-      <c r="S663" s="3"/>
-    </row>
-    <row r="664" spans="1:19">
-      <c r="A664" s="1"/>
-      <c r="B664" s="3"/>
-      <c r="C664" s="3"/>
-      <c r="D664" s="3"/>
-      <c r="E664" s="3"/>
-      <c r="F664" s="3"/>
-      <c r="G664" s="3"/>
-      <c r="H664" s="3"/>
-      <c r="I664" s="3"/>
-      <c r="J664" s="3"/>
-      <c r="K664" s="3"/>
-      <c r="L664" s="3"/>
-      <c r="M664" s="3"/>
-      <c r="N664" s="3"/>
-      <c r="O664" s="3"/>
-      <c r="P664" s="3"/>
-      <c r="Q664" s="3"/>
-      <c r="R664" s="3"/>
-      <c r="S664" s="3"/>
-    </row>
-    <row r="665" spans="1:19">
-      <c r="A665" s="1"/>
-      <c r="B665" s="3"/>
-      <c r="C665" s="3"/>
-      <c r="D665" s="3"/>
-      <c r="E665" s="3"/>
-      <c r="F665" s="3"/>
-      <c r="G665" s="3"/>
-      <c r="H665" s="3"/>
-      <c r="I665" s="3"/>
-      <c r="J665" s="3"/>
-      <c r="K665" s="3"/>
-      <c r="L665" s="3"/>
-      <c r="M665" s="3"/>
-      <c r="N665" s="3"/>
-      <c r="O665" s="3"/>
-      <c r="P665" s="3"/>
-      <c r="Q665" s="3"/>
-      <c r="R665" s="3"/>
-      <c r="S665" s="3"/>
-    </row>
-    <row r="666" spans="1:19">
-      <c r="A666" s="1"/>
-      <c r="B666" s="3"/>
-      <c r="C666" s="3"/>
-      <c r="D666" s="3"/>
-      <c r="E666" s="3"/>
-      <c r="F666" s="3"/>
-      <c r="G666" s="3"/>
-      <c r="H666" s="3"/>
-      <c r="I666" s="3"/>
-      <c r="J666" s="3"/>
-      <c r="K666" s="3"/>
-      <c r="L666" s="3"/>
-      <c r="M666" s="3"/>
-      <c r="N666" s="3"/>
-      <c r="O666" s="3"/>
-      <c r="P666" s="3"/>
-      <c r="Q666" s="3"/>
-      <c r="R666" s="3"/>
-      <c r="S666" s="3"/>
-    </row>
-    <row r="667" spans="1:19">
-      <c r="A667" s="1"/>
-      <c r="B667" s="3"/>
-      <c r="C667" s="3"/>
-      <c r="D667" s="3"/>
-      <c r="E667" s="3"/>
-      <c r="F667" s="3"/>
-      <c r="G667" s="3"/>
-      <c r="H667" s="3"/>
-      <c r="I667" s="3"/>
-      <c r="J667" s="3"/>
-      <c r="K667" s="3"/>
-      <c r="L667" s="3"/>
-      <c r="M667" s="3"/>
-      <c r="N667" s="3"/>
-      <c r="O667" s="3"/>
-      <c r="P667" s="3"/>
-      <c r="Q667" s="3"/>
-      <c r="R667" s="3"/>
-      <c r="S667" s="3"/>
-    </row>
-    <row r="668" spans="1:19">
-      <c r="A668" s="1"/>
-      <c r="B668" s="3"/>
-      <c r="C668" s="3"/>
-      <c r="D668" s="3"/>
-      <c r="E668" s="3"/>
-      <c r="F668" s="3"/>
-      <c r="G668" s="3"/>
-      <c r="H668" s="3"/>
-      <c r="I668" s="3"/>
-      <c r="J668" s="3"/>
-      <c r="K668" s="3"/>
-      <c r="L668" s="3"/>
-      <c r="M668" s="3"/>
-      <c r="N668" s="3"/>
-      <c r="O668" s="3"/>
-      <c r="P668" s="3"/>
-      <c r="Q668" s="3"/>
-      <c r="R668" s="3"/>
-      <c r="S668" s="3"/>
-    </row>
-    <row r="669" spans="1:19">
-      <c r="A669" s="1"/>
-      <c r="B669" s="3"/>
-      <c r="C669" s="3"/>
-      <c r="D669" s="3"/>
-      <c r="E669" s="3"/>
-      <c r="F669" s="3"/>
-      <c r="G669" s="3"/>
-      <c r="H669" s="3"/>
-      <c r="I669" s="3"/>
-      <c r="J669" s="3"/>
-      <c r="K669" s="3"/>
-      <c r="L669" s="3"/>
-      <c r="M669" s="3"/>
-      <c r="N669" s="3"/>
-      <c r="O669" s="3"/>
-      <c r="P669" s="3"/>
-      <c r="Q669" s="3"/>
-      <c r="R669" s="3"/>
-      <c r="S669" s="3"/>
-    </row>
-    <row r="670" spans="1:19">
-      <c r="A670" s="1"/>
-      <c r="B670" s="3"/>
-      <c r="C670" s="3"/>
-      <c r="D670" s="3"/>
-      <c r="E670" s="3"/>
-      <c r="F670" s="3"/>
-      <c r="G670" s="3"/>
-      <c r="H670" s="3"/>
-      <c r="I670" s="3"/>
-      <c r="J670" s="3"/>
-      <c r="K670" s="3"/>
-      <c r="L670" s="3"/>
-      <c r="M670" s="3"/>
-      <c r="N670" s="3"/>
-      <c r="O670" s="3"/>
-      <c r="P670" s="3"/>
-      <c r="Q670" s="3"/>
-      <c r="R670" s="3"/>
-      <c r="S670" s="3"/>
-    </row>
-    <row r="671" spans="1:19">
-      <c r="A671" s="1"/>
-      <c r="B671" s="3"/>
-      <c r="C671" s="3"/>
-      <c r="D671" s="3"/>
-      <c r="E671" s="3"/>
-      <c r="F671" s="3"/>
-      <c r="G671" s="3"/>
-      <c r="H671" s="3"/>
-      <c r="I671" s="3"/>
-      <c r="J671" s="3"/>
-      <c r="K671" s="3"/>
-      <c r="L671" s="3"/>
-      <c r="M671" s="3"/>
-      <c r="N671" s="3"/>
-      <c r="O671" s="3"/>
-      <c r="P671" s="3"/>
-      <c r="Q671" s="3"/>
-      <c r="R671" s="3"/>
-      <c r="S671" s="3"/>
-    </row>
-    <row r="672" spans="1:19">
-      <c r="A672" s="1"/>
-      <c r="B672" s="3"/>
-      <c r="C672" s="3"/>
-      <c r="D672" s="3"/>
-      <c r="E672" s="3"/>
-      <c r="F672" s="3"/>
-      <c r="G672" s="3"/>
-      <c r="H672" s="3"/>
-      <c r="I672" s="3"/>
-      <c r="J672" s="3"/>
-      <c r="K672" s="3"/>
-      <c r="L672" s="3"/>
-      <c r="M672" s="3"/>
-      <c r="N672" s="3"/>
-      <c r="O672" s="3"/>
-      <c r="P672" s="3"/>
-      <c r="Q672" s="3"/>
-      <c r="R672" s="3"/>
-      <c r="S672" s="3"/>
-    </row>
-    <row r="673" spans="1:19">
-      <c r="A673" s="1"/>
-      <c r="B673" s="3"/>
-      <c r="C673" s="3"/>
-      <c r="D673" s="3"/>
-      <c r="E673" s="3"/>
-      <c r="F673" s="3"/>
-      <c r="G673" s="3"/>
-      <c r="H673" s="3"/>
-      <c r="I673" s="3"/>
-      <c r="J673" s="3"/>
-      <c r="K673" s="3"/>
-      <c r="L673" s="3"/>
-      <c r="M673" s="3"/>
-      <c r="N673" s="3"/>
-      <c r="O673" s="3"/>
-      <c r="P673" s="3"/>
-      <c r="Q673" s="3"/>
-      <c r="R673" s="3"/>
-      <c r="S673" s="3"/>
-    </row>
-    <row r="674" spans="1:19">
-      <c r="A674" s="1"/>
-      <c r="B674" s="3"/>
-      <c r="C674" s="3"/>
-      <c r="D674" s="3"/>
-      <c r="E674" s="3"/>
-      <c r="F674" s="3"/>
-      <c r="G674" s="3"/>
-      <c r="H674" s="3"/>
-      <c r="I674" s="3"/>
-      <c r="J674" s="3"/>
-      <c r="K674" s="3"/>
-      <c r="L674" s="3"/>
-      <c r="M674" s="3"/>
-      <c r="N674" s="3"/>
-      <c r="O674" s="3"/>
-      <c r="P674" s="3"/>
-      <c r="Q674" s="3"/>
-      <c r="R674" s="3"/>
-      <c r="S674" s="3"/>
-    </row>
-    <row r="675" spans="1:19">
-      <c r="A675" s="1"/>
-      <c r="B675" s="3"/>
-      <c r="C675" s="3"/>
-      <c r="D675" s="3"/>
-      <c r="E675" s="3"/>
-      <c r="F675" s="3"/>
-      <c r="G675" s="3"/>
-      <c r="H675" s="3"/>
-      <c r="I675" s="3"/>
-      <c r="J675" s="3"/>
-      <c r="K675" s="3"/>
-      <c r="L675" s="3"/>
-      <c r="M675" s="3"/>
-      <c r="N675" s="3"/>
-      <c r="O675" s="3"/>
-      <c r="P675" s="3"/>
-      <c r="Q675" s="3"/>
-      <c r="R675" s="3"/>
-      <c r="S675" s="3"/>
-    </row>
-    <row r="676" spans="1:19">
-      <c r="A676" s="1"/>
-      <c r="B676" s="3"/>
-      <c r="C676" s="3"/>
-      <c r="D676" s="3"/>
-      <c r="E676" s="3"/>
-      <c r="F676" s="3"/>
-      <c r="G676" s="3"/>
-      <c r="H676" s="3"/>
-      <c r="I676" s="3"/>
-      <c r="J676" s="3"/>
-      <c r="K676" s="3"/>
-      <c r="L676" s="3"/>
-      <c r="M676" s="3"/>
-      <c r="N676" s="3"/>
-      <c r="O676" s="3"/>
-      <c r="P676" s="3"/>
-      <c r="Q676" s="3"/>
-      <c r="R676" s="3"/>
-      <c r="S676" s="3"/>
-    </row>
-    <row r="677" spans="1:19">
-      <c r="A677" s="1"/>
-      <c r="B677" s="3"/>
-      <c r="C677" s="3"/>
-      <c r="D677" s="3"/>
-      <c r="E677" s="3"/>
-      <c r="F677" s="3"/>
-      <c r="G677" s="3"/>
-      <c r="H677" s="3"/>
-      <c r="I677" s="3"/>
-      <c r="J677" s="3"/>
-      <c r="K677" s="3"/>
-      <c r="L677" s="3"/>
-      <c r="M677" s="3"/>
-      <c r="N677" s="3"/>
-      <c r="O677" s="3"/>
-      <c r="P677" s="3"/>
-      <c r="Q677" s="3"/>
-      <c r="R677" s="3"/>
-      <c r="S677" s="3"/>
-    </row>
-    <row r="678" spans="1:19">
-      <c r="A678" s="1"/>
-      <c r="B678" s="3"/>
-      <c r="C678" s="3"/>
-      <c r="D678" s="3"/>
-      <c r="E678" s="3"/>
-      <c r="F678" s="3"/>
-      <c r="G678" s="3"/>
-      <c r="H678" s="3"/>
-      <c r="I678" s="3"/>
-      <c r="J678" s="3"/>
-      <c r="K678" s="3"/>
-      <c r="L678" s="3"/>
-      <c r="M678" s="3"/>
-      <c r="N678" s="3"/>
-      <c r="O678" s="3"/>
-      <c r="P678" s="3"/>
-      <c r="Q678" s="3"/>
-      <c r="R678" s="3"/>
-      <c r="S678" s="3"/>
-    </row>
-    <row r="679" spans="1:19">
-      <c r="A679" s="1"/>
-      <c r="B679" s="3"/>
-      <c r="C679" s="3"/>
-      <c r="D679" s="3"/>
-      <c r="E679" s="3"/>
-      <c r="F679" s="3"/>
-      <c r="G679" s="3"/>
-      <c r="H679" s="3"/>
-      <c r="I679" s="3"/>
-      <c r="J679" s="3"/>
-      <c r="K679" s="3"/>
-      <c r="L679" s="3"/>
-      <c r="M679" s="3"/>
-      <c r="N679" s="3"/>
-      <c r="O679" s="3"/>
-      <c r="P679" s="3"/>
-      <c r="Q679" s="3"/>
-      <c r="R679" s="3"/>
-      <c r="S679" s="3"/>
-    </row>
-    <row r="680" spans="1:19">
-      <c r="A680" s="1"/>
-      <c r="B680" s="3"/>
-      <c r="C680" s="3"/>
-      <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
-      <c r="F680" s="3"/>
-      <c r="G680" s="3"/>
-      <c r="H680" s="3"/>
-      <c r="I680" s="3"/>
-      <c r="J680" s="3"/>
-      <c r="K680" s="3"/>
-      <c r="L680" s="3"/>
-      <c r="M680" s="3"/>
-      <c r="N680" s="3"/>
-      <c r="O680" s="3"/>
-      <c r="P680" s="3"/>
-      <c r="Q680" s="3"/>
-      <c r="R680" s="3"/>
-      <c r="S680" s="3"/>
-    </row>
-    <row r="681" spans="1:19">
-      <c r="A681" s="1"/>
-      <c r="B681" s="3"/>
-      <c r="C681" s="3"/>
-      <c r="D681" s="3"/>
-      <c r="E681" s="3"/>
-      <c r="F681" s="3"/>
-      <c r="G681" s="3"/>
-      <c r="H681" s="3"/>
-      <c r="I681" s="3"/>
-      <c r="J681" s="3"/>
-      <c r="K681" s="3"/>
-      <c r="L681" s="3"/>
-      <c r="M681" s="3"/>
-      <c r="N681" s="3"/>
-      <c r="O681" s="3"/>
-      <c r="P681" s="3"/>
-      <c r="Q681" s="3"/>
-      <c r="R681" s="3"/>
-      <c r="S681" s="3"/>
-    </row>
-    <row r="682" spans="1:19">
-      <c r="A682" s="1"/>
-      <c r="B682" s="3"/>
-      <c r="C682" s="3"/>
-      <c r="D682" s="3"/>
-      <c r="E682" s="3"/>
-      <c r="F682" s="3"/>
-      <c r="G682" s="3"/>
-      <c r="H682" s="3"/>
-      <c r="I682" s="3"/>
-      <c r="J682" s="3"/>
-      <c r="K682" s="3"/>
-      <c r="L682" s="3"/>
-      <c r="M682" s="3"/>
-      <c r="N682" s="3"/>
-      <c r="O682" s="3"/>
-      <c r="P682" s="3"/>
-      <c r="Q682" s="3"/>
-      <c r="R682" s="3"/>
-      <c r="S682" s="3"/>
-    </row>
-    <row r="683" spans="1:19">
-      <c r="A683" s="1"/>
-      <c r="B683" s="3"/>
-      <c r="C683" s="3"/>
-      <c r="D683" s="3"/>
-      <c r="E683" s="3"/>
-      <c r="F683" s="3"/>
-      <c r="G683" s="3"/>
-      <c r="H683" s="3"/>
-      <c r="I683" s="3"/>
-      <c r="J683" s="3"/>
-      <c r="K683" s="3"/>
-      <c r="L683" s="3"/>
-      <c r="M683" s="3"/>
-      <c r="N683" s="3"/>
-      <c r="O683" s="3"/>
-      <c r="P683" s="3"/>
-      <c r="Q683" s="3"/>
-      <c r="R683" s="3"/>
-      <c r="S683" s="3"/>
-    </row>
-    <row r="684" spans="1:19">
-      <c r="A684" s="1"/>
-      <c r="B684" s="3"/>
-      <c r="C684" s="3"/>
-      <c r="D684" s="3"/>
-      <c r="E684" s="3"/>
-      <c r="F684" s="3"/>
-      <c r="G684" s="3"/>
-      <c r="H684" s="3"/>
-      <c r="I684" s="3"/>
-      <c r="J684" s="3"/>
-      <c r="K684" s="3"/>
-      <c r="L684" s="3"/>
-      <c r="M684" s="3"/>
-      <c r="N684" s="3"/>
-      <c r="O684" s="3"/>
-      <c r="P684" s="3"/>
-      <c r="Q684" s="3"/>
-      <c r="R684" s="3"/>
-      <c r="S684" s="3"/>
-    </row>
-    <row r="685" spans="1:19">
-      <c r="A685" s="1"/>
-      <c r="B685" s="3"/>
-      <c r="C685" s="3"/>
-      <c r="D685" s="3"/>
-      <c r="E685" s="3"/>
-      <c r="F685" s="3"/>
-      <c r="G685" s="3"/>
-      <c r="H685" s="3"/>
-      <c r="I685" s="3"/>
-      <c r="J685" s="3"/>
-      <c r="K685" s="3"/>
-      <c r="L685" s="3"/>
-      <c r="M685" s="3"/>
-      <c r="N685" s="3"/>
-      <c r="O685" s="3"/>
-      <c r="P685" s="3"/>
-      <c r="Q685" s="3"/>
-      <c r="R685" s="3"/>
-      <c r="S685" s="3"/>
-    </row>
-    <row r="686" spans="1:19">
-      <c r="A686" s="1"/>
-      <c r="B686" s="3"/>
-      <c r="C686" s="3"/>
-      <c r="D686" s="3"/>
-      <c r="E686" s="3"/>
-      <c r="F686" s="3"/>
-      <c r="G686" s="3"/>
-      <c r="H686" s="3"/>
-      <c r="I686" s="3"/>
-      <c r="J686" s="3"/>
-      <c r="K686" s="3"/>
-      <c r="L686" s="3"/>
-      <c r="M686" s="3"/>
-      <c r="N686" s="3"/>
-      <c r="O686" s="3"/>
-      <c r="P686" s="3"/>
-      <c r="Q686" s="3"/>
-      <c r="R686" s="3"/>
-      <c r="S686" s="3"/>
-    </row>
-    <row r="687" spans="1:19">
-      <c r="A687" s="1"/>
-      <c r="B687" s="3"/>
-      <c r="C687" s="3"/>
-      <c r="D687" s="3"/>
-      <c r="E687" s="3"/>
-      <c r="F687" s="3"/>
-      <c r="G687" s="3"/>
-      <c r="H687" s="3"/>
-      <c r="I687" s="3"/>
-      <c r="J687" s="3"/>
-      <c r="K687" s="3"/>
-      <c r="L687" s="3"/>
-      <c r="M687" s="3"/>
-      <c r="N687" s="3"/>
-      <c r="O687" s="3"/>
-      <c r="P687" s="3"/>
-      <c r="Q687" s="3"/>
-      <c r="R687" s="3"/>
-      <c r="S687" s="3"/>
-    </row>
-    <row r="688" spans="1:19">
-      <c r="A688" s="1"/>
-      <c r="B688" s="3"/>
-      <c r="C688" s="3"/>
-      <c r="D688" s="3"/>
-      <c r="E688" s="3"/>
-      <c r="F688" s="3"/>
-      <c r="G688" s="3"/>
-      <c r="H688" s="3"/>
-      <c r="I688" s="3"/>
-      <c r="J688" s="3"/>
-      <c r="K688" s="3"/>
-      <c r="L688" s="3"/>
-      <c r="M688" s="3"/>
-      <c r="N688" s="3"/>
-      <c r="O688" s="3"/>
-      <c r="P688" s="3"/>
-      <c r="Q688" s="3"/>
-      <c r="R688" s="3"/>
-      <c r="S688" s="3"/>
-    </row>
-    <row r="689" spans="1:19">
-      <c r="A689" s="1"/>
-      <c r="B689" s="3"/>
-      <c r="C689" s="3"/>
-      <c r="D689" s="3"/>
-      <c r="E689" s="3"/>
-      <c r="F689" s="3"/>
-      <c r="G689" s="3"/>
-      <c r="H689" s="3"/>
-      <c r="I689" s="3"/>
-      <c r="J689" s="3"/>
-      <c r="K689" s="3"/>
-      <c r="L689" s="3"/>
-      <c r="M689" s="3"/>
-      <c r="N689" s="3"/>
-      <c r="O689" s="3"/>
-      <c r="P689" s="3"/>
-      <c r="Q689" s="3"/>
-      <c r="R689" s="3"/>
-      <c r="S689" s="3"/>
-    </row>
-    <row r="690" spans="1:19">
-      <c r="A690" s="1"/>
-      <c r="B690" s="3"/>
-      <c r="C690" s="3"/>
-      <c r="D690" s="3"/>
-      <c r="E690" s="3"/>
-      <c r="F690" s="3"/>
-      <c r="G690" s="3"/>
-      <c r="H690" s="3"/>
-      <c r="I690" s="3"/>
-      <c r="J690" s="3"/>
-      <c r="K690" s="3"/>
-      <c r="L690" s="3"/>
-      <c r="M690" s="3"/>
-      <c r="N690" s="3"/>
-      <c r="O690" s="3"/>
-      <c r="P690" s="3"/>
-      <c r="Q690" s="3"/>
-      <c r="R690" s="3"/>
-      <c r="S690" s="3"/>
-    </row>
-    <row r="691" spans="1:19">
-      <c r="A691" s="1"/>
-      <c r="B691" s="3"/>
-      <c r="C691" s="3"/>
-      <c r="D691" s="3"/>
-      <c r="E691" s="3"/>
-      <c r="F691" s="3"/>
-      <c r="G691" s="3"/>
-      <c r="H691" s="3"/>
-      <c r="I691" s="3"/>
-      <c r="J691" s="3"/>
-      <c r="K691" s="3"/>
-      <c r="L691" s="3"/>
-      <c r="M691" s="3"/>
-      <c r="N691" s="3"/>
-      <c r="O691" s="3"/>
-      <c r="P691" s="3"/>
-      <c r="Q691" s="3"/>
-      <c r="R691" s="3"/>
-      <c r="S691" s="3"/>
-    </row>
-    <row r="692" spans="1:19">
-      <c r="A692" s="1"/>
-      <c r="B692" s="3"/>
-      <c r="C692" s="3"/>
-      <c r="D692" s="3"/>
-      <c r="E692" s="3"/>
-      <c r="F692" s="3"/>
-      <c r="G692" s="3"/>
-      <c r="H692" s="3"/>
-      <c r="I692" s="3"/>
-      <c r="J692" s="3"/>
-      <c r="K692" s="3"/>
-      <c r="L692" s="3"/>
-      <c r="M692" s="3"/>
-      <c r="N692" s="3"/>
-      <c r="O692" s="3"/>
-      <c r="P692" s="3"/>
-      <c r="Q692" s="3"/>
-      <c r="R692" s="3"/>
-      <c r="S692" s="3"/>
-    </row>
-    <row r="693" spans="1:19">
-      <c r="A693" s="1"/>
-      <c r="B693" s="3"/>
-      <c r="C693" s="3"/>
-      <c r="D693" s="3"/>
-      <c r="E693" s="3"/>
-      <c r="F693" s="3"/>
-      <c r="G693" s="3"/>
-      <c r="H693" s="3"/>
-      <c r="I693" s="3"/>
-      <c r="J693" s="3"/>
-      <c r="K693" s="3"/>
-      <c r="L693" s="3"/>
-      <c r="M693" s="3"/>
-      <c r="N693" s="3"/>
-      <c r="O693" s="3"/>
-      <c r="P693" s="3"/>
-      <c r="Q693" s="3"/>
-      <c r="R693" s="3"/>
-      <c r="S693" s="3"/>
-    </row>
-    <row r="694" spans="1:19">
-      <c r="A694" s="1"/>
-      <c r="B694" s="3"/>
-      <c r="C694" s="3"/>
-      <c r="D694" s="3"/>
-      <c r="E694" s="3"/>
-      <c r="F694" s="3"/>
-      <c r="G694" s="3"/>
-      <c r="H694" s="3"/>
-      <c r="I694" s="3"/>
-      <c r="J694" s="3"/>
-      <c r="K694" s="3"/>
-      <c r="L694" s="3"/>
-      <c r="M694" s="3"/>
-      <c r="N694" s="3"/>
-      <c r="O694" s="3"/>
-      <c r="P694" s="3"/>
-      <c r="Q694" s="3"/>
-      <c r="R694" s="3"/>
-      <c r="S694" s="3"/>
-    </row>
-    <row r="695" spans="1:19">
-      <c r="A695" s="1"/>
-      <c r="B695" s="3"/>
-      <c r="C695" s="3"/>
-      <c r="D695" s="3"/>
-      <c r="E695" s="3"/>
-      <c r="F695" s="3"/>
-      <c r="G695" s="3"/>
-      <c r="H695" s="3"/>
-      <c r="I695" s="3"/>
-      <c r="J695" s="3"/>
-      <c r="K695" s="3"/>
-      <c r="L695" s="3"/>
-      <c r="M695" s="3"/>
-      <c r="N695" s="3"/>
-      <c r="O695" s="3"/>
-      <c r="P695" s="3"/>
-      <c r="Q695" s="3"/>
-      <c r="R695" s="3"/>
-      <c r="S695" s="3"/>
-    </row>
-    <row r="696" spans="1:19">
-      <c r="A696" s="1"/>
-      <c r="B696" s="3"/>
-      <c r="C696" s="3"/>
-      <c r="D696" s="3"/>
-      <c r="E696" s="3"/>
-      <c r="F696" s="3"/>
-      <c r="G696" s="3"/>
-      <c r="H696" s="3"/>
-      <c r="I696" s="3"/>
-      <c r="J696" s="3"/>
-      <c r="K696" s="3"/>
-      <c r="L696" s="3"/>
-      <c r="M696" s="3"/>
-      <c r="N696" s="3"/>
-      <c r="O696" s="3"/>
-      <c r="P696" s="3"/>
-      <c r="Q696" s="3"/>
-      <c r="R696" s="3"/>
-      <c r="S696" s="3"/>
-    </row>
-    <row r="697" spans="1:19">
-      <c r="A697" s="1"/>
-      <c r="B697" s="3"/>
-      <c r="C697" s="3"/>
-      <c r="D697" s="3"/>
-      <c r="E697" s="3"/>
-      <c r="F697" s="3"/>
-      <c r="G697" s="3"/>
-      <c r="H697" s="3"/>
-      <c r="I697" s="3"/>
-      <c r="J697" s="3"/>
-      <c r="K697" s="3"/>
-      <c r="L697" s="3"/>
-      <c r="M697" s="3"/>
-      <c r="N697" s="3"/>
-      <c r="O697" s="3"/>
-      <c r="P697" s="3"/>
-      <c r="Q697" s="3"/>
-      <c r="R697" s="3"/>
-      <c r="S697" s="3"/>
-    </row>
-    <row r="698" spans="1:19">
-      <c r="A698" s="1"/>
-      <c r="B698" s="3"/>
-      <c r="C698" s="3"/>
-      <c r="D698" s="3"/>
-      <c r="E698" s="3"/>
-      <c r="F698" s="3"/>
-      <c r="G698" s="3"/>
-      <c r="H698" s="3"/>
-      <c r="I698" s="3"/>
-      <c r="J698" s="3"/>
-      <c r="K698" s="3"/>
-      <c r="L698" s="3"/>
-      <c r="M698" s="3"/>
-      <c r="N698" s="3"/>
-      <c r="O698" s="3"/>
-      <c r="P698" s="3"/>
-      <c r="Q698" s="3"/>
-      <c r="R698" s="3"/>
-      <c r="S698" s="3"/>
-    </row>
-    <row r="699" spans="1:19">
-      <c r="A699" s="1"/>
-      <c r="B699" s="3"/>
-      <c r="C699" s="3"/>
-      <c r="D699" s="3"/>
-      <c r="E699" s="3"/>
-      <c r="F699" s="3"/>
-      <c r="G699" s="3"/>
-      <c r="H699" s="3"/>
-      <c r="I699" s="3"/>
-      <c r="J699" s="3"/>
-      <c r="K699" s="3"/>
-      <c r="L699" s="3"/>
-      <c r="M699" s="3"/>
-      <c r="N699" s="3"/>
-      <c r="O699" s="3"/>
-      <c r="P699" s="3"/>
-      <c r="Q699" s="3"/>
-      <c r="R699" s="3"/>
-      <c r="S699" s="3"/>
-    </row>
-    <row r="700" spans="1:19">
-      <c r="A700" s="1"/>
-      <c r="B700" s="3"/>
-      <c r="C700" s="3"/>
-      <c r="D700" s="3"/>
-      <c r="E700" s="3"/>
-      <c r="F700" s="3"/>
-      <c r="G700" s="3"/>
-      <c r="H700" s="3"/>
-      <c r="I700" s="3"/>
-      <c r="J700" s="3"/>
-      <c r="K700" s="3"/>
-      <c r="L700" s="3"/>
-      <c r="M700" s="3"/>
-      <c r="N700" s="3"/>
-      <c r="O700" s="3"/>
-      <c r="P700" s="3"/>
-      <c r="Q700" s="3"/>
-      <c r="R700" s="3"/>
-      <c r="S700" s="3"/>
-    </row>
-    <row r="701" spans="1:19">
-      <c r="A701" s="1"/>
-      <c r="B701" s="3"/>
-      <c r="C701" s="3"/>
-      <c r="D701" s="3"/>
-      <c r="E701" s="3"/>
-      <c r="F701" s="3"/>
-      <c r="G701" s="3"/>
-      <c r="H701" s="3"/>
-      <c r="I701" s="3"/>
-      <c r="J701" s="3"/>
-      <c r="K701" s="3"/>
-      <c r="L701" s="3"/>
-      <c r="M701" s="3"/>
-      <c r="N701" s="3"/>
-      <c r="O701" s="3"/>
-      <c r="P701" s="3"/>
-      <c r="Q701" s="3"/>
-      <c r="R701" s="3"/>
-      <c r="S701" s="3"/>
-    </row>
-    <row r="702" spans="1:19">
-      <c r="A702" s="1"/>
-      <c r="B702" s="3"/>
-      <c r="C702" s="3"/>
-      <c r="D702" s="3"/>
-      <c r="E702" s="3"/>
-      <c r="F702" s="3"/>
-      <c r="G702" s="3"/>
-      <c r="H702" s="3"/>
-      <c r="I702" s="3"/>
-      <c r="J702" s="3"/>
-      <c r="K702" s="3"/>
-      <c r="L702" s="3"/>
-      <c r="M702" s="3"/>
-      <c r="N702" s="3"/>
-      <c r="O702" s="3"/>
-      <c r="P702" s="3"/>
-      <c r="Q702" s="3"/>
-      <c r="R702" s="3"/>
-      <c r="S702" s="3"/>
-    </row>
-    <row r="703" spans="1:19">
-      <c r="A703" s="1"/>
-      <c r="B703" s="3"/>
-      <c r="C703" s="3"/>
-      <c r="D703" s="3"/>
-      <c r="E703" s="3"/>
-      <c r="F703" s="3"/>
-      <c r="G703" s="3"/>
-      <c r="H703" s="3"/>
-      <c r="I703" s="3"/>
-      <c r="J703" s="3"/>
-      <c r="K703" s="3"/>
-      <c r="L703" s="3"/>
-      <c r="M703" s="3"/>
-      <c r="N703" s="3"/>
-      <c r="O703" s="3"/>
-      <c r="P703" s="3"/>
-      <c r="Q703" s="3"/>
-      <c r="R703" s="3"/>
-      <c r="S703" s="3"/>
-    </row>
-    <row r="704" spans="1:19">
-      <c r="A704" s="1"/>
-      <c r="B704" s="3"/>
-      <c r="C704" s="3"/>
-      <c r="D704" s="3"/>
-      <c r="E704" s="3"/>
-      <c r="F704" s="3"/>
-      <c r="G704" s="3"/>
-      <c r="H704" s="3"/>
-      <c r="I704" s="3"/>
-      <c r="J704" s="3"/>
-      <c r="K704" s="3"/>
-      <c r="L704" s="3"/>
-      <c r="M704" s="3"/>
-      <c r="N704" s="3"/>
-      <c r="O704" s="3"/>
-      <c r="P704" s="3"/>
-      <c r="Q704" s="3"/>
-      <c r="R704" s="3"/>
-      <c r="S704" s="3"/>
-    </row>
-    <row r="705" spans="1:19">
-      <c r="A705" s="1"/>
-      <c r="B705" s="3"/>
-      <c r="C705" s="3"/>
-      <c r="D705" s="3"/>
-      <c r="E705" s="3"/>
-      <c r="F705" s="3"/>
-      <c r="G705" s="3"/>
-      <c r="H705" s="3"/>
-      <c r="I705" s="3"/>
-      <c r="J705" s="3"/>
-      <c r="K705" s="3"/>
-      <c r="L705" s="3"/>
-      <c r="M705" s="3"/>
-      <c r="N705" s="3"/>
-      <c r="O705" s="3"/>
-      <c r="P705" s="3"/>
-      <c r="Q705" s="3"/>
-      <c r="R705" s="3"/>
-      <c r="S705" s="3"/>
-    </row>
-    <row r="706" spans="1:19">
-      <c r="A706" s="1"/>
-      <c r="B706" s="3"/>
-      <c r="C706" s="3"/>
-      <c r="D706" s="3"/>
-      <c r="E706" s="3"/>
-      <c r="F706" s="3"/>
-      <c r="G706" s="3"/>
-      <c r="H706" s="3"/>
-      <c r="I706" s="3"/>
-      <c r="J706" s="3"/>
-      <c r="K706" s="3"/>
-      <c r="L706" s="3"/>
-      <c r="M706" s="3"/>
-      <c r="N706" s="3"/>
-      <c r="O706" s="3"/>
-      <c r="P706" s="3"/>
-      <c r="Q706" s="3"/>
-      <c r="R706" s="3"/>
-      <c r="S706" s="3"/>
-    </row>
-    <row r="707" spans="1:19">
-      <c r="A707" s="1"/>
-      <c r="B707" s="3"/>
-      <c r="C707" s="3"/>
-      <c r="D707" s="3"/>
-      <c r="E707" s="3"/>
-      <c r="F707" s="3"/>
-      <c r="G707" s="3"/>
-      <c r="H707" s="3"/>
-      <c r="I707" s="3"/>
-      <c r="J707" s="3"/>
-      <c r="K707" s="3"/>
-      <c r="L707" s="3"/>
-      <c r="M707" s="3"/>
-      <c r="N707" s="3"/>
-      <c r="O707" s="3"/>
-      <c r="P707" s="3"/>
-      <c r="Q707" s="3"/>
-      <c r="R707" s="3"/>
-      <c r="S707" s="3"/>
-    </row>
-    <row r="708" spans="1:19">
-      <c r="A708" s="1"/>
-      <c r="B708" s="3"/>
-      <c r="C708" s="3"/>
-      <c r="D708" s="3"/>
-      <c r="E708" s="3"/>
-      <c r="F708" s="3"/>
-      <c r="G708" s="3"/>
-      <c r="H708" s="3"/>
-      <c r="I708" s="3"/>
-      <c r="J708" s="3"/>
-      <c r="K708" s="3"/>
-      <c r="L708" s="3"/>
-      <c r="M708" s="3"/>
-      <c r="N708" s="3"/>
-      <c r="O708" s="3"/>
-      <c r="P708" s="3"/>
-      <c r="Q708" s="3"/>
-      <c r="R708" s="3"/>
-      <c r="S708" s="3"/>
-    </row>
-    <row r="709" spans="1:19">
-      <c r="A709" s="1"/>
-      <c r="B709" s="3"/>
-      <c r="C709" s="3"/>
-      <c r="D709" s="3"/>
-      <c r="E709" s="3"/>
-      <c r="F709" s="3"/>
-      <c r="G709" s="3"/>
-      <c r="H709" s="3"/>
-      <c r="I709" s="3"/>
-      <c r="J709" s="3"/>
-      <c r="K709" s="3"/>
-      <c r="L709" s="3"/>
-      <c r="M709" s="3"/>
-      <c r="N709" s="3"/>
-      <c r="O709" s="3"/>
-      <c r="P709" s="3"/>
-      <c r="Q709" s="3"/>
-      <c r="R709" s="3"/>
-      <c r="S709" s="3"/>
-    </row>
-    <row r="710" spans="1:19">
-      <c r="A710" s="1"/>
-      <c r="B710" s="3"/>
-      <c r="C710" s="3"/>
-      <c r="D710" s="3"/>
-      <c r="E710" s="3"/>
-      <c r="F710" s="3"/>
-      <c r="G710" s="3"/>
-      <c r="H710" s="3"/>
-      <c r="I710" s="3"/>
-      <c r="J710" s="3"/>
-      <c r="K710" s="3"/>
-      <c r="L710" s="3"/>
-      <c r="M710" s="3"/>
-      <c r="N710" s="3"/>
-      <c r="O710" s="3"/>
-      <c r="P710" s="3"/>
-      <c r="Q710" s="3"/>
-      <c r="R710" s="3"/>
-      <c r="S710" s="3"/>
-    </row>
-    <row r="711" spans="1:19">
-      <c r="A711" s="1"/>
-      <c r="B711" s="3"/>
-      <c r="C711" s="3"/>
-      <c r="D711" s="3"/>
-      <c r="E711" s="3"/>
-      <c r="F711" s="3"/>
-      <c r="G711" s="3"/>
-      <c r="H711" s="3"/>
-      <c r="I711" s="3"/>
-      <c r="J711" s="3"/>
-      <c r="K711" s="3"/>
-      <c r="L711" s="3"/>
-      <c r="M711" s="3"/>
-      <c r="N711" s="3"/>
-      <c r="O711" s="3"/>
-      <c r="P711" s="3"/>
-      <c r="Q711" s="3"/>
-      <c r="R711" s="3"/>
-      <c r="S711" s="3"/>
-    </row>
-    <row r="712" spans="1:19">
-      <c r="A712" s="1"/>
-      <c r="B712" s="3"/>
-      <c r="C712" s="3"/>
-      <c r="D712" s="3"/>
-      <c r="E712" s="3"/>
-      <c r="F712" s="3"/>
-      <c r="G712" s="3"/>
-      <c r="H712" s="3"/>
-      <c r="I712" s="3"/>
-      <c r="J712" s="3"/>
-      <c r="K712" s="3"/>
-      <c r="L712" s="3"/>
-      <c r="M712" s="3"/>
-      <c r="N712" s="3"/>
-      <c r="O712" s="3"/>
-      <c r="P712" s="3"/>
-      <c r="Q712" s="3"/>
-      <c r="R712" s="3"/>
-      <c r="S712" s="3"/>
-    </row>
-    <row r="713" spans="1:19">
-      <c r="A713" s="1"/>
-      <c r="B713" s="3"/>
-      <c r="C713" s="3"/>
-      <c r="D713" s="3"/>
-      <c r="E713" s="3"/>
-      <c r="F713" s="3"/>
-      <c r="G713" s="3"/>
-      <c r="H713" s="3"/>
-      <c r="I713" s="3"/>
-      <c r="J713" s="3"/>
-      <c r="K713" s="3"/>
-      <c r="L713" s="3"/>
-      <c r="M713" s="3"/>
-      <c r="N713" s="3"/>
-      <c r="O713" s="3"/>
-      <c r="P713" s="3"/>
-      <c r="Q713" s="3"/>
-      <c r="R713" s="3"/>
-      <c r="S713" s="3"/>
-    </row>
-    <row r="714" spans="1:19">
-      <c r="A714" s="1"/>
-      <c r="B714" s="3"/>
-      <c r="C714" s="3"/>
-      <c r="D714" s="3"/>
-      <c r="E714" s="3"/>
-      <c r="F714" s="3"/>
-      <c r="G714" s="3"/>
-      <c r="H714" s="3"/>
-      <c r="I714" s="3"/>
-      <c r="J714" s="3"/>
-      <c r="K714" s="3"/>
-      <c r="L714" s="3"/>
-      <c r="M714" s="3"/>
-      <c r="N714" s="3"/>
-      <c r="O714" s="3"/>
-      <c r="P714" s="3"/>
-      <c r="Q714" s="3"/>
-      <c r="R714" s="3"/>
-      <c r="S714" s="3"/>
-    </row>
-    <row r="715" spans="1:19">
-      <c r="A715" s="1"/>
-      <c r="B715" s="3"/>
-      <c r="C715" s="3"/>
-      <c r="D715" s="3"/>
-      <c r="E715" s="3"/>
-      <c r="F715" s="3"/>
-      <c r="G715" s="3"/>
-      <c r="H715" s="3"/>
-      <c r="I715" s="3"/>
-      <c r="J715" s="3"/>
-      <c r="K715" s="3"/>
-      <c r="L715" s="3"/>
-      <c r="M715" s="3"/>
-      <c r="N715" s="3"/>
-      <c r="O715" s="3"/>
-      <c r="P715" s="3"/>
-      <c r="Q715" s="3"/>
-      <c r="R715" s="3"/>
-      <c r="S715" s="3"/>
-    </row>
-    <row r="716" spans="1:19">
-      <c r="A716" s="1"/>
-      <c r="B716" s="3"/>
-      <c r="C716" s="3"/>
-      <c r="D716" s="3"/>
-      <c r="E716" s="3"/>
-      <c r="F716" s="3"/>
-      <c r="G716" s="3"/>
-      <c r="H716" s="3"/>
-      <c r="I716" s="3"/>
-      <c r="J716" s="3"/>
-      <c r="K716" s="3"/>
-      <c r="L716" s="3"/>
-      <c r="M716" s="3"/>
-      <c r="N716" s="3"/>
-      <c r="O716" s="3"/>
-      <c r="P716" s="3"/>
-      <c r="Q716" s="3"/>
-      <c r="R716" s="3"/>
-      <c r="S716" s="3"/>
-    </row>
-    <row r="717" spans="1:19">
-      <c r="A717" s="1"/>
-      <c r="B717" s="3"/>
-      <c r="C717" s="3"/>
-      <c r="D717" s="3"/>
-      <c r="E717" s="3"/>
-      <c r="F717" s="3"/>
-      <c r="G717" s="3"/>
-      <c r="H717" s="3"/>
-      <c r="I717" s="3"/>
-      <c r="J717" s="3"/>
-      <c r="K717" s="3"/>
-      <c r="L717" s="3"/>
-      <c r="M717" s="3"/>
-      <c r="N717" s="3"/>
-      <c r="O717" s="3"/>
-      <c r="P717" s="3"/>
-      <c r="Q717" s="3"/>
-      <c r="R717" s="3"/>
-      <c r="S717" s="3"/>
-    </row>
-    <row r="718" spans="1:19">
-      <c r="A718" s="1"/>
-      <c r="B718" s="3"/>
-      <c r="C718" s="3"/>
-      <c r="D718" s="3"/>
-      <c r="E718" s="3"/>
-      <c r="F718" s="3"/>
-      <c r="G718" s="3"/>
-      <c r="H718" s="3"/>
-      <c r="I718" s="3"/>
-      <c r="J718" s="3"/>
-      <c r="K718" s="3"/>
-      <c r="L718" s="3"/>
-      <c r="M718" s="3"/>
-      <c r="N718" s="3"/>
-      <c r="O718" s="3"/>
-      <c r="P718" s="3"/>
-      <c r="Q718" s="3"/>
-      <c r="R718" s="3"/>
-      <c r="S718" s="3"/>
-    </row>
-    <row r="719" spans="1:19">
-      <c r="A719" s="1"/>
-      <c r="B719" s="3"/>
-      <c r="C719" s="3"/>
-      <c r="D719" s="3"/>
-      <c r="E719" s="3"/>
-      <c r="F719" s="3"/>
-      <c r="G719" s="3"/>
-      <c r="H719" s="3"/>
-      <c r="I719" s="3"/>
-      <c r="J719" s="3"/>
-      <c r="K719" s="3"/>
-      <c r="L719" s="3"/>
-      <c r="M719" s="3"/>
-      <c r="N719" s="3"/>
-      <c r="O719" s="3"/>
-      <c r="P719" s="3"/>
-      <c r="Q719" s="3"/>
-      <c r="R719" s="3"/>
-      <c r="S719" s="3"/>
-    </row>
-    <row r="720" spans="1:19">
-      <c r="A720" s="1"/>
-      <c r="B720" s="3"/>
-      <c r="C720" s="3"/>
-      <c r="D720" s="3"/>
-      <c r="E720" s="3"/>
-      <c r="F720" s="3"/>
-      <c r="G720" s="3"/>
-      <c r="H720" s="3"/>
-      <c r="I720" s="3"/>
-      <c r="J720" s="3"/>
-      <c r="K720" s="3"/>
-      <c r="L720" s="3"/>
-      <c r="M720" s="3"/>
-      <c r="N720" s="3"/>
-      <c r="O720" s="3"/>
-      <c r="P720" s="3"/>
-      <c r="Q720" s="3"/>
-      <c r="R720" s="3"/>
-      <c r="S720" s="3"/>
-    </row>
-    <row r="721" spans="1:19">
-      <c r="A721" s="1"/>
-      <c r="B721" s="3"/>
-      <c r="C721" s="3"/>
-      <c r="D721" s="3"/>
-      <c r="E721" s="3"/>
-      <c r="F721" s="3"/>
-      <c r="G721" s="3"/>
-      <c r="H721" s="3"/>
-      <c r="I721" s="3"/>
-      <c r="J721" s="3"/>
-      <c r="K721" s="3"/>
-      <c r="L721" s="3"/>
-      <c r="M721" s="3"/>
-      <c r="N721" s="3"/>
-      <c r="O721" s="3"/>
-      <c r="P721" s="3"/>
-      <c r="Q721" s="3"/>
-      <c r="R721" s="3"/>
-      <c r="S721" s="3"/>
-    </row>
-    <row r="722" spans="1:19">
-      <c r="A722" s="1"/>
-      <c r="B722" s="3"/>
-      <c r="C722" s="3"/>
-      <c r="D722" s="3"/>
-      <c r="E722" s="3"/>
-      <c r="F722" s="3"/>
-      <c r="G722" s="3"/>
-      <c r="H722" s="3"/>
-      <c r="I722" s="3"/>
-      <c r="J722" s="3"/>
-      <c r="K722" s="3"/>
-      <c r="L722" s="3"/>
-      <c r="M722" s="3"/>
-      <c r="N722" s="3"/>
-      <c r="O722" s="3"/>
-      <c r="P722" s="3"/>
-      <c r="Q722" s="3"/>
-      <c r="R722" s="3"/>
-      <c r="S722" s="3"/>
-    </row>
-    <row r="723" spans="1:19">
-      <c r="A723" s="1"/>
-      <c r="B723" s="3"/>
-      <c r="C723" s="3"/>
-      <c r="D723" s="3"/>
-      <c r="E723" s="3"/>
-      <c r="F723" s="3"/>
-      <c r="G723" s="3"/>
-      <c r="H723" s="3"/>
-      <c r="I723" s="3"/>
-      <c r="J723" s="3"/>
-      <c r="K723" s="3"/>
-      <c r="L723" s="3"/>
-      <c r="M723" s="3"/>
-      <c r="N723" s="3"/>
-      <c r="O723" s="3"/>
-      <c r="P723" s="3"/>
-      <c r="Q723" s="3"/>
-      <c r="R723" s="3"/>
-      <c r="S723" s="3"/>
-    </row>
-    <row r="724" spans="1:19">
-      <c r="A724" s="1"/>
-      <c r="B724" s="3"/>
-      <c r="C724" s="3"/>
-      <c r="D724" s="3"/>
-      <c r="E724" s="3"/>
-      <c r="F724" s="3"/>
-      <c r="G724" s="3"/>
-      <c r="H724" s="3"/>
-      <c r="I724" s="3"/>
-      <c r="J724" s="3"/>
-      <c r="K724" s="3"/>
-      <c r="L724" s="3"/>
-      <c r="M724" s="3"/>
-      <c r="N724" s="3"/>
-      <c r="O724" s="3"/>
-      <c r="P724" s="3"/>
-      <c r="Q724" s="3"/>
-      <c r="R724" s="3"/>
-      <c r="S724" s="3"/>
-    </row>
-    <row r="725" spans="1:19">
-      <c r="A725" s="1"/>
-      <c r="B725" s="3"/>
-      <c r="C725" s="3"/>
-      <c r="D725" s="3"/>
-      <c r="E725" s="3"/>
-      <c r="F725" s="3"/>
-      <c r="G725" s="3"/>
-      <c r="H725" s="3"/>
-      <c r="I725" s="3"/>
-      <c r="J725" s="3"/>
-      <c r="K725" s="3"/>
-      <c r="L725" s="3"/>
-      <c r="M725" s="3"/>
-      <c r="N725" s="3"/>
-      <c r="O725" s="3"/>
-      <c r="P725" s="3"/>
-      <c r="Q725" s="3"/>
-      <c r="R725" s="3"/>
-      <c r="S725" s="3"/>
-    </row>
-    <row r="726" spans="1:19">
-      <c r="A726" s="1"/>
-      <c r="B726" s="3"/>
-      <c r="C726" s="3"/>
-      <c r="D726" s="3"/>
-      <c r="E726" s="3"/>
-      <c r="F726" s="3"/>
-      <c r="G726" s="3"/>
-      <c r="H726" s="3"/>
-      <c r="I726" s="3"/>
-      <c r="J726" s="3"/>
-      <c r="K726" s="3"/>
-      <c r="L726" s="3"/>
-      <c r="M726" s="3"/>
-      <c r="N726" s="3"/>
-      <c r="O726" s="3"/>
-      <c r="P726" s="3"/>
-      <c r="Q726" s="3"/>
-      <c r="R726" s="3"/>
-      <c r="S726" s="3"/>
-    </row>
-    <row r="727" spans="1:19">
-      <c r="A727" s="1"/>
-      <c r="B727" s="3"/>
-      <c r="C727" s="3"/>
-      <c r="D727" s="3"/>
-      <c r="E727" s="3"/>
-      <c r="F727" s="3"/>
-      <c r="G727" s="3"/>
-      <c r="H727" s="3"/>
-      <c r="I727" s="3"/>
-      <c r="J727" s="3"/>
-      <c r="K727" s="3"/>
-      <c r="L727" s="3"/>
-      <c r="M727" s="3"/>
-      <c r="N727" s="3"/>
-      <c r="O727" s="3"/>
-      <c r="P727" s="3"/>
-      <c r="Q727" s="3"/>
-      <c r="R727" s="3"/>
-      <c r="S727" s="3"/>
-    </row>
-    <row r="728" spans="1:19">
-      <c r="A728" s="1"/>
-      <c r="B728" s="3"/>
-      <c r="C728" s="3"/>
-      <c r="D728" s="3"/>
-      <c r="E728" s="3"/>
-      <c r="F728" s="3"/>
-      <c r="G728" s="3"/>
-      <c r="H728" s="3"/>
-      <c r="I728" s="3"/>
-      <c r="J728" s="3"/>
-      <c r="K728" s="3"/>
-      <c r="L728" s="3"/>
-      <c r="M728" s="3"/>
-      <c r="N728" s="3"/>
-      <c r="O728" s="3"/>
-      <c r="P728" s="3"/>
-      <c r="Q728" s="3"/>
-      <c r="R728" s="3"/>
-      <c r="S728" s="3"/>
-    </row>
-    <row r="729" spans="1:19">
-      <c r="A729" s="1"/>
-      <c r="B729" s="3"/>
-      <c r="C729" s="3"/>
-      <c r="D729" s="3"/>
-      <c r="E729" s="3"/>
-      <c r="F729" s="3"/>
-      <c r="G729" s="3"/>
-      <c r="H729" s="3"/>
-      <c r="I729" s="3"/>
-      <c r="J729" s="3"/>
-      <c r="K729" s="3"/>
-      <c r="L729" s="3"/>
-      <c r="M729" s="3"/>
-      <c r="N729" s="3"/>
-      <c r="O729" s="3"/>
-      <c r="P729" s="3"/>
-      <c r="Q729" s="3"/>
-      <c r="R729" s="3"/>
-      <c r="S729" s="3"/>
-    </row>
-    <row r="730" spans="1:19">
-      <c r="A730" s="1"/>
-      <c r="B730" s="3"/>
-      <c r="C730" s="3"/>
-      <c r="D730" s="3"/>
-      <c r="E730" s="3"/>
-      <c r="F730" s="3"/>
-      <c r="G730" s="3"/>
-      <c r="H730" s="3"/>
-      <c r="I730" s="3"/>
-      <c r="J730" s="3"/>
-      <c r="K730" s="3"/>
-      <c r="L730" s="3"/>
-      <c r="M730" s="3"/>
-      <c r="N730" s="3"/>
-      <c r="O730" s="3"/>
-      <c r="P730" s="3"/>
-      <c r="Q730" s="3"/>
-      <c r="R730" s="3"/>
-      <c r="S730" s="3"/>
-    </row>
-    <row r="731" spans="1:19">
-      <c r="A731" s="1"/>
-      <c r="B731" s="3"/>
-      <c r="C731" s="3"/>
-      <c r="D731" s="3"/>
-      <c r="E731" s="3"/>
-      <c r="F731" s="3"/>
-      <c r="G731" s="3"/>
-      <c r="H731" s="3"/>
-      <c r="I731" s="3"/>
-      <c r="J731" s="3"/>
-      <c r="K731" s="3"/>
-      <c r="L731" s="3"/>
-      <c r="M731" s="3"/>
-      <c r="N731" s="3"/>
-      <c r="O731" s="3"/>
-      <c r="P731" s="3"/>
-      <c r="Q731" s="3"/>
-      <c r="R731" s="3"/>
-      <c r="S731" s="3"/>
-    </row>
-    <row r="732" spans="1:19">
-      <c r="A732" s="1"/>
-      <c r="B732" s="3"/>
-      <c r="C732" s="3"/>
-      <c r="D732" s="3"/>
-      <c r="E732" s="3"/>
-      <c r="F732" s="3"/>
-      <c r="G732" s="3"/>
-      <c r="H732" s="3"/>
-      <c r="I732" s="3"/>
-      <c r="J732" s="3"/>
-      <c r="K732" s="3"/>
-      <c r="L732" s="3"/>
-      <c r="M732" s="3"/>
-      <c r="N732" s="3"/>
-      <c r="O732" s="3"/>
-      <c r="P732" s="3"/>
-      <c r="Q732" s="3"/>
-      <c r="R732" s="3"/>
-      <c r="S732" s="3"/>
-    </row>
-    <row r="733" spans="1:19">
-      <c r="A733" s="1"/>
-      <c r="B733" s="3"/>
-      <c r="C733" s="3"/>
-      <c r="D733" s="3"/>
-      <c r="E733" s="3"/>
-      <c r="F733" s="3"/>
-      <c r="G733" s="3"/>
-      <c r="H733" s="3"/>
-      <c r="I733" s="3"/>
-      <c r="J733" s="3"/>
-      <c r="K733" s="3"/>
-      <c r="L733" s="3"/>
-      <c r="M733" s="3"/>
-      <c r="N733" s="3"/>
-      <c r="O733" s="3"/>
-      <c r="P733" s="3"/>
-      <c r="Q733" s="3"/>
-      <c r="R733" s="3"/>
-      <c r="S733" s="3"/>
-    </row>
-    <row r="734" spans="1:19">
-      <c r="A734" s="1"/>
-      <c r="B734" s="3"/>
-      <c r="C734" s="3"/>
-      <c r="D734" s="3"/>
-      <c r="E734" s="3"/>
-      <c r="F734" s="3"/>
-      <c r="G734" s="3"/>
-      <c r="H734" s="3"/>
-      <c r="I734" s="3"/>
-      <c r="J734" s="3"/>
-      <c r="K734" s="3"/>
-      <c r="L734" s="3"/>
-      <c r="M734" s="3"/>
-      <c r="N734" s="3"/>
-      <c r="O734" s="3"/>
-      <c r="P734" s="3"/>
-      <c r="Q734" s="3"/>
-      <c r="R734" s="3"/>
-      <c r="S734" s="3"/>
-    </row>
-    <row r="735" spans="1:19">
-      <c r="A735" s="1"/>
-      <c r="B735" s="3"/>
-      <c r="C735" s="3"/>
-      <c r="D735" s="3"/>
-      <c r="E735" s="3"/>
-      <c r="F735" s="3"/>
-      <c r="G735" s="3"/>
-      <c r="H735" s="3"/>
-      <c r="I735" s="3"/>
-      <c r="J735" s="3"/>
-      <c r="K735" s="3"/>
-      <c r="L735" s="3"/>
-      <c r="M735" s="3"/>
-      <c r="N735" s="3"/>
-      <c r="O735" s="3"/>
-      <c r="P735" s="3"/>
-      <c r="Q735" s="3"/>
-      <c r="R735" s="3"/>
-      <c r="S735" s="3"/>
-    </row>
-    <row r="736" spans="1:19">
-      <c r="A736" s="1"/>
-      <c r="B736" s="3"/>
-      <c r="C736" s="3"/>
-      <c r="D736" s="3"/>
-      <c r="E736" s="3"/>
-      <c r="F736" s="3"/>
-      <c r="G736" s="3"/>
-      <c r="H736" s="3"/>
-      <c r="I736" s="3"/>
-      <c r="J736" s="3"/>
-      <c r="K736" s="3"/>
-      <c r="L736" s="3"/>
-      <c r="M736" s="3"/>
-      <c r="N736" s="3"/>
-      <c r="O736" s="3"/>
-      <c r="P736" s="3"/>
-      <c r="Q736" s="3"/>
-      <c r="R736" s="3"/>
-      <c r="S736" s="3"/>
-    </row>
-    <row r="737" spans="1:19">
-      <c r="A737" s="1"/>
-      <c r="B737" s="3"/>
-      <c r="C737" s="3"/>
-      <c r="D737" s="3"/>
-      <c r="E737" s="3"/>
-      <c r="F737" s="3"/>
-      <c r="G737" s="3"/>
-      <c r="H737" s="3"/>
-      <c r="I737" s="3"/>
-      <c r="J737" s="3"/>
-      <c r="K737" s="3"/>
-      <c r="L737" s="3"/>
-      <c r="M737" s="3"/>
-      <c r="N737" s="3"/>
-      <c r="O737" s="3"/>
-      <c r="P737" s="3"/>
-      <c r="Q737" s="3"/>
-      <c r="R737" s="3"/>
-      <c r="S737" s="3"/>
-    </row>
-    <row r="738" spans="1:19">
-      <c r="A738" s="1"/>
-      <c r="B738" s="3"/>
-      <c r="C738" s="3"/>
-      <c r="D738" s="3"/>
-      <c r="E738" s="3"/>
-      <c r="F738" s="3"/>
-      <c r="G738" s="3"/>
-      <c r="H738" s="3"/>
-      <c r="I738" s="3"/>
-      <c r="J738" s="3"/>
-      <c r="K738" s="3"/>
-      <c r="L738" s="3"/>
-      <c r="M738" s="3"/>
-      <c r="N738" s="3"/>
-      <c r="O738" s="3"/>
-      <c r="P738" s="3"/>
-      <c r="Q738" s="3"/>
-      <c r="R738" s="3"/>
-      <c r="S738" s="3"/>
-    </row>
-    <row r="739" spans="1:19">
-      <c r="A739" s="1"/>
-      <c r="B739" s="3"/>
-      <c r="C739" s="3"/>
-      <c r="D739" s="3"/>
-      <c r="E739" s="3"/>
-      <c r="F739" s="3"/>
-      <c r="G739" s="3"/>
-      <c r="H739" s="3"/>
-      <c r="I739" s="3"/>
-      <c r="J739" s="3"/>
-      <c r="K739" s="3"/>
-      <c r="L739" s="3"/>
-      <c r="M739" s="3"/>
-      <c r="N739" s="3"/>
-      <c r="O739" s="3"/>
-      <c r="P739" s="3"/>
-      <c r="Q739" s="3"/>
-      <c r="R739" s="3"/>
-      <c r="S739" s="3"/>
-    </row>
-    <row r="740" spans="1:19">
-      <c r="A740" s="1"/>
-      <c r="B740" s="3"/>
-      <c r="C740" s="3"/>
-      <c r="D740" s="3"/>
-      <c r="E740" s="3"/>
-      <c r="F740" s="3"/>
-      <c r="G740" s="3"/>
-      <c r="H740" s="3"/>
-      <c r="I740" s="3"/>
-      <c r="J740" s="3"/>
-      <c r="K740" s="3"/>
-      <c r="L740" s="3"/>
-      <c r="M740" s="3"/>
-      <c r="N740" s="3"/>
-      <c r="O740" s="3"/>
-      <c r="P740" s="3"/>
-      <c r="Q740" s="3"/>
-      <c r="R740" s="3"/>
-      <c r="S740" s="3"/>
-    </row>
-    <row r="741" spans="1:19">
-      <c r="A741" s="1"/>
-      <c r="B741" s="3"/>
-      <c r="C741" s="3"/>
-      <c r="D741" s="3"/>
-      <c r="E741" s="3"/>
-      <c r="F741" s="3"/>
-      <c r="G741" s="3"/>
-      <c r="H741" s="3"/>
-      <c r="I741" s="3"/>
-      <c r="J741" s="3"/>
-      <c r="K741" s="3"/>
-      <c r="L741" s="3"/>
-      <c r="M741" s="3"/>
-      <c r="N741" s="3"/>
-      <c r="O741" s="3"/>
-      <c r="P741" s="3"/>
-      <c r="Q741" s="3"/>
-      <c r="R741" s="3"/>
-      <c r="S741" s="3"/>
-    </row>
-    <row r="742" spans="1:19">
-      <c r="A742" s="1"/>
-      <c r="B742" s="3"/>
-      <c r="C742" s="3"/>
-      <c r="D742" s="3"/>
-      <c r="E742" s="3"/>
-      <c r="F742" s="3"/>
-      <c r="G742" s="3"/>
-      <c r="H742" s="3"/>
-      <c r="I742" s="3"/>
-      <c r="J742" s="3"/>
-      <c r="K742" s="3"/>
-      <c r="L742" s="3"/>
-      <c r="M742" s="3"/>
-      <c r="N742" s="3"/>
-      <c r="O742" s="3"/>
-      <c r="P742" s="3"/>
-      <c r="Q742" s="3"/>
-      <c r="R742" s="3"/>
-      <c r="S742" s="3"/>
-    </row>
-    <row r="743" spans="1:19">
-      <c r="A743" s="1"/>
-      <c r="B743" s="3"/>
-      <c r="C743" s="3"/>
-      <c r="D743" s="3"/>
-      <c r="E743" s="3"/>
-      <c r="F743" s="3"/>
-      <c r="G743" s="3"/>
-      <c r="H743" s="3"/>
-      <c r="I743" s="3"/>
-      <c r="J743" s="3"/>
-      <c r="K743" s="3"/>
-      <c r="L743" s="3"/>
-      <c r="M743" s="3"/>
-      <c r="N743" s="3"/>
-      <c r="O743" s="3"/>
-      <c r="P743" s="3"/>
-      <c r="Q743" s="3"/>
-      <c r="R743" s="3"/>
-      <c r="S743" s="3"/>
-    </row>
-    <row r="744" spans="1:19">
-      <c r="A744" s="1"/>
-      <c r="B744" s="3"/>
-      <c r="C744" s="3"/>
-      <c r="D744" s="3"/>
-      <c r="E744" s="3"/>
-      <c r="F744" s="3"/>
-      <c r="G744" s="3"/>
-      <c r="H744" s="3"/>
-      <c r="I744" s="3"/>
-      <c r="J744" s="3"/>
-      <c r="K744" s="3"/>
-      <c r="L744" s="3"/>
-      <c r="M744" s="3"/>
-      <c r="N744" s="3"/>
-      <c r="O744" s="3"/>
-      <c r="P744" s="3"/>
-      <c r="Q744" s="3"/>
-      <c r="R744" s="3"/>
-      <c r="S744" s="3"/>
-    </row>
-    <row r="745" spans="1:19">
-      <c r="A745" s="1"/>
-      <c r="B745" s="3"/>
-      <c r="C745" s="3"/>
-      <c r="D745" s="3"/>
-      <c r="E745" s="3"/>
-      <c r="F745" s="3"/>
-      <c r="G745" s="3"/>
-      <c r="H745" s="3"/>
-      <c r="I745" s="3"/>
-      <c r="J745" s="3"/>
-      <c r="K745" s="3"/>
-      <c r="L745" s="3"/>
-      <c r="M745" s="3"/>
-      <c r="N745" s="3"/>
-      <c r="O745" s="3"/>
-      <c r="P745" s="3"/>
-      <c r="Q745" s="3"/>
-      <c r="R745" s="3"/>
-      <c r="S745" s="3"/>
-    </row>
-    <row r="746" spans="1:19">
-      <c r="A746" s="1"/>
-      <c r="B746" s="3"/>
-      <c r="C746" s="3"/>
-      <c r="D746" s="3"/>
-      <c r="E746" s="3"/>
-      <c r="F746" s="3"/>
-      <c r="G746" s="3"/>
-      <c r="H746" s="3"/>
-      <c r="I746" s="3"/>
-      <c r="J746" s="3"/>
-      <c r="K746" s="3"/>
-      <c r="L746" s="3"/>
-      <c r="M746" s="3"/>
-      <c r="N746" s="3"/>
-      <c r="O746" s="3"/>
-      <c r="P746" s="3"/>
-      <c r="Q746" s="3"/>
-      <c r="R746" s="3"/>
-      <c r="S746" s="3"/>
-    </row>
-    <row r="747" spans="1:19">
-      <c r="A747" s="1"/>
-      <c r="B747" s="3"/>
-      <c r="C747" s="3"/>
-      <c r="D747" s="3"/>
-      <c r="E747" s="3"/>
-      <c r="F747" s="3"/>
-      <c r="G747" s="3"/>
-      <c r="H747" s="3"/>
-      <c r="I747" s="3"/>
-      <c r="J747" s="3"/>
-      <c r="K747" s="3"/>
-      <c r="L747" s="3"/>
-      <c r="M747" s="3"/>
-      <c r="N747" s="3"/>
-      <c r="O747" s="3"/>
-      <c r="P747" s="3"/>
-      <c r="Q747" s="3"/>
-      <c r="R747" s="3"/>
-      <c r="S747" s="3"/>
-    </row>
-    <row r="748" spans="1:19">
-      <c r="A748" s="1"/>
-      <c r="B748" s="3"/>
-      <c r="C748" s="3"/>
-      <c r="D748" s="3"/>
-      <c r="E748" s="3"/>
-      <c r="F748" s="3"/>
-      <c r="G748" s="3"/>
-      <c r="H748" s="3"/>
-      <c r="I748" s="3"/>
-      <c r="J748" s="3"/>
-      <c r="K748" s="3"/>
-      <c r="L748" s="3"/>
-      <c r="M748" s="3"/>
-      <c r="N748" s="3"/>
-      <c r="O748" s="3"/>
-      <c r="P748" s="3"/>
-      <c r="Q748" s="3"/>
-      <c r="R748" s="3"/>
-      <c r="S748" s="3"/>
-    </row>
-    <row r="749" spans="1:19">
-      <c r="A749" s="1"/>
-      <c r="B749" s="3"/>
-      <c r="C749" s="3"/>
-      <c r="D749" s="3"/>
-      <c r="E749" s="3"/>
-      <c r="F749" s="3"/>
-      <c r="G749" s="3"/>
-      <c r="H749" s="3"/>
-      <c r="I749" s="3"/>
-      <c r="J749" s="3"/>
-      <c r="K749" s="3"/>
-      <c r="L749" s="3"/>
-      <c r="M749" s="3"/>
-      <c r="N749" s="3"/>
-      <c r="O749" s="3"/>
-      <c r="P749" s="3"/>
-      <c r="Q749" s="3"/>
-      <c r="R749" s="3"/>
-      <c r="S749" s="3"/>
-    </row>
-    <row r="750" spans="1:19">
-      <c r="A750" s="1"/>
-      <c r="B750" s="3"/>
-      <c r="C750" s="3"/>
-      <c r="D750" s="3"/>
-      <c r="E750" s="3"/>
-      <c r="F750" s="3"/>
-      <c r="G750" s="3"/>
-      <c r="H750" s="3"/>
-      <c r="I750" s="3"/>
-      <c r="J750" s="3"/>
-      <c r="K750" s="3"/>
-      <c r="L750" s="3"/>
-      <c r="M750" s="3"/>
-      <c r="N750" s="3"/>
-      <c r="O750" s="3"/>
-      <c r="P750" s="3"/>
-      <c r="Q750" s="3"/>
-      <c r="R750" s="3"/>
-      <c r="S750" s="3"/>
-    </row>
-    <row r="751" spans="1:19">
-      <c r="A751" s="1"/>
-      <c r="B751" s="3"/>
-      <c r="C751" s="3"/>
-      <c r="D751" s="3"/>
-      <c r="E751" s="3"/>
-      <c r="F751" s="3"/>
-      <c r="G751" s="3"/>
-      <c r="H751" s="3"/>
-      <c r="I751" s="3"/>
-      <c r="J751" s="3"/>
-      <c r="K751" s="3"/>
-      <c r="L751" s="3"/>
-      <c r="M751" s="3"/>
-      <c r="N751" s="3"/>
-      <c r="O751" s="3"/>
-      <c r="P751" s="3"/>
-      <c r="Q751" s="3"/>
-      <c r="R751" s="3"/>
-      <c r="S751" s="3"/>
-    </row>
-    <row r="752" spans="1:19">
-      <c r="A752" s="1"/>
-      <c r="B752" s="3"/>
-      <c r="C752" s="3"/>
-      <c r="D752" s="3"/>
-      <c r="E752" s="3"/>
-      <c r="F752" s="3"/>
-      <c r="G752" s="3"/>
-      <c r="H752" s="3"/>
-      <c r="I752" s="3"/>
-      <c r="J752" s="3"/>
-      <c r="K752" s="3"/>
-      <c r="L752" s="3"/>
-      <c r="M752" s="3"/>
-      <c r="N752" s="3"/>
-      <c r="O752" s="3"/>
-      <c r="P752" s="3"/>
-      <c r="Q752" s="3"/>
-      <c r="R752" s="3"/>
-      <c r="S752" s="3"/>
-    </row>
-    <row r="753" spans="1:19">
-      <c r="A753" s="1"/>
-      <c r="B753" s="3"/>
-      <c r="C753" s="3"/>
-      <c r="D753" s="3"/>
-      <c r="E753" s="3"/>
-      <c r="F753" s="3"/>
-      <c r="G753" s="3"/>
-      <c r="H753" s="3"/>
-      <c r="I753" s="3"/>
-      <c r="J753" s="3"/>
-      <c r="K753" s="3"/>
-      <c r="L753" s="3"/>
-      <c r="M753" s="3"/>
-      <c r="N753" s="3"/>
-      <c r="O753" s="3"/>
-      <c r="P753" s="3"/>
-      <c r="Q753" s="3"/>
-      <c r="R753" s="3"/>
-      <c r="S753" s="3"/>
-    </row>
-    <row r="754" spans="1:19">
-      <c r="A754" s="1"/>
-      <c r="B754" s="3"/>
-      <c r="C754" s="3"/>
-      <c r="D754" s="3"/>
-      <c r="E754" s="3"/>
-      <c r="F754" s="3"/>
-      <c r="G754" s="3"/>
-      <c r="H754" s="3"/>
-      <c r="I754" s="3"/>
-      <c r="J754" s="3"/>
-      <c r="K754" s="3"/>
-      <c r="L754" s="3"/>
-      <c r="M754" s="3"/>
-      <c r="N754" s="3"/>
-      <c r="O754" s="3"/>
-      <c r="P754" s="3"/>
-      <c r="Q754" s="3"/>
-      <c r="R754" s="3"/>
-      <c r="S754" s="3"/>
-    </row>
-    <row r="755" spans="1:19">
-      <c r="A755" s="1"/>
-      <c r="B755" s="3"/>
-      <c r="C755" s="3"/>
-      <c r="D755" s="3"/>
-      <c r="E755" s="3"/>
-      <c r="F755" s="3"/>
-      <c r="G755" s="3"/>
-      <c r="H755" s="3"/>
-      <c r="I755" s="3"/>
-      <c r="J755" s="3"/>
-      <c r="K755" s="3"/>
-      <c r="L755" s="3"/>
-      <c r="M755" s="3"/>
-      <c r="N755" s="3"/>
-      <c r="O755" s="3"/>
-      <c r="P755" s="3"/>
-      <c r="Q755" s="3"/>
-      <c r="R755" s="3"/>
-      <c r="S755" s="3"/>
-    </row>
-    <row r="756" spans="1:19">
-      <c r="A756" s="1"/>
-      <c r="B756" s="3"/>
-      <c r="C756" s="3"/>
-      <c r="D756" s="3"/>
-      <c r="E756" s="3"/>
-      <c r="F756" s="3"/>
-      <c r="G756" s="3"/>
-      <c r="H756" s="3"/>
-      <c r="I756" s="3"/>
-      <c r="J756" s="3"/>
-      <c r="K756" s="3"/>
-      <c r="L756" s="3"/>
-      <c r="M756" s="3"/>
-      <c r="N756" s="3"/>
-      <c r="O756" s="3"/>
-      <c r="P756" s="3"/>
-      <c r="Q756" s="3"/>
-      <c r="R756" s="3"/>
-      <c r="S756" s="3"/>
-    </row>
-    <row r="757" spans="1:19">
-      <c r="A757" s="1"/>
-      <c r="B757" s="3"/>
-      <c r="C757" s="3"/>
-      <c r="D757" s="3"/>
-      <c r="E757" s="3"/>
-      <c r="F757" s="3"/>
-      <c r="G757" s="3"/>
-      <c r="H757" s="3"/>
-      <c r="I757" s="3"/>
-      <c r="J757" s="3"/>
-      <c r="K757" s="3"/>
-      <c r="L757" s="3"/>
-      <c r="M757" s="3"/>
-      <c r="N757" s="3"/>
-      <c r="O757" s="3"/>
-      <c r="P757" s="3"/>
-      <c r="Q757" s="3"/>
-      <c r="R757" s="3"/>
-      <c r="S757" s="3"/>
-    </row>
-    <row r="758" spans="1:19">
-      <c r="A758" s="1"/>
-      <c r="B758" s="3"/>
-      <c r="C758" s="3"/>
-      <c r="D758" s="3"/>
-      <c r="E758" s="3"/>
-      <c r="F758" s="3"/>
-      <c r="G758" s="3"/>
-      <c r="H758" s="3"/>
-      <c r="I758" s="3"/>
-      <c r="J758" s="3"/>
-      <c r="K758" s="3"/>
-      <c r="L758" s="3"/>
-      <c r="M758" s="3"/>
-      <c r="N758" s="3"/>
-      <c r="O758" s="3"/>
-      <c r="P758" s="3"/>
-      <c r="Q758" s="3"/>
-      <c r="R758" s="3"/>
-      <c r="S758" s="3"/>
-    </row>
-    <row r="759" spans="1:19">
-      <c r="A759" s="1"/>
-      <c r="B759" s="3"/>
-      <c r="C759" s="3"/>
-      <c r="D759" s="3"/>
-      <c r="E759" s="3"/>
-      <c r="F759" s="3"/>
-      <c r="G759" s="3"/>
-      <c r="H759" s="3"/>
-      <c r="I759" s="3"/>
-      <c r="J759" s="3"/>
-      <c r="K759" s="3"/>
-      <c r="L759" s="3"/>
-      <c r="M759" s="3"/>
-      <c r="N759" s="3"/>
-      <c r="O759" s="3"/>
-      <c r="P759" s="3"/>
-      <c r="Q759" s="3"/>
-      <c r="R759" s="3"/>
-      <c r="S759" s="3"/>
-    </row>
-    <row r="760" spans="1:19">
-      <c r="A760" s="1"/>
-      <c r="B760" s="3"/>
-      <c r="C760" s="3"/>
-      <c r="D760" s="3"/>
-      <c r="E760" s="3"/>
-      <c r="F760" s="3"/>
-      <c r="G760" s="3"/>
-      <c r="H760" s="3"/>
-      <c r="I760" s="3"/>
-      <c r="J760" s="3"/>
-      <c r="K760" s="3"/>
-      <c r="L760" s="3"/>
-      <c r="M760" s="3"/>
-      <c r="N760" s="3"/>
-      <c r="O760" s="3"/>
-      <c r="P760" s="3"/>
-      <c r="Q760" s="3"/>
-      <c r="R760" s="3"/>
-      <c r="S760" s="3"/>
-    </row>
-    <row r="761" spans="1:19">
-      <c r="A761" s="1"/>
-      <c r="B761" s="3"/>
-      <c r="C761" s="3"/>
-      <c r="D761" s="3"/>
-      <c r="E761" s="3"/>
-      <c r="F761" s="3"/>
-      <c r="G761" s="3"/>
-      <c r="H761" s="3"/>
-      <c r="I761" s="3"/>
-      <c r="J761" s="3"/>
-      <c r="K761" s="3"/>
-      <c r="L761" s="3"/>
-      <c r="M761" s="3"/>
-      <c r="N761" s="3"/>
-      <c r="O761" s="3"/>
-      <c r="P761" s="3"/>
-      <c r="Q761" s="3"/>
-      <c r="R761" s="3"/>
-      <c r="S761" s="3"/>
-    </row>
-    <row r="762" spans="1:19">
-      <c r="A762" s="1"/>
-      <c r="B762" s="3"/>
-      <c r="C762" s="3"/>
-      <c r="D762" s="3"/>
-      <c r="E762" s="3"/>
-      <c r="F762" s="3"/>
-      <c r="G762" s="3"/>
-      <c r="H762" s="3"/>
-      <c r="I762" s="3"/>
-      <c r="J762" s="3"/>
-      <c r="K762" s="3"/>
-      <c r="L762" s="3"/>
-      <c r="M762" s="3"/>
-      <c r="N762" s="3"/>
-      <c r="O762" s="3"/>
-      <c r="P762" s="3"/>
-      <c r="Q762" s="3"/>
-      <c r="R762" s="3"/>
-      <c r="S762" s="3"/>
-    </row>
-    <row r="763" spans="1:19">
-      <c r="A763" s="1"/>
-      <c r="B763" s="3"/>
-      <c r="C763" s="3"/>
-      <c r="D763" s="3"/>
-      <c r="E763" s="3"/>
-      <c r="F763" s="3"/>
-      <c r="G763" s="3"/>
-      <c r="H763" s="3"/>
-      <c r="I763" s="3"/>
-      <c r="J763" s="3"/>
-      <c r="K763" s="3"/>
-      <c r="L763" s="3"/>
-      <c r="M763" s="3"/>
-      <c r="N763" s="3"/>
-      <c r="O763" s="3"/>
-      <c r="P763" s="3"/>
-      <c r="Q763" s="3"/>
-      <c r="R763" s="3"/>
-      <c r="S763" s="3"/>
-    </row>
-    <row r="764" spans="1:19">
-      <c r="A764" s="1"/>
-      <c r="B764" s="3"/>
-      <c r="C764" s="3"/>
-      <c r="D764" s="3"/>
-      <c r="E764" s="3"/>
-      <c r="F764" s="3"/>
-      <c r="G764" s="3"/>
-      <c r="H764" s="3"/>
-      <c r="I764" s="3"/>
-      <c r="J764" s="3"/>
-      <c r="K764" s="3"/>
-      <c r="L764" s="3"/>
-      <c r="M764" s="3"/>
-      <c r="N764" s="3"/>
-      <c r="O764" s="3"/>
-      <c r="P764" s="3"/>
-      <c r="Q764" s="3"/>
-      <c r="R764" s="3"/>
-      <c r="S764" s="3"/>
-    </row>
-    <row r="765" spans="1:19">
-      <c r="A765" s="1"/>
-      <c r="B765" s="3"/>
-      <c r="C765" s="3"/>
-      <c r="D765" s="3"/>
-      <c r="E765" s="3"/>
-      <c r="F765" s="3"/>
-      <c r="G765" s="3"/>
-      <c r="H765" s="3"/>
-      <c r="I765" s="3"/>
-      <c r="J765" s="3"/>
-      <c r="K765" s="3"/>
-      <c r="L765" s="3"/>
-      <c r="M765" s="3"/>
-      <c r="N765" s="3"/>
-      <c r="O765" s="3"/>
-      <c r="P765" s="3"/>
-      <c r="Q765" s="3"/>
-      <c r="R765" s="3"/>
-      <c r="S765" s="3"/>
-    </row>
-    <row r="766" spans="1:19">
-      <c r="A766" s="1"/>
-      <c r="B766" s="3"/>
-      <c r="C766" s="3"/>
-      <c r="D766" s="3"/>
-      <c r="E766" s="3"/>
-      <c r="F766" s="3"/>
-      <c r="G766" s="3"/>
-      <c r="H766" s="3"/>
-      <c r="I766" s="3"/>
-      <c r="J766" s="3"/>
-      <c r="K766" s="3"/>
-      <c r="L766" s="3"/>
-      <c r="M766" s="3"/>
-      <c r="N766" s="3"/>
-      <c r="O766" s="3"/>
-      <c r="P766" s="3"/>
-      <c r="Q766" s="3"/>
-      <c r="R766" s="3"/>
-      <c r="S766" s="3"/>
-    </row>
-    <row r="767" spans="1:19">
-      <c r="A767" s="1"/>
-      <c r="B767" s="3"/>
-      <c r="C767" s="3"/>
-      <c r="D767" s="3"/>
-      <c r="E767" s="3"/>
-      <c r="F767" s="3"/>
-      <c r="G767" s="3"/>
-      <c r="H767" s="3"/>
-      <c r="I767" s="3"/>
-      <c r="J767" s="3"/>
-      <c r="K767" s="3"/>
-      <c r="L767" s="3"/>
-      <c r="M767" s="3"/>
-      <c r="N767" s="3"/>
-      <c r="O767" s="3"/>
-      <c r="P767" s="3"/>
-      <c r="Q767" s="3"/>
-      <c r="R767" s="3"/>
-      <c r="S767" s="3"/>
-    </row>
-    <row r="768" spans="1:19">
-      <c r="A768" s="1"/>
-      <c r="B768" s="3"/>
-      <c r="C768" s="3"/>
-      <c r="D768" s="3"/>
-      <c r="E768" s="3"/>
-      <c r="F768" s="3"/>
-      <c r="G768" s="3"/>
-      <c r="H768" s="3"/>
-      <c r="I768" s="3"/>
-      <c r="J768" s="3"/>
-      <c r="K768" s="3"/>
-      <c r="L768" s="3"/>
-      <c r="M768" s="3"/>
-      <c r="N768" s="3"/>
-      <c r="O768" s="3"/>
-      <c r="P768" s="3"/>
-      <c r="Q768" s="3"/>
-      <c r="R768" s="3"/>
-      <c r="S768" s="3"/>
-    </row>
-    <row r="769" spans="1:19">
-      <c r="A769" s="1"/>
-      <c r="B769" s="3"/>
-      <c r="C769" s="3"/>
-      <c r="D769" s="3"/>
-      <c r="E769" s="3"/>
-      <c r="F769" s="3"/>
-      <c r="G769" s="3"/>
-      <c r="H769" s="3"/>
-      <c r="I769" s="3"/>
-      <c r="J769" s="3"/>
-      <c r="K769" s="3"/>
-      <c r="L769" s="3"/>
-      <c r="M769" s="3"/>
-      <c r="N769" s="3"/>
-      <c r="O769" s="3"/>
-      <c r="P769" s="3"/>
-      <c r="Q769" s="3"/>
-      <c r="R769" s="3"/>
-      <c r="S769" s="3"/>
-    </row>
-    <row r="770" spans="1:19">
-      <c r="A770" s="1"/>
-      <c r="B770" s="3"/>
-      <c r="C770" s="3"/>
-      <c r="D770" s="3"/>
-      <c r="E770" s="3"/>
-      <c r="F770" s="3"/>
-      <c r="G770" s="3"/>
-      <c r="H770" s="3"/>
-      <c r="I770" s="3"/>
-      <c r="J770" s="3"/>
-      <c r="K770" s="3"/>
-      <c r="L770" s="3"/>
-      <c r="M770" s="3"/>
-      <c r="N770" s="3"/>
-      <c r="O770" s="3"/>
-      <c r="P770" s="3"/>
-      <c r="Q770" s="3"/>
-      <c r="R770" s="3"/>
-      <c r="S770" s="3"/>
-    </row>
-    <row r="771" spans="1:19">
-      <c r="A771" s="1"/>
-      <c r="B771" s="3"/>
-      <c r="C771" s="3"/>
-      <c r="D771" s="3"/>
-      <c r="E771" s="3"/>
-      <c r="F771" s="3"/>
-      <c r="G771" s="3"/>
-      <c r="H771" s="3"/>
-      <c r="I771" s="3"/>
-      <c r="J771" s="3"/>
-      <c r="K771" s="3"/>
-      <c r="L771" s="3"/>
-      <c r="M771" s="3"/>
-      <c r="N771" s="3"/>
-      <c r="O771" s="3"/>
-      <c r="P771" s="3"/>
-      <c r="Q771" s="3"/>
-      <c r="R771" s="3"/>
-      <c r="S771" s="3"/>
-    </row>
-    <row r="772" spans="1:19">
-      <c r="A772" s="1"/>
-      <c r="B772" s="3"/>
-      <c r="C772" s="3"/>
-      <c r="D772" s="3"/>
-      <c r="E772" s="3"/>
-      <c r="F772" s="3"/>
-      <c r="G772" s="3"/>
-      <c r="H772" s="3"/>
-      <c r="I772" s="3"/>
-      <c r="J772" s="3"/>
-      <c r="K772" s="3"/>
-      <c r="L772" s="3"/>
-      <c r="M772" s="3"/>
-      <c r="N772" s="3"/>
-      <c r="O772" s="3"/>
-      <c r="P772" s="3"/>
-      <c r="Q772" s="3"/>
-      <c r="R772" s="3"/>
-      <c r="S772" s="3"/>
-    </row>
-    <row r="773" spans="1:19">
-      <c r="A773" s="1"/>
-      <c r="B773" s="3"/>
-      <c r="C773" s="3"/>
-      <c r="D773" s="3"/>
-      <c r="E773" s="3"/>
-      <c r="F773" s="3"/>
-      <c r="G773" s="3"/>
-      <c r="H773" s="3"/>
-      <c r="I773" s="3"/>
-      <c r="J773" s="3"/>
-      <c r="K773" s="3"/>
-      <c r="L773" s="3"/>
-      <c r="M773" s="3"/>
-      <c r="N773" s="3"/>
-      <c r="O773" s="3"/>
-      <c r="P773" s="3"/>
-      <c r="Q773" s="3"/>
-      <c r="R773" s="3"/>
-      <c r="S773" s="3"/>
-    </row>
-    <row r="774" spans="1:19">
-      <c r="A774" s="1"/>
-      <c r="B774" s="3"/>
-      <c r="C774" s="3"/>
-      <c r="D774" s="3"/>
-      <c r="E774" s="3"/>
-      <c r="F774" s="3"/>
-      <c r="G774" s="3"/>
-      <c r="H774" s="3"/>
-      <c r="I774" s="3"/>
-      <c r="J774" s="3"/>
-      <c r="K774" s="3"/>
-      <c r="L774" s="3"/>
-      <c r="M774" s="3"/>
-      <c r="N774" s="3"/>
-      <c r="O774" s="3"/>
-      <c r="P774" s="3"/>
-      <c r="Q774" s="3"/>
-      <c r="R774" s="3"/>
-      <c r="S774" s="3"/>
-    </row>
-    <row r="775" spans="1:19">
-      <c r="A775" s="1"/>
-      <c r="B775" s="3"/>
-      <c r="C775" s="3"/>
-      <c r="D775" s="3"/>
-      <c r="E775" s="3"/>
-      <c r="F775" s="3"/>
-      <c r="G775" s="3"/>
-      <c r="H775" s="3"/>
-      <c r="I775" s="3"/>
-      <c r="J775" s="3"/>
-      <c r="K775" s="3"/>
-      <c r="L775" s="3"/>
-      <c r="M775" s="3"/>
-      <c r="N775" s="3"/>
-      <c r="O775" s="3"/>
-      <c r="P775" s="3"/>
-      <c r="Q775" s="3"/>
-      <c r="R775" s="3"/>
-      <c r="S775" s="3"/>
-    </row>
-    <row r="776" spans="1:19">
-      <c r="A776" s="1"/>
-      <c r="B776" s="3"/>
-      <c r="C776" s="3"/>
-      <c r="D776" s="3"/>
-      <c r="E776" s="3"/>
-      <c r="F776" s="3"/>
-      <c r="G776" s="3"/>
-      <c r="H776" s="3"/>
-      <c r="I776" s="3"/>
-      <c r="J776" s="3"/>
-      <c r="K776" s="3"/>
-      <c r="L776" s="3"/>
-      <c r="M776" s="3"/>
-      <c r="N776" s="3"/>
-      <c r="O776" s="3"/>
-      <c r="P776" s="3"/>
-      <c r="Q776" s="3"/>
-      <c r="R776" s="3"/>
-      <c r="S776" s="3"/>
-    </row>
-    <row r="777" spans="1:19">
-      <c r="A777" s="1"/>
-      <c r="B777" s="3"/>
-      <c r="C777" s="3"/>
-      <c r="D777" s="3"/>
-      <c r="E777" s="3"/>
-      <c r="F777" s="3"/>
-      <c r="G777" s="3"/>
-      <c r="H777" s="3"/>
-      <c r="I777" s="3"/>
-      <c r="J777" s="3"/>
-      <c r="K777" s="3"/>
-      <c r="L777" s="3"/>
-      <c r="M777" s="3"/>
-      <c r="N777" s="3"/>
-      <c r="O777" s="3"/>
-      <c r="P777" s="3"/>
-      <c r="Q777" s="3"/>
-      <c r="R777" s="3"/>
-      <c r="S777" s="3"/>
-    </row>
-    <row r="778" spans="1:19">
-      <c r="A778" s="1"/>
-      <c r="B778" s="3"/>
-      <c r="C778" s="3"/>
-      <c r="D778" s="3"/>
-      <c r="E778" s="3"/>
-      <c r="F778" s="3"/>
-      <c r="G778" s="3"/>
-      <c r="H778" s="3"/>
-      <c r="I778" s="3"/>
-      <c r="J778" s="3"/>
-      <c r="K778" s="3"/>
-      <c r="L778" s="3"/>
-      <c r="M778" s="3"/>
-      <c r="N778" s="3"/>
-      <c r="O778" s="3"/>
-      <c r="P778" s="3"/>
-      <c r="Q778" s="3"/>
-      <c r="R778" s="3"/>
-      <c r="S778" s="3"/>
-    </row>
-    <row r="779" spans="1:19">
-      <c r="A779" s="1"/>
-      <c r="B779" s="3"/>
-      <c r="C779" s="3"/>
-      <c r="D779" s="3"/>
-      <c r="E779" s="3"/>
-      <c r="F779" s="3"/>
-      <c r="G779" s="3"/>
-      <c r="H779" s="3"/>
-      <c r="I779" s="3"/>
-      <c r="J779" s="3"/>
-      <c r="K779" s="3"/>
-      <c r="L779" s="3"/>
-      <c r="M779" s="3"/>
-      <c r="N779" s="3"/>
-      <c r="O779" s="3"/>
-      <c r="P779" s="3"/>
-      <c r="Q779" s="3"/>
-      <c r="R779" s="3"/>
-      <c r="S779" s="3"/>
-    </row>
-    <row r="780" spans="1:19">
-      <c r="A780" s="1"/>
-      <c r="B780" s="3"/>
-      <c r="C780" s="3"/>
-      <c r="D780" s="3"/>
-      <c r="E780" s="3"/>
-      <c r="F780" s="3"/>
-      <c r="G780" s="3"/>
-      <c r="H780" s="3"/>
-      <c r="I780" s="3"/>
-      <c r="J780" s="3"/>
-      <c r="K780" s="3"/>
-      <c r="L780" s="3"/>
-      <c r="M780" s="3"/>
-      <c r="N780" s="3"/>
-      <c r="O780" s="3"/>
-      <c r="P780" s="3"/>
-      <c r="Q780" s="3"/>
-      <c r="R780" s="3"/>
-      <c r="S780" s="3"/>
-    </row>
-    <row r="781" spans="1:19">
-      <c r="A781" s="1"/>
-      <c r="B781" s="3"/>
-      <c r="C781" s="3"/>
-      <c r="D781" s="3"/>
-      <c r="E781" s="3"/>
-      <c r="F781" s="3"/>
-      <c r="G781" s="3"/>
-      <c r="H781" s="3"/>
-      <c r="I781" s="3"/>
-      <c r="J781" s="3"/>
-      <c r="K781" s="3"/>
-      <c r="L781" s="3"/>
-      <c r="M781" s="3"/>
-      <c r="N781" s="3"/>
-      <c r="O781" s="3"/>
-      <c r="P781" s="3"/>
-      <c r="Q781" s="3"/>
-      <c r="R781" s="3"/>
-      <c r="S781" s="3"/>
-    </row>
-    <row r="782" spans="1:19">
-      <c r="A782" s="1"/>
-      <c r="B782" s="3"/>
-      <c r="C782" s="3"/>
-      <c r="D782" s="3"/>
-      <c r="E782" s="3"/>
-      <c r="F782" s="3"/>
-      <c r="G782" s="3"/>
-      <c r="H782" s="3"/>
-      <c r="I782" s="3"/>
-      <c r="J782" s="3"/>
-      <c r="K782" s="3"/>
-      <c r="L782" s="3"/>
-      <c r="M782" s="3"/>
-      <c r="N782" s="3"/>
-      <c r="O782" s="3"/>
-      <c r="P782" s="3"/>
-      <c r="Q782" s="3"/>
-      <c r="R782" s="3"/>
-      <c r="S782" s="3"/>
-    </row>
-    <row r="783" spans="1:19">
-      <c r="A783" s="1"/>
-      <c r="B783" s="3"/>
-      <c r="C783" s="3"/>
-      <c r="D783" s="3"/>
-      <c r="E783" s="3"/>
-      <c r="F783" s="3"/>
-      <c r="G783" s="3"/>
-      <c r="H783" s="3"/>
-      <c r="I783" s="3"/>
-      <c r="J783" s="3"/>
-      <c r="K783" s="3"/>
-      <c r="L783" s="3"/>
-      <c r="M783" s="3"/>
-      <c r="N783" s="3"/>
-      <c r="O783" s="3"/>
-      <c r="P783" s="3"/>
-      <c r="Q783" s="3"/>
-      <c r="R783" s="3"/>
-      <c r="S783" s="3"/>
-    </row>
-    <row r="784" spans="1:19">
-      <c r="A784" s="1"/>
-      <c r="B784" s="3"/>
-      <c r="C784" s="3"/>
-      <c r="D784" s="3"/>
-      <c r="E784" s="3"/>
-      <c r="F784" s="3"/>
-      <c r="G784" s="3"/>
-      <c r="H784" s="3"/>
-      <c r="I784" s="3"/>
-      <c r="J784" s="3"/>
-      <c r="K784" s="3"/>
-      <c r="L784" s="3"/>
-      <c r="M784" s="3"/>
-      <c r="N784" s="3"/>
-      <c r="O784" s="3"/>
-      <c r="P784" s="3"/>
-      <c r="Q784" s="3"/>
-      <c r="R784" s="3"/>
-      <c r="S784" s="3"/>
-    </row>
-    <row r="785" spans="1:19">
-      <c r="A785" s="1"/>
-      <c r="B785" s="3"/>
-      <c r="C785" s="3"/>
-      <c r="D785" s="3"/>
-      <c r="E785" s="3"/>
-      <c r="F785" s="3"/>
-      <c r="G785" s="3"/>
-      <c r="H785" s="3"/>
-      <c r="I785" s="3"/>
-      <c r="J785" s="3"/>
-      <c r="K785" s="3"/>
-      <c r="L785" s="3"/>
-      <c r="M785" s="3"/>
-      <c r="N785" s="3"/>
-      <c r="O785" s="3"/>
-      <c r="P785" s="3"/>
-      <c r="Q785" s="3"/>
-      <c r="R785" s="3"/>
-      <c r="S785" s="3"/>
-    </row>
-    <row r="786" spans="1:19">
-      <c r="A786" s="1"/>
-      <c r="B786" s="3"/>
-      <c r="C786" s="3"/>
-      <c r="D786" s="3"/>
-      <c r="E786" s="3"/>
-      <c r="F786" s="3"/>
-      <c r="G786" s="3"/>
-      <c r="H786" s="3"/>
-      <c r="I786" s="3"/>
-      <c r="J786" s="3"/>
-      <c r="K786" s="3"/>
-      <c r="L786" s="3"/>
-      <c r="M786" s="3"/>
-      <c r="N786" s="3"/>
-      <c r="O786" s="3"/>
-      <c r="P786" s="3"/>
-      <c r="Q786" s="3"/>
-      <c r="R786" s="3"/>
-      <c r="S786" s="3"/>
-    </row>
-    <row r="787" spans="1:19">
-      <c r="A787" s="1"/>
-      <c r="B787" s="3"/>
-      <c r="C787" s="3"/>
-      <c r="D787" s="3"/>
-      <c r="E787" s="3"/>
-      <c r="F787" s="3"/>
-      <c r="G787" s="3"/>
-      <c r="H787" s="3"/>
-      <c r="I787" s="3"/>
-      <c r="J787" s="3"/>
-      <c r="K787" s="3"/>
-      <c r="L787" s="3"/>
-      <c r="M787" s="3"/>
-      <c r="N787" s="3"/>
-      <c r="O787" s="3"/>
-      <c r="P787" s="3"/>
-      <c r="Q787" s="3"/>
-      <c r="R787" s="3"/>
-      <c r="S787" s="3"/>
-    </row>
-    <row r="788" spans="1:19">
-      <c r="A788" s="1"/>
-      <c r="B788" s="3"/>
-      <c r="C788" s="3"/>
-      <c r="D788" s="3"/>
-      <c r="E788" s="3"/>
-      <c r="F788" s="3"/>
-      <c r="G788" s="3"/>
-      <c r="H788" s="3"/>
-      <c r="I788" s="3"/>
-      <c r="J788" s="3"/>
-      <c r="K788" s="3"/>
-      <c r="L788" s="3"/>
-      <c r="M788" s="3"/>
-      <c r="N788" s="3"/>
-      <c r="O788" s="3"/>
-      <c r="P788" s="3"/>
-      <c r="Q788" s="3"/>
-      <c r="R788" s="3"/>
-      <c r="S788" s="3"/>
-    </row>
-    <row r="789" spans="1:19">
-      <c r="A789" s="1"/>
-      <c r="B789" s="3"/>
-      <c r="C789" s="3"/>
-      <c r="D789" s="3"/>
-      <c r="E789" s="3"/>
-      <c r="F789" s="3"/>
-      <c r="G789" s="3"/>
-      <c r="H789" s="3"/>
-      <c r="I789" s="3"/>
-      <c r="J789" s="3"/>
-      <c r="K789" s="3"/>
-      <c r="L789" s="3"/>
-      <c r="M789" s="3"/>
-      <c r="N789" s="3"/>
-      <c r="O789" s="3"/>
-      <c r="P789" s="3"/>
-      <c r="Q789" s="3"/>
-      <c r="R789" s="3"/>
-      <c r="S789" s="3"/>
-    </row>
-    <row r="790" spans="1:19">
-      <c r="A790" s="1"/>
-      <c r="B790" s="3"/>
-      <c r="C790" s="3"/>
-      <c r="D790" s="3"/>
-      <c r="E790" s="3"/>
-      <c r="F790" s="3"/>
-      <c r="G790" s="3"/>
-      <c r="H790" s="3"/>
-      <c r="I790" s="3"/>
-      <c r="J790" s="3"/>
-      <c r="K790" s="3"/>
-      <c r="L790" s="3"/>
-      <c r="M790" s="3"/>
-      <c r="N790" s="3"/>
-      <c r="O790" s="3"/>
-      <c r="P790" s="3"/>
-      <c r="Q790" s="3"/>
-      <c r="R790" s="3"/>
-      <c r="S790" s="3"/>
-    </row>
-    <row r="791" spans="1:19">
-      <c r="A791" s="1"/>
-      <c r="B791" s="3"/>
-      <c r="C791" s="3"/>
-      <c r="D791" s="3"/>
-      <c r="E791" s="3"/>
-      <c r="F791" s="3"/>
-      <c r="G791" s="3"/>
-      <c r="H791" s="3"/>
-      <c r="I791" s="3"/>
-      <c r="J791" s="3"/>
-      <c r="K791" s="3"/>
-      <c r="L791" s="3"/>
-      <c r="M791" s="3"/>
-      <c r="N791" s="3"/>
-      <c r="O791" s="3"/>
-      <c r="P791" s="3"/>
-      <c r="Q791" s="3"/>
-      <c r="R791" s="3"/>
-      <c r="S791" s="3"/>
-    </row>
-    <row r="792" spans="1:19">
-      <c r="A792" s="1"/>
-      <c r="B792" s="3"/>
-      <c r="C792" s="3"/>
-      <c r="D792" s="3"/>
-      <c r="E792" s="3"/>
-      <c r="F792" s="3"/>
-      <c r="G792" s="3"/>
-      <c r="H792" s="3"/>
-      <c r="I792" s="3"/>
-      <c r="J792" s="3"/>
-      <c r="K792" s="3"/>
-      <c r="L792" s="3"/>
-      <c r="M792" s="3"/>
-      <c r="N792" s="3"/>
-      <c r="O792" s="3"/>
-      <c r="P792" s="3"/>
-      <c r="Q792" s="3"/>
-      <c r="R792" s="3"/>
-      <c r="S792" s="3"/>
-    </row>
-    <row r="793" spans="1:19">
-      <c r="A793" s="1"/>
-      <c r="B793" s="3"/>
-      <c r="C793" s="3"/>
-      <c r="D793" s="3"/>
-      <c r="E793" s="3"/>
-      <c r="F793" s="3"/>
-      <c r="G793" s="3"/>
-      <c r="H793" s="3"/>
-      <c r="I793" s="3"/>
-      <c r="J793" s="3"/>
-      <c r="K793" s="3"/>
-      <c r="L793" s="3"/>
-      <c r="M793" s="3"/>
-      <c r="N793" s="3"/>
-      <c r="O793" s="3"/>
-      <c r="P793" s="3"/>
-      <c r="Q793" s="3"/>
-      <c r="R793" s="3"/>
-      <c r="S793" s="3"/>
-    </row>
-    <row r="794" spans="1:19">
-      <c r="A794" s="1"/>
-      <c r="B794" s="3"/>
-      <c r="C794" s="3"/>
-      <c r="D794" s="3"/>
-      <c r="E794" s="3"/>
-      <c r="F794" s="3"/>
-      <c r="G794" s="3"/>
-      <c r="H794" s="3"/>
-      <c r="I794" s="3"/>
-      <c r="J794" s="3"/>
-      <c r="K794" s="3"/>
-      <c r="L794" s="3"/>
-      <c r="M794" s="3"/>
-      <c r="N794" s="3"/>
-      <c r="O794" s="3"/>
-      <c r="P794" s="3"/>
-      <c r="Q794" s="3"/>
-      <c r="R794" s="3"/>
-      <c r="S794" s="3"/>
-    </row>
-    <row r="795" spans="1:19">
-      <c r="A795" s="1"/>
-      <c r="B795" s="3"/>
-      <c r="C795" s="3"/>
-      <c r="D795" s="3"/>
-      <c r="E795" s="3"/>
-      <c r="F795" s="3"/>
-      <c r="G795" s="3"/>
-      <c r="H795" s="3"/>
-      <c r="I795" s="3"/>
-      <c r="J795" s="3"/>
-      <c r="K795" s="3"/>
-      <c r="L795" s="3"/>
-      <c r="M795" s="3"/>
-      <c r="N795" s="3"/>
-      <c r="O795" s="3"/>
-      <c r="P795" s="3"/>
-      <c r="Q795" s="3"/>
-      <c r="R795" s="3"/>
-      <c r="S795" s="3"/>
-    </row>
-    <row r="796" spans="1:19">
-      <c r="A796" s="1"/>
-      <c r="B796" s="3"/>
-      <c r="C796" s="3"/>
-      <c r="D796" s="3"/>
-      <c r="E796" s="3"/>
-      <c r="F796" s="3"/>
-      <c r="G796" s="3"/>
-      <c r="H796" s="3"/>
-      <c r="I796" s="3"/>
-      <c r="J796" s="3"/>
-      <c r="K796" s="3"/>
-      <c r="L796" s="3"/>
-      <c r="M796" s="3"/>
-      <c r="N796" s="3"/>
-      <c r="O796" s="3"/>
-      <c r="P796" s="3"/>
-      <c r="Q796" s="3"/>
-      <c r="R796" s="3"/>
-      <c r="S796" s="3"/>
-    </row>
-    <row r="797" spans="1:19">
-      <c r="A797" s="1"/>
-      <c r="B797" s="3"/>
-      <c r="C797" s="3"/>
-      <c r="D797" s="3"/>
-      <c r="E797" s="3"/>
-      <c r="F797" s="3"/>
-      <c r="G797" s="3"/>
-      <c r="H797" s="3"/>
-      <c r="I797" s="3"/>
-      <c r="J797" s="3"/>
-      <c r="K797" s="3"/>
-      <c r="L797" s="3"/>
-      <c r="M797" s="3"/>
-      <c r="N797" s="3"/>
-      <c r="O797" s="3"/>
-      <c r="P797" s="3"/>
-      <c r="Q797" s="3"/>
-      <c r="R797" s="3"/>
-      <c r="S797" s="3"/>
-    </row>
-    <row r="798" spans="1:19">
-      <c r="A798" s="1"/>
-      <c r="B798" s="3"/>
-      <c r="C798" s="3"/>
-      <c r="D798" s="3"/>
-      <c r="E798" s="3"/>
-      <c r="F798" s="3"/>
-      <c r="G798" s="3"/>
-      <c r="H798" s="3"/>
-      <c r="I798" s="3"/>
-      <c r="J798" s="3"/>
-      <c r="K798" s="3"/>
-      <c r="L798" s="3"/>
-      <c r="M798" s="3"/>
-      <c r="N798" s="3"/>
-      <c r="O798" s="3"/>
-      <c r="P798" s="3"/>
-      <c r="Q798" s="3"/>
-      <c r="R798" s="3"/>
-      <c r="S798" s="3"/>
-    </row>
-    <row r="799" spans="1:19">
-      <c r="A799" s="1"/>
-      <c r="B799" s="3"/>
-      <c r="C799" s="3"/>
-      <c r="D799" s="3"/>
-      <c r="E799" s="3"/>
-      <c r="F799" s="3"/>
-      <c r="G799" s="3"/>
-      <c r="H799" s="3"/>
-      <c r="I799" s="3"/>
-      <c r="J799" s="3"/>
-      <c r="K799" s="3"/>
-      <c r="L799" s="3"/>
-      <c r="M799" s="3"/>
-      <c r="N799" s="3"/>
-      <c r="O799" s="3"/>
-      <c r="P799" s="3"/>
-      <c r="Q799" s="3"/>
-      <c r="R799" s="3"/>
-      <c r="S799" s="3"/>
-    </row>
-    <row r="800" spans="1:19">
-      <c r="A800" s="1"/>
-      <c r="B800" s="3"/>
-      <c r="C800" s="3"/>
-      <c r="D800" s="3"/>
-      <c r="E800" s="3"/>
-      <c r="F800" s="3"/>
-      <c r="G800" s="3"/>
-      <c r="H800" s="3"/>
-      <c r="I800" s="3"/>
-      <c r="J800" s="3"/>
-      <c r="K800" s="3"/>
-      <c r="L800" s="3"/>
-      <c r="M800" s="3"/>
-      <c r="N800" s="3"/>
-      <c r="O800" s="3"/>
-      <c r="P800" s="3"/>
-      <c r="Q800" s="3"/>
-      <c r="R800" s="3"/>
-      <c r="S800" s="3"/>
-    </row>
-    <row r="801" spans="1:19">
-      <c r="A801" s="1"/>
-      <c r="B801" s="3"/>
-      <c r="C801" s="3"/>
-      <c r="D801" s="3"/>
-      <c r="E801" s="3"/>
-      <c r="F801" s="3"/>
-      <c r="G801" s="3"/>
-      <c r="H801" s="3"/>
-      <c r="I801" s="3"/>
-      <c r="J801" s="3"/>
-      <c r="K801" s="3"/>
-      <c r="L801" s="3"/>
-      <c r="M801" s="3"/>
-      <c r="N801" s="3"/>
-      <c r="O801" s="3"/>
-      <c r="P801" s="3"/>
-      <c r="Q801" s="3"/>
-      <c r="R801" s="3"/>
-      <c r="S801" s="3"/>
-    </row>
-    <row r="802" spans="1:19">
-      <c r="A802" s="1"/>
-      <c r="B802" s="3"/>
-      <c r="C802" s="3"/>
-      <c r="D802" s="3"/>
-      <c r="E802" s="3"/>
-      <c r="F802" s="3"/>
-      <c r="G802" s="3"/>
-      <c r="H802" s="3"/>
-      <c r="I802" s="3"/>
-      <c r="J802" s="3"/>
-      <c r="K802" s="3"/>
-      <c r="L802" s="3"/>
-      <c r="M802" s="3"/>
-      <c r="N802" s="3"/>
-      <c r="O802" s="3"/>
-      <c r="P802" s="3"/>
-      <c r="Q802" s="3"/>
-      <c r="R802" s="3"/>
-      <c r="S802" s="3"/>
-    </row>
-    <row r="803" spans="1:19">
-      <c r="A803" s="1"/>
-      <c r="B803" s="3"/>
-      <c r="C803" s="3"/>
-      <c r="D803" s="3"/>
-      <c r="E803" s="3"/>
-      <c r="F803" s="3"/>
-      <c r="G803" s="3"/>
-      <c r="H803" s="3"/>
-      <c r="I803" s="3"/>
-      <c r="J803" s="3"/>
-      <c r="K803" s="3"/>
-      <c r="L803" s="3"/>
-      <c r="M803" s="3"/>
-      <c r="N803" s="3"/>
-      <c r="O803" s="3"/>
-      <c r="P803" s="3"/>
-      <c r="Q803" s="3"/>
-      <c r="R803" s="3"/>
-      <c r="S803" s="3"/>
-    </row>
-    <row r="804" spans="1:19">
-      <c r="A804" s="1"/>
-      <c r="B804" s="3"/>
-      <c r="C804" s="3"/>
-      <c r="D804" s="3"/>
-      <c r="E804" s="3"/>
-      <c r="F804" s="3"/>
-      <c r="G804" s="3"/>
-      <c r="H804" s="3"/>
-      <c r="I804" s="3"/>
-      <c r="J804" s="3"/>
-      <c r="K804" s="3"/>
-      <c r="L804" s="3"/>
-      <c r="M804" s="3"/>
-      <c r="N804" s="3"/>
-      <c r="O804" s="3"/>
-      <c r="P804" s="3"/>
-      <c r="Q804" s="3"/>
-      <c r="R804" s="3"/>
-      <c r="S804" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -19843,10 +17408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E814646-2401-4E06-8B77-496EFF2AF84C}">
-  <dimension ref="A1:BY4"/>
+  <dimension ref="A1:BY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:BY4"/>
+      <selection activeCell="B2" sqref="B2:BY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19855,857 +17420,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="X1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="Y1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AD1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AF1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AG1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AH1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="AJ1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="AK1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="AL1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="AM1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="AN1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="AO1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="AP1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="AQ1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="AR1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AS1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="AT1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="AU1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="AV1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AW1" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="AX1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="AY1" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AZ1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="BA1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="BB1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="BC1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="BD1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="BE1" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="BF1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="BG1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="BH1" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="BI1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="BJ1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="BK1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="BL1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="BM1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="BN1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="BO1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="BP1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="BQ1" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="BR1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="BS1" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="BT1" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="BU1" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="BV1" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="BW1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="BX1" t="s">
         <v>17</v>
       </c>
       <c r="BY1" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:77">
       <c r="A2" s="4">
-        <v>45023</v>
-      </c>
-      <c r="B2" s="3">
-        <v>3.7383999999999999</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3.8678000000000003</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.8700999999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.8763000000000001</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3.7739000000000003</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3.8210000000000002</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
-        <v>3.9754999999999998</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3.9778000000000002</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="M2" s="3">
-        <v>3.9443000000000001</v>
-      </c>
-      <c r="N2" s="3">
-        <v>3.9858000000000002</v>
-      </c>
-      <c r="O2" s="3">
-        <v>3.9874999999999998</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3">
-        <v>3.8489</v>
-      </c>
-      <c r="R2" s="3">
-        <v>3.8512</v>
-      </c>
-      <c r="S2" s="3">
-        <v>3.8407</v>
-      </c>
-      <c r="T2" s="3">
-        <v>3.843</v>
-      </c>
-      <c r="U2" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="V2" s="3">
-        <v>3.9223000000000003</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3">
-        <v>3.7399</v>
-      </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3">
-        <v>3.9169999999999998</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>3.9285999999999999</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>3.8849999999999998</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>3.9045000000000001</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>3.7328999999999999</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>3.7528999999999999</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>3.7345999999999999</v>
-      </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>3.7836999999999996</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3">
-        <v>3.7635999999999998</v>
-      </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3">
-        <v>3.7518000000000002</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>3.8518000000000003</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>3.8965999999999998</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>3.8989000000000003</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>3.9272</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>3.9326999999999996</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>3.8390999999999997</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>4.1166</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>4.1566000000000001</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>3.7853000000000003</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>3.8656999999999999</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>3.8688000000000002</v>
-      </c>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3">
-        <v>3.8874</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>3.8896999999999999</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>3.7685999999999997</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>3.7435</v>
-      </c>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BL2" s="3">
-        <v>3.9771999999999998</v>
-      </c>
-      <c r="BM2" s="3">
-        <v>3.9899</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>3.9855</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>3.9613</v>
-      </c>
-      <c r="BP2" s="3">
-        <v>3.9731999999999998</v>
-      </c>
-      <c r="BQ2" s="3">
-        <v>3.9695999999999998</v>
-      </c>
-      <c r="BR2" s="3">
-        <v>3.9843000000000002</v>
-      </c>
-      <c r="BS2" s="3">
-        <v>3.7629000000000001</v>
-      </c>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3">
-        <v>3.8500999999999999</v>
-      </c>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3">
-        <v>3.8500999999999999</v>
-      </c>
-      <c r="BX2" s="3">
-        <v>3.879427118644069</v>
-      </c>
-      <c r="BY2" s="3">
-        <v>3.8901999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:77">
-      <c r="A3" s="4">
-        <v>45024</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.7383999999999999</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.8678000000000003</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.8700999999999999</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.8763000000000001</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3.7739000000000003</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3.8210000000000002</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>3.9754999999999998</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3.9778000000000002</v>
-      </c>
-      <c r="L3" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="M3" s="3">
-        <v>3.9443000000000001</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3.9858000000000002</v>
-      </c>
-      <c r="O3" s="3">
-        <v>3.9874999999999998</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3">
-        <v>3.8489</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3.8512</v>
-      </c>
-      <c r="S3" s="3">
-        <v>3.8407</v>
-      </c>
-      <c r="T3" s="3">
-        <v>3.843</v>
-      </c>
-      <c r="U3" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="V3" s="3">
-        <v>3.9223000000000003</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3">
-        <v>3.7399</v>
-      </c>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3">
-        <v>3.9169999999999998</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>3.9285999999999999</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>3.8849999999999998</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>3.9045000000000001</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>3.7328999999999999</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>3.7528999999999999</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>3.7345999999999999</v>
-      </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>3.7836999999999996</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3">
-        <v>3.7635999999999998</v>
-      </c>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3">
-        <v>3.7518000000000002</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>3.8518000000000003</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>3.8965999999999998</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>3.8989000000000003</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>3.9272</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>3.9326999999999996</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>3.8390999999999997</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>4.1166</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>4.1566000000000001</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>3.7853000000000003</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>3.8656999999999999</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>3.8688000000000002</v>
-      </c>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3">
-        <v>3.8874</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>3.8896999999999999</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>3.7685999999999997</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>3.7435</v>
-      </c>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BL3" s="3">
-        <v>3.9771999999999998</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>3.9899</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>3.9855</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>3.9613</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>3.9731999999999998</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>3.9695999999999998</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>3.9843000000000002</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>3.7629000000000001</v>
-      </c>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3">
-        <v>3.8500999999999999</v>
-      </c>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3">
-        <v>3.8500999999999999</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>3.879427118644069</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>3.8901999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77">
-      <c r="A4" s="4">
-        <v>45025</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.7383999999999999</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.8678000000000003</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3.8700999999999999</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.8763000000000001</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3.7739000000000003</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.8210000000000002</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>3.9754999999999998</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3.9778000000000002</v>
-      </c>
-      <c r="L4" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="M4" s="3">
-        <v>3.9443000000000001</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3.9858000000000002</v>
-      </c>
-      <c r="O4" s="3">
-        <v>3.9874999999999998</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3">
-        <v>3.8489</v>
-      </c>
-      <c r="R4" s="3">
-        <v>3.8512</v>
-      </c>
-      <c r="S4" s="3">
-        <v>3.8407</v>
-      </c>
-      <c r="T4" s="3">
-        <v>3.843</v>
-      </c>
-      <c r="U4" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="V4" s="3">
-        <v>3.9223000000000003</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3">
-        <v>3.7399</v>
-      </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3">
-        <v>3.9169999999999998</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>3.9285999999999999</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>3.8849999999999998</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>3.9045000000000001</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>3.7328999999999999</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>3.7528999999999999</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>3.7345999999999999</v>
-      </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>3.7836999999999996</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3">
-        <v>3.7635999999999998</v>
-      </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3">
-        <v>3.7518000000000002</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>3.8518000000000003</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>3.8965999999999998</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>3.8989000000000003</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>3.9272</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>3.9326999999999996</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>3.8390999999999997</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>4.1166</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>4.1566000000000001</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>3.7853000000000003</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>3.8656999999999999</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>3.8688000000000002</v>
-      </c>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3">
-        <v>3.8874</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>3.8896999999999999</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>3.7685999999999997</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>3.7435</v>
-      </c>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>3.9771999999999998</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>3.9899</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>3.9855</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>3.9613</v>
-      </c>
-      <c r="BP4" s="3">
-        <v>3.9731999999999998</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>3.9695999999999998</v>
-      </c>
-      <c r="BR4" s="3">
-        <v>3.9843000000000002</v>
-      </c>
-      <c r="BS4" s="3">
-        <v>3.7629000000000001</v>
-      </c>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3">
-        <v>3.8500999999999999</v>
-      </c>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3">
-        <v>3.8500999999999999</v>
-      </c>
-      <c r="BX4" s="3">
-        <v>3.879427118644069</v>
-      </c>
-      <c r="BY4" s="3">
-        <v>3.8901999999999997</v>
+        <v>45079</v>
+      </c>
+      <c r="B2">
+        <v>3.1490999999999998</v>
+      </c>
+      <c r="C2">
+        <v>3.0444</v>
+      </c>
+      <c r="D2">
+        <v>3.0468999999999999</v>
+      </c>
+      <c r="E2">
+        <v>3.0529000000000002</v>
+      </c>
+      <c r="F2">
+        <v>3.0547</v>
+      </c>
+      <c r="G2">
+        <v>2.9504999999999999</v>
+      </c>
+      <c r="H2">
+        <v>2.9839000000000002</v>
+      </c>
+      <c r="J2">
+        <v>3.1520999999999999</v>
+      </c>
+      <c r="K2">
+        <v>3.1545999999999998</v>
+      </c>
+      <c r="L2">
+        <v>3.1092</v>
+      </c>
+      <c r="M2">
+        <v>3.1250999999999998</v>
+      </c>
+      <c r="N2">
+        <v>3.1623999999999999</v>
+      </c>
+      <c r="O2">
+        <v>3.1641999999999997</v>
+      </c>
+      <c r="Q2">
+        <v>3.0255000000000001</v>
+      </c>
+      <c r="R2">
+        <v>3.028</v>
+      </c>
+      <c r="S2">
+        <v>3.0173000000000001</v>
+      </c>
+      <c r="T2">
+        <v>3.0198</v>
+      </c>
+      <c r="U2">
+        <v>3.0966</v>
+      </c>
+      <c r="V2">
+        <v>3.0991</v>
+      </c>
+      <c r="X2">
+        <v>2.9165000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>3.0935000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>3.1095000000000002</v>
+      </c>
+      <c r="AB2">
+        <v>3.0615999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>3.0823</v>
+      </c>
+      <c r="AD2">
+        <v>2.9095</v>
+      </c>
+      <c r="AF2">
+        <v>2.9113000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>2.9903000000000004</v>
+      </c>
+      <c r="AJ2">
+        <v>2.9903000000000004</v>
+      </c>
+      <c r="AK2">
+        <v>2.9603000000000002</v>
+      </c>
+      <c r="AL2">
+        <v>3.1092</v>
+      </c>
+      <c r="AM2">
+        <v>3.1250999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>3.1435999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>2.9283999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>3.0284</v>
+      </c>
+      <c r="AT2">
+        <v>3.0731999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>3.0756999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>3.1038000000000001</v>
+      </c>
+      <c r="AW2">
+        <v>3.1096999999999997</v>
+      </c>
+      <c r="AX2">
+        <v>3.0156999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>3.2931999999999997</v>
+      </c>
+      <c r="AZ2">
+        <v>3.3331999999999997</v>
+      </c>
+      <c r="BA2">
+        <v>2.9619</v>
+      </c>
+      <c r="BB2">
+        <v>3.0423</v>
+      </c>
+      <c r="BC2">
+        <v>3.0458000000000003</v>
+      </c>
+      <c r="BE2">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="BF2">
+        <v>3.0665</v>
+      </c>
+      <c r="BG2">
+        <v>2.8950999999999998</v>
+      </c>
+      <c r="BH2">
+        <v>2.9466000000000001</v>
+      </c>
+      <c r="BI2">
+        <v>2.9200999999999997</v>
+      </c>
+      <c r="BK2">
+        <v>2.8950999999999998</v>
+      </c>
+      <c r="BL2">
+        <v>3.1538000000000004</v>
+      </c>
+      <c r="BM2">
+        <v>3.1678999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>3.1625999999999999</v>
+      </c>
+      <c r="BO2">
+        <v>3.1379000000000001</v>
+      </c>
+      <c r="BP2">
+        <v>3.1511999999999998</v>
+      </c>
+      <c r="BQ2">
+        <v>3.1461999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>3.1623000000000001</v>
+      </c>
+      <c r="BS2">
+        <v>2.9394999999999998</v>
+      </c>
+      <c r="BU2">
+        <v>3.0766999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>3.0766999999999998</v>
+      </c>
+      <c r="BX2">
+        <v>3.0606913793103447</v>
+      </c>
+      <c r="BY2">
+        <v>3.0670999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -20715,373 +17850,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EB8862-5161-4FAB-9050-9A78A502170C}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="81" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC1" s="17" t="s">
-        <v>121</v>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="20">
-        <v>45023</v>
-      </c>
-      <c r="B2" s="21">
-        <v>85.12</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="A2" s="4">
+        <v>45079</v>
+      </c>
+      <c r="B2">
+        <v>76.05</v>
+      </c>
+      <c r="C2">
+        <v>2.3828756058158262E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.3479262672811041</v>
+      </c>
+      <c r="E2">
+        <v>4.2313999999999998</v>
+      </c>
+      <c r="F2">
+        <v>-3.6027974662679041E-3</v>
+      </c>
+      <c r="G2">
+        <v>1.0964130003963484</v>
+      </c>
+      <c r="H2">
+        <v>4.9558</v>
+      </c>
+      <c r="I2">
+        <v>-1.5729890764647481E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.84073097351705872</v>
+      </c>
+      <c r="K2">
+        <v>2.7702071084459288</v>
+      </c>
+      <c r="L2">
+        <v>5.6131876541112291E-3</v>
+      </c>
+      <c r="M2">
+        <v>2.122460375492671</v>
+      </c>
+      <c r="N2">
+        <v>1.5274670211837671</v>
+      </c>
+      <c r="O2">
+        <v>2.7323200000000001</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="D2" s="26">
-        <v>0.50868486352357101</v>
-      </c>
-      <c r="E2" s="21">
-        <v>4.6923000000000004</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0</v>
-      </c>
-      <c r="G2" s="22">
-        <v>1.3247621878715758</v>
-      </c>
-      <c r="H2" s="21">
-        <v>5.0682999999999998</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
-        <v>0.88251680719086911</v>
-      </c>
-      <c r="K2" s="23">
-        <v>3.1365841733305522</v>
-      </c>
-      <c r="L2" s="22">
-        <v>0</v>
-      </c>
-      <c r="M2" s="22">
-        <v>2.5354251188519945</v>
-      </c>
-      <c r="N2" s="25">
-        <v>1.4959904599077047</v>
-      </c>
-      <c r="O2" s="21">
-        <v>3.0471999999999997</v>
-      </c>
-      <c r="P2" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="24">
-        <v>1.5677804692264208E-2</v>
-      </c>
-      <c r="R2" s="24">
-        <v>2.9933836734693879</v>
-      </c>
-      <c r="S2" s="24">
-        <v>2.9333215191176265E-2</v>
-      </c>
-      <c r="T2" s="25">
-        <v>0</v>
-      </c>
-      <c r="U2" s="25">
-        <v>4.6785349472133753E-4</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="X2" s="22">
-        <v>5.6418999999999997</v>
-      </c>
-      <c r="Y2" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="22">
-        <v>1.2030926627357501</v>
-      </c>
-      <c r="AA2" s="22">
-        <v>5.5564</v>
-      </c>
-      <c r="AB2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="23">
-        <v>1.2689370820910617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="20">
-        <v>45024</v>
-      </c>
-      <c r="B3" s="21">
-        <v>85.12</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26">
-        <v>0.50868486352357101</v>
-      </c>
-      <c r="E3" s="21">
-        <v>4.6923000000000004</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>1.3247621878715758</v>
-      </c>
-      <c r="H3" s="21">
-        <v>5.0682999999999998</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0.88251680719086911</v>
-      </c>
-      <c r="K3" s="23">
-        <v>3.1365841733305522</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22">
-        <v>2.5354251188519945</v>
-      </c>
-      <c r="N3" s="25">
-        <v>1.4959904599077047</v>
-      </c>
-      <c r="O3" s="21">
-        <v>3.0471999999999997</v>
-      </c>
-      <c r="P3" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>1.5677804692264208E-2</v>
-      </c>
-      <c r="R3" s="24">
-        <v>2.9933836734693879</v>
-      </c>
-      <c r="S3" s="24">
-        <v>2.9333215191176265E-2</v>
-      </c>
-      <c r="T3" s="25">
-        <v>0</v>
-      </c>
-      <c r="U3" s="25">
-        <v>4.6785349472133753E-4</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="22">
-        <v>5.6418999999999997</v>
-      </c>
-      <c r="Y3" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="22">
-        <v>1.2030926627357501</v>
-      </c>
-      <c r="AA3" s="22">
-        <v>5.5564</v>
-      </c>
-      <c r="AB3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="23">
-        <v>1.2689370820910617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="20">
-        <v>45025</v>
-      </c>
-      <c r="B4" s="21">
-        <v>85.12</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0.50868486352357101</v>
-      </c>
-      <c r="E4" s="21">
-        <v>4.6923000000000004</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
-        <v>1.3247621878715758</v>
-      </c>
-      <c r="H4" s="21">
-        <v>5.0682999999999998</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0.88251680719086911</v>
-      </c>
-      <c r="K4" s="23">
-        <v>3.1365841733305522</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <v>2.5354251188519945</v>
-      </c>
-      <c r="N4" s="25">
-        <v>1.4959904599077047</v>
-      </c>
-      <c r="O4" s="21">
-        <v>3.0471999999999997</v>
-      </c>
-      <c r="P4" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>1.5677804692264208E-2</v>
-      </c>
-      <c r="R4" s="24">
-        <v>2.9933836734693879</v>
-      </c>
-      <c r="S4" s="24">
-        <v>2.9333215191176265E-2</v>
-      </c>
-      <c r="T4" s="25">
-        <v>0</v>
-      </c>
-      <c r="U4" s="25">
-        <v>4.6785349472133753E-4</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="X4" s="22">
-        <v>5.6418999999999997</v>
-      </c>
-      <c r="Y4" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="22">
-        <v>1.2030926627357501</v>
-      </c>
-      <c r="AA4" s="22">
-        <v>5.5564</v>
-      </c>
-      <c r="AB4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>1.2689370820910617</v>
+      <c r="Q2">
+        <v>5.6131876541112291E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.3866277905197233E-2</v>
+      </c>
+      <c r="S2">
+        <v>2.6261836734693875</v>
+      </c>
+      <c r="T2">
+        <v>5.6131876541112291E-3</v>
+      </c>
+      <c r="U2">
+        <v>-4.4399874447498267E-4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2">
+        <v>4.6104000000000003</v>
+      </c>
+      <c r="Y2">
+        <v>-6.8929863863519403E-3</v>
+      </c>
+      <c r="Z2">
+        <v>0.80030458042094055</v>
+      </c>
+      <c r="AA2">
+        <v>4.5354999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>-3.1649047231807614E-3</v>
+      </c>
+      <c r="AC2">
+        <v>0.85205603193146828</v>
       </c>
     </row>
   </sheetData>
